--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,190 +468,2786 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[电子化][竞争性磋商]吉林省监狱管理局-机关物业管理服务项目</t>
+          <t>海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目（预采购）单一来源采购公示</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-03 15:15:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>吉林省公共资源交易平台</t>
-        </is>
-      </c>
+          <t>2025-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
+          <t>海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目（预采购）
+单一来源采购公示
+一、项目信息
+采购人：东方航天港研究院                       
+项目名称：海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目
+拟采购的货物说明：本项目为海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目，共划分一个包。高精度智能遥感卫星通用研发平台是完成卫星研制与测试的重要地面设备组成部分，主要完成卫星全系统和分系统各个阶段的功能与性能测试验证任务，可用于卫星研制、测试、试验。
+拟采购的货物预算金额：人民币陆佰壹拾万元整（¥6100000.00）
+采用单一来源采购方式的原因及说明：东方慧眼星座卫星的分辨率高、无控制点定位精度高等核心指标及应用模式，均直接继承自“武汉一号”卫星的成熟技术基线，其研制所需的高精度智能遥感卫星通用研发平台与“武汉一号卫星”研制平台高度重合。“武汉一号”卫星是特色鲜明的小卫星平台、空间遥感仪器研究成果，具有遥感信息处理学科优势。武汉大学在高精度智能遥感卫星研制领域具备国内领先、国际一流的技术实力和学科优势，形成了覆盖卫星设计研制、遥感图像在轨智能处理、遥感数据地面应用的完整产业链条。目前国内尚无其他机构或单位具备同等技术能力与产品适配性。本次所采购高精度智能遥感卫星通用研发平台在市场上不存在完全一致的竞争产品，因此具有唯一性和不可替代性，基于以上原因，经专业人员论证，认为本项目符合《中华人民共和国政府采购法》第三十一条第一款“只能从唯一供应商处采购的”情形，拟采用单一来源方式实施采购。
+二、拟定供应商信息
+名称：武汉大学                      
+地址：湖北省武汉市武昌区珞珈山八一路299号
+三、公示期限
+2025年8月13日至2025年8月20日
+四、其他补充事宜：
+（1）本项目为预采购项目，存在项目取消或终止的风险，供应商在参与本项目的投标、报价过程中须充分考虑预采购项目的风险，后期因项目取消或终止产生的损失由供应商自行承担。
+（2）融资提示：为进一步发挥政府采购政策功能，充分利用政府采购合同的信用价值以及在政府采购活动中形成的数据价值，有效破解中小企业融资难融资贵以及政府采购合同融资中存在的突出问题，“山东省政府采购合同融资与履约保函服务平台”已启动运行，有需求的供应商可登录“http://www.ccgp-shandong-rz.cn/”了解相关政策。
+（3）根据《关于在招标投标和政府采购活动中实行信用信息报告制度的通知》烟发改公管【2022】334号文件要求，供应商需在响应函后附“信用信息报告”作为投标函的内容附件，也可使用具有国家认可资质的第三方信用服务机构出具的信用信息报告，供应商对提供的“信用信息报告”的真实性负责。信用信息报告查询渠道：通过“信用中国”网站（www.creditchina.gov.cn）—“信用信息”栏目查询并免费下载。信用信息报告留存方式：由采购人和采购代理机构留存。
+五、联系方式
+1.采购人：东方航天港研究院
+联 系 人：于耘海、高敏娟       
+联系地址：山东省烟台市海阳市海滨中路196号      
+联系电话：0535-3336118                      
+2.财政部门：海阳市财政局
+联 系 人：谭小菲
+联系地址：海阳市财金路1号
+联系电话：0535-3225321                      
+3.采购代理机构：山东正泰工程项目管理有限公司
+联 系 人：郭娜、宋倩虹     
+联系地址：烟台市莱山区迎春大街163号天和大厦11楼    
+联系电话：0535-6705090
+六、附件
+专业人员论证意见 
+我要参与
+采购需求及需求论证.pdf  
+单一来源采购专家论证意见及意见汇总.pdf  
+采购公告.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/CwofLtxXrySgk2DDgd0tWw.jhtml</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目（预采购）单一来源采购公示</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目（预采购）
+单一来源采购公示
+一、项目信息
+采购人：东方航天港研究院                       
+项目名称：海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目
+拟采购的货物说明：本项目为海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目，共划分一个包。智能遥感卫星电性桌面系统是卫星的地面硬件开发、分析与测试平台，主要完成卫星全系统及各分系统电性阶段的功能与性能的测试验证任务，可用于卫星研制、测试、试验。
+拟采购的货物预算金额：人民币贰佰肆拾万元整（¥2400000.00）
+采用单一来源采购方式的原因及说明：东方航天港研究院计划承接的微小卫星星座建设任务，所需电性系统需严格适配湖北珞珈实验室的智能遥感卫星的技术路线，该系统的技术状态与“武汉一号”卫星电性桌面系统具有高度继承性。湖北珞珈实验室智能遥感卫星团队成功研制的卫星电性桌面系统，不仅在技术上达到国际领先水平，更在多个领域实现了规模化应用。目前国内尚无其他机构或单位具备同等技术能力与产品适配性。本次所采购智能遥感卫星电性桌面系统在市场上不存在完全一致的竞争产品，因此具有唯一性和不可替代性。基于以上原因，经专业人员论证，认为本项目符合《中华人民共和国政府采购法》第三十一条第一款“只能从唯一供应商处采购的”情形，拟采用单一来源方式实施采购。
+二、拟定供应商信息
+名称：湖北珞珈实验室                      
+地址：湖北省武汉市武昌区八一路299号武汉大学星湖科研大楼
+三、公示期限
+2025年8月12日至2025年8月19日
+四、其他补充事宜：
+（1）本项目为预采购项目，存在项目取消或终止的风险，供应商在参与本项目的投标、报价过程中须充分考虑预采购项目的风险，后期因项目取消或终止产生的损失由供应商自行承担。
+（2）融资提示：为进一步发挥政府采购政策功能，充分利用政府采购合同的信用价值以及在政府采购活动中形成的数据价值，有效破解中小企业融资难融资贵以及政府采购合同融资中存在的突出问题，“山东省政府采购合同融资与履约保函服务平台”已启动运行，有需求的供应商可登录“http://www.ccgp-shandong-rz.cn/”了解相关政策。
+（3）根据《关于在招标投标和政府采购活动中实行信用信息报告制度的通知》烟发改公管【2022】334号文件要求，供应商需在响应函后附“信用信息报告”作为投标函的内容附件，也可使用具有国家认可资质的第三方信用服务机构出具的信用信息报告，供应商对提供的“信用信息报告”的真实性负责。信用信息报告查询渠道：通过“信用中国”网站（www.creditchina.gov.cn）—“信用信息”栏目查询并免费下载。信用信息报告留存方式：由采购人和采购代理机构留存。
+五、联系方式
+1.采购人：东方航天港研究院
+联 系 人：于耘海、高敏娟       
+联系地址：山东省烟台市海阳市海滨中路196号      
+联系电话：0535-3336118                      
+2.财政部门：海阳市财政局
+联 系 人：谭小菲
+联系地址：海阳市财金路1号
+联系电话：0535-3225321                     
+3.采购代理机构：山东正泰工程项目管理有限公司
+联 系 人：郭娜、宋倩虹     
+联系地址：烟台市莱山区迎春大街163号天和大厦11楼    
+联系电话：0535-6705090
+六、附件
+专业人员论证意见 
+我要参与
+采购需求及需求论证.pdf  
+采购公告.  
+单一来源采购专家论证意见及意见汇总.pdf</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/6mIP84JYPkjG7udUrgXmPA.jhtml</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理公开招标公告</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:15:01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>项目概况
-吉林省监狱管理局机关物业管理服务项目 竞争性磋商项目的潜在供应商应在吉林省公共资源交易一体化平台获取磋商文件，并于2025年08月22日10点00分前递交响应文件。
+山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理的潜在投标单位应在潍坊市公共资源交易中心网上确认后自行下载获取招标文件，并于2025年9月4日09点00分（北京时间）前提交投标文件。
 一、项目基本情况
-项目编号：JLSZC20250033601
-项目名称：吉林省监狱管理局机关物业管理服务项目
-预算金额：601200.00元
-采购需求：详见招标文件。
-合同履行期限：自合同签订之日起一年
+项目编号：SDGP370783000202502000109
+进场交易登记号：ZFCG-SG-2025-0094004
+项目名称：山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理
+预算金额：22万元。
+最高限价：22万元
+采购需求：采用一年2期的模式获取寿光市全市域约2000平方千米范围内的遥感影像数据，具体内容详见招标文件。
+合同履行期限：2025年12月31日前完成全部工作内容，并通过采购人验收。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+2.落实政府采购政策需满足的资格要求：无。
+3.本项目的特定资格要求：
+3.1投标单位须具有测绘主管部门颁发的乙级及以上测绘资质证书（专业范围必须包含摄影测量与遥感）；
+3.2 递交投标文件截止时间前投标单位未列入失信被执行人、重大税收违法失信主体名单（通过“信用中国”查询相关主体信用记录）；未列入政府采购严重违法失信行为记录名单（通过“中国政府采购网”查询相关主体信用记录）；未列入失信黑名单信息（通过“信用中国（山东潍坊寿光）”查询相关主体信用记录）；
+4.本项目不接受联合体投标。
+三、获取招标文件
+1.时间：2025年8月9日08时30分至2025年9月3日09时00分（北京时间）
+2.地点：各投标单位须在获取招标文件的时间节点内登录潍坊市公共资源交易中心寿光分中心官网（网址：http://ggzy.weifang.gov.cn:8082/wfggzy/sgggzy/）自行下载招标文件。
+3.方式：
+（1）网上注册。未注册的投标单位应通过网站首页“我要注册”进行注册，填写注册信息时“用户类型”选择“交易乙方”（已在“现有系统”注册的投标单位无需重复注册，直接登录获取文件即可），并完善“新版系统”中交易乙方信息管理的基本信息，签署上传《投标人（供应商、竞买人）信用承诺书》等相关附件。网上注册咨询电话：0536-5117925，电子交易系统技术支持：江苏国泰新点软件有限公司，电话：0536-8097130。
+（2）下载文件。各投标单位通过网站“平台登录”-“交易会员登录”，在“招标公告”-“政府采购”中选择要投标的项目进行“文件下载”。
+（3）注意事项。凡参加本次政府采购活动的投标单位需在递交投标文件截止时间前访问中国山东政府采购网（http://www.ccgp-shandong.gov.cn）进行注册；已注册的投标单位请确保山东省政府采购公开信息平台和潍坊市公共资源交易网供应商库中的统一社会信用代码和中文单位名称一致。
+（4）数字证书办理：拟参加本项目的投标单位须办理并取得CA后，方可加密生成及上传电子投标文件。
+现场办理：潍坊市东方路 3396 号潍坊市公共资源交易中心三楼 CA 办理窗口，山东卓码信息技术有限公司即收即办。
+网上办理：投标单位（供应商）登录山东卓码信息技术有限公司在线平台 http://wf.sdzhuoma.com/注册后按流程办理。
+具体办理流程：请在潍坊市公共资源交易中心网站—重要通知—《CA 数字证书免费办理流程》中查阅
+CA 数字证书办理时间及联系方式
+法定工作日：上午：9:00-12:00；下午：13:00-17:00。
+CA 办理窗口电话：15345366335，CA 技术支持电话：18353633022，CA 客服电话（24 小时）：18560027360。服务监督电话：0536-8080981。
+注意事项：投标单位（供应商）应当在上传投标（响应）文件前办理完毕，以免影响使用。除山东卓码信息技术有限公司免费办理的数字证书外，其他已接入山东省公共资源交易多CA 统一认证平台的数字证书，可在潍坊市公共资源交易系统中使用，但不享受免费办理、更新、更换服务。
+网上获取招标（采购）文件不代表资格审查的最终通过或合格，投标单位最终资格的确认以评标委员会组织的资格后审为准。
+4.售价：0元。
+四、投标文件提交
+提交投标文件截止时间：2025年9月4日09点00分（北京时间）
+五、开标
+1.开标时间：2025年9月4日09点00分（北京时间）
+2.开标地点：本项目采用“不见面开标”，无须前往开标现场，请提前登录不见面开标大厅安装相关插件，熟悉相关流程并在规定的时间内自行完成解密。（不见面开标大厅网址：http://ggzy.weifang.gov.cn：8082/BidOpeningHall/bidhall/default/login.html)
+六、公告期限
+自本公告发布之日起5个工作日。
+七、其他补充事宜
+1.采购项目的用途、数量、简要技术要求等：详见山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理招标文件
+2.本项目发布的媒介为：潍坊市公共资源交易中心寿光分中心网站、中国山东政府采购网。
+3.关于本项目的疑问提出、答复、变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在潍坊市公共资源交易中心寿光分中心网及有关网站发布。投标单位有义务自行查阅网站信息及进入交易系统查询，或于开标前向采购代理机构电话询问确认，未按要求查阅者自行承担相应后果，恕不予单独告知。
+4.单位负责人为同一人或者存在直接控股、管理关系的不同投标单位，不得参加同一合同项下的政府采购活动。
+5.采购项目需要落实的政府采购政策：财库〔2020〕46号《政府采购促进中小企业发展管理办法》、财库〔2014〕68号《关于政府采购支持监狱企业发展有关问题的通知》、财库〔2017〕141号《关于促进残疾人就业政府采购政策的通知》、鲁财库〔2007〕32号《山东省节能环保产品政府采购评审办法》、财库〔2019〕9号《财政部 发展改革委 生态环境部 市场监管总局关于调整优化节能产品、环境标志产品政府采购执行机制的通知》等相关法规。
+6.本项目实行电子招标投标，如有意向参与投标，请尽早阅知此招标文件中的《公共资源交易项目网上招投标工作须知》，以便能顺利进行投标。
+7.本项目实行“不见面开标”，投标单位不用到开标现场，具体操作见《不见面开标大厅投标单位操作手册》。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名    称：寿光市自然资源和规划局
+地    址：寿光市圣城街789号
+联系方式：0536-5250010
+2.采购代理机构信息
+名    称：山东金润建设咨询有限公司
+地址：寿光市洛城街道蔬菜大厦B座11楼
+联系方式：15953652037
+3.项目联系方式
+项目联系人：张萍
+电　　 话：15953652037</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/S8Kp1pKCI8Smy7qn5jKLRA.jhtml</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>青岛高新技术产业开发区管理委员会科技创新部2025-2028年（共3年）助推高新区机器人产业高质量发展专业化服务采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-18 17:59:21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>青岛高新技术产业开发区管理委员会科技创新部2025-2028年（共3年）助推高新区机器人产业高质量发展专业化服务采购项目公开招标公告  
+项目概况：    
+2025-2028年（共3年）助推高新区机器人产业高质量发展专业化服务采购项目招标项目的潜在投标人应在全国公共资源交易平台（山东省青岛市）青岛市公共资源交易电子服务系统（https://ggzy.qingdao.gov.cn）本项目采购公告页面免费获取招标文件，并于2025-09-09 09:30 （北京时间）前递交投标文件。   
+一、采购项目基本情况：    
+采购项目编号（建议书编号）：   SDGP370287000202502000054   
+采购项目名称：   2025-2028年（共3年）助推高新区机器人产业高质量发展专业化服务采购项目   
+预算金额与最高限价：   
+本项目预算金额为 9000000.00 元，其中：第 一 包 9000000.00 元。 本项目最高限价为 9000000.00 元，其中：第 一 包 9000000.00 元。   
+采购需求：   选取具有科技招商和产业培育丰富经验的专业化服务机构，采购为期3年的产业招商和创新孵化专业服务，构建“机器人产业研发、中试与制造”发展链条，助力高新区机器人产业高质量发展   
+合同履行期限：   自合同签订之日起三年   
+本项目是否接受联合体：   本项目不接受联合体   
+二、申请人的资格要求：    
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+三、获取招标文件：    
+投标人须在开标前在青岛市政府采购网上注册并关注该项目。开标时间前在全国公共资源交易平台（山东省青岛市）青岛市公共资源交易电子服务系统（https://ggzy.qingdao.gov.cn）本项目采购公告页面免费下载电子招标文件。代理机构不再发售纸质招标文件。   
+四、提交投标文件截止时间、开标时间和地点：    
+提交投标文件截止时间、开标时间：   2025-09-09 09:30   
+开标地点：   青岛高新区静园路8号政务服务大厅3楼 
+五、公告期限：   
+招标公告发出之日起5个工作日。   
+六、其他补充事宜：   
+1.公告媒介：本项目采购公告同时在青岛市政府采购网（www.ccgp-qingdao.gov.cn）和全国公共资源交易平台（山东省青岛市）青岛市公共资源交易电子服务系统（https://ggzy.qingdao.gov.cn）上发布。   
+2.投标文件提交方式：投标人应当在提交投标文件截止时间前，通过【青岛市公共资源投标文件制作工具】上传投标文件。   
+3. 支持网上远程开标，投标人无需到现场参加开标会。   
+七、对本次招标提出询问，请按以下方式联系。    
+1.采购人信息   
+联系人（采购人）：   青岛高新技术产业开发区管理委员会科技创新部   
+地址：   青岛市高新区智力岛路1号创业大厦A座   
+联系方式：   0532-68686268   
+2.采购代理机构信息   
+联系人（代理机构）：   青岛瑞华工程咨询有限公司   
+地址：   山东省青岛市李沧区青山路718号   
+联系方式：   0532-87898189   
+3.项目联系方式   
+项目联系人（代理机构）：   张玉凤   
+联系方式：   0532-87898189   
+如有询问，请在全国公共资源交易平台（山东省青岛市）青岛市公共资源交易电子服务系统（https://ggzy.qingdao.gov.cn）本项目采购公告页面在线提交。询问及答复的内容在上述公告页面查看。   
+发 布 人：  青岛瑞华工程咨询有限公司   
+发布时间：  2025-08-18 17:58   
+注意事项    
+供应商参加公开招标方式政府采购项目电子投标注意事项     系统使用指南</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/TIeeucoRul645dBn7J0s9A.jhtml</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>山东省菏泽信息工程学校智能装备系工业机器人实训设备采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:48:58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>山东省菏泽信息工程学校智能装备系工业机器人实训设备采购项目
+竞争性磋商公告
+项目概况:
+山东省菏泽信息工程学校智能装备系工业机器人实训设备采购项目的潜在供应商应在中国山东政府采购网、菏泽市公共资源（国有产权）交易中心网、招采进宝山东专区（http://sd.zcjb.com.cn）自行下载获取竞争性磋商文件，并于2025年07月29日09时30分（北京时间）前提交响应文件。
+一、项目基本情况：
+项目编号：SDGP371700000202502000253
+项目名称：山东省菏泽信息工程学校智能装备系工业机器人实训设备采购项目
+采购方式：竞争性磋商
+预算金额：250000.00元
+最高限价：250000.00元
+采购需求： 
+标的
+标的名称
+数量
+简要技术需求或服务要求
+本包预算金额（最高限价，单位：元）
+A
+山东省菏泽信息工程学校智能装备系工业机器人实训设备采购项目
+1
+详见竞争性磋商文件
+250000.00
+合同履行期限：签订合同后5日历天内供货并安装调试完毕。
+本项目不接受联合体投标。
+二、申请人的资格要求：
+1、满足《中华人民共和国政府采购法》第二十二条规定；
+2、落实政府采购政策需满足的资格要求：本项目为政府采购项目，执行政府采购政策，具体要求详见竞争性磋商文件，按照《财政部、工业和信息化部关于印发&lt;政府采购促进中小企业发展管理办法&gt;的通知》（财库〔2020〕46号）要求，本项目专门面向中小企业采购，供应商必须出具《中小企业声明函》；
+3、本项目的特定资格要求：
+3.1、本次采购要求各供应商须在中华人民共和国境内合法注册，具有有效的营业执照并具有独立承担民事责任的能力，并具有履行合同所必需的人员、设备、资金及专业技术能力；
+3.2、供应商在“中国执行信息公开网”（http://zxgk.court.gov.cn/shixin/）中未被列入失信被执行人；在“信用中国”网（www.creditchina.gov.cn）中未被列入重大税收违法失信主体、严重失信主体名单；在中国政府采购网（www.ccgp.gov.cn）中未被列入政府采购严重违法失信行为记录名单；
+3.3、本项目不接受联合体参与竞争性磋商；
+3.4、资格审查方式：资格后审。
+注：根据《关于实行政府采购供应商资格信用承诺制的通知》(菏财采[2022]9 号)文件要求，供应商只需在资格审查环节提供满足相应条件的资格承诺函（格式详见竞争性磋商文件），不再需要提供以下证明资料：（1）符合国家规定的财务状况报告；（2）依法缴纳税收的证明材料；（3）依法缴纳社会保障金的证明材料；（4）具备履行合同所必需的设备和专业技术能力的证明材料；（5）参加政府采购活动（以开启时间为准）前 3 年内，供应商和其法定代表人无行贿犯罪行为、在经营活动中没有重大违法记录以及本项目开启时未被禁止参加本项目所在地的政府采购活动的证明材料；（6）供应商在“中国执行信息公开网”（http://zxgk.court.gov.cn/shixin/）中未被列入失信被执行人；在“信用中国”网（www.creditchina.gov.cn）中未被列入重大税收违法失信主体、严重失信主体名单；在中国政府采购网（www.ccgp.gov.cn）中未被列入政府采购严重违法失信行为记录名单的证明材料。
+三、获取采购文件：
+1、时间：2025 年 07 月 15 日 08 时 30 分至 2025 年 07 月 21 日 17 时 30 分（北京时间）；
+2、地点：网上自行下载；
+3、方式：第一步：供应商请于响应文件提交截止时间前，登录中国山东政府采购网（山东省政府采购信息公开平台）（http://www.ccgp-shandong.gov.cn）注册账号，未在中国山东政府采购网注册的供应商不具备参与本项目的资格；第二步：供应商请于2025 年 07 月 21 日 17 时 30 分（北京时间）前，登录招采进宝山东专区（http://sd.zcjb.com.cn）自行下载电子版竞争性磋商文件，潜在供应商须在获取时间内下载获取，逾期未下载造成本项目采购活动无法参加的，后果自负，具体操作方式请供应商登录“招采进宝山东专区（http://sd.zcjb.com.cn）”，在“常用工具”栏目下载操作手册，按要求进行操作，技术支持电话：4006166620；
+注：关于本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在发布竞争性磋商公告的媒介同时发布。供应商自行查阅网站信息，或于开标前向采购代理机构电话询问确认，未按要求查阅者自行承担相应后果，恕不予单独告知；
+4、售价：0元/份。
+四、响应文件提交：
+1、截止时间：2025 年 07 月 29 日 09 时 30 分（北京时间）； 
+2、地    点：加密的电子响应文件于提交截止时间前均可在招采进宝电子招投标交易平台（http://sd.zcjb.com.cn）上传。
+五、开启：
+1、开启时间：2025 年 07 月 29 日 09 时 30 分（北京时间）；  
+2、开启地点：网上开启，在招采进宝山东专区（http://sd.zcjb.com.cn）虚拟开标大厅开启，供应商无需到达现场参加磋商会议。
+六、公告期限：
+自本公告发布之日起 3 个工作日。
+七、其他补充事宜：
+1、本项目实行网上不见面开标，编制响应文件需使用企业CA，供应商在获取竞争性磋商文件后应进行企业 CA 注册。CA 注册有一定周期，详见招采进宝电子招投标交易平台“CA办理”栏目内容相关通知，招采进宝电子招投标交易平台具体操作步骤，可在招采进宝电子招投标交易平台首页http://sd.zcjb.com.cn“常用工具”栏目中下载《山东专区供应商操作手册》进行查看，如遇技术问题，请与招采进宝电子招投标交易平台供应商专线客服联系：4006166620。
+2、竞争性磋商文件一经在中国山东政府采购网、菏泽市公共资源（国有产权）交易中心网、招采进宝山东专区（http://sd.zcjb.com.cn）网站发布，视作已发放给所有供应商（发布时间即为发出竞争性磋商文件的时间），各供应商应随时关注项目信息并及时在中国山东政府采购网、菏泽市公共资源（国有产权）交易中心网、招采进宝电子招投标交易平台（http://sd.zcjb.com.cn）下载电子版竞争性磋商文件和各类澄清答疑，否则所造成的一切后果由供应商自负。
+3、本采购项目为网上交易，响应文件采用电子版的方式，供应商需在响应文件提交截止时间前在招采进宝电子招投标交易平台（http://sd.zcjb.com.cn）递交加密版电子响应文件。
+4、供应商在递交响应文件之后、在规定的投标截止时间之前，可随时登陆招采进宝电子招投标交易平台（http://sd.zcjb.com.cn）撤回响应文件。需要补充或者修改响应文件时，必须先撤回响应文件，修改后重新递交。重新递交的响应文件应按竞争性磋商文件的规定编制、加密和CA签名。在投标截止时间后，不能修改或撤回响应文件。
+5、采购人按竞争性磋商文件中规定的时间和地点公开开标，供应商必须准时在线参加开标并签到，解密时间规定为30分钟，供应商需使用CA在规定的时间内自行完成解密，解密结束后对开标记录表进行电子签名。若供应商因自身原因在解密规定时间内未完成电子标解密操作，视为放弃该项目报价。电子开标过程出现故障时，按相关部门的规定处理。
+6、供应商在使用电子交易平台时，如遇交易系统软件操作技术问题，请咨询招采进宝电子招投标交易平台（http://sd.zcjb.com.cn）技术支持电话：4006166620。
+注：网站响应文件的制作过程需一定的学习时间，供应商务必在响应文件提交截止时间前进行响应文件的上传，以免造成投标失败。
+八、对本次招标提出询问，请按以下方式联系:
+1、采购人信息
+名称：山东省菏泽信息工程学校
+地址：菏泽市牡丹区牡丹北路1777号
+联系方式：王主任  0530-5377078
+2、采购代理机构信息
+名称：中城国金工程技术集团有限公司
+地址：菏泽市牡丹区中华西路万象城B2座办公楼
+联系方式：张经理  13954043879                                                                            
+2025年07月14日</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/BUa^cpKCzUqNaPNp2gaU0w.jhtml</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>潍坊工程职业学院人形及四足机器人实训平台采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:30:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>项目概况
+http://ggzy.weifang.gov.cn:8082/wfggzy/）获取采购文件，并于2025年8月25日14点00分（北京时间）前提交响应文件。
+http://ggzy.weifang.gov.cn）自行下载采购文件。
+Wfggzy@789登录），并完善“新版系统”中交易乙方信息管理的基本信息，签署上传《投标人（供应商、竞买人）信用承诺书》等相关附件。咨询电话：15318914578，技术支持：江苏国泰新点软件有限公司，电话：0536-8097130。
+http://www.ccgp-shandong.gov.cn）进行注册；已注册的供应商请确保山东省政府采购公开信息平台和潍坊市公共资源交易网供应商库中的统一社会信用代码和中文单位名称一致。
+http://ggzy.weifang.gov.cn:8082/BidOpeningHall/bidhall/default/login.html</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/GzwUzeY4BofaXFlcEnjO9w.jhtml</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>潍柴（潍坊）燃气动力有限公司成套产线新增喷漆机器人项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>一、项目概况   
+我公司对潍柴（潍坊）燃气动力有限公司成套产线新增喷漆机器人项目进行招标，现邀请合格投标人提交密封投标。  
+二、项目基本情况   
+1、项目名称：潍柴（潍坊）燃气动力有限公司成套产线新增喷漆机器人项目.  
+2、项目类别：服务类  
+3、采购方式：公开招标  
+4、采购内容：1.本次招标共1包。 招标内容概述： 潍柴（潍坊）燃气动力有限公司成套产线新增喷漆机器人用于潍柴（潍坊）燃气动力有限公司成套产线新增喷漆机器人项目。 具体报价范围、采购范围及所应达到的具体要求，以招标文件技术部分相应规定为准，且须符合或满足本次招标采购实质目的的完全实现所应有的全部要求，投标人若存在任何理解上无法正确确定之处，均应当按照招标文件所规定的投标前的澄清等相应程序提出，否则，任何可能导致的不利后果均应当由投标人自行承担。  
+三、供应商资格条件   
+二、合格投标人必须符合下列条件
+四、采购文件领取   
+1、采购文件领取方式：线下  
+2、采购文件领取截止时间：2025-08-12 17:30:00  
+3、采购文件领取地点：山东省潍坊市高新技术产业开发区福寿东街197号甲潍柴动力供应链管理中心  
+五、响应文件提交  
+1、递交方式：现场递交  
+2、递交截止时间：2025-08-28 09:00:00  
+3、递交地点：山东省潍坊市高新技术产业开发区福寿东街197号甲潍柴动力供应链管理中心  
+六、开标时间和地点  
+1、开标时间：2025-08-28 09:00:00  
+2、开标地点：山东省潍坊市高新技术产业开发区福寿东街197号甲潍柴动力供应链管理中心307会议室  
+七、发布公告的媒介   
+阳光采购服务平台（www.ygcgfw.com）潍柴集团官方网站（https://www.weichai.com）  
+八、联系方式  
+1、采购人信息：  
+名称：潍柴动力股份有限公司  
+地址：山东省潍坊市高新技术产业开发区福寿东街197号甲  
+联系人：马金财  
+联系电话：13616469056  
+九、其他说明  
+1、供应商需要在阳光采购服务平台注册报名https://www.ygcgfw.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/gqcgcggg/cNmSVH9qNssiAqwoiY88Mg.jhtml</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>济南市历城职业中等专业学校济南市历城职业中等专业学校机器人多功能实训台采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-06 16:34:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>济南市历城职业中等专业学校济南市历城职业中等专业学校机器人多功能实训台采购项目公开招标公告
+项目概况：
+济南市历城职业中等专业学校机器人多功能实训台采购项目招标项目的潜在投标人应在相应公告界面获取招标文件，并于2025-08-29 09:00 （北京时间）前递交投标文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370112000202502000147
+项目名称：济南市历城职业中等专业学校机器人多功能实训台采购项目
+预算金额：本项目预算金额为 650000.00 元，其中：无分包 机器人多功能实训台 650000.00 元。
+采购需求：机器人多功能实训台采购
+合同履行期限：合同签订之日起15日历日内交货并安装调试完毕。
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+三、获取招标文件：
+时间：2025-08-07 09:00至2025-08-13 17:00
+地点：中国山东政府采购网（www.ccgp-shandong.gov.cn）或济南公共资源交易中心网站（jnggzy.jinan.gov.cn）。
+方式：线上获取。凡有意参加本次政府采购项目的供应商须在中国山东政府采购网（www.ccgp-shandong.gov.cn）及济南公共资源交易中心网站（jnggzy.jinan.gov.cn）两个网站注册后自行下载采购文件。本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在中国山东政府采购网、济南公共资源交易中心网站同时发布。供应商自行查阅网站信息，未按要求查阅者自行承担相应后果，恕不予单独告知（请参与本项目单位及时办理CA证书）。
+售价：0元
+四、提交投标截止时间、开标时间和地点：
+投标截止时间、开标时间：2025-08-29 09:00 （北京时间）
+开标地点：济南公共资源交易中心历城分中心
+五、公告期限：
+招标公告发出之日起5个工作日。
+六、其他补充事宜：
+/
+七、对本次招标提出询问，请按以下方式联系：
+1.采购人信息
+名称：济南市历城职业中等专业学校
+地址：济南市历城区工业北路9696号
+电话：0531-58627120
+2.采购代理机构信息
+名称：山东望岁项目管理有限公司  
+地址：济南市高新区伯乐路188号广联大厦三楼
+电话：0531-82727979
+3.项目联系方式
+项目联系人：孟昭；巩晓晓；傅昕宇；李然；李雪；刘阳
+电话：0531-82727979
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(机器人多功能实训台) 
+发 布 人：山东望岁项目管理有限公司
+发布时间：2025-08-06 16:33
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/Nvj2MI07G2F513hn13hTyA.jhtml</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>济南市历城职业中等专业学校济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:04:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>济南市历城职业中等专业学校济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目公开招标公告
+项目概况：
+济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目招标项目的潜在投标人应在相应公告界面获取招标文件，并于2025-08-26 09:00 （北京时间）前递交投标文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370112000202502000148
+项目名称：济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目
+预算金额：本项目预算金额为 332000.00 元，其中：无分包 济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目 332000.00 元。
+采购需求：机器人视觉技术集成应用实训台采购一宗
+合同履行期限：15个日历日内供货安装调试完毕，具体交货时间由甲方指定。
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+三、获取招标文件：
+时间：2025-08-06 09:00至2025-08-12 17:00
+地点：中国山东政府采购网（www.ccgp-shandong.gov.cn）、济南公共资源交易中心网站（jnggzy.jinan.gov.cn）。
+方式：线上获取。凡有意参加本次政府采购项目的供应商须在中国山东政府采购网（www.ccgp-shandong.gov.cn）及济南公共资源交易中心网站（jnggzy.jinan.gov.cn）两个网站注册后自行下载采购文件。本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在中国山东政府采购网、济南公共资源交易中心网站同时发布。供应商自行查阅网站信息，未按要求查阅者自行承担相应后果，恕不予单独告知（请参与本项目单位及时办理CA证书）。
+售价：0元
+四、提交投标截止时间、开标时间和地点：
+投标截止时间、开标时间：2025-08-26 09:00 （北京时间）
+开标地点：济南公共资源交易中心历城分中心。
+五、公告期限：
+招标公告发出之日起5个工作日。
+六、其他补充事宜：
+本项目（是否）预采购项目：否
+七、对本次招标提出询问，请按以下方式联系：
+1.采购人信息
+名称：济南市历城职业中等专业学校
+地址：济南市历城区工业北路9696号
+电话：0531-58627120
+2.采购代理机构信息
+名称：山东荷花项目管理有限公司  
+地址：济南市历城区二环东路东环国际广场C座1301
+电话：0531-86421567
+3.项目联系方式
+项目联系人：杨玉倩
+电话：0531-86421567
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(济南市历城职业中等专业学校机器人视觉技术集成应用实训台采购项目) 
+发 布 人：山东荷花项目管理有限公司
+发布时间：2025-08-05 16:03
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/UuGQkia0uqrwUrFoWBtwew.jhtml</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>山东省国土测绘院2025年省级基础测绘项目专业技术服务-人工智能辅助审图技术服务公开招标公告</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-25 17:45:08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>山东省国土测绘院2025年省级基础测绘项目专业技术服务-人工智能辅助审图技术服务公开招标公告  
+项目概况  
+山东省国土测绘院2025年省级基础测绘项目专业技术服务-人工智能辅助审图技术服务 招标项目的潜在投标人应在(齐鲁云采交易系统)获取招标文件，并于2025年09月15日09时00分(北京时间)前递交投标文件。  
+一、项目基本情况  
+项目编号：SDGP370000000202502006861  
+项目名称：山东省国土测绘院2025年省级基础测绘项目专业技术服务-人工智能辅助审图技术服务  
+包号  
+预算金额(万元)  
+最高限价(万元)  
+01  
+50.000000  
+50.000000  
+采购需求：见附件  
+合同履行期限：本项目(是/否)接受联合体。  
+包号  
+合同期限  
+是否接受联合体  
+01  
+2025年11月30日前完成整体项目建设、项目验收及交付。  
+否  
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定；  
+2.落实政府采购政策需满足的资格要求：无  
+3.本项目的特定资格要求：  
+包号  
+合格投标人的特定资格要求  
+联合体资格要求  
+01  
+本项目的特定资格要求：投标人须具有乙级（含）以上测绘资质证书（专业范围同时包含摄影测量与遥感、地理信息系统工程、互联网地图服务）。  
+无  
+三、获取招标文件  
+时间：2025年08月26日08:30至2025年09月01日17:00(节假日除外)。  
+地点：齐鲁云采交易系统。  
+方式：投标人需按以下方式获取招标文件。  
+第一步.登录中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，完成供应商主体信息注册(已注册的无需重复注册)。  
+第二步.在招标文件获取时间内，登录山东省公共资源交易中心网（http://ggzyjyzx.shandong.gov.cn/），进入“交易大厅”，在平台入口点击“政府采购”，登入“齐鲁云采交易系统” 后并关注项目， 下载招标文件(包含电子数据文件和PDF文件)。  
+第三步.投标人需在提交投标文件前，办理CA证书，并使用该证书对通过“投标文件制作软件（山东省政府采购版）”(下载地址：齐鲁云采交易系统登录页面-投标文件制作软件下载)制作的电子投标文件进行签章，办理方式和注意事项请见“齐鲁云采交易系统”登录首页-CA证书办理须知。  
+否则将因无法提交电子投标文件而导致无法投标。  
+招标文件售价：0元  
+四、提交投标文件截止时间、开标时间和地点  
+(1)提交(上传)投标文件时间：投标截止时间前均可自行上传投标文件。  
+(2)上传方式：本项目采用“不见面”网上开标方式，请投标人按照《供应商操作手册》要求登录“齐鲁云采交易系统”，在“投标文件上传”模块中将通过“投标文件制作软件（山东省政府采购版）”制作的“.SDTF”格式投标文件上传，在规定的开标时间内进行解密开标。  
+(3)提交投标文件截止时间：2025年09月15日09时00分  
+(4)开标时间：2025年09月15日09时00分  
+(5)地点：山东省公共资源交易中心(济南市历下区山大路226号，邮政编码：250014)。  
+五、公告期限  
+自本公告发布之日起5个工作日。  
+六、其他补充事宜  
+无  
+七、对本次招标提出询问，请按以下方式联系。  
+1.采购人信息  
+名 称： 山东省国土测绘院   
+地址： 山东省济南市历城区经十路2301号   
+联系方式： 0531-66955932   
+2.采购代理机构信息  
+名 称： 山东三誉招标代理有限公司   
+地 址： 济南市市中区二环南路3377号凯瑞大厦1102室   
+联系方式： 0531-58185103   
+3.项目联系方式  
+项目联系人： 贾振   
+电 话： 0531-58185103    
+下载采购文件</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/RjSS+JRIkEPLvf2TwwnkTw.jhtml</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>鲁AI人工智能办公服务平台项目招标公告</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>一、项目概况   
+本项目的招标人为山东省公用资产运营服务有限公司，项目资金为自筹资金。该项目已具备招标条件，现就本项目进行公开招标，欢迎符合条件的潜在投标人参加本次招投标活动。  
+二、项目基本情况   
+1、项目名称：鲁AI人工智能办公服务平台项目  
+2、项目类别：服务类  
+3、采购方式：公开招标  
+4、采购内容：本项目为鲁AI人工智能办公服务平台项目，包括[数据资产管理系统、通用大模型私有化基础服务系统、人工智能专业服务矩阵]建设及运营。项目中标人须按照合同约定对项目的质量、安全、工期、风险控制、运营全面负责。 本项目建设期为90日历天，运营期6年，中标人组建鲁AI人工智能办公服务平台技术服务团队，负责平台建设及日常运营工作，相关经营成本由中标人负责。 鲁AI人工智能办公服务平台投资的所有资产及版权归招标人所有，中标人不得有以该资产融资和抵押等行为。具体详见招标文件。  
+5、预算金额：850.0万元  
+三、供应商资格条件   
+1、符合《中华人民共和国招标投标法》等有关法律、法规和规章的相关规定；在中国境内注册，具有独立法人资格，并在人员、设备、资金等方面具有相应的经验和能力；
+四、采购文件领取   
+1、采购文件领取方式：线上  
+2、采购文件领取截止时间：2025-08-27 17:00:00  
+3、采购文件领取地点：邮件获取，投标人须登陆阳光采购服务平台（www.ygcgfw.com）网站进行投标人注册，注册完成后搜索到该项目，进行信息填报（已注册账号的无需再注册，本项目无需办理CA）。（该项操作将影响中标公示的发布，各投标人务必确保在阳光采购服务平台信息填报成功，因未在阳光采购服务平台注册和信息填报而造成的后果由投标人自行承担。）填写完毕后将领取文件资料（详见九、其他说明）发送至指定邮箱yingda8@ydtc.cn。  
+五、响应文件提交  
+1、递交方式：纸质版递交，详见招标文件。  
+2、递交截止时间：2025-09-15 14:30:00  
+3、递交地点：济南市舜耕路8-2号山东英大招投标有限公司四楼开标厅。  
+六、开标时间和地点  
+1、开标时间：2025-09-15 14:30:00  
+2、开标地点：济南市舜耕路8-2号山东英大招投标有限公司四楼开标厅。  
+七、发布公告的媒介：   
+本公告在山东省公共资源（国有产权）交易中心阳光采购服务平台（http://www.ygcgfw.com/）、山东省财欣资产运营有限公司官方网站发布。  
+八、联系方式  
+1、采购人信息：  
+名称：山东省公用资产运营服务有限公司  
+地址：济南市历下区解放东路25-6号金融城南区山东财欣大厦  
+联系人：胡老师  
+联系电话：0531-81920640  
+2、采购代理机构：  
+名称：山东英大招投标有限公司  
+地址：山东省济南市历下区马鞍山路2-1号8405室  
+联系人：郭经理 高经理  
+联系电话：0531-67896106、15053153603  
+九、其他说明  
+凡有意参加者，将下述资料的原件扫描件(要求图片清晰可辨)按顺序制作为一个PDF文档，发送至代理机构邮箱yingda8@ydtc.cn。证件明细如下（1）企业法人营业执照副本；（2）项目负责人职称证；（3）近3年度（2022年-2024年）经审计后的财务审计报告；（4）类似业绩合同扫描件；（5）“中国执行信息公开网”查询截图；（6）法定代表人证书或法人企业授权委托书、法定代表人或授权代表身份证。邮件主题简要注明项目名称，邮件内容明确单位名称、联系人、联系方式、邮箱。有关证件不能提供或提供不全的，采购代理机构将不予办理领取文件手续。上述资料查验不代表通过资格审查。</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/gqcgcggg/8+^IOx2tP38JAutO5oQsZw.jhtml</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>枣庄检察人工智能算力分中心建设公开招标公告</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-14 13:21:27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>枣庄检察人工智能算力分中心建设公开招标公告
+项目概况：枣庄检察人工智能算力分中心建设招标项目的潜在投标人应在在中国山东政府采购网(http://www.ccgp-shandong.gov.cn)网上下载采购文件。获取招标文件，并于2025-09-04 09:30:00（北京时间）前递交投标文件。
+一、项目基本情况：
+项目编号：SDGP370400000202502000334
+项目名称：枣庄检察人工智能算力分中心建设
+预算金额：300.0万元
+最高限价：300.0万元
+采购需求：
+标的：A
+标的名称：枣庄检察人工智能算力分中心建设A包 
+数量：1
+简要技术需求或服务要求：1、符合《中华人民共和国政府采购法》第二十二条规定；2、本项目不接受联合体投标；3、在“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）、“信用山东”网站（www.creditsd.gov.cn）中被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单的投标人，不得参加本次政府采购活动。注：由于采用“不见面”开标，以上资格审查资料，以投标人上传的电子投标文件为准（各投标人需确保提交的电子版原件证明材料无任何伪造、修改、虚假成份，为各投标人真实拥有。若有弄虚作假一经查实取消其投标、中标资格）。 
+本包预算金额（单位：万元）：245.000000 
+标包：B
+标包名称：枣庄检察人工智能算力分中心建设B包
+数量： 1 
+简要技术需求或服务要求：1、符合《中华人民共和国政府采购法》第二十二条规定； 2、本项目不接受联合体投标；3、在“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）、“信用山东”网站（www.creditsd.gov.cn）中被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单的投标人，不得参加本次政府采购活动。注：由于采用“不见面”开标，以上资格审查资料，以投标人上传的电子投标文件为准（各投标人需确保提交的电子版原件证明材料无任何伪造、修改、虚假成份，为各投标人真实拥有。若有弄虚作假一经查实取消其投标、中标资格）。
+本包预算金额（单位：万元）： 55.000000 
+合同履行期限：自合同签订之日起60日内供货、安装、调试完毕并达到验收合格标准。
+本项目不接受联合体投标。
+二、申请人的资格要求：
+1、满足《中华人民共和国政府采购法》第二十二条规定。
+2、落实政府采购政策需满足的资格要求：详见招标文件
+3、本项目的特定资格要求：详见招标文件
+三、获取招标文件：
+1.时间：2025年8月15日9时0分至2025年8月21日11时30分，每天上午09:00至11:30，下午14:00至17:00（北京时间，法定节假日除外）
+2.地点：在中国山东政府采购网(http://www.ccgp-shandong.gov.cn)网上下载采购文件。
+3.方式：网上报名,投标人请访问中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，在报名截止时间前进行网上投标报名。未在网上报名或网上报名不成功的，无资格进行投标。
+4.售价：0
+四、提交投标文件截止时间、开标时间和地点：
+1.截止时间：2025年9月4日9时30分（北京时间）
+2.开标时间：2025年9月4日9时30分（北京时间）
+3.开标地点：（1）现场开标地点：枣庄市民中心北二区枣庄市公共资源交易中心第二开标室。（2）网上开标地点：枣庄市公共资源交易网（http://ggzy.zaozhuang.gov.cn）不见面开标大厅。
+五、公告期限：
+自本公告发布之日起5个工作日。
+六、其他补充事宜：
+其他补充事宜:本项目使用不见面开标，各投标人须用CA数字认证证书锁现场或异地对上传的投标文件进行解密、签章及配合评委答疑工作。投标人须在开标时间之前提前进入不见面开标大厅进行签到（操作流程详见枣庄市公共资源交易中心网站-办事指南不见面开标办事指南-枣庄不见面开标大厅操作手册（投标人版））。开评标期间投标人须保持随时在线状态（代理机构将通过不见面开标大厅——互动交流栏与投标人进行交流），否则引起的一切后果由投标人自行承担。
+七、对本次招标提出询问，请按以下方式联系：
+1、采购人信息
+名    称：山东省枣庄市人民检察院机关
+地    址：枣庄市光明大道1527号(山东省枣庄市人民检察院机关)
+联系方式：3011288(山东省枣庄市人民检察院机关)
+2、采购代理机构
+名    称:卓轩（山东）项目管理有限公司
+地    址：山东省枣庄市市中县（区）解放北路126号中央广场
+联系方式：18366693030
+3、项目联系方式
+项目联系人：田经理
+联系人电话：18366693030</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/J+PX9mygGOQUGSLeW1oxBg.jhtml</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>德州高级师范学校人工智能数据工程技术实训室采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-05 15:42:22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>项目概况 
+德州高级师范学校人工智能数据工程技术实训室采购项目的潜在供应商应在德州市公共资源交易网（http://ggzyjy.dezhou.gov.cn/TPFront/）获取采购文件，并于2025年08月19日14点30分（北京时间）前递交响应文件。 
+一、项目基本情况 
+项目编号：山东省政府采购网：SDGP371400000202502000137 
+德州市公共资源交易网：DZSSXZC-20250763 
+项目名称：德州高级师范学校人工智能数据工程技术实训室采购项目 
+采购方式：竞争性磋商 
+预算金额：1038000.00元 
+最高限价：1038000.00元 
+采购需求：详见采购需求方案 
+合同履行期限：详见竞争性磋商文件 
+本项目不接受联合体响应。 
+二、申请人的资格要求： 
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：详见竞争性磋商文件； 
+3.本项目的特定资格要求： 
+（1）供应商需在中华人民共和国境内合法注册，具有履行合同所必需的设备、专业技术能力和项目实施能力； 
+（2）在”信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）、信用山东（http://credit.shandong.gov.cn/）中列入失信被执行人、企业经营异常名录、重大税收违法案件当事人名单、政府采购严重违法失信名单的企业拒绝其参与政府采购活动。 
+（3）单位负责人为同一人或者存在直接控股、管理关系的不同投标单位，不得参加同一合同项下的政府采购活动。 
+（4）法律法规规定的其他条件。 
+三、获取采购文件 
+时间：2025年08月06日00时00分至2025年08月18日14时30分（北京时间） 
+地点：德州市公共资源交易网（http://ggzyjy.dezhou.gov.cn/TPFront/） 
+方式：①采购公告下方的采购文件仅供查看，供应商须在系统中的“招标文件下载”页面下载电子采购文件（.dzzf）②供应商必须同时在中国山东政府采购网登记注册。③采购公告未尽事宜详见采购文件。 
+售价：0元 
+四、提交响应文件时间 
+截止时间：2025年08月19日14时30分（北京时间）前加密的电子响应文件均可系统提交。 
+五、开启 
+时间：2025年08月19日14时30分（北京时间） 
+地点：本项目实行网上远程开标，供应商可自行选择任意地点登录“不见面开标大厅”参加开标。 
+六、公告期限 
+自本公告发布之日起3个工作日。 
+七、其他补充事宜 
+无 
+八、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名称：德州高级师范学校 
+地址：德州天衢新区崇德八大道 
+联系方式：15853446628 
+2.采购代理机构信息 
+名称：法正项目管理集团有限公司  
+地址：德州市德城区新湖大街2451号 
+联系方式：18105345211、18105345712、0534-2386887 
+3.项目联系方式 
+项目联系人：路女士、范女士 
+电话：18105345211、18105345712、0534-2386887 
+附件：需求方案.pdf投标人操作手册.rar磋商文件---德州高级师范学校人工智能数据工程技术实训室采购项目.pdf 
+发 布 人：法正项目管理集团有限公司 
+发布时间：2025年08月05日</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/M5sziQud7FT1QUgXAf6rRg.jhtml</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>德州高级师范学校人工智能技术应用实训室采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-05 15:39:19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>项目概况 
+德州高级师范学校人工智能技术应用实训室采购项目的潜在供应商应在德州市公共资源交易网（http://ggzyjy.dezhou.gov.cn/TPFront/）获取采购文件，并于2025年08月20日14点30分（北京时间）前递交响应文件。 
+一、项目基本情况 
+项目编号：山东省政府采购网：SDGP371400000202502000138 
+德州市公共资源交易网：DZSSXZC-20250765 
+项目名称：德州高级师范学校人工智能技术应用实训室采购项目 
+采购方式：竞争性磋商 
+预算金额：1765000.00元 
+最高限价：1765000.00元 
+采购需求：详见采购需求方案 
+合同履行期限：详见竞争性磋商文件 
+本项目不接受联合体投标。 
+二、申请人的资格要求： 
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：详见竞争性磋商文件。 
+3.本项目的特定资格要求： 
+3.1投标供应商须具有履行合同所必需的设备、专业技术能力和项目实施能力，在人员、设备、资金等方面能够提供可靠的质量保证和完善的售后服务； 
+3.2投标供应商提供的产品应是全新、原装的合格正品，完全符合国家规定的质量标准（包括强制性标准和行业标准）; 
+3.3“信用中国”网站(www.creditchina.gov.cn)、中国政府采购网(www.ccgp.gov.cn)、“信用山东”网站(https://credit.shandong.gov.cn/)中被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单的投标供应商，不得参加本次政府采购活动； 
+3.4单位负责人为同一人或者存在直接控股、管理关系的不同投标供应商，不得参加同一合同项下的政府采购活动； 
+3.5法律法规规定的其他条件； 
+三、获取采购文件 
+时间：2025年08月06日00时00分至2025年08月19日14时30分（北京时间） 
+地点：德州市公共资源交易网（http://ggzyjy.dezhou.gov.cn/TPFront/） 
+方式：①采购公告下方的采购文件仅供查看，供应商须在系统中的“招标文件下载”页面下载电子采购文件（.dzzf）。②供应商必须同时在中国山东政府采购网登记注册。③采购公告未尽事宜详见采购文件。 
+售价：0元 
+四、响应文件提交 
+截止时间：2025年08月20日14时30分（北京时间）前加密的电子响应文件均可系统提交。 
+五、开启 
+时间：2025年08月20日14时30分（北京时间） 
+地点：本项目实行网上远程开标，供应商可自行选择任意地点登录“不见面开标大厅”参加开标。 
+六、公告期限 
+自本公告发布之日起3个工作日。 
+七、其他补充事宜 
+无 
+八、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名称：德州高级师范学校 
+地址：德州市崇德八大道5666号 
+联系方式：17668860379 
+2.采购代理机构信息 
+名称：华瑞国际工程咨询集团有限公司 
+地址：德州市天衢新区康博大厦27层招标三部 
+联系方式：0534-2676788/15169173061 
+3.项目联系方式 
+项目联系人：王先生 
+电话：15169173061 
+附件：招标文件正文.pdf、政府采购项目需求方案.pdf、投标人操作手册.zip 
+发 布 人：华瑞国际工程咨询集团有限公司 
+发布时间：2025年08月05日</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/D^jrj+mTacIgbE9sLnVVjA.jhtml</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>日照市新营中学兖州路校区人工智能创新教育软硬件采购项目招标公告</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:55:03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>项目概况
+日照市新营中学兖州路校区人工智能创新教育软硬件采购项目的潜在投标人应在日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）获取招标文件，并于2025年08月25日15时00分（北京时间）前递交投标文件。
+一、项目基本情况
+项目编号：SDGP371102000202502000081     
+项目名称：日照市新营中学兖州路校区人工智能创新教育软硬件采购项目
+预算金额：60万元。
+最高限价：同预算金额
+采购需求：详见招标文件第三章项目说明、招标内容
+合同履行期限：详见招标文件
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1. 满足《中华人民共和国政府采购法》第二十二条规定；投标人须为在中华人民共和国境内注册的独立法人单位或其他组织，能在国内合法提供采购内容及其相应的服务。
+2.落实政府采购政策需满足的资格要求：需落实的强采优采、节能环保、监狱企业扶持、残疾人福利性企业等政府采购政策，详见本项目招标文件。
+3.本项目的特定资格要求：
+3.1投标人参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明。
+3.2通过“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）、“信用山东”（http://credit.shandong.gov.cn/），未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单。
+3.3（1）首次投标的投标人需登录日照市公共资源交易网，点击网站左侧“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的投标人、投标单位和代理机构入库通知），已入库认证通过的单位无需进行此操作。
+（2）凡有意参加本次政府采购的投标人须在中国山东政府采购网进行注册登记。投标人请访问中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，在投标截止时间前注册并登陆后进行网上登记。
+3.4单位负责人为同一人或者存在控股、管理关系的不同单位，不得参加同一标段投标或者未划分标段的同一招标项目投标。
+三、获取招标文件
+1.时间：2025年08月04日至2025年08月08日，每天上午08:30至12:00，下午14:00至17:30（北京时间，法定节假日除外 ）
+2.方式：投标人登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）身份认证密匙、“标证通APP”移动CA下载招标文件（格式为*.RZZF）。此为获取招标文件唯一途径。企业未领取企业数字证书（CA）、“标证通APP”移动CA的，需登录日照市公共资源交易网首页点击右侧的“日照CA办理入口”或扫描“移动数字证书”二维码办理。
+3.售价：免费下载
+四、提交投标文件截止时间、开标时间和地点
+1.时间：2025年08月25日15时00分（北京时间）
+2.地点：日照市公共资源交易中心（日照国际博览中心D区、东港区青岛路518号）三楼第六开标室
+五、公告期限
+自本公告发布之日起五个工作日
+六、其他补充事宜
+本次开标会议采取不见面方式召开，请各潜在投标人在投标截止时间后20分钟内完成远程线上解密，投标人不能完成远程解密，导致投标文件无法读取或导入的，则视为放弃此次投标文件解密，按废标处理。（具体操作方法详见日照市公共资源交易网-下载园地-日照不见面开标大厅代理和投标人操作手册）。
+投标人法定代表人（负责人/经营者）或授权代表请下载钉钉app并登录账号，于2025年08月25日15时00分扫码申请进入日照市新营中学兖州路校区人工智能创新教育软硬件采购项目开标会议群（群二维码见招标文件附件），各投标人须在投标截止时间前完成添加，入群后昵称设置为投标人简称+姓名。逾期申请的，采购人有权不予受理。
+七、对本次招标提出询问，请按以下方式联系。
+1.招标人信息
+名 称：日照市新营中学  
+地 址：日照市胶州路9号
+联系方式：0633-8168636
+2.招标代理机构信息
+名 称：山东海翔工程管理有限公司
+地 址：日照市东港区中瑞国际大厦4楼
+联系方式：0633-2271656
+3.项目联系方式
+项目联系人：张耘铭、刘晓艳、丁凡、殷玉栏  
+电　话：0633-2271656</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/odw6eGCRQI9mRDMmOnbFqA.jhtml</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>曹县人民医院人工智能服务器及相关服务采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-25 18:34:56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>曹县人民医院人工智能服务器及相关服务采购项目竞争性磋商公告  
+项目概况：    
+曹县人民医院人工智能服务器及相关服务采购项目招标项目的潜在投标人应在菏泽市公共资源交易网—政府采购平台（http://hzsjyzx.cn:10000/PortalQDManage/）本项目采购公告页面免费获取招标文件，并于2025-08-08 09:30 （北京时间）前递交投标文件。   
+一、采购项目基本情况：    
+采购项目编号（建议书编号）：   SDGP371721000202502000060   
+采购项目名称：   曹县人民医院人工智能服务器及相关服务采购项目   
+预算金额与最高限价：   
+本项目预算金额为 1500000.00 元，其中：第 一 包 1500000.00 元。 本项目最高限价为 1500000.00 元，其中：第 一 包 1500000.00 元。   
+采购需求：   曹县人民医院人工智能服务器及相关服务采购，具体采购要求详见第五章技术标准和要求   
+合同履行期限：   合同签订后30日历天内验收合格。   
+二、申请人的资格要求：    
+1、按照财政部、工业和信息化部关于印发《政府采购促进中小企业发展管理办法》的通知（财库〔2020〕46号）要求，本项目非专门面向中小企业采购； 
+三、获取招标文件：    
+投标人开标时间前在菏泽市公共资源交易网—政府采购平台（http://hzsjyzx.cn:10000/PortalQDManage/）本项目招标公告页面免费下载电子招标文件。   
+四、提交投标文件截止时间、开标时间及地点：    
+投标截止时间、开标时间：   2025-08-08 09:30   
+开标地点：   曹县公共资源交易中心   
+五、公告期限：   
+招标公告发出之日起_3_个工作日。   
+六、其他补充事宜：   
+1、发布公告的媒介：山东省政府采购信息公开平台（www.ccgp-shandong.gov.cn）、菏泽市公共资源中心官网（全国公共资源交易平台（山东省·菏泽市））（http://hzsjyzx.cn/）。 
+七、对本次招标提出询问，请按以下方式联系。    
+1.采购人信息   
+联系人（采购人）：   曹县人民医院   
+地址：   曹县富民大道与青菏中路交汇处东南角   
+联系方式：   0530-3490800   
+2.采购代理机构信息   
+联系人（代理机构）：   山东陶能项目管理有限公司   
+地址：   菏泽市曹县青菏街道北邵社区凤凰花园城南门   
+联系方式：   15953043897   
+3.项目联系方式   
+项目联系人（代理机构）：   周士超   
+联系方式：   15953043897   
+如有询问，请在菏泽市公共资源交易网（http://hzsjyzx.cn/）（政府采购平台:http://hzsjyzx.cn:10000/PortalQDManage/）本项目采购公告页面在线提交。询问及答复的内容在上述公告页面查看。   
+发 布 人：  山东陶能项目管理有限公司   
+发布时间：  2025-07-25 18:16   
+请点击此处下载  政府采购交易系统操作说明（供应商端）</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/WOVo36IXMWtmTPMQ23bLZg.jhtml</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>烟台正光置业有限公司莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-24 12:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>一、项目概况   
+莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购项目  
+二、项目基本情况   
+1、项目名称：莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购项目  
+2、项目类别：服务类  
+3、采购方式：公开招标  
+4、采购内容：建设规模：计划投资额约：147200.00万元，工程费用约：124480.00万元。 一标段： （1）星普路，位于烟台市莱山区经济开发区，南起现状横一路，向北至轸大路，全长约478米，红线宽30米，下穿高速。计划投资额：3600万元，工程费用：3350万元。 （2）虎山南路二期，位于烟台市莱山区，全长约1218米，红线宽30米，上跨高速，下穿高铁，含跨线桥一座，桥长435米，宽24.5米。具体结合与高速交叉情况确定，并与跨铁段协调统筹实施。计划投资额：24300万元，工程费用：23000万元。 （3）金滩南路西侧支路（杨家台通道），位于烟台市莱山区，全长约285米，红线宽14米，下穿高速。具体结合与高速交叉情况确定。计划投资额：2400万元，工程费用：2220万元。 （4）东兴路，位于烟台市莱山区，全长约979米，红线宽度36米，含跨线桥一座，桥长827米，宽17米，桥两侧辅路各宽9.5米，长827米。计划投资额：8300万元，工程费用：7700万元。 （5）沟莱线拓宽改造工程，西起山海南路，东至金斗山路以东，道路总长度约3900米，道路红线宽度40米，绿线64米。城市主干路。计划投资额：50000万元，工程费用：40300万元。 二标段： （1）烟台文旅职业学院公交场，位于烟台市莱山区烟台工贸技师学院北侧，占地约7600平方米，计划建设停车场地。计划投资额：1800万元，工程费用：1710万元。 （2）同心路，该路南起顿汉布什路北端，向北下穿潍烟高铁、青荣城际，上跨荣乌高速G18，北至现状同心路。道路全长约502米，红线宽两端26米，其余20米。计划投资额：2900万元，工程费用：2700万元。 （3）台海路东侧支路，位于莱山经济开发区，北起高速北辅路，向南下穿G18荣乌高速，道路红线宽20米，道路全长约470米。计划投资额：1600万元，工程费用：1450万元。 （4）润南路，位于莱山经济开发区，南起金斗山西延路段，向北向西横穿祁家屯村，下穿潍烟高铁、青荣城际、荣乌高速G18，终点至南塂村东南角。全长约1167米，道路红线宽度18米。计划投资额：3400万元，工程费用：3200万元。 （5）兴科路南延，道路位于解家旧改A、B地块之间，北起五卒山北路，南至规划路，长约685米，规划红线宽30米。计划投资额：4500万元，工程费用：4350万元。 （6）金斗山路西延位于烟台市莱山区，为东西走向，西起澳柯玛大街，东至长安路南延，长约1573米，道路红线宽度50～57米，绿线宽74～81米，道路规划等级为城市主干路。计划投资额：40000万元，工程费用：30500万元。 （7）金滩南路，该路为南北走向，位于莱山区，全长约1066米，红线宽30米，含跨线桥一座，跨线桥长480米，宽18米，跨线桥辅路200米，宽20米。计划投资额：4400万元，工程费用：4000万元。标段划分：本项目共分为两个标段。计划工期：计划工期：服务期限：自合同签订之日起，直到本项目综合验收备案、交付使用、项目决算完成、项目评价完成、项目保修期结束，无任何问题时为止。质量要求：执行《国家建设工程质量管理条例》（国务院令第279号）规定。招标范围：工程建设全过程咨询，代表招标人对建设项目全过程进行投资、进度、质量、风险、安全的管控，并提供以下技术咨询和服务：包含但不限于手续办理、工程造价咨询服务（含预算编制、预算审核、工程量清单及控制价编制、全过程造价控制（含结算审核）等服务）、工程监理与项目管理服务，组织竣工验收、项目决算、项目评价等各个阶段的管理服务。  
+三、供应商资格条件   
+3.1 资质条件：3.1.1须具有合法的注册资格； 
+四、采购文件领取   
+1、采购文件领取方式：线下  
+2、采购文件领取截止时间：2025-07-30 17:30:00  
+3、采购文件领取地点：凡有意参加投标者，请于2025年07月25日 08:30至2025年07月30日 17:30（北京时间），登录“全国公共资源交易网（山东·烟台）/烟台市公共资源交易网”（http://ggzyjy.yantai.gov.cn/）下载招标文件（格式为.ztb ）；并在投标截止时间前及时关注“招标答疑”栏目；打开招标文件、制作投标文件，需要持有ca数字证书，办理或互认ca证书，请登录“下载中心”，进行相关操作。本工程不提供纸质招标文件,不组织现场勘查和投标预备会。潜在投标人应自行关注交易平台，因自身贻误行为导致未填写投标信息、未获取招标文件及补充（答疑、澄清）文件或投标失败的，责任自负。  
+五、响应文件提交  
+1、递交方式：本项目采用电子评标。投标文件递交的截止时间（投标截止时间，下同）为2025年08月19日 09:00:00，地点为：烟台市公共资源交易中心第二开标室。投标文件递交方式：本项目采用网上开标，投标人无需到现场。投标人须于投标截止时间前一小时进行网上签到，并根据烟台市公共资源交易网发布的“不见面开标系统”投标人操作指南（下载地址： https://ggzyjy.yantai.gov.cn/zwgk/005002/common-list.html）的相关规定进行相关操作。逾期未上传的或无法被系统读取的电子投标文件，电子招标投标交易平台将予以拒收。如有技术问题，请联系青岛福莱易通软件有限公司，联系电话：0535-6788613。  
+2、递交截止时间：2025-08-19 09:00:00  
+3、递交地点：本项目采用电子评标，投标文件递交的截止时间（投标截止时间，下同）为2025年08月19日 09:00:00，地点为：烟台市公共资源交易中心第二开标室。  
+六、开标时间和地点  
+1、开标时间：2025-08-19 09:00:00  
+2、开标地点：本项目采用电子评标，投标文件递交的截止时间（投标截止时间，下同）为2025年08月19日 09:00:00，地点为：烟台市公共资源交易中心第二开标室。  
+七、发布公告的媒介：   
+烟台市公共资源交易网、山东省公共资源交易网、中国招标投标公共服务平台、阳光采购服务平台（www.ygcgfw.com）  
+八、联系方式  
+1、采购人信息：  
+名称：烟台正光置业有限公司  
+地址：山东省烟台市莱山区  
+联系人：王科长  
+联系电话：0535-6893336  
+2、采购代理机构：  
+名称：山东环宇项目管理有限公司  
+地址：烟台市莱山区观海路267号观海大厦B座5楼  
+联系人：胡慧中、曲明明  
+联系电话：0535-6263885  
+九、其他说明  
+本项目为依法必须进行招标的建设工程项目，请各单位在本平台进行注册。本工程不提供纸质招标文件,不组织现场勘查和投标预备会。逾期未上传的或无法被系统读取的电子投标文件，电子招标投标交易平台将予以拒收。本项目采用省内跨地市远程异地评标。执行《关于加快推进房屋建筑和市政公用工程项目远程异地评标相关工作的通知》（烟建建管〔2022〕28号）。</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/gqcgcggg/wr6XnZB5sQLy6Ze+GegK^w.jhtml</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购招标公告</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:05:10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>招标公告
+莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购项目招标公告
+E3706002318005860（项目编号）
+1.招标条件
+本招标项目莱山经济开发区人工智能产业园道路施工全过程工程咨询（含监理）服务采购已由山东省投资项目在线审批监管平台山东省建设项目备案证明批准建设，建设资金来自国有（非财政）投资，项目出资比例为 100％，招标人为烟台正光置业有限公司。项目已具备招标条件，现对该项目进行公开招标。
+2.项目概况与招标范围
+2.1 建设地点：烟台市莱山区
+2.2 建设规模：计划投资额约：147200.00万元，工程费用约：124480.00万元
+2.3 计划工期：计划工期：服务期限：自合同签订之日起，直到本项目综合验收备案、交付使用、项目决算完成、项目评价完成、项目保修期结束，无任何问题时为止。
+计划开工日期：计划竣工日期：
+2.4 质量要求：执行《国家建设工程质量管理条例》（国务院令第279号）规定。
+2.5 招标范围：工程建设全过程咨询，代表招标人对建设项目全过程进行投资、进度、质量、风险、安全的管控，并提供以下技术咨询和服务：包含但不限于手续办理、工程造价咨询服务（含预算编制、预算审核、工程量清单及控制价编制、全过程造价控制（含结算审核）等服务）、工程监理与项目管理服务，组织竣工验收、项目决算、项目评价等各个阶段的管理服务。
+2.7 建设规模：计划投资额约：147200.00万元，工程费用约：124480.00万元。
+一标段：
+（1）星普路，位于烟台市莱山区经济开发区，南起现状横一路，向北至轸大路，全长约478米，红线宽30米，下穿高速。计划投资额：3600万元，工程费用：3350万元。
+（2）虎山南路二期，位于烟台市莱山区，全长约1218米，红线宽30米，上跨高速，下穿高铁，含跨线桥一座，桥长435米，宽24.5米。具体结合与高速交叉情况确定，并与跨铁段协调统筹实施。计划投资额：24300万元，工程费用：23000万元。
+（3）金滩南路西侧支路（杨家台通道），位于烟台市莱山区，全长约285米，红线宽14米，下穿高速。具体结合与高速交叉情况确定。计划投资额：2400万元，工程费用：2220万元。
+（4）东兴路，位于烟台市莱山区，全长约979米，红线宽度36米，含跨线桥一座，桥长827米，宽17米，桥两侧辅路各宽9.5米，长827米。计划投资额：8300万元，工程费用：7700万元。
+（5）沟莱线拓宽改造工程，西起山海南路，东至金斗山路以东，道路总长度约3900米，道路红线宽度40米，绿线64米。城市主干路。计划投资额：50000万元，工程费用：40300万元。
+二标段：
+（1）烟台文旅职业学院公交场，位于烟台市莱山区烟台工贸技师学院北侧，占地约7600平方米，计划建设停车场地。计划投资额：1800万元，工程费用：1710万元。
+（2）同心路，该路南起顿汉布什路北端，向北下穿潍烟高铁、青荣城际，上跨荣乌高速G18，北至现状同心路。道路全长约502米，红线宽两端26米，其余20米。计划投资额：2900万元，工程费用：2700万元。
+（3）台海路东侧支路，位于莱山经济开发区，北起高速北辅路，向南下穿G18荣乌高速，道路红线宽20米，道路全长约470米。计划投资额：1600万元，工程费用：1450万元。
+（4）润南路，位于莱山经济开发区，南起金斗山西延路段，向北向西横穿祁家屯村，下穿潍烟高铁、青荣城际、荣乌高速G18，终点至南塂村东南角。全长约1167米，道路红线宽度18米。计划投资额：3400万元，工程费用：3200万元。
+（5）兴科路南延，道路位于解家旧改A、B地块之间，北起五卒山北路，南至规划路，长约685米，规划红线宽30米。计划投资额：4500万元，工程费用：4350万元。
+（6）金斗山路西延位于烟台市莱山区，为东西走向，西起澳柯玛大街，东至长安路南延，长约1573米，道路红线宽度50～57米，绿线宽74～81米，道路规划等级为城市主干路。计划投资额：40000万元，工程费用：30500万元。
+（7）金滩南路，该路为南北走向，位于莱山区，全长约1066米，红线宽30米，含跨线桥一座，跨线桥长480米，宽18米，跨线桥辅路200米，宽20米。计划投资额：4400万元，工程费用：4000万元。
+2.8 标段划分：本项目共分为两个标段。
+3.投标人资格要求
+3.1 资质条件：3.1.1须具有合法的注册资格；
+3.2 项目组人员资格要求：拟派项目负责人资格要求：①须具有工程建设类注册执业资格且具有工程类或工程经济类高级职称；②具有类似工程经验；③不得同时在两个或者两个以上的工程项目任职。
+3.3 财务要求：无。
+3.4 业绩要求：3.4.1投标人业绩要求：无。
+3.5 其他要求：信誉要求：无严重失信行为。投标人须提供信用信息报告，可通过“信用中国”网站(www.creditchina.gov.cn)一“信用信息”栏目，查询并免费下载信用信息报告，也可使用具有国家认可资质的第三方信用服务机构出具的信用信息报告。执行《关于在招标投标和政府采购活动中实行应用信用信息报告制度的通知》(烟发改公管(2022)334号)。
+3.6 联合体要求：本项目接受联合体投标。接受联合体满足要求：（1）联合体各方应按招标文件提供的格式签订联合体协议书，明确联合体牵头人和各方权利义务；（2）联合体各方不得再以自己名义单独或加入其他联合体在同一标段中参加投标。
+4.招标文件的获取
+4.1 凡有意参加投标者，请于2025年07月25日 08:30至2025年07月30日 17:30（北京时间），登录“全国公共资源交易网（山东·烟台）/烟台市公共资源交易网”（http://ggzyjy.yantai.gov.cn/）下载招标文件（格式为.ztb ）；并在投标截止时间前及时关注“招标答疑”栏目；打开招标文件、制作投标文件，需要持有ca数字证书，办理或互认ca证书，请登录“下载中心”，进行相关操作。
+4.2 本工程不提供纸质招标文件,不组织现场勘查和投标预备会。
+4.3 潜在投标人应自行关注交易平台，因自身贻误行为导致未填写投标信息、未获取招标文件及补充（答疑、澄清）文件或投标失败的，责任自负。
+5.投标文件的递交
+5.1 本项目采用电子评标。
+5.2 投标文件递交的截止时间（投标截止时间，下同）为2025年08月19日 09:00:00，地点为：烟台市公共资源交易中心第二开标室。
+5.3 投标文件递交方式：本项目采用网上开标，投标人无需到现场。投标人须于投标截止时间前一小时进行网上签到，并根据烟台市公共资源交易网发布的“不见面开标系统”投标人操作指南（下载地址： https://ggzyjy.yantai.gov.cn/zwgk/005002/common-list.html）的相关规定进行相关操作。
+5.4 逾期未上传的或无法被系统读取的电子投标文件，电子招标投标交易平台将予以拒收。
+5.5 如有技术问题，请联系青岛福莱易通软件有限公司，联系电话：0535-6788613。
+6.发布公告的媒介
+本项目同时在烟台市公共资源交易网、山东省公共资源交易网、中国招标投标公共服务平台、阳光采购服务平台上发布。
+7.其他
+7.1 本项目采用省内跨地市远程异地评标。执行《关于加快推进房屋建筑和市政公用工程项目远程异地评标相关工作的通知》（烟建建管〔2022〕28号）。
+7.2 本项目采用“评定分离”定标方式。执行《烟台市房屋建筑和市政基础设施工程招标投标“评定分离”操作导则（修订）》（烟建建管〔2023〕2号）。
+7.3 潜在投标人或其他利害关系人对招标文件有异议的，应当在投标截止时间10日前通过本公告下方“提出异议”功能向招标人提出。招标人联系人：王科长，电话：0535-6893336 ；招标代理机构联系人：胡慧中、曲明明，电话：0535-6263885。
+7.4 投标人和其他利害关系人认为本工程招标投标活动不符合法律法规和规章规定的，可以自知道或者应当知道之日起10日内向烟台市莱山区住房和城乡建设局投诉，联系人：万宝恒，联系电话：0535-6895583，邮箱：pengrongwu3936@yt.shandong.cn，地址：烟台市莱山区府后路12号莱山区住建局512室。
+7.5 如有技术问题，请联系青岛福莱易通软件有限公司，联系电话0535-6788611、6788613。
+8.联系方式
+招标人：烟台正光置业有限公司
+招标代理：山东环宇项目管理有限公司
+地址：山东省烟台市莱山区
+地址：烟台市莱山区观海路267号观海大厦B座五楼
+邮编：264000
+邮编：264000
+联系人：王科长
+联系人：胡慧中、曲明明
+电话：0535-6893336
+电话：0535-6263885
+传真：
+传真：
+电子邮件：
+电子邮件：huanyuzhaobiao@163.com
+监督部门：烟台市莱山区住房和城乡建设局
+联系方式：0535-6895583</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/jsgczbgg/PnfbeIc^rVjMQyBs0sfbpA.jhtml</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>空天信息大学（筹）航空遥感系统科教设施—遥感飞机采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-22 18:25:08</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>空天信息大学（筹）航空遥感系统科教设施—遥感飞机采购项目公开招标公告  
+项目概况  
+空天信息大学（筹）航空遥感系统科教设施—遥感飞机采购项目 招标项目的潜在投标人应在(齐鲁云采交易系统)获取招标文件，并于2025年09月12日09时00分(北京时间)前递交投标文件。  
+一、项目基本情况  
+项目编号：SDGP370000000202502006354  
+项目名称：空天信息大学（筹）航空遥感系统科教设施—遥感飞机采购项目  
+包号  
+预算金额(万元)  
+最高限价(万元)  
+A  
+17800.000000  
+17800.000000  
+采购需求：见附件  
+合同履行期限：本项目(是/否)接受联合体。  
+包号  
+合同期限  
+是否接受联合体  
+A  
+T0+24个月。（T0指合同正式生效之日）免费维护期、保修期详见招标文件第5章项目需求和技术方案：商保期（保修期）要求  
+否  
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定；  
+2.落实政府采购政策需满足的资格要求：无  
+3.本项目的特定资格要求：  
+包号  
+合格投标人的特定资格要求  
+联合体资格要求  
+A  
+投标人须具有中国民航局颁发的生产许可证和维修许可证；  
+无  
+三、获取招标文件  
+时间：2025年08月23日08:30至2025年08月29日17:00(节假日除外)。  
+地点：齐鲁云采交易系统。  
+方式：投标人需按以下方式获取招标文件。  
+第一步.登录中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，完成供应商主体信息注册(已注册的无需重复注册)。  
+第二步.在招标文件获取时间内，登录山东省公共资源交易中心网（http://ggzyjyzx.shandong.gov.cn/），进入“交易大厅”，在平台入口点击“政府采购”，登入“齐鲁云采交易系统” 后并关注项目， 下载招标文件(包含电子数据文件和PDF文件)。  
+第三步.投标人需在提交投标文件前，办理CA证书，并使用该证书对通过“投标文件制作软件（山东省政府采购版）”(下载地址：齐鲁云采交易系统登录页面-投标文件制作软件下载)制作的电子投标文件进行签章，办理方式和注意事项请见“齐鲁云采交易系统”登录首页-CA证书办理须知。  
+否则将因无法提交电子投标文件而导致无法投标。  
+招标文件售价：0元  
+四、提交投标文件截止时间、开标时间和地点  
+(1)提交(上传)投标文件时间：投标截止时间前均可自行上传投标文件。  
+(2)上传方式：本项目采用“不见面”网上开标方式，请投标人按照《供应商操作手册》要求登录“齐鲁云采交易系统”，在“投标文件上传”模块中将通过“投标文件制作软件（山东省政府采购版）”制作的“.SDTF”格式投标文件上传，在规定的开标时间内进行解密开标。  
+(3)提交投标文件截止时间：2025年09月12日09时00分  
+(4)开标时间：2025年09月12日09时00分  
+(5)地点：山东省公共资源交易中心(济南市历下区山大路226号，邮政编码：250014)。  
+五、公告期限  
+自本公告发布之日起5个工作日。  
+六、其他补充事宜  
+无  
+七、对本次招标提出询问，请按以下方式联系。  
+1.采购人信息  
+名 称： 空天信息大学(筹)   
+地址： 山东省济南市章丘区大学路2号   
+联系方式： 0531-81786091   
+2.采购代理机构信息  
+名 称： 山东新傲项目管理有限公司   
+地 址： 济南市历下区华能路38号汇源大厦2211   
+联系方式： 0531-88031711   
+3.项目联系方式  
+项目联系人： 周秀卫、林琳、武瑞苹   
+电 话： 18563711216    
+下载采购文件</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/ZsLx8iTATk9ZDRCVs3r4VA.jhtml</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目（二次）竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-22 17:30:55</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>项目概况
+2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目（二次）的潜在供应商应在日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）获取磋商文件，并于2025年09月05日15点00分（北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：SDGP371100000202502000470
+项目名称：2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目（二次）
+采购方式：竞争性磋商 
+预算金额：28万元
+最高限价：28万元
+采购需求：详见磋商文件
+合同履行期限：详见磋商文件
+二、申请人的资格要求：
+1.供应商须为在中华人民共和国境内注册的独立法人单位或其他组织，能在国内合法提供采购内容及其相应的服务。
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购的项目，具体落实的政府采购政策详见磋商文件。本项目为预采购，存在取消或者终止采购的可能性。
+3.本项目的特定资格要求：
+3.1供应商须具有主管部门颁发的乙级及以上测绘资质；
+3.2供应商参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明；
+3.3.通过“信用中国网站”（www.creditchina.gov.cn）、“中国政府采购网”（www.ccgp.gov.cn）、“信用山东”（www.creditsd.gov.cn）现场查询供应商信用记录，未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单；
+3.4信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站左侧“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的供应商、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn），已入库认证通过的单位无需进行此操作；
+3.5凡有意参加本次政府采购的供应商必须在中国山东政府采购网进行注册登记。供应商请访问中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，在获取文件截止时间前注册登记。
+注：单位负责人为同一人或者存在控股、管理关系的不同单位，不得参加同一标段投标或者未划分标段的同一招标项目投标。
+三、获取采购文件
+时间：2025年08月25日至2025年08月29日，每天上午08：30至12：00，下午14：30至18：00（北京时间，法定节假日除外 ）。
+地点：供应商登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号下载磋商文件（格式为*.RZZF）。
+方式：（1）凡有意参加投标报价者，登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号下载磋商文件（格式为*.RZZF）, 此为获取磋商文件唯一途径。企业未办理数字证书（CA）的，需持资料到现场办理或网上办理，具体要求详见日照市公共资源交易网首页右侧的日照Ca办理入口。
+(2)根据山东省政府采购有关规定，凡有意参加政府采购的供应商必须于获取本磋商文件截止日期之前在“中国山东政府采购网(http://www.ccgp-shandong.gov.cn)”进行注册备案，已注册备案的单位无需进行此操作。
+(3)信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站左侧“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的供应商、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn），已入库认证通过的单位无需进行此操作。
+售价：网上免费获取。
+四、提交响应文件截止时间、开标时间
+截止时间：2025年09月05日15点00分（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn），供应商须在投标截止时间前将加密的电子投标文件（后缀为.RZTF）通过日照市公共资源网电子交易系统的“上传投标文件”菜单进行上传。供应商在报价截止时间前未上传加密的电子投标文件，采购人和采购代理机构不予受理。
+五、开启
+时间：2025年09月05日15点00分（北京时间）。
+地点：日照国际博览中心D区（东港区青岛路518号）政务服务大厅三楼第六开标室。
+六、公告期限
+自本公告发布之日起3个工作日。
+七、其他补充事宜
+（1）本项目开标会议采取不见面方式召开（二轮报价具体操作方法详见日照市公共资源交易网-下载园地-日照政府采购竞争性磋商、竞争性谈判、单一来源采购在线报价操作手册）。
+（2）本项目的采购文件获取、采购文件下载、响应文件上传、解密、二轮报价等均通过互联网操作，请各供应商充分考虑网络拥堵及平台操作所需时间等因素，保证在开评标期间电脑、网络、预留电话等能够正常使用。
+（3）以USB实体CA锁制作的投标文件，只能用USB实体CA锁解密；以“标证通APP”移动CA制作的投标文件，只能用“标证通APP”移动CA解密。
+本项目开标会议采取不见面方式召开，各供应商在2025年09月05日15时00分前扫码申请进入2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目（二次）（群二维码见磋商文件），同时各潜在供应商在报价截止时间后完成远程线上解密，供应商不能在规定时间内（开标后15分钟）完成远程解密，导致响应文件无法读取或导入的，则视为放弃此次响应文件解密，按响应无效处理。（操作流程见网站首页下载园地中《日照不见面开标大厅代理和投标人操作手册》）。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名    称：日照市自然资源和规划局山海天旅游度假区分局   
+地    址：日照市东港区太公一路23号
+联系方式：0633-8316035
+2.采购代理机构信息
+名    称：山东中合项目管理有限公司
+地　　址：日照市高新区高新二路324号日照香河科技大厦806室
+项目联系人：谭经理、匡经理
+电　　  话：0633-2296990</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/XzQfDU37CgCui+^ZdOlv^A.jhtml</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-22 17:04:52</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）
+竞争性磋商公告
+项目概况：
+菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）的潜在供应商应在招采进宝山东专区(http://sd.zcjb.com.cn)免费获取采购文件，并于2025-09-03 14:30:00(北京时间)前提交响应文件。
+一、项目基本情况：
+项目编号：SDGP371700000202502000322
+项目名称：菏泽市自然资源遥感数据管理应用平台(二期)项目
+采购方式：竞争性磋商
+预算金额：4.00万元
+采购需求：
+标的
+标的名称
+数量
+简要技术需求或服务要求
+本包预算金额(单位：万元)
+B
+信息安全等级保护测评项目
+1
+见本项目采购文件
+4.00
+合同履行期限：详见采购文件约定。
 本项目不接受联合体投标。
 二、申请人的资格要求：
 1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业
-3.本项目的特定资格要求：无
-三、获取磋商文件
-时间：2025年07月03日08时00分至2025年07月11日16时00分
-获取招标文件网址：http://www.ggzyzx.jl.gov.cn/
-1.首先登录吉林省公共资源交易中心网站“公共资源交易主体注册”栏目（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin），按要求完成交易主体信息注册。完成交易主体信息注册的用户，可携带所需材料至吉林省公共资源交易中心（吉林省长春市人民大街9999号）四楼CA证书办理处免费办理CA数字证书，也可到吉林省内各市（州）、长白山管委会公共资源交易平台和梅河口市公共资源交易场所现场办理CA数字证书，CA数字证书全省通办通用 (咨询电话:0431-85177688 QQ:800805008) 。未进行网上注册并办理CA认证的供应商将无法参与吉林省公共资源交易中心（吉林省政府采购中心）组织的所有招标采购活动。  
-2.供应商取得CA认证后，可登录吉林省公共资源交易中心（吉林省政府采购中心）网站“供应商-&gt;吉林省公共资源交易一体化平台”登录后选择“公告-&gt;采购-&gt;进入项目-&gt;交易文件下载”下载电子招标文件。供应商下载招标文件后，务必在规定的“获取招标文件结束时间”之前操作“投标确认”并完善相关投标信息，点击“投标确认”按钮确认参加投标才可参与该项目的采购活动。如果供应商在规定的“获取招标文件结束时间”之前没有点击“投标确认”按钮确认参加投标，将不能参与该项目的采购活动和对采购文件提出质疑。
-四、响应文件提交
-2025年08月22日10点00分
-地    点：吉林省公共资源交易一体化平台
-（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
-五、开启
-开始时间：2025年08月22日10点00分
-地    点：吉林省公共资源交易一体化平台
-（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
-六、公告期限
-自本公告发布之日起不少于5个工作日。
-七、其他补充事宜
-1.凡与本中心招投标活动有关的时间，均以吉林省公共资源交易中心（吉林省政府采购中心）服务器显示的北京时间为准。
-八、联系方式
-对本次招标提出询问，请与下列人员联系。
+2.落实政府采购政策需满足的资格要求：本项目属于非专门面向中小企业采购的项目，执行《政府采购促进中小企业发展管理办法》(财库〔2020〕46号)及财库〔2014〕68号、财库〔2017〕141号、节能环保政策等有关规定。
+3.本项目的特定资格要求：
+3.1供应商在中国执行信息公开网(http://zxgk.court.gov.cn/shixin/)、信用中国(www.creditchina.gov.cn)、中国政府采购网(www.ccgp.gov.cn)中被列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单，不得参加本次政府采购活动；
+3.2单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得同时参加同一标包的采购活动。
+3.3供应商须具有《网络安全等级测评与检测评估机构服务认证证书》。
+三、获取采购文件：
+1.截止时间：2025年08月29日18时00分(北京时间)
+2.地点：网上自行下载。
+3.方式：供应商自行注册并登录招采进宝山东专区(http://sd.zcjb.com.cn)免费获取采购文件。
+4.售价：0。
+四、响应文件提交：
+1.截止时间：2025年09月03日14时30分(北京时间)
+2.地点：加密电子响应文件在截止时间前在招采进宝山东专区上传。
+五、开启：
+1.时间：2025年09月03日14时30分(北京时间)
+2.地点：本项目实行网上不见面磋商采购，各潜在供应商在电子交易平台线上开启解密，供应商无需现场递交响应文件。
+六、公告期限：
+自本公告发布之日起3个工作日。
+七、其他补充事宜：
+1.本项目信息在中国山东政府采购网、招采进宝山东专区(http://sd.zcjb.com.cn)发布，各供应商应随时关注本项目信息，关于本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在网站中发布。供应商自行查阅网站信息，或于磋商开启时间前向采购代理机构电话询问确认，未按要求查阅者自行承担相应后果，恕不予单独告知。
+2.本次招标活动采用电子化招投标，在“招采进宝山东专区”注册成功后，同时供应商在招采进宝山东专区上进行如下操作：招采进宝山东专区电子版采购文件格式为.ebid，潜在供应商需在获取时间内下载获取。招采进宝山东专区具体操作步骤，可在招采进宝山东专区首页“常用工具”栏目中《山东专区操作手册》进行查看，如有任何疑问，请拨打客服电话400-616-6620 。
+3.供应商在参与本项目采购活动时需保证已在中国山东政府采购网注册成功。
+八、凡对本次采购提出询问，请按以下方式联系：
 1.采购人信息
-名    称：吉林省监狱管理局
-地    址：长春市会展大街1666号
-联 系 人：尹卫星
-联系方式：18504301688
-2.吉林省公共资源交易中心（吉林省政府采购中心）
-采购文件编制联系人：韩丽霞   联系方式：0431-81866970
-组织开标评标联系人：李刚   联系方式：0431-81866976
-地    址：吉林省长春市南关区人民大街9999号
-吉林省公共资源交易中心
-（吉林省政府采购中心）
-2025年 07月 02日
-招标文件正文.pdf
-来源：
-var laiyuan = '吉林省公共资源交易平台';
-if(laiyuan == ""){
-document.write("吉林省公共资源交易中心网");
-}else{
-document.write(laiyuan);
-}
-初审：韩丽霞
-复审：李国庆
-终审：赵焕春
-//判断相关文档是否存在
-var str_relnews="";
-if(str_relnews!=""){
-document.write('&lt;tr&gt;&lt;td align="left" width="125" height="40" style="font-size:16px; line-height:40px; text-align:center; font-family:Microsoft Yahei; color:#fff; background:#3F8DC9"&gt;相关文档&lt;/td&gt;&lt;td style="background:#F8F8F8"&gt;&lt;/td&gt;&lt;/tr&gt;');
-}
-var file_appendix='';
-if(file_appendix!=""){
-document.write('&lt;dt&gt; 附件：&lt;/dt&gt;');
-}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>http://www.ggzyzx.jl.gov.cn/jyxx/zfcg/zbgg/202507/t20250703_3476644.html</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>吉林省公共资源交易中心</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[电子化][竞争性磋商]-吉林省监狱管理局机关安保服务项目</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-03 15:15:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>吉林省公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>项目概况
-吉林省监狱管理局机关安保服务项目竞争性磋商项目的潜在供应商应在吉林省公共资源交易一体化平台获取磋商文件，并于2025年08月15日09点00分前递交响应文件。
-一、项目基本情况
-项目编号：JLSZC20250033501
-项目名称：吉林省监狱管理局机关安保服务项目
-预算金额：544800.00元
-采购需求：详见招标文件。
-合同履行期限：自合同签订之日起一年
+名    称：菏泽市自然资源和规划局
+地    址：菏泽市中华路659号
+联系方式：樊先生  15253070186
+2.采购代理机构信息
+名    称：山东仁帆项目管理有限公司 
+地    址：菏泽市广州路与黄河路交叉口鑫凯国际B栋1219室 
+联系方式：张先生  15963029992
+3.项目联系方式
+项目联系人：张先生
+电      话：15963029992</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/kFgEAP6fX9+YSI7jcSmvFA.jhtml</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>济南市生态环境局济南市清废行动遥感排查及整治项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-21 18:04:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>济南市生态环境局济南市清废行动遥感排查及整治项目公开招标公告
+项目概况：
+济南市清废行动遥感排查及整治项目招标项目的潜在投标人应在相应公告界面获取招标文件，并于2025-09-11 09:00 （北京时间）前递交投标文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370100000202502000786
+项目名称：济南市清废行动遥感排查及整治项目
+预算金额：本项目预算金额为 1431100.00 元，其中：无分包 济南市清废行动遥感排查及整治项目 1431100.00 元。
+采购需求：济南市清废行动遥感排查及整治项目
+合同履行期限：服务期限：2025年10月30日前完成。
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+三、获取招标文件：
+时间：2025-08-22 09:00至2025-09-10 17:00
+地点：济南公共资源交易中心网站（http://jnggzy.jinan.gov.cn/）
+方式：网站“招标公告”栏目中，在对应招标公告中下载
+售价：0元
+四、提交投标截止时间、开标时间和地点：
+投标截止时间、开标时间：2025-09-11 09:00 （北京时间）
+开标地点：济南市历城区经十路1277号（经十路与凤鸣路交叉口东北角）
+五、公告期限：
+招标公告发出之日起5个工作日。
+六、其他补充事宜：
+无
+七、对本次招标提出询问，请按以下方式联系：
+1.采购人信息
+名称：济南市生态环境局
+地址：济南龙奥大厦
+电话：0531-66598933
+2.采购代理机构信息
+名称：山东百德思招标代理有限公司  
+地址：济南市清废行动遥感排查及整治项目
+电话：0531-82956960
+3.项目联系方式
+项目联系人：伊巧枝
+电话：0531-82956960
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(济南市清废行动遥感排查及整治项目) 
+发 布 人：山东百德思招标代理有限公司
+发布时间：2025-08-21 18:04
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/PtB2TkjEO4eIgcfOxGZbAA.jhtml</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-08 17:26:58</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目竞争性磋商公告
+项目概况：
+菏泽市自然资源遥感数据管理应用平台(二期)项目的潜在供应商应在招采进宝山东专区(http://sd.zcjb.com.cn)免费获取采购文件，并于2025-08-20 09:00:00(北京时间)前提交响应文件。
+一、项目基本情况：
+项目编号：SDGP371700000202502000322
+项目名称：菏泽市自然资源遥感数据管理应用平台(二期)项目
+采购方式：竞争性磋商
+预算金额：150.00万元
+采购需求：
+标的
+标的名称
+数量
+简要技术需求或服务要求
+本包预算金额(单位：万元)
+A
+菏泽市自然资源和规划局遥感数据管理应用平台(二期)
+1
+见本项目采购文件
+142.40
+B
+信息安全等级保护测评项目
+1
+见本项目采购文件
+4.00
+C
+监理服务
+1
+见本项目采购文件
+3.60
+合同履行期限：详见采购文件约定。
 本项目不接受联合体投标。
 二、申请人的资格要求：
 1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业
-3.本项目的特定资格要求：提供公安机关核发的有效期内的保安服务许可证
+2.落实政府采购政策需满足的资格要求：本项目属于非专门面向中小企业采购的项目，执行《政府采购促进中小企业发展管理办法》(财库〔2020〕46号)及财库〔2014〕68号、财库〔2017〕141号、节能环保政策等有关规定。
+3.本项目的特定资格要求：
+3.1每标包的供应商在中国执行信息公开网(http://zxgk.court.gov.cn/shixin/)、信用中国(www.creditchina.gov.cn)、中国政府采购网(www.ccgp.gov.cn)中被列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单，不得参加本次政府采购活动；
+3.2单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得同时参加同一标包的采购活动。
+3.3标包B的供应商须具有《网络安全等级测评与检测评估机构服务认证证书》。
+3.4供应商可以对本项目的其中一个采购包进行响应，也可同时对多个采购包进行响应，仅有一个标包的成交资格。
+三、获取采购文件：
+1.截止时间：2025年8月18日18时00分(北京时间)
+2.地点：网上自行下载。
+3.方式：供应商自行注册并登录招采进宝山东专区(http://sd.zcjb.com.cn)免费获取采购文件。
+4.售价：0。
+四、响应文件提交：
+1.截止时间：2025年8月20日09时00分(北京时间)
+2.地点：加密电子响应文件在截止时间前在招采进宝山东专区上传。
+五、开启：
+1.时间：2025年8月20日09时00分(北京时间)
+2.地点：本项目实行网上不见面磋商采购，各潜在供应商在电子交易平台磋商开启解密，供应商无须现场递交响应文件。
+六、公告期限：
+自本公告发布之日起3个工作日。
+七、其他补充事宜：
+1.本项目信息在中国山东政府采购网、招采进宝山东专区(http://sd.zcjb.com.cn)发布，各供应商应随时关注本项目信息，关于本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在网站中发布。供应商自行查阅网站信息，或于磋商开启时间前向采购代理机构电话询问确认，未按要求查阅者自行承担相应后果，恕不予单独告知。
+2.本次招标活动采用电子化招投标，在“招采进宝山东专区”注册成功后，同时供应商在招采进宝山东专区上进行如下操作：招采进宝山东专区电子版采购文件格式为.ebid，潜在供应商需在获取时间内下载获取。招采进宝山东专区具体操作步骤，可在招采进宝山东专区首页“常用工具”栏目中《山东专区操作手册》进行查看，如有任何疑问，请拨打客服电话400-616-6620 。
+3.供应商在参与本项目采购活动时需保证已在中国山东政府采购网注册成功。
+八、凡对本次采购提出询问，请按以下方式联系：
+1.采购人信息
+名    称：菏泽市自然资源和规划局
+地    址：菏泽市中华路659号
+联系方式：樊先生  15253070186
+2.采购代理机构信息
+名    称：山东仁帆项目管理有限公司 
+地    址：菏泽市广州路与黄河路交叉口鑫凯国际B栋1219室 
+联系方式：张先生  15963029992
+3.项目联系方式
+项目联系人：张先生
+电      话：15963029992</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/sw3VBgdolJDIPnr6QupNpQ.jhtml</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目（预采购）单一来源采购公示</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目（预采购）
+单一来源采购公示
+一、项目信息
+采购人：东方航天港研究院                       
+项目名称：海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目
+拟采购的货物说明：本项目为海阳市东方航天港研究院高精度智能遥感卫星通用研发平台采购项目，共划分一个包。高精度智能遥感卫星通用研发平台是完成卫星研制与测试的重要地面设备组成部分，主要完成卫星全系统和分系统各个阶段的功能与性能测试验证任务，可用于卫星研制、测试、试验。
+拟采购的货物预算金额：人民币陆佰壹拾万元整（¥6100000.00）
+采用单一来源采购方式的原因及说明：东方慧眼星座卫星的分辨率高、无控制点定位精度高等核心指标及应用模式，均直接继承自“武汉一号”卫星的成熟技术基线，其研制所需的高精度智能遥感卫星通用研发平台与“武汉一号卫星”研制平台高度重合。“武汉一号”卫星是特色鲜明的小卫星平台、空间遥感仪器研究成果，具有遥感信息处理学科优势。武汉大学在高精度智能遥感卫星研制领域具备国内领先、国际一流的技术实力和学科优势，形成了覆盖卫星设计研制、遥感图像在轨智能处理、遥感数据地面应用的完整产业链条。目前国内尚无其他机构或单位具备同等技术能力与产品适配性。本次所采购高精度智能遥感卫星通用研发平台在市场上不存在完全一致的竞争产品，因此具有唯一性和不可替代性，基于以上原因，经专业人员论证，认为本项目符合《中华人民共和国政府采购法》第三十一条第一款“只能从唯一供应商处采购的”情形，拟采用单一来源方式实施采购。
+二、拟定供应商信息
+名称：武汉大学                      
+地址：湖北省武汉市武昌区珞珈山八一路299号
+三、公示期限
+2025年8月13日至2025年8月20日
+四、其他补充事宜：
+（1）本项目为预采购项目，存在项目取消或终止的风险，供应商在参与本项目的投标、报价过程中须充分考虑预采购项目的风险，后期因项目取消或终止产生的损失由供应商自行承担。
+（2）融资提示：为进一步发挥政府采购政策功能，充分利用政府采购合同的信用价值以及在政府采购活动中形成的数据价值，有效破解中小企业融资难融资贵以及政府采购合同融资中存在的突出问题，“山东省政府采购合同融资与履约保函服务平台”已启动运行，有需求的供应商可登录“http://www.ccgp-shandong-rz.cn/”了解相关政策。
+（3）根据《关于在招标投标和政府采购活动中实行信用信息报告制度的通知》烟发改公管【2022】334号文件要求，供应商需在响应函后附“信用信息报告”作为投标函的内容附件，也可使用具有国家认可资质的第三方信用服务机构出具的信用信息报告，供应商对提供的“信用信息报告”的真实性负责。信用信息报告查询渠道：通过“信用中国”网站（www.creditchina.gov.cn）—“信用信息”栏目查询并免费下载。信用信息报告留存方式：由采购人和采购代理机构留存。
+五、联系方式
+1.采购人：东方航天港研究院
+联 系 人：于耘海、高敏娟       
+联系地址：山东省烟台市海阳市海滨中路196号      
+联系电话：0535-3336118                      
+2.财政部门：海阳市财政局
+联 系 人：谭小菲
+联系地址：海阳市财金路1号
+联系电话：0535-3225321                      
+3.采购代理机构：山东正泰工程项目管理有限公司
+联 系 人：郭娜、宋倩虹     
+联系地址：烟台市莱山区迎春大街163号天和大厦11楼    
+联系电话：0535-6705090
+六、附件
+专业人员论证意见 
+我要参与
+采购需求及需求论证.pdf  
+单一来源采购专家论证意见及意见汇总.pdf  
+采购公告.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/CwofLtxXrySgk2DDgd0tWw.jhtml</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目（预采购）单一来源采购公示</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目（预采购）
+单一来源采购公示
+一、项目信息
+采购人：东方航天港研究院                       
+项目名称：海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目
+拟采购的货物说明：本项目为海阳市东方航天港研究院智能遥感卫星电性桌面系统研制采购项目，共划分一个包。智能遥感卫星电性桌面系统是卫星的地面硬件开发、分析与测试平台，主要完成卫星全系统及各分系统电性阶段的功能与性能的测试验证任务，可用于卫星研制、测试、试验。
+拟采购的货物预算金额：人民币贰佰肆拾万元整（¥2400000.00）
+采用单一来源采购方式的原因及说明：东方航天港研究院计划承接的微小卫星星座建设任务，所需电性系统需严格适配湖北珞珈实验室的智能遥感卫星的技术路线，该系统的技术状态与“武汉一号”卫星电性桌面系统具有高度继承性。湖北珞珈实验室智能遥感卫星团队成功研制的卫星电性桌面系统，不仅在技术上达到国际领先水平，更在多个领域实现了规模化应用。目前国内尚无其他机构或单位具备同等技术能力与产品适配性。本次所采购智能遥感卫星电性桌面系统在市场上不存在完全一致的竞争产品，因此具有唯一性和不可替代性。基于以上原因，经专业人员论证，认为本项目符合《中华人民共和国政府采购法》第三十一条第一款“只能从唯一供应商处采购的”情形，拟采用单一来源方式实施采购。
+二、拟定供应商信息
+名称：湖北珞珈实验室                      
+地址：湖北省武汉市武昌区八一路299号武汉大学星湖科研大楼
+三、公示期限
+2025年8月12日至2025年8月19日
+四、其他补充事宜：
+（1）本项目为预采购项目，存在项目取消或终止的风险，供应商在参与本项目的投标、报价过程中须充分考虑预采购项目的风险，后期因项目取消或终止产生的损失由供应商自行承担。
+（2）融资提示：为进一步发挥政府采购政策功能，充分利用政府采购合同的信用价值以及在政府采购活动中形成的数据价值，有效破解中小企业融资难融资贵以及政府采购合同融资中存在的突出问题，“山东省政府采购合同融资与履约保函服务平台”已启动运行，有需求的供应商可登录“http://www.ccgp-shandong-rz.cn/”了解相关政策。
+（3）根据《关于在招标投标和政府采购活动中实行信用信息报告制度的通知》烟发改公管【2022】334号文件要求，供应商需在响应函后附“信用信息报告”作为投标函的内容附件，也可使用具有国家认可资质的第三方信用服务机构出具的信用信息报告，供应商对提供的“信用信息报告”的真实性负责。信用信息报告查询渠道：通过“信用中国”网站（www.creditchina.gov.cn）—“信用信息”栏目查询并免费下载。信用信息报告留存方式：由采购人和采购代理机构留存。
+五、联系方式
+1.采购人：东方航天港研究院
+联 系 人：于耘海、高敏娟       
+联系地址：山东省烟台市海阳市海滨中路196号      
+联系电话：0535-3336118                      
+2.财政部门：海阳市财政局
+联 系 人：谭小菲
+联系地址：海阳市财金路1号
+联系电话：0535-3225321                     
+3.采购代理机构：山东正泰工程项目管理有限公司
+联 系 人：郭娜、宋倩虹     
+联系地址：烟台市莱山区迎春大街163号天和大厦11楼    
+联系电话：0535-6705090
+六、附件
+专业人员论证意见 
+我要参与
+采购需求及需求论证.pdf  
+采购公告.  
+单一来源采购专家论证意见及意见汇总.pdf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/6mIP84JYPkjG7udUrgXmPA.jhtml</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理公开招标公告</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-08-08 11:15:01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>项目概况
+山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理的潜在投标单位应在潍坊市公共资源交易中心网上确认后自行下载获取招标文件，并于2025年9月4日09点00分（北京时间）前提交投标文件。
+一、项目基本情况
+项目编号：SDGP370783000202502000109
+进场交易登记号：ZFCG-SG-2025-0094004
+项目名称：山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理
+预算金额：22万元。
+最高限价：22万元
+采购需求：采用一年2期的模式获取寿光市全市域约2000平方千米范围内的遥感影像数据，具体内容详见招标文件。
+合同履行期限：2025年12月31日前完成全部工作内容，并通过采购人验收。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+2.落实政府采购政策需满足的资格要求：无。
+3.本项目的特定资格要求：
+3.1投标单位须具有测绘主管部门颁发的乙级及以上测绘资质证书（专业范围必须包含摄影测量与遥感）；
+3.2 递交投标文件截止时间前投标单位未列入失信被执行人、重大税收违法失信主体名单（通过“信用中国”查询相关主体信用记录）；未列入政府采购严重违法失信行为记录名单（通过“中国政府采购网”查询相关主体信用记录）；未列入失信黑名单信息（通过“信用中国（山东潍坊寿光）”查询相关主体信用记录）；
+4.本项目不接受联合体投标。
+三、获取招标文件
+1.时间：2025年8月9日08时30分至2025年9月3日09时00分（北京时间）
+2.地点：各投标单位须在获取招标文件的时间节点内登录潍坊市公共资源交易中心寿光分中心官网（网址：http://ggzy.weifang.gov.cn:8082/wfggzy/sgggzy/）自行下载招标文件。
+3.方式：
+（1）网上注册。未注册的投标单位应通过网站首页“我要注册”进行注册，填写注册信息时“用户类型”选择“交易乙方”（已在“现有系统”注册的投标单位无需重复注册，直接登录获取文件即可），并完善“新版系统”中交易乙方信息管理的基本信息，签署上传《投标人（供应商、竞买人）信用承诺书》等相关附件。网上注册咨询电话：0536-5117925，电子交易系统技术支持：江苏国泰新点软件有限公司，电话：0536-8097130。
+（2）下载文件。各投标单位通过网站“平台登录”-“交易会员登录”，在“招标公告”-“政府采购”中选择要投标的项目进行“文件下载”。
+（3）注意事项。凡参加本次政府采购活动的投标单位需在递交投标文件截止时间前访问中国山东政府采购网（http://www.ccgp-shandong.gov.cn）进行注册；已注册的投标单位请确保山东省政府采购公开信息平台和潍坊市公共资源交易网供应商库中的统一社会信用代码和中文单位名称一致。
+（4）数字证书办理：拟参加本项目的投标单位须办理并取得CA后，方可加密生成及上传电子投标文件。
+现场办理：潍坊市东方路 3396 号潍坊市公共资源交易中心三楼 CA 办理窗口，山东卓码信息技术有限公司即收即办。
+网上办理：投标单位（供应商）登录山东卓码信息技术有限公司在线平台 http://wf.sdzhuoma.com/注册后按流程办理。
+具体办理流程：请在潍坊市公共资源交易中心网站—重要通知—《CA 数字证书免费办理流程》中查阅
+CA 数字证书办理时间及联系方式
+法定工作日：上午：9:00-12:00；下午：13:00-17:00。
+CA 办理窗口电话：15345366335，CA 技术支持电话：18353633022，CA 客服电话（24 小时）：18560027360。服务监督电话：0536-8080981。
+注意事项：投标单位（供应商）应当在上传投标（响应）文件前办理完毕，以免影响使用。除山东卓码信息技术有限公司免费办理的数字证书外，其他已接入山东省公共资源交易多CA 统一认证平台的数字证书，可在潍坊市公共资源交易系统中使用，但不享受免费办理、更新、更换服务。
+网上获取招标（采购）文件不代表资格审查的最终通过或合格，投标单位最终资格的确认以评标委员会组织的资格后审为准。
+4.售价：0元。
+四、投标文件提交
+提交投标文件截止时间：2025年9月4日09点00分（北京时间）
+五、开标
+1.开标时间：2025年9月4日09点00分（北京时间）
+2.开标地点：本项目采用“不见面开标”，无须前往开标现场，请提前登录不见面开标大厅安装相关插件，熟悉相关流程并在规定的时间内自行完成解密。（不见面开标大厅网址：http://ggzy.weifang.gov.cn：8082/BidOpeningHall/bidhall/default/login.html)
+六、公告期限
+自本公告发布之日起5个工作日。
+七、其他补充事宜
+1.采购项目的用途、数量、简要技术要求等：详见山东省潍坊市寿光市自然资源和规划局2025年基础测绘项目-基础地理信息数据库更新采购项目包D卫星遥感影像数据获取与处理招标文件
+2.本项目发布的媒介为：潍坊市公共资源交易中心寿光分中心网站、中国山东政府采购网。
+3.关于本项目的疑问提出、答复、变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在潍坊市公共资源交易中心寿光分中心网及有关网站发布。投标单位有义务自行查阅网站信息及进入交易系统查询，或于开标前向采购代理机构电话询问确认，未按要求查阅者自行承担相应后果，恕不予单独告知。
+4.单位负责人为同一人或者存在直接控股、管理关系的不同投标单位，不得参加同一合同项下的政府采购活动。
+5.采购项目需要落实的政府采购政策：财库〔2020〕46号《政府采购促进中小企业发展管理办法》、财库〔2014〕68号《关于政府采购支持监狱企业发展有关问题的通知》、财库〔2017〕141号《关于促进残疾人就业政府采购政策的通知》、鲁财库〔2007〕32号《山东省节能环保产品政府采购评审办法》、财库〔2019〕9号《财政部 发展改革委 生态环境部 市场监管总局关于调整优化节能产品、环境标志产品政府采购执行机制的通知》等相关法规。
+6.本项目实行电子招标投标，如有意向参与投标，请尽早阅知此招标文件中的《公共资源交易项目网上招投标工作须知》，以便能顺利进行投标。
+7.本项目实行“不见面开标”，投标单位不用到开标现场，具体操作见《不见面开标大厅投标单位操作手册》。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名    称：寿光市自然资源和规划局
+地    址：寿光市圣城街789号
+联系方式：0536-5250010
+2.采购代理机构信息
+名    称：山东金润建设咨询有限公司
+地址：寿光市洛城街道蔬菜大厦B座11楼
+联系方式：15953652037
+3.项目联系方式
+项目联系人：张萍
+电　　 话：15953652037</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/S8Kp1pKCI8Smy7qn5jKLRA.jhtml</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-08-06 16:34:51</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>项目概况
+2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目的潜在供应商应在日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）获取磋商文件，并于2025年08月21日15点00分（北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：SDGP371100000202502000470
+项目名称：2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目
+采购方式：竞争性磋商 
+预算金额：28万元
+最高限价：28万元
+采购需求：详见磋商文件
+合同履行期限：详见磋商文件
+二、申请人的资格要求：
+1.供应商须为在中华人民共和国境内注册的独立法人单位或其他组织，能在国内合法提供采购内容及其相应的服务。
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购的项目，具体落实的政府采购政策详见磋商文件。本项目为预采购，存在取消或者终止采购的可能性。
+3.本项目的特定资格要求：
+3.1供应商须具有主管部门颁发的乙级及以上测绘资质（专业范围含地理信息系统工程）；
+3.2供应商参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明；
+3.3.通过“信用中国网站”（www.creditchina.gov.cn）、“中国政府采购网”（www.ccgp.gov.cn）、“信用山东”（www.creditsd.gov.cn）现场查询供应商信用记录，未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单；
+3.4信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站左侧“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的供应商、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn），已入库认证通过的单位无需进行此操作；
+3.5凡有意参加本次政府采购的供应商必须在中国山东政府采购网进行注册登记。供应商请访问中国山东政府采购网(http://www.ccgp-shandong.gov.cn)，在获取文件截止时间前注册登记。
+注：单位负责人为同一人或者存在控股、管理关系的不同单位，不得参加同一标段投标或者未划分标段的同一招标项目投标。
+三、获取采购文件
+时间：2025年08月07日至2025年08月13日，每天上午08：30至12：00，下午14：30至18：00（北京时间，法定节假日除外 ）。
+地点：供应商登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号下载磋商文件（格式为*.RZZF）。
+方式：（1）凡有意参加投标报价者，登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号下载磋商文件（格式为*.RZZF）, 此为获取磋商文件唯一途径。企业未办理数字证书（CA）的，需持资料到现场办理或网上办理，具体要求详见日照市公共资源交易网首页右侧的日照Ca办理入口。
+(2)根据山东省政府采购有关规定，凡有意参加政府采购的供应商必须于获取本磋商文件截止日期之前在“中国山东政府采购网(http://www.ccgp-shandong.gov.cn)”进行注册备案，已注册备案的单位无需进行此操作。
+(3)信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站左侧“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的供应商、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn），已入库认证通过的单位无需进行此操作。
+售价：网上免费获取。
+四、提交响应文件截止时间、开标时间
+截止时间：2025年08月21日15点00分（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn），供应商须在投标截止时间前将加密的电子投标文件（后缀为.RZTF）通过日照市公共资源网电子交易系统的“上传投标文件”菜单进行上传。供应商在报价截止时间前未上传加密的电子投标文件，采购人和采购代理机构不予受理。
+五、开启
+时间：2025年08月21日15点00分（北京时间）。
+地点：日照国际博览中心D区（东港区青岛路518号）政务服务大厅三楼第五开标室。
+六、公告期限
+自本公告发布之日起5个工作日。
+七、其他补充事宜
+（1）本项目开标会议采取不见面方式召开（二轮报价具体操作方法详见日照市公共资源交易网-下载园地-日照政府采购竞争性磋商、竞争性谈判、单一来源采购在线报价操作手册）。
+（2）本项目的采购文件获取、采购文件下载、响应文件上传、解密、二轮报价等均通过互联网操作，请各供应商充分考虑网络拥堵及平台操作所需时间等因素，保证在开评标期间电脑、网络、预留电话等能够正常使用。
+（3）以USB实体CA锁制作的投标文件，只能用USB实体CA锁解密；以“标证通APP”移动CA制作的投标文件，只能用“标证通APP”移动CA解密。
+本项目开标会议采取不见面方式召开，各供应商在2025年08月21日15时00分前扫码申请进入2025年度山海天旅游度假区耕地卫片季度遥感监测核查项目（群二维码见磋商文件），同时各潜在供应商在报价截止时间后完成远程线上解密，供应商不能在规定时间内（开标后15分钟）完成远程解密，导致响应文件无法读取或导入的，则视为放弃此次响应文件解密，按响应无效处理。（操作流程见网站首页下载园地中《日照不见面开标大厅代理和投标人操作手册》）。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名    称：日照市自然资源和规划局山海天旅游度假区分局   
+地    址：日照市东港区太公一路23号
+联系方式：0633-8316035
+2.采购代理机构信息
+名    称：山东中合项目管理有限公司
+地　　址：日照市高新区高新二路324号日照香河科技大厦806室
+项目联系人：谭经理、匡经理
+电　　  话：0633-2296990</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/hcpf9bKjxGlHhAK98JviVw.jhtml</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>山东省德州市武城县自然资源局武城县实景三维采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-08-15 15:41:59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>项目概况 
+山东省德州市武城县自然资源局武城县实景三维采购项目的潜在供应商应在德州市公共资源交易网武城分中心（http://ggzyjy.dezhou.gov.cn/wc/）获取磋商文件，并于2025年08月27日15时00分（北京时间）前递交响应文件。 
+一、项目基本情况 
+项目编号：山东省政府采购网：SDGP371428000202502000058 
+德州市公共资源交易网：DZSWCZC-20250803 
+项目名称：山东省德州市武城县自然资源局武城县实景三维采购项目 
+采购方式：□竞争性谈判 ☑竞争性磋商 □询价 
+预算金额：75.00万元 
+最高限价：75.00万元 
+采购需求：详见采购需求 
+合同履行期限：详见磋商文件 
+本项目不接受联合体投标。 
+二、申请人的资格要求： 
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：根据《政府采购促进中小企业发展管理办法》（财库〔2020〕46号），本项目专门面向中小微企业采购，供应商须为中小微企业（残疾人福利性单位和监狱企业视同小型、微型企业），并按要求提供相关资料。 
+3.本项目的特定资格要求： 
+（1）供应商在中华人民共和国境内合法注册，具有履行合同所必需的设备、专业技术能力和项目实施能力，在人员、设备、资金等方面能够提供专业的技术能力和项目实施能力； 
+（2）供应商必须具备主管部门颁发的乙级及以上测绘资质证书（专业范围须包含测绘航空摄影、摄影测量与遥感、地理信息系统工程）； 
+（3）在“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）、“信用山东”网站（http://credit.shandong.gov.cn/）中被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单的供应商，不得参加本次采购活动； 
+（4）单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的政府采购活动； 
+（5）法律法规对供应商的其他要求、规定。 
+三、获取采购文件 
+时间：2025年08月16日00时00分至2025年08月26日15时00分（北京时间） 
+地点：德州市公共资源交易网武城分中心（http://ggzyjy.dezhou.gov.cn/wc/） 
+方式：①采购公告下方的采购文件仅供查看，供应商须在系统中的“招标文件下载”页面下载电子采购文件（.dzzf）。②供应商必须同时在中国山东政府采购网登记注册。③采购公告未尽事宜详见采购文件。 
+售价：0元 
+四、响应文件提交 
+截止时间：2025年08月27日15时00分（北京时间）前加密的电子响应文件均可系统提交。 
+五、开启 
+时间：2025年08月27日15时00分（北京时间） 
+地点：本项目实行网上远程开标，供应商可自行选择任意地点登录“不见面开标大厅”参加开标。 
+六、公告期限 
+自本公告发布之日起3个工作日。 
+七、其他补充事宜 
+无 
+八、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名称：武城县自然资源局 
+地址：武城县振华街46号 
+联系方式：0534-2179121 
+2.采购代理机构信息 
+名称：华瑞国际工程咨询集团有限公司 
+地址：德州市天衢新区康博大厦27层 
+联系方式：13515447594 
+3.项目联系方式 
+项目联系人：李女士 
+电话：13515447594 
+附件：磋商文件-山东省德州市武城县自然资源局武城县实景三维采购项目.pdf政府采购项目需求方案.pdf投标人操作手册.zip 
+发 布 人：华瑞国际工程咨询集团有限公司 
+发布时间：2025年08月15日</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/Zu1hg5skcPPMN98BRjJtXQ.jhtml</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>实景三维郯城建设项目招标公告</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-08-08 16:58:38</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>项目概况： 
+郯城县自然资源和规划局实景三维郯城建设的潜在供应商应在临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)获取采购文件，并于2025年9月2日 09时00分（北京时间）前提交响应文件。 
+一、项目基本情况：  
+项目编号：SDGP371322000202502000062  
+项目名称：实景三维郯城建设 
+采购方式：公开招标 
+预算金额：301.8361万元  
+最高限价：301.8361万元  
+采购需求：  
+标的 
+标的名称 
+数量 
+简要技术需求或服务要求 
+本包预算金额（单位：万元） 
+A 
+城市级实景三维郯城建设 
+1 
+详见招标文件 
+156.3361 
+B 
+地形级实景三维郯城建设 
+1 
+详见招标文件 
+145.5 
+合同履行期限：详见招标文件。  
+本项目不接受联合体投标。  
+二、申请人的资格要求：  
+1、满足《中华人民共和国政府采购法》第二十二条规定；  
+2、落实政府采购政策需满足的资格要求：鼓励节能政策、环保政策、中小企业政策、监狱企业政策、残疾人福利性企业政策等。  
+3、本项目的特定资格要求：1、满足《中华人民共和国政府采购法》第二十二条规定的供应商资格要求；2、具有独立承担民事责任的能力，具有良好的商业信誉和健全的财务会计制度；3、具有履行合同所必需的设备和专业技术能力；4、有依法缴纳税收和社会保障资金的良好记录；5、具备有效的营业执照或事业单位法人证书、税务登记证、组织机构代码证（三证或五证合一的只需提供带有社会信用代码的营业执照或事业单位法人证书），须具有测绘主管部门颁发的乙级测绘资质证书（含测绘航空摄影专业、摄影测量与遥感专业），具有独立法人资格； 6、参加政府采购活动前三年内，在经营活动中没有重大违法记录，投标单位未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单，信用信息以“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）公布为准及“中国裁判文书网”（http://wenshu.court.gov.cn/）无行贿记录证明；7、在山东省政府采购信息公开平台注册，在临沂市公共资源交易网办理诚信入库和CA实名认证并进行网上下载招标文件；8、法律、法规及招标文件规定的其他条件。  
+三、获取采购文件：  
+1.时间：2025年08月11日08时30分至2025年08月15日17时00分（北京时间）  
+2.地点：临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)。  
+3.方式：①供应商在获取采购文件截止时间前办理CA认证、诚信入库并登录临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)在线下载采购文件，未下载采购文件视为自动放弃投标；注：本项目实行网上招投标，潜在投标申请人应自行关注交易平台，因自身贻误行为导致未成功获取招标文件及补充（答疑、澄清）文件，责任自负。供应商需在临沂市公共资源交易网系统中的“招标文件下载”页面下载电子采购文件（.LYZF），并制作电子版投标文件（.LYTF）上传到系统。②本项目采用“不见面开标系统”，各供应商须于响应文件递交截止时间之前将响应文件上传至临沂市公共资源网电子交易平台，各供应商的法定代表授权委托代理人不需到开标现场，只需在投标截止时间前登陆临沂市公共资源交易网“不见面开标系统”参与本项目开标活动。 
+4.售价：0元。  
+四、响应文件提交：  
+1.截止时间：2025年09月02日09时00分（北京时间）  
+2.地 点：临沂市公共资源交易网电子交易平台  
+五、开启：  
+1.开启时间：2025年09月02日09时00分（北京时间）  
+2.开启地点：郯城县公共资源交易中心开标室  
+六、公告期限：  
+自本公告发布之日起5个工作日。  
+七、其他补充事宜：  
+其他补充事宜: 无 
+八、对本次招标提出询问，请按以下方式联系：  
+1、采购人信息  
+名  称：郯城县自然资源和规划局 
+地  址：郯城县建设路东首 
+联系方式：15866999206 
+2、采购代理机构  
+名 称：临沂京棣建设项目管理咨询有限公司  
+地 址：临沂市郯城县郯东路56-9号 
+联系方式：13365392944  
+3、项目联系方式  
+项目联系人：临沂京棣建设项目管理咨询有限公司 
+联系方式：13365392944  
+九、本项目监督部门： 
+名 称：郯城县财政局政府采购监督管理科 
+电 话：0539-6800069</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/vAzZgAfZp6xPMgxahR9+zw.jhtml</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>山东省潍坊市青州市实景三维空间税源分析项目招标公告</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-08-06 17:05:01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>项目概况
+http://ggzy.weifang.gov.cn:8082/wfggzy/）网上自行下载获取招标文件，并于2025年08月27日09点30分（北京时间）前递交投标文件。
+http://ggzy.weifang.gov.cn:8082/wfggzy/）自行下载采购文件。
+Wfggzy@789登录），并完善“新版系统”中交易乙方信息管理的基本信息，签署上传《投标人（供应商、竞买人）信用承诺书》等相关附件。咨询电话：15318914578，技术支持：江苏国泰新点软件有限公司，电话：0536-8097130。
+http://www.ccgp-shandong.gov.cn）进行注册；已注册的供应商请确保山东省政府采购公开信息平台和潍坊市公共资源交易网供应商库中的统一社会信用代码和中文单位名称一致。
+http://ggzy.weifang.gov.cn:8082/BidOpeningHall/bidhall/default/login.html
+发布人：山东天弘项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/kt9w9fNzuouLyV+9bNR6YA.jhtml</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>山东省淄博市沂源县自然资源局实景三维建设采购项目包二（二次）竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-08-01 13:46:58</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>山东省淄博市沂源县自然资源局实景三维建设采购项目包二（二次）竞争性磋商公告
+项目概况
+山东省淄博市沂源县自然资源局实景三维建设采购项目 招标项目的潜在投标人应登录淄博市公共资源交易平台获取采购文件，并于 2025年08月15日09时00分（北京时间）前递交响应文件。
+一、项目基本情况
+项目编号：SDGP370323000202502000072
+项目名称：山东省淄博市沂源县自然资源局实景三维建设采购项目
+预算金额：本项目总预算为1242381.00元,共分1个包,其中山东省淄博市沂源县自然资源局实景三维建设采购项目包二（兴趣点数据采集工作）:140700.00元。
+最高限价:140700.00元。
+采购需求：1.根据国家、省、市统一部署，我县应于2025年完成实景三维建设，主要包括实景三维模型、基础地理实体数据、影像图数据、兴趣点数据等内容，相关数据将汇交自然资源部。我县实景三维的工作范围共56.70平方千米，主要包括0.05米分辨率倾斜影像数据获取、0.05米分辨率城市级实景三维模型制作、城市级基础地理实体数据生产、0.05米分辨率数字正射影像制作等。开展沂源县全域1636.00平方千米范围内兴趣点数据采集工作，利用山东省政务地理信息采集软件，通过外业实行逐点巡查、核实，将变化的信息直接上传至省国土测绘院建立的山东省地名地址数据采集系统中。2.项目地点：采购人指定地点。3.质量标准：合格且通过招标人的验收。
+合同履行期限：自合同签订生效之日起至11月底前完成兴趣点数据生产及更新，并通过省级核验，提交成果报告。
+本项目不接受联合体投标。
+二、申请人的资格要求
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+2.落实政府采购政策需满足的资格要求：本项目不专门面向中小企业采购；
+3.本项目的特定资格要求：（1）具有《营业执照》有效证件或有效身份证明并具备本招标文件要求的服务能力；（2）具有有效的乙级及以上测绘资质证书（专业类别包含地理信息系统工程）；（3）未被列入信用中国网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）网站渠道信用记录失信被执行人、重大税收违法失信主体当事人名单、政府采购严重违法失信行为记录名单的供应商。
+三、获取采购文件
+时间：截止到2025年08月14日09时00分（北京时间）。
+地点：淄博市公共资源交易网（http://ggzyjy.zibo.gov.cn/）
+采购文件获取方式：①已在淄博市公共资源交易网（http://ggzyjy.zibo.gov.cn:8082/）注册的供应商，需要登录淄博市公共资源交易网网站首页点击“登录注册”，登录系统后免费下载采购文件。②未注册的供应商请到淄博市公共资源交易网（http://ggzyjy.zibo.gov.cn:8082/）在网站首页点击“登录注册”（http://ggzyjy.zibo.gov.cn:9181/TPBidder）根据页面提示进行注册（注册类型：交易乙方）。咨询电话：0533-7015160，咨询时间：北京时间8：30-12：00，13：30-17：00（法定公休日、法定节假日除外）。技术咨询电话：400-998-0000/0512-58188535。③为满足信息公开和供应商诚信体系建设需要，供应商需同时在中国山东政府采购网（http://www.ccgp-shandong.gov.cn/）进行注册。未注册的供应商须登录中国山东政府采购网点击首页右侧“供应商注册”进行注册。
+四、响应文件提交
+截止时间： 2025年08月15日09时00分（北京时间）
+响应文件递交方式：将加密的电子响应文件在截止时间前，登录淄博市公共资源交易网网站首页点击“登录注册”，登录系统后通过“上传响应文件”栏目上传完成。（1）拟参加本项目的供应商须办理并取得数字证书（电子印章）后，方可加密生成及上传电子响应文件。请各供应商仔细阅读《数字证书办理注意事项及相关资料下载》（淄博市公共资源交易网→服务指南→CA服务类）并按照须知要求办理。（2）供应商可到淄博市公共资源交易中心一楼大厅办理数字证书，也可网上办理。数字证书办理电话：①山东CA：0533-3592521、400-607-8966（山东省数字证书认证管理有限公司）②CFCA：0533-3590310（中金金融认证中心有限公司）。其他具体操作请参考（淄博市公共资源交易网→服务指南→政府采购）等相关内容，技术咨询电话：400-998-0000/0512-58188535。
+五、开启
+时间： 2025年08月15日09时00分（北京时间）
+地点：请各供应商在开标前登录网上开标大厅
+六、公告期限
+自本公告发布之日起3个工作日。
+七、其他补充事宜
+无
+八、对本次招标提出询问，请按以下方式联系
+1.采购人信息
+名 称：沂源县自然资源局 
+地 址：沂源县健康路3号
+联系人：王富华
+联系方式：0533-3223545
+2.采购代理机构信息
+名 称：淄博君隆工程咨询有限公司
+地 址：山东省淄博市沂源县城历山路南首（沂源商务大厦B座4楼）
+联系方式：0533-3658000
+3.项目联系方式
+项目联系人：王玉琴
+电 话：0533-3658000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/IWQU5fdAzoF0odsSWWnM5g.jhtml</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>济南市莱芜区自然资源局莱芜区2025年实景三维更新项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-24 16:12:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>济南市莱芜区自然资源局莱芜区2025年实景三维更新项目竞争性磋商公告
+项目概况：
+莱芜区2025年实景三维更新项目招标项目的潜在投标人应在相应公告获取采购文件，并于2025-08-06 09:00 （北京时间）前提交响应文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370116000202502000097
+项目名称：莱芜区2025年实景三维更新项目
+采购方式：竞争性磋商
+预算金额：本项目预算金额为 1020000.00 元，其中：无分包 莱芜区2025年实景三维更新项目 1020000.00 元。
+采购需求：莱芜区2025年实景三维更新项目
+合同履行期限：签订合同后1年内
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+三、获取采购文件：
+时间：2025-07-25 09:00至2025-07-29 17:00
+地点：济南公共资源交易中心网站（http://jnggzy.jinan.gov.cn/）
+方式：网站“招标公告”栏目中，在对应招标公告中下载
+售价：0元
+四、响应文件提交：
+截止时间：2025-08-06 09:00 （北京时间）
+地点：通过【济南公共资源投标文件制作工具】上传响应文件。
+五、开启：
+时间：2025-08-06 09:00 
+地点：济南公共资源交易中心莱芜分中心（济南市莱芜区龙潭东大街1号）
+六、公告期限：
+磋商公告发出之日起3个工作日。
+七、其他补充事宜：
+/
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名称：济南市莱芜区自然资源局
+地址：济南市莱芜区龙潭东大街001号
+电话：0531-76117623
+2.采购代理机构信息
+名称：山东省国际招标有限公司
+地址：济南市历下区二环东路和瑞广场A栋8层
+电话：0531-83220877
+3.项目联系方式
+项目联系人：山东省国际招标有限公司
+电话：0531-83220877
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(莱芜区2025年实景三维更新项目) 
+发 布 人：山东省国际招标有限公司
+发布时间：2025-07-24 16:12
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/9kIOGT0AuuSLPFd6dKoF+Q.jhtml</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>威海高区低空经济产业园区一期及基础设施配套项目地块一室外工程资格预审公告</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-08-21 14:47:32</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>威海高区低空经济产业园区一期及基础设施配套项目地块一室外工程资格预审公告（代招标公告）
+[项目专业:施工总承包]
+sg202512038
+一、招标条件
+本招标项目威海高区低空经济产业园区一期及基础设施配套项目地块一室外工程已由相关部门批准建设，招标人为威海未来智能科技发展有限公司，建设资金为自筹，项目出资比例为100%。项目已具备招标条件，现对该项目的施工进行公开招标，特邀请有意向的潜在申请人（以下简称“申请人”）提出资格预审申请。
+二、工程招标范围
+设计图纸范围内的施工及保修，具体内容以工程量清单为准。
+三、项目基本情况
+本工程位于威海市高区，东为环湾西路西，西为双岛西路，包括安装工程、室外硬化、室外管网、绿化等。具体内容以工程量清单为准。计划工期：60日历天。工程质量：国家验收规范合格标准。项目总投资：约1800万元。
+标段名称 规模 标段内容 
+不分标段0本工程位于威海市高区，东为环湾西路西，西为双岛西路，包括安装工程、室外硬化、室外管网、绿化等。具体内容以工程量清单为准。
+四、投标企业资格要求 
+八 、资格预审文件的获取
+【ztb格式文件下载开始时间：2025-08-21 18:00:00;下载截止时间：2025-08-28 18:00:00 下载地址：威海市建设工程电子交易系统（http://60.212.191.165:10006/Pages/Login/SSOLoginWH.aspx?appid=104&amp;backurl=1）本项目公告页面。有关情况的变更请及时关注“威海市建设工程电子交易系统”本项目公告页面。】
+1.下载地址：威海市建设工程电子交易系统共发布两个版本的资格预审文件，一个是pdf格式，另一个是ztb格式。其中电子pdf格式的资格预审文件，任何人都可随时随地查看和下载；电子ztb格式的资格预审文件，只有符合资格条件的潜在申请人在规定时间内通过CA数字证书[CA证书办理流程详见威海市公共资源交易网的办事指南-工程建设专区-数字证书办理流程，办理地址为威海市公共资源交易中心（威海市环翠区塔山中路317号市政务服务中心四楼），电话0631-5819292。只有下载过电子ztb格式资格预审文件的潜在资格预审申请人才能参加资格预审。
+九 、资格预审办法
+本次资格预审采用有限数量制，当通过详细审查的申请人多于9家时，通过资格预审的申请人限定为9家；通过详细审查的申请人不少于3家且没有超过9家时，审查委员会不再进行评分，通过资格评审委员会详细审查的申请人均通过资格预审，可参加本项目的投标。
+十 、其他
+本项目采用全过程网上交易,不接受申请人（投标单位）到现场参加开标活动；申请人（投标单位）提前熟悉交易系统（工程建设项目投标人操作手册网址：https://ggzyjy.weihai.cn/bszn/005001/20220422/c858c102-a4f6-44b2-a497-72e41a6bfd94.html），通过交易系统线上参加开标活动，不熟悉系统操作产生的风险由申请人（投标单位）承担。
+十一 、招标文件的获取
+1.威海市建设工程电子交易系统共发布两个版本的招标文件，一个是pdf格式，另一个是ztb格式。其中电子pdf格式的招标文件，任何人都可随时随地查看和下载；电子ztb格式的招标文件，只有通过资格预审的潜在投标人在规定时间内通过CA数字证书[CA证书办理流程详见威海市公共资源交易网的办事指南-工程建设专区-数字证书办理流程，办理地址为威海市公共资源交易中心（威海市环翠区塔山中路317号市政务服务中心四楼），电话0631-5819292。只有通过资格预审并下载过电子ztb格式招标文件的潜在投标人才能参加投标。
+十二 、资格预审申请文件的递交
+开标地点:
+威海市公共资源交易中心（威海市环翠区塔山中路317号市政务服务中心四楼）
+【交易十六厅 】
+投标截止时间、开标时间:
+2025-09-03 14:00 
+十三 、发布公告的媒介
+本次招标公告同时在威海市住房和城乡建设局、威海市公共资源交易网、山东省公共资源交易网发布。
+十四 、联系方式
+招 标 人： 威海未来智能科技发展有限公司
+招标代理机构： 威海市德佳工程咨询管理有限责任公司
+地    址： 威海市火炬高技术产业开发区科技路220号
+地    址： 威海市火炬高技术产业开发区怡园街道办事处昌鸿小区K区-25号-402
+邮    编： 264209
+邮    编： 264200
+联 系 人： 孙文辉
+联 系 人： 曲海霞
+电    话： 0631-5628199
+电    话： 0631-5280606
+传    真： 
+传    真： 
+电子邮件： 
+电子邮件： Whsdj5280606@163.com
+网    址： 
+网    址： 
+开户银行： 
+开户银行： 威海银行股份有限公司文化支行
+账    号： 
+账    号： 817830101421007715
+2025年8月21日</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/jsgczbgg/E22A4dULWDndrW6FbRa^+w.jhtml</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>威海高区低空经济产业园区一期及基础设施配套项目地块二室外工程资格预审公告</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-08-21 14:28:22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>威海高区低空经济产业园区一期及基础设施配套项目地块二室外工程资格预审公告（代招标公告）
+[项目专业:施工总承包]
+sg202512039
+一、招标条件
+本招标项目威海高区低空经济产业园区一期及基础设施配套项目地块二室外工程，招标申请已得到相关主管部门批准建设，招标人为威海未来智能科技发展有限公司，建设资金来自自筹资金，项目出资比例为100%。项目已具备招标条件，现对该项目进行公开招标，特邀请有意向的潜在投标人（以下简称申请人）提出资格预审申请。
+二、工程招标范围
+工程施工及保修全过程
+三、项目基本情况
+1、项目概况：威海高区低空经济产业园区一期及基础设施配套项目地块二室外工程，占地约2.5万平方米，建设内容包含：停机坪、厂区道路、室外管网、附属用房及门卫等室外配套工程，预算价约1400万元。
+标段名称 规模 标段内容 
+1标段25000平方米威海高区低空经济产业园区一期及基础设施配套项目地块二室外工程，占地约2.5万平方米，建设内容包含：停机坪、厂区道路、室外管网、附属用房及门卫等室外配套工程，预算价约1400万元。
+四、投标企业资格要求 
+八 、资格预审文件的获取
+【ztb格式文件下载开始时间：2025-08-21 17:30:00;下载截止时间：2025-08-28 17:30:00 下载地址：威海市建设工程电子交易系统（http://60.212.191.165:10006/Pages/Login/SSOLoginWH.aspx?appid=104&amp;backurl=1）本项目公告页面。有关情况的变更请及时关注“威海市建设工程电子交易系统”本项目公告页面。】
+1、下载地址：威海市建设工程电子交易系统共发布两个版本的资格预审文件，一个是pdf格式，另一个是ztb格式。其中电子pdf格式的资格预审文件，任何人都可随时随地查看和下载；电子ztb格式的资格预审文件，只有符合资格条件的申请人在规定时间内通过CA数字证书[CA证书办理流程详见威海市公共资源交易网的办事指南-工程建设专区-数字证书办理流程，办理地址为威海市公共资源交易中心（威海市环翠区塔山中路317号市政务服务中心四楼），电话0631-5819292]才能下载。只有下载过电子ztb格式资格预审文件的申请人才能参加资格预审。
+九 、资格预审办法
+本工程资格预审办法按有限数量制。当通过详细审查的申请人多于9家时，通过资格预审的申请人限定为9家；当通过详细审查的申请人不少于3家且没有超过9家时，审查委员会不再进行评分，通过详细审查的申请人均可通过资格预审。
+十 、其他
+本项目采用全过程网上交易,申请人（投标单位）不需到现场参加开标活动；申请人（投标单位）提前熟悉交易系统（工程建设项目投标人操作手册网址：https://ggzyjy.weihai.cn/bszn/005001/20220422/c858c102-a4f6-44b2-a497-72e41a6bfd94.html），通过交易系统线上参加开标活动，不熟悉系统操作产生的风险由申请人（投标单位）承担。
+十一 、招标文件的获取
+1、凡资格预审合格者，请随时关注“威海市住房和城乡建设局”网站资格预审公告栏中本项目的“招标文件下载开始日期”和“招标文件下载截止日期”，威海市建设工程电子交易系统共发布两个版本的招标文件，一个是pdf格式，另一个是ztb格式。其中电子pdf格式的招标文件，任何人都可随时随地查看和下载；电子ztb格式的招标文件，只有通过资格预审的申请人在规定时间内通过CA数字证书[CA证书办理流程详见威海市公共资源交易网的办事指南-工程建设专区-数字证书办理流程，办理地址为威海市公共资源交易中心（威海市环翠区塔山中路317号市政务服务中心四楼），电话0631-5819292]才能下载。只有下载过电子ztb格式招标文件的申请人才能参加投标（多标段的项目，潜在投标人应对参加的标段分别进行下载电子ztb格式的招标文件，否则视为投标无效）。
+十二 、资格预审申请文件的递交
+开标地点:
+威海市环翠区塔山中路317号
+【交易十五厅 】
+投标截止时间、开标时间:
+2025-09-03 09:00 
+十三 、发布公告的媒介
+本次招标公告同时在本次公告同时在山东省公共资源交易网、威海市住房和城乡建设局网、威海市公共资源交易网上发布发布。
+十四 、联系方式
+招 标 人： 威海未来智能科技发展有限公司
+招标代理机构： 威海鸿泰管理咨询有限公司
+地    址： 威海市火炬高技术产业开发区科技路220号
+地    址： 山东省威海市文化西路175号
+邮    编： 264209
+邮    编： 264200
+联 系 人： 孙文辉
+联 系 人： 徐子涵
+电    话： 0631-5628199
+电    话： 0631-5698557
+传    真： 
+传    真： 
+电子邮件： 
+电子邮件： weihaihongtai@163.com
+网    址： 
+网    址： 
+开户银行： 
+开户银行： 中国建设银行股份有限公司威海文化支行
+账    号： 
+账    号： 37050170710100000239
+2025年8月21日</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/jsgczbgg/5AzkpOGhYwcOKW8jiz+bQA.jhtml</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>济南市发展和改革委员会济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-08-16 02:15:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>济南市发展和改革委员会济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目竞争性磋商公告
+项目概况：
+济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目招标项目的潜在投标人应在相应公告获取采购文件，并于2025-08-28 09:00 （北京时间）前提交响应文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370100000202502000619
+项目名称：济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目
+采购方式：竞争性磋商
+预算金额：本项目预算金额为 590000.00 元，其中：无分包 济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目 590000.00 元。
+采购需求：济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目
+合同履行期限：自合同签订之日起至2025年12月31日前完成。
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定。
+三、获取采购文件：
+时间：2025-08-16 09:00至2025-08-23 09:00
+地点：济南公共资源交易中心网站（http://jnggzy.jinan.gov.cn/）
+方式：线上获取。凡有意参加本次政府采购项目的供应商须在中国山东政府采购网（http：//www.ccgp-shandong.gov.cn/）及济南公共资源交易中心网站（http：//jnggzy.jinan.gov.cn/）两个网站注册。本项目的变更、修改、澄清、补充内容及对项目的暂停、延期通知等情况均在中国山东政府采购网、济南公共资源交易中心网站同时发布。供应商自行查阅网站信息，未按要求查阅者自行承担相应后果，恕不予单独告知（请参与本项目单位及时办理CA证书）。
+售价：0元
+四、响应文件提交：
+截止时间：2025-08-28 09:00 （北京时间）
+地点：通过【济南公共资源投标文件制作工具】上传响应文件。
+五、开启：
+时间：2025-08-28 09:00 
+地点：济南市历城区经十路1277号（经十路与凤鸣路交叉口东北角）
+六、公告期限：
+招标公告发出之日起5个工作日。
+七、其他补充事宜：
+本项目（是否）预采购项目：是。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名称：济南市发展和改革委员会
+地址：济南市龙鼎大道1号龙奥大厦G816
+电话：15105310828
+2.采购代理机构信息
+名称：济南爵达工程项目管理有限公司
+地址：济南市舜义路经十路交界口碧桂园凤凰中心A座1401
+电话：0531-69927355
+3.项目联系方式
+项目联系人：济南爵达工程项目管理有限公司
+电话：0531-69927355
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(济南市发展和改革委员会济南市“十五五”低空经济发展规划研究服务项目) 
+发 布 人：济南爵达工程项目管理有限公司
+发布时间：2025-08-16 02:14
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/HiFB9ueMRhFpUj5da6Whkg.jhtml</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修设计采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-08-04 17:34:46</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>项目概况：
+岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修设计采购项目的潜在供应商应在日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）获取磋商文件，并于2025年8月18日09时30分（北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：SDGP371103000202502000107。  
+项目名称：岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修设计采购项目。
+采购方式：竞争性磋商。
+预算金额（最高限价）：3.00万元。
+采购需求：详见磋商文件。
+合同履行期限：详见磋商文件。
+本项目不接受联合体。
+二、申请人的资格要求：
+1.供应商应符合《中华人民共和国政府采购法》第二十二条规定。
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购，需落实节能环保、中小微型企业扶持、监狱企业扶持、残疾人福利性单位扶持等相关政府采购政策详见磋商文件。
+3.本项目的特定资格要求：
+3.1供应商能独立承担民事责任和合同义务，能在国内合法提供采购内容及其相应的服务，具备履行合同所必须的设备、专业技术能力和人员培训能力。
+3.2供应商须具备建筑装饰工程设计专项丙级及以上资质（或建筑行业（建筑工程）专业设计丙级及以上资质或建筑行业设计丙级及以上资质或工程设计综合甲级资质），并在人员、设备、资金等方面具有相应的能力。
+3.3供应商拟派项目负责人须具有二级及以上注册建筑师执业资格。
+3.4供应商在中国政府采购网（www.ccgp.gov.cn）未被列入政府采购严重违法失信行为记录名单，或在“信用中国”网站（www.creditchina.gov.cn）及“信用山东”网站（http://credit.shandong.gov.cn/）未被列入失信被执行人、重大税收违法案件当事人名单，以及未存在《中华人民共和国政府采购法实施条例》第十九条规定的行政处罚记录。
+3.5单位负责人为同一人或者存在直接控股、管理关系的不同投标单位，不得参加同一合同项下的政府采购活动。
 三、获取磋商文件
-时间：2025年07月03日08时00分至2025年07月11日16时00分
-获取招标文件网址：http://www.ggzyzx.jl.gov.cn/
-1.首先登录吉林省公共资源交易中心网站“公共资源交易主体注册”栏目（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin），按要求完成交易主体信息注册。完成交易主体信息注册的用户，可携带所需材料至吉林省公共资源交易中心（吉林省长春市人民大街9999号）四楼CA证书办理处免费办理CA数字证书，也可到吉林省内各市（州）、长白山管委会公共资源交易平台和梅河口市公共资源交易场所现场办理CA数字证书，CA数字证书全省通办通用 (咨询电话:0431-85177688 QQ:800805008) 。未进行网上注册并办理CA认证的供应商将无法参与吉林省公共资源交易中心（吉林省政府采购中心）组织的所有招标采购活动。  
-2.供应商取得CA认证后，可登录吉林省公共资源交易中心（吉林省政府采购中心）网站“供应商-&gt;吉林省公共资源交易一体化平台”登录后选择“公告-&gt;采购-&gt;进入项目-&gt;交易文件下载”下载电子招标文件。供应商下载招标文件后，务必在规定的“获取招标文件结束时间”之前操作“投标确认”并完善相关投标信息，点击“投标确认”按钮确认参加投标才可参与该项目的采购活动。如果供应商在规定的“获取招标文件结束时间”之前没有点击“投标确认”按钮确认参加投标，将不能参与该项目的采购活动和对采购文件提出质疑。
+时间：2025年8月5日至 2025年8月11日（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）。
+方式：自行下载。凡有意参加本次政府采购的供应商登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号或“标证通APP”移动CA下载磋商文件（格式为*.RZZF）, 此为获取磋商文件唯一途径。企业未办理数字证书（CA）或“标证通APP”移动CA的，需点击日照市公共资源交易网首页右侧的”日照CA办理入口”或扫描“移动数字证书”二维码办理。
+1.信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站中“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的投标人、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn/rzwz/），已入库认证通过的单位无需进行此操作。
+2.凡有意参加本次政府采购的供应商必须在中国山东政府采购网(http://www.ccgp-shandong.gov.cn)进行注册。
+售价：0元，日照市公共资源交易网上免费获取。
 四、响应文件提交
-2025年08月15日09点00分
-地    点：吉林省公共资源交易一体化平台
-（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
+截止时间：2025年8月18日09时30分（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn），供应商须在投标截止时间前将加密的电子响应文件（后缀为.RZTF）通过日照市公共资源网电子交易系统的“上传投标文件”菜单进行上传。供应商在投标截止时间前未上传加密的电子投标文件，招标人不予受理。
 五、开启
-开始时间：2025年08月15日09点00分
-地    点：吉林省公共资源交易一体化平台
-（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
+时间：2025年8月18日09时30分（北京时间）。
+地点：日照市岚山区玉泉二路凯航大厦三楼第一开标室。
 六、公告期限
-自本公告发布之日起不少于5个工作日。
+自本公告发布之日起3个工作日。
 七、其他补充事宜
-1.凡与本中心招投标活动有关的时间，均以吉林省公共资源交易中心（吉林省政府采购中心）服务器显示的北京时间为准。
-八、联系方式
-对本次招标提出询问，请与下列人员联系。
+本项目开标会议采用日照不见面开标大厅方式召开，开标将于2025年8月18日09时30分（北京时间）准时开始，请在开标前签到。自公布供应商名单公布后30分钟内（时间以日照市公共资源交易中心系统时间为准。若系统出现故障，则以故障排除后进入日照市公共资源交易中心系统的时间为准）完成远程线上解密，供应商不能在规定时间内完成远程线上解密，导致投标文件无法读取或导入的，则视为放弃此次投标文件解密，按投标无效处理。（具体操作方法详见日照市公共资源交易网-下载园地-日照不见面开标大厅代理和投标人操作手册）。请各供应商按时加入本项目钉钉开标群，时刻注意钉钉群内信息，并在开标期间保持手机畅通，以便按磋商文件要求进行磋商及网上二次报价。
+八、凡对本次采购提出询问，请按以下方式联系。
 1.采购人信息
-名    称：吉林省监狱管理局
-地    址：长春市会展大街1666号
-联 系 人：尹卫星
-联系方式：18504301688
-2.吉林省公共资源交易中心（吉林省政府采购中心）
-采购文件编制联系人：罗忠凯   联系方式：0431-81866996
-组织开标评标联系人：赵伟佳   联系方式：0431-81866966
-地    址：吉林省长春市南关区人民大街9999号
-吉林省公共资源交易中心
-（吉林省政府采购中心）
-2025年 07月 03日
-招标文件正文.pdf
-来源：
-var laiyuan = '吉林省公共资源交易平台';
-if(laiyuan == ""){
-document.write("吉林省公共资源交易中心网");
-}else{
-document.write(laiyuan);
-}
-初审：罗忠凯
-复审：李国庆
-终审：赵焕春
-//判断相关文档是否存在
-var str_relnews="";
-if(str_relnews!=""){
-document.write('&lt;tr&gt;&lt;td align="left" width="125" height="40" style="font-size:16px; line-height:40px; text-align:center; font-family:Microsoft Yahei; color:#fff; background:#3F8DC9"&gt;相关文档&lt;/td&gt;&lt;td style="background:#F8F8F8"&gt;&lt;/td&gt;&lt;/tr&gt;');
-}
-var file_appendix='';
-if(file_appendix!=""){
-document.write('&lt;dt&gt; 附件：&lt;/dt&gt;');
-}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>http://www.ggzyzx.jl.gov.cn/jyxx/zfcg/zbgg/202507/t20250703_3476647.html</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>吉林省公共资源交易中心</t>
+名    称：日照市岚山区交通运输局
+地    址：日照市岚山区岚山中路
+联系方式：0633-2616171
+2.采购代理机构信息
+名  称：山东博川项目管理有限公司
+地   址：山东省日照市高新区学苑路217号日照文化创意产业园A4二楼 
+联系方式：0633-2187171
+3.项目联系方式
+项目联系人：潘经理、李经理
+电   话：0633-2187171</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/B1aVF4nwFYlzeM+BYr8EdQ.jhtml</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修造价及全过程跟踪采购项目竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-08-04 17:34:38</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>项目概况：
+岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修造价及全过程跟踪采购项目的潜在供应商应在日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）获取磋商文件，并于2025年8月18日10时00分（北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：SDGP371103000202502000108。 
+项目名称：岚山区低空飞行产业基础设施建设项目-岚山区通用航空与低空经济协同中心室内装修造价及全过程跟踪采购项目。
+采购方式：竞争性磋商。
+预算金额（最高限价）：1.30万元。
+采购需求：详见磋商文件。
+合同履行期限：详见磋商文件。
+本项目不接受联合体。
+二、申请人的资格要求：
+1.供应商应符合《中华人民共和国政府采购法》第二十二条规定。
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购，需落实节能环保、中小微型企业扶持、监狱企业扶持、残疾人福利性单位扶持等相关政府采购政策详见磋商文件。
+3.本项目的特定资格要求：
+3.1供应商能独立承担民事责任和合同义务，能在国内合法提供采购内容及其相应的服务，具备履行合同所必须的设备、专业技术能力和人员培训能力。
+3.2供应商拟派项目负责人须具有一级注册造价工程师执业资格。
+3.3供应商在中国政府采购网（www.ccgp.gov.cn）未被列入政府采购严重违法失信行为记录名单，或在“信用中国”网站（www.creditchina.gov.cn）及“信用山东”网站（http://credit.shandong.gov.cn/）未被列入失信被执行人、重大税收违法案件当事人名单，以及未存在《中华人民共和国政府采购法实施条例》第十九条规定的行政处罚记录。
+3.4单位负责人为同一人或者存在直接控股、管理关系的不同投标单位，不得参加同一合同项下的政府采购活动。
+三、获取磋商文件
+时间：2025年8月5日至 2025年8月11日（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）。
+方式：自行下载。凡有意参加本次政府采购的供应商登录日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn）凭企业数字证书（CA）或公共资源交易网账号或“标证通APP”移动CA下载磋商文件（格式为*.RZZF）, 此为获取磋商文件唯一途径。企业未办理数字证书（CA）或“标证通APP”移动CA的，需点击日照市公共资源交易网首页右侧的”日照CA办理入口”或扫描“移动数字证书”二维码办理。
+1.信息库认证：首次投标的供应商需登录日照市公共资源交易网，点击网站中“投标人登录系统”，申请公共资源交易网账号，登录系统填写企业信息并上传有关材料的原件扫描件，提交后账号即启用（具体详见日照市公共资源交易网中的投标人、投标单位和代理机构入库通知-http://ggzyjy.rizhao.gov.cn/rzwz/），已入库认证通过的单位无需进行此操作。
+2.凡有意参加本次政府采购的供应商必须在中国山东政府采购网(http://www.ccgp-shandong.gov.cn)进行注册。
+售价：0元，日照市公共资源交易网上免费获取。
+四、响应文件提交
+截止时间：2025年8月18日10时00分（北京时间）。
+地点：日照市公共资源交易网（http://ggzyjy.rizhao.gov.cn），供应商须在投标截止时间前将加密的电子响应文件（后缀为.RZTF）通过日照市公共资源网电子交易系统的“上传投标文件”菜单进行上传。供应商在投标截止时间前未上传加密的电子投标文件，招标人不予受理。
+五、开启
+时间：2025年8月18日10时00分（北京时间）。
+地点：日照市岚山区玉泉二路凯航大厦三楼第二开标室。
+六、公告期限
+自本公告发布之日起3个工作日。
+七、其他补充事宜
+本项目开标会议采用日照不见面开标大厅方式召开，开标将于2025年8月18日10时00分（北京时间）准时开始，请在开标前签到。自公布供应商名单公布后30分钟内（时间以日照市公共资源交易中心系统时间为准。若系统出现故障，则以故障排除后进入日照市公共资源交易中心系统的时间为准）完成远程线上解密，供应商不能在规定时间内完成远程线上解密，导致投标文件无法读取或导入的，则视为放弃此次投标文件解密，按投标无效处理。（具体操作方法详见日照市公共资源交易网-下载园地-日照不见面开标大厅代理和投标人操作手册）。请各供应商按时加入本项目钉钉开标群，时刻注意钉钉群内信息，并在开标期间保持手机畅通，以便按磋商文件要求进行磋商及网上二次报价。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+名    称：日照市岚山区交通运输局
+地    址：日照市岚山区岚山中路
+联系方式：0633-2616171 
+2.采购代理机构信息
+名  称：山东博川项目管理有限公司
+地   址：山东省日照市高新区学苑路217号日照文化创意产业园A4二楼
+联系方式：0633-2187171
+3.项目联系方式
+项目联系人：潘经理、李经理
+电   话：0633-2187171</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/beNaqXldEsMSldW3pYtxPA.jhtml</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>济南新旧动能转换起步区管理委员会经济发展部济南新旧动能转换起步区低空经济实施方案编制咨询服务项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:37:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>济南新旧动能转换起步区管理委员会经济发展部济南新旧动能转换起步区低空经济实施方案编制咨询服务项目公开招标公告
+项目概况：
+济南新旧动能转换起步区低空经济实施方案编制咨询服务项目招标项目的潜在投标人应在相应公告界面获取招标文件，并于2025-08-19 09:00 （北京时间）前递交投标文件。
+一、项目基本情况：
+项目编号（建议书编号）：SDGP370193000202502000115
+项目名称：济南新旧动能转换起步区低空经济实施方案编制咨询服务项目
+预算金额：本项目预算金额为 300000.00 元，其中：无分包 低空经济实施方案编制咨询服务项目 300000.00 元。
+采购需求：本项目为济南新旧动能转换起步区低空经济实施方案编制咨询服务项目，具体要求详见招标文件。
+合同履行期限：详见招标文件。
+本项目（是/否）接受联合体投标：否
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定。
+三、获取招标文件：
+时间：2025-07-30 09:00至2025-08-05 17:00
+地点：济南公共资源交易中心网站（http://jnggzy.jinan.gov.cn/）
+方式：网站“招标公告”栏目中，在对应招标公告中下载
+售价：0元
+四、提交投标截止时间、开标时间和地点：
+投标截止时间、开标时间：2025-08-19 09:00 （北京时间）
+开标地点：济南市公共资源交易中心起步区交易大厅（天桥区309国道大桥段 3099 号）
+五、公告期限：
+招标公告发出之日起5个工作日。
+六、其他补充事宜：
+无
+七、对本次招标提出询问，请按以下方式联系：
+1.采购人信息
+名称：济南新旧动能转换起步区管理委员会经济发展部
+地址：济南市天桥区大桥街道南边界路市民中心（济南新旧动能
+电话：0531-66604149
+2.采购代理机构信息
+名称：金招（山东）项目管理有限公司  
+地址：济南市千佛山西路38号山东教育电视台前行1000米路北
+电话：0531-68828028
+3.项目联系方式
+项目联系人：张春臻、车梅丽、张浩、赵田田、周玉宝
+电话：0531-68828028
+附件：
+请登录“济南公共资源交易中心”个人空间，通过“政府采购入口”进行招标文件下载。登录地址：
+http://jnggzy.jinan.gov.cn/jnggzyztb/new_flogin/login.do
+PDF版招标文件(低空经济实施方案编制咨询服务项目) 
+发 布 人：金招（山东）项目管理有限公司
+发布时间：2025-07-29 14:36
+请点击此处下载供应商下载采购文件的操作说明
+CA证书服务电话：18661977312，0531-67880028，18663480386
+客服QQ: 2881295775</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://ggzyjy.shandong.gov.cn:80/zfcgzbgg/I0gLzUXqhTjc1a1CuT3EZQ.jhtml</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>山东省公共资源交易网</t>
         </is>
       </c>
     </row>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21940,3056 +21940,4002 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>［江西省公共资源交易平台］江西省鼎跃招标咨询有限公司关于井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目（采购编号：JXDY2025-HW-G0054）电子化公开招标公告</t>
+          <t>陇南师范学院人工智能实验室建设项目招标公告</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>陇南市公共资源交易中心</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25287325.htm</t>
+          <t>http://www.lnsggzyjy.cn/jump.html?infoid=f51ae14e-ef04-4eb9-b848-3cfb99cba2fc</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>甘肃省公共资源交易网</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>江西省鼎跃招标咨询有限公司关于井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目（采购编号：JXDY2025-HW-G0054）电子化公开招标公告    
-项目概况    
-井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目 招标项目的潜在投标人应在 江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn） 获取招标文件，并于             2025年09月26日  10点00分 （北京时间）前递交投标文件。        
-一、项目基本情况：    
-项目编号：JXDY2025-HW-G0054    
-项目名称：井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目    
-采购方式：公开招标    
-预算金额：738000.00 元    
-最高限价：  元    
-采购需求：    
-采购条目编号采购条目名称数量单位采购预算（人民币）技术需求或服务要求
-赣购2025F000069126机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）1项738000.00元详见公告附件
-合同履行期限：1、中标人在合同签订后2天内（日历日）到采购人辣椒种植基地根据辣椒品种确定采摘机器人的设计方案。2、合同签订生效之日起75天内（日历日）交货并安装、调试完毕。3、中标人应保证在要求时间内完成全部标的物的供货、安装、调试和培训工作,符合国家标准、行业规范和合同等相关文件的要求。4、本项目为交钥匙工程，项目实施过程中产生的所有费用由中标人承担，项目实施过程的安全由中标人负责。    
-本项目不接受联合体投标。    
-二、申请人的资格要求    
-1.满足《中华人民共和国政府采购法》第二十二条规定：（1）具有独立承担民事责任的能力；（2）具有良好的商业信誉和健全的财务会计制度；（3）具有履行合同所必需的设备和专业技术能力；（4）有依法缴纳税收和社会保障资金的良好记录；（5）参加政府采购活动前三年内,在经营活动中没有重大违法记录；（6）法律、行政法规规定的其他条件。2.单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加同一合同项下的采购活动。为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得参加本项目的政府采购活动。3.投标人被“信用中国”网站列入失信被执行人和重大税收违法案件当事人名单的、被“中国政府采购网”网站列入政府采购严重违法失信行为记录名单（处罚期限尚未届满的），不得参加本项目的政府采购活动。4.落实政府采购政策需满足的资格要求：本项目不专门面向中小企业采购。5.本项目的特定资格要求：无。    
-三、获取招标文件：    
-时间：2025年09月05日  00:00 至 2025年09月12日  23:30（提供期限自本公告发布之日起不得少于5个工作日）        
-地点：江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn）    
-方式：网上确认和下载招标文件。（详见其他补充事宜）    
-售价：0.0元    
-四、提交投标文件截止时间、开标时间和地点：    
-2025年09月26日  10点00分 （北京时间）（自招标文件开始发出之日起至投标人提交投标文件截止之日止，不得少于20日）    
-地点：江西省公共资源交易中心(江西省南昌市青山湖区高新区紫阳大道3088号泰豪科技广场）2楼11号开标室。    
-五、公告期限：    
-自本公告发布之日起5个工作日。    
-六、其他补充事宜：    
-1.潜在投标人必须在江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn）注册并办理江西省CA数字证书和电子签章。具体要求详见“江西省公共资源交易平台-服务指南-投标单位”（网址：https://ggzy.jiangxi.gov.cn/fwzn/007001/service.html）。潜在投标人未使用本单位CA数字证书在江西省公共资源交易平台【江西省公共资源数智交易平台（新平台）（网址：https://ggzyjy.jxggzyjy.cn/tpbidder）】下载招标文件的，视为未获取招标文件，不得参加本项目的投标活动。2.本项目采用“不见面开标”系统开标，投标人无需到达开标现场。具体操作详见《江西省公共资源交易中心不见面开标系统投标人操作手册（政府采购）》（网址：https://ggzy.jiangxi.gov.cn/fwzn/007001/007001003/20220516/e12ffd62-f0f5-49a8-b21a-180e857bcb8e.html）。注意事项详见招标文件第二章；投标人应仔细阅读有关不见面开标的内容，如有疑问请联系新点工作人员，联系电话：400-998-0000。3.本项目采购国内产品，不允许提供进口产品参与采购活动。4.本项目是否采用远程异地评标：否。    
-七、对本次招标提出询问，请按以下方式联系：    
-1.采购人信息    
-名称：井冈山大学    
-地址：江西省吉安市青原区学苑路28号    
-联系方式：0796-8116802    
-2.采购代理机构信息    
-名称：江西省鼎跃招标咨询有限公司    
-地址：江西省南昌市红谷滩区嘉言路668号用友产业园二期1号科研楼BC区4楼    
-联系方式：0791-87915292    
-3.项目联系方式    
-项目联系人：包泽宁、刘霞、伍谢俊、陈鸿    
-电话：0791-87915292</t>
+          <t>陇南师范学院人工智能实验室建设项目招标公告
+项目概况
+	陇南师范学院人工智能实验室建设项目招标项目的潜在投标人应在陇南市公共资源交易网（http://60.164.200.102/）免费下载获取招标文件，并于2025年08月25日09时00分（北京时间）前递交投标文件。
+一、项目基本情况
+	项目编号：GSZM-2025-CX014
+	项目名称：陇南师范学院人工智能实验室建设项目
+	采购方式：公开招标
+	预算金额：2,348,150.00元
+	采购需求：
+	合同包1(陇南师范学院人工智能实验室建设项目):
+	合同包预算金额：2,348,150.00元
+品目号 |  品目名称 |  采购标的 |  数量（单位） |  技术规格、参数及要求 |  品目预算(元) |  最高限价(元)  
+---|---|---|---|---|---|---  
+1-1 |  服务器 |  人工智能实验室建设 |  1(批) |  详见采购文件 |  2,348,150.00 |  2,348,150.00
+	本合同包不接受联合体投标
+	合同履行期限：45天
+二、申请人的资格要求：
+	1.满足《中华人民共和国政府采购法》第二十二条规定;（1）营业执照：投标人有效的营业执照，或事业单位法人证书，或自然人身份证明，或其他非企业组织证明独立承担民事责任能力的文件。（原件彩色扫描件）；（2）财务状况：投标人提供投标截止日前18个月内经第三方审计的财务报告原件彩色扫描件，或财政部门认可的政府采购专业担保机构出具的投标担保函原件彩色扫描件，或银行出具的资信证明原件彩色扫描件。（以出报告日期为准）；（3）纳税证明：投标人需提供投标截止日前缴纳的6个月内任意一个月的增值税或企业所得税的凭据，依法免税的投标人，应提供相应的证明文件。（原件彩色扫描件）；（4）社保缴纳证明：社会保障资金缴纳记录（投标人逐月缴纳社会保障资金的，须提供投标截止日前6个月内至少一个月的缴纳社会保障资金的入账票据凭证原件彩色扫描件，投标人逐年缴纳社会保障资金的，须提供投标截止日前上年度缴纳社会保障资金的入账票据凭证原件彩色扫描件）；（5）无重大违法记录声明：参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明（原件彩色扫描件）。（截至开标日成立不足3年的供应商可提供自成立以来无重大违法记录的书面声明）；（6）法定代表人身份证明或法定代表人授权书：法定代表人身份证明（原件彩色扫描件）或法定代表人授权书（原件彩色扫描件）；（7）信用记录：供应商未被列入“信用中国”网站(www.creditchina.gov.cn)记录失信被执行人或重大税收违法失信主体名单；不处于中国政府采购网(www.ccgp.gov.cn)政府采购严重违法失信行为记录名单中的禁止参加政府采购活动期间的方可参加本项目的投标。投标日当天，由资格审查小组根据以上要求对各供应商信用记录进行查询，有以上行为的视为无效响应。（供应商无需在其资格证明文件中提供信用记录的查询结果）；（8）联合体：本项目不接受联合体投标。
+	2.落实政府采购政策需满足的资格要求：
+	合同包1(陇南师范学院人工智能实验室建设项目)落实政府采购政策需满足的资格要求如下:
+	《政府采购促进中小企业发展管理办法》（财库〔2020〕46号）、关于印发中小企业划型标准规定的通知（工信部联企业【2011】300号）、符合政府采购《节能产品政府采购清单》、《环境标志产品政府采购清单》优先采购政策、《关于促进残疾人就业政府采购政策的通知》（财库【2017】141号）等。
+	3.本项目的特定资格要求：
+	合同包1(陇南师范学院人工智能实验室建设项目)特定资格要求如下:
+	无
+三、获取招标文件
+	时间：2025年08月05日至2025年08月11日，每天上午08:30:00至12:00:00，下午12:00:00至17:30:00（北京时间,法定节假日除外）
+	地点：陇南市公共资源交易网（http://60.164.200.102/）免费下载
+	方式：在线获取
+	售价：免费获取
+四、提交投标文件截止时间、开标时间和地点
+	时间：2025年08月25日09时00分00秒（北京时间）
+	地点：陇南市公共资源交易中心网络开标直播一厅第3坐席（陇南市行政中心5号楼环保大厦）
+五、公告期限
+	自本公告发布之日起5个工作日。
+六、其他补充事宜
+	1.社会公众可通过陇南市公共资源交易网免费下载或查阅招标文件，拟参与本项目的潜在投标人在获取期限内，凭CA数字证书或通过“用户名+密码”方式登录陇南市公共资源交易网（登录网址http://60.164.200.102/TPBidder/memberLogin）在线免费下载获取招标文件，并点击“我要投标”按要求填写信息，未填写信息的投标无效。
+	2.请潜在投标人随时关注陇南市公共资源交易网及甘肃政府采购网本项目相关变更公告及澄清答疑文件，否则由变更引起的相关责任自负。
+	3.本项目的开评标活动通过“甘肃省政府采购、交通工程、水利工程电子交易系统”（https://wskpb.ggzyjy.gansu.gov.cn:3065/login）进行，请投标人在开标时间前登录系统，下载“投标文件编制工具”、“甘肃省政府采购、交通工程、水利工程电子交易系统使用帮助”和“固化后的招标文件”，并按照“甘肃省政府采购、交通工程、水利工程电子交易系统使用帮助”来编制投标文件，并完成网上投标（上传已编制投标文件的文件哈希值）和开标操作，若在开标截止时间前没有网上投标（上传已编制投标文件的文件哈希值）则视为放弃投标。
+七、对本次招标提出询问，请按以下方式联系。
+1.采购人信息
+	名称：陇南师范学院
+	地址：甘肃省陇南市成县河东区建设路
+	联系方式：0939-3200777
+2.采购代理机构信息
+	名称：甘肃正茂项目管理有限公司
+	地址：甘肃省陇南市武都区江岸名都2号楼1单元3楼
+	联系方式：0939-8883688/19119971385
+3.项目联系方式
+	项目联系人：罗刚
+	电话：0939-3200777
+	甘肃正茂项目管理有限公司
+	2025年8月4日</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>山东大学齐鲁医院设备采购项目（智能机器人）终止公告</t>
+          <t>《庆阳市“十五五”数字经济发展规划》《庆阳市“十五五”人工智能产业发展规划》《庆阳市“十五五”AI城市发展规划》规划编制采购项目公开招标公告</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>庆阳市公共资源交易中心</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://www.ccgp.gov.cn/cggg/zygg/qtgg/202509/t20250903_25286078.htm</t>
+          <t>https://www.qysggzyjy.cn/f/newtrade/tenderprojects/697614254878853/flowpage?pageIndex=2</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>甘肃省公共资源交易网</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>一、项目基本情况                
-采购项目编号：HYHA2025-1923        
-采购项目名称：山东大学齐鲁医院设备采购项目（智能机器人）              
-二、项目废标/流标的原因        
-到获取采购文件截止时间止，本项目获取采购文件的供应商不足三家，予以废标。        
-三、其他补充事宜        
-无        
-四、凡对本次公告内容提出询问，请按以下方式联系。        
-1.采购人信息        
-名 称：山东大学齐鲁医院　　　　　        
-地址：济南市文化西路107号　　　　　　　　        
-联系方式：刘老师0531-82169507　　　　　　                
-2.采购代理机构信息        
-名 称：海逸恒安项目管理有限公司　　　　　　　　　　　　        
-地　址：山东省济南市历下区华润置地广场A5-6号楼27层　　　　　　　　　　　　        
-联系方式：董晓璐、张洋洋、苗丰硕0531-88762973　　　　　　　　　　　　        
-3.项目联系方式        
-项目联系人：刘老师        
-电　话：　　0531-82169507</t>
+          <t>庆阳市数据局的潜在投标人应在庆阳市公共资源交易中心网站免费获取公开招标文件，2025年8月4日09时00分（北京时间）前提交投标文件。
+	一、项目基本情况
+	1.项目编号：QYZC2025-0212
+	2.项目名称：《庆阳市“十五五”数字经济发展规划》《庆阳市“十五五”人工智能产业发展规划》《庆阳市“十五五”AI城市发展规划》规划编制采购项目
+	3.预算金额：142.20万元
+	4.最高限价：无
+	5.采购需求：《庆阳市“十五五”数字经济发展规划》《庆阳市“十五五”人工智能产业发展规划》《庆阳市“十五五”AI城市发展规划》规划编制采购项目（具体内容详见《招标文件》第四章采购内容）
+	6.合同履行期限：120天。
+	7.本项目（是/否）接受联合体投标：否
+	二、申请人的资格要求
+	1.（1）供应商符合《中华人民共和国政府采购法》第二十二条、《中华人民共和国政府采购法实施条例》第十七条规定，根据庆阳市财政局、庆阳市公共资源交易中心《关于在全市政府采购中推行供应商“承诺+信用”管理机制的通知》要求，投标供应商须提供《庆阳市政府采购供应商资格条件承诺函》加盖公章；
+	（2）本项目实行资格后审，不接受联合体投标。
+	2.落实政府采购政策需满足的资格要求：本项目非专门面向中小企业采购。
+	3.本项目的特定资格要求：无。
+	三、获取招标文件
+	时间：2025年07月15日至2025年07月21日，每天上午0:00至12:00，下午12:00至23:59（北京时间，法定节假日除外）。
+	地点：庆阳市公共资源交易中心网站
+	方式：社会公众、潜在投标人可通过庆阳市公共资源交易中心网站或甘肃省公共资源交易网上服务大厅浏览招标（采购）公告，点击“免费下载招标文件”在线获取招标文件。拟参与公共资源交易活动的潜在投标人，请点击“我要投标”模块或直接在庆阳市公共资源交易中心网站首页点击“市县一体化系统”，登录庆阳市公共资源交易中心电子服务系统查询需要投标的项目填写信息参与投标。如因未按该流程操作而产生的不利因素由投标人自行承担。注：未在主体共享平台注册的企业或自然人需在庆阳市公共资源交易中心“用户注册”进行注册认证。使用“用户名+密码+验证码”或CA数字认证方式登录办理业务。
+	售价：0.0元
+	四、提交投标文件截止时间、开标时间和地点
+	时间：2025年8月4日09时00分（北京时间）
+	地点：庆阳市公共资源交易中心第一开标室（电子标，供应商无需到场）
+	五、公告期限
+	自本公告发布之日起5个工作日。
+	六、其他补充事宜：
+	1.评标方法：综合评分法。
+	2.投标保证金：本项目不收取投标保证金。
+	3.招标文件需要使用专用工具才能打开，请投标人前往甘肃中工国际招投标有限公司网站“下载中心”的“新版工具”中下载“投标工具【标书查看】”，并根据需求安装相关软件，使用CA数字证书编制投标文件。投标人须在投标截止时间前将加密的投标文件（资格预审投标文件扩展名为.ZGSF，资格后审投标文件扩展名为.ZGTF）通过投标工具界面的“5【上传】”上传至甘肃中工国际电子开评标系统。投标人应充分考虑网络等突发状况，在投标文件编制完成后尽早上传，逾期未上传的，将被视为放弃投标。
+	4.在投标截止时间到达前，请投标人使用CA数字证书登录甘肃中工不见面开标大厅（网址：http://gsztb.cn/BidOpeningHall），选择参与标段并点击【点击进入】选项，参加开标会议，并及时完成签到。项目解密时间为30分钟，系统提示“解密开始时间”和“解密剩余时间”，投标人及时点击“解密”按钮，输入CA数字证书密码，完成投标文件解密，解密完成后提示“解密成功”。开标过程中请注意查阅甘肃中工不见面开标大厅互动区消息，根据消息提醒进行相关操作。如浏览器下方弹出控件启用提示（可能弹出多个），请全部选择“允许”或“启用”。
+	5.投标人在投标文件制作、解密及开标过程中，有任何问题请在甘肃中工国际招投标有限公司网站查阅“甘肃中工投标企业操作手册合集”，或拨打咨询电话400-6123434。
+	①庆阳市公共资源交易网：http://www.qysggzyjy.cn/f
+	②信用中国”网站：https://www.creditchina.gov.cn
+	③中国政府采购网网址：http://www.ccgp.gov.cn/（链接：http://www.ccgp.gov.cn/）
+	七、对本次招标提出询问，请按以下方式联系
+	1.采购人信息
+	名称：庆阳市数据局
+	地址：甘肃省庆阳市西峰区庆州西路1号
+	联系方式：0934-5902908
+	2.采购代理机构信息
+	名称：甘肃广基工程项目管理咨询有限公司
+	地址：甘肃省庆阳市西峰区后官寨文化大院6附26号
+	联系方式：18189340872/17709342551
+	3.项目联系方式
+	项目联系人：郭自强
+	电话：0934-5902908
+	甘肃广基工程项目管理咨询有限公司
+	2025年7月14日</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>［江西省公共资源交易平台］江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目流标公示</t>
+          <t>合水县人工智能科普教育基地建设项目公开招标公告</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>合水县公共资源交易中心</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/qtgg/202509/t20250903_25286121.htm</t>
+          <t>https://www.qysggzyjy.cn/f/countytrade/tenderprojects/690074217541765/6201/flowpage?pageIndex=2</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>中国政府采购网</t>
+          <t>甘肃省公共资源交易网</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>一、项目基本情况
-1.项目名称：江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目
-2.项目编号：JXTC2025200244
-二、项目流标的原因
-经评审，有效供应商不足三家，本次采购活动终止。
-三、凡对本次公告内容提出询问，请按以下方式联系
-1.采购人信息                          
-名 称：江西工业工程职业技术学院 
-地 址：江西萍乡经济开发区玉湖东路106号
-联系方式：0799-7062278
-2.采购代理机构信息
-名 称：江西省机电设备招标有限公司 
-地 址：江西省南昌市东湖区省政府大院北二路92号（咨询大厦）
-项目联系人：谢兰诗雨 
-电  话： 0791-86271501        
-电子函件：jzzc@jxbidding.com</t>
+          <t>合水县职业中等专业学校招标项目的潜在投标人应在庆阳市公共资源交易电子服务系统。获取招标文件，并于2025-07-1409:00:00（北京时间）前递交投标文件。
+	一、项目基本情况
+	项目编号：HSZC2025-0054
+	项目名称：合水县人工智能科普教育基地建设项目
+	预算金额：299.654545(万元)
+	最高限价：299.654545(万元)
+	采购需求：建设人工智能功能区、科普教育功能区，并装配全彩LED显示屏及相关设备等。（具体内容及要求详见《招标文件》）。
+	合同履行期限：60日历天（计算方式自合同签订之日起算）。
+	本项目（是/否）接受联合体投标：否
+	二、申请人的资格要求
+	1.1.（1）供应商符合《中华人民共和国政府采购法》第二十二条、《中华人民共和国政府采购法实施条例》第十七条规定，根据庆阳市财政局、庆阳市公共资源交易中心《关于在全市政府采购中推行供应商“承诺+信用”管理机制的通知》要求，投标供应商须提供《庆阳市政府采购供应商资格条件承诺函》加盖公章；
+	（2）本项目实行资格后审，不接受联合体投标。
+	2.落实政府采购政策需满足的资格要求：该项目非专门面向中小企业采购。
+	3.本项目的特定资格要求：投标企业需提供建筑工程施工总承包叁级及以上资质，并具备建筑施工安全生产许可证。
+	三、获取招标文件
+	时间：2025-06-24至2025-06-30，每天上午00:00至12:00，下午12:00至23:59
+	地点：庆阳市公共资源交易电子服务系统。
+	方式：网上自行免费下载，初次注册的供应商登录庆阳市公共资源交易中心网站（http://www.qysggzyjy.cn/f），在“公共资源交易服务平台”模块点击“用户注册”，自动跳转至甘肃省公共资源交易主体共享平台进行注册，完善相关信息并通过认证后，获取招标文件，咨询电话：0931-4267890。
+	售价：0(元)
+	四、提交投标文件截止时间、开标时间和地点
+	时间：2025-07-1409:00:00
+	地点：合水县乐蟠路社区秦直路24号（合水县人力资源和社会保障局一楼）（电子标，供应商无需到场）。
+	五、公告期限
+	自本公告发布之日起5个工作日。
+	六、其他补充事宜
+	1.评标方法：综合评分法。2.投标保证金：本项目不收取投标保证金。3.获取招标文件的供应商，须在甘肃中工国际招投标有限公司网站（网址详见招标文件须知前附表）下载中心新版工具中下载投标工具（标书查看），按照使用需求安装相关软件，使用CA数字证书完成投标文件编制工作。供应商须在投标文件提交截止时间前，将生成的.ZGTF加密投标文件通过点击投标工具界面“5上传”，完成投标文件上传。供应商应充分考虑到网络及系统平台可能存在的突发状况，在投标文件编制完成后尽早完成上传。逾期未上传投标文件的，视为放弃投标，其后果由供应商自负。4.本项目通过甘肃中工不见面开标大厅（网址详见招标文件须知前附表）进行开标会议，供应商须在投标文件提交截止时间前，使用生成投标文件所用CA数字证书登录该系统，选择参与的项目及标段，在界面点击“点击进入”进入开标会议，进入后须及时完成签到，开启时间到达后未签到的供应商，视为放弃投标。项目解密开始至结束时间为30分钟，系统提示开始解密后页面会显示“解密开始时间”和“解密剩余时间”（倒计时），点击“解密”按钮，弹出输入密码框后输入CA数字证书密码，对投标文件进行解密，解密完成后系统会提示“解密成功”。（注意浏览器下方弹出的控件启用提示，可能会弹出多个，请全部选择“允许”或“启用”。）供应商应按时完成投标文件解密，因供应商原因造成投标文件无法正常解密的，视为放弃投标。开标过程中请及时查阅甘肃中工不见面开标大厅互动区消息，并根据消息提醒进行相关操作。5.供应商在投标文件制作、解密及开标过程中，有任何问题可拨打甘肃中工国际招投标有限公司客服电话4006-1234-34咨询。
+	①合水县公共资源交易中心：http://www.qysggzyjy.cn/f
+	②信用中国”网站：https://www.creditchina.gov.cn
+	③中国政府采购网网址：http://www.ccgp.gov.cn/
+	七、对本次招标提出询问，请按以下方式联系
+	1.采购人信息
+	名称：合水县职业中等专业学校
+	地址：合水县西华北街292号
+	联系方式：15097128099
+	2.采购代理机构信息
+	名称：甘肃合胜工程项目管理有限公司
+	地址：合水县乐城国际六楼651室
+	联系方式：18009346997
+	3.项目联系方式
+	项目联系人：王小宁
+	电话：15097128099
+	甘肃合胜工程项目管理有限公司
+	2025年06月23日</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>广东松山职业技术学院具身智能机器人产教融合基地建设项目（项目编号：1371-2541GDGH1156）招标公告</t>
+          <t>实景三维项目基础能力提升（数据生产）招标公告</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
+          <t>甘肃省公共资源交易中心</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>http://oss.aliyuncs.com/chengxing-test1/</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>甘肃省公共资源交易网</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>项目概况
+	实景三维项目基础能力提升（数据生产）招标项目的潜在投标人应在甘肃省公共资源交易网（https://ggzyjy.gansu.gov.cn）获取招标文件，并于2025年09月26日10时00分（北京时间）前递交投标文件。
+一、项目基本情况
+	项目编号：甘财采备字[2025]04535号
+	项目名称：实景三维项目基础能力提升（数据生产）
+	采购方式：公开招标
+	预算金额：2,060,000.00元
+	采购需求：
+	合同包1(实景三维项目基础能力提升（模型构建）):
+	合同包预算金额：900,000.00元
+品目号 | 品目名称 | 采购标的 | 数量（单位） | 技术规格、参数及要求 | 品目预算(元) | 最高限价(元)  
+---|---|---|---|---|---|---  
+1-1 | 其他信息化设备 | 实景三维项目基础能力提升项目（模型构建） | 1(套) | 详见采购文件 |  900,000.00  |  \-
+	本合同包不接受联合体投标
+	合同履行期限：自合同签订之日起60日内
+	合同包2(实景三维项目基础能力提升（单体数据生产）):
+	合同包预算金额：600,000.00元
+品目号 | 品目名称 | 采购标的 | 数量（单位） | 技术规格、参数及要求 | 品目预算(元) | 最高限价(元)  
+---|---|---|---|---|---|---  
+2-1 | 其他信息化设备 | 实景三维项目基础能力提升项目（单体数据生产） | 2(套) | 详见采购文件 |  600,000.00  |  \-
+	本合同包不接受联合体投标
+	合同履行期限：自合同签订之日起60日内
+	合同包3(实景三维项目基础能力提升（地理实体数据生产）):
+	合同包预算金额：260,000.00元
+品目号 | 品目名称 | 采购标的 | 数量（单位） | 技术规格、参数及要求 | 品目预算(元) | 最高限价(元)  
+---|---|---|---|---|---|---  
+3-1 | 其他信息化设备 | 实景三维项目基础能力提升项目（地理实体数据生产） | 2(套) | 详见采购文件 |  260,000.00  |  \-
+	本合同包不接受联合体投标
+	合同履行期限：自合同签订之日起60日内
+	合同包4(实景三维项目基础能力提升（点云数据生产）):
+	合同包预算金额：300,000.00元
+品目号 | 品目名称 | 采购标的 | 数量（单位） | 技术规格、参数及要求 | 品目预算(元) | 最高限价(元)  
+---|---|---|---|---|---|---  
+4-1 | 其他信息化设备 | 实景三维项目基础能力提升项目（点云数据生产） | 2(套) | 详见采购文件 |  300,000.00  |  \-
+	本合同包不接受联合体投标
+	合同履行期限：自合同签订之日起60日内
+二、申请人的资格要求：
+	1.满足《中华人民共和国政府采购法》第二十二条规定;
+	2.落实政府采购政策需满足的资格要求：
+	合同包1(实景三维项目基础能力提升（模型构建）)落实政府采购政策需满足的资格要求如下:
+	详见文件
+	合同包2(实景三维项目基础能力提升（单体数据生产）)落实政府采购政策需满足的资格要求如下:
+	详见文件
+	合同包3(实景三维项目基础能力提升（地理实体数据生产）)落实政府采购政策需满足的资格要求如下:
+	详见文件
+	合同包4(实景三维项目基础能力提升（点云数据生产）)落实政府采购政策需满足的资格要求如下:
+	详见文件
+	3.本项目的特定资格要求：
+	合同包1(实景三维项目基础能力提升（模型构建）)特定资格要求如下:
+	无
+	合同包2(实景三维项目基础能力提升（单体数据生产）)特定资格要求如下:
+	无
+	合同包3(实景三维项目基础能力提升（地理实体数据生产）)特定资格要求如下:
+	无
+	合同包4(实景三维项目基础能力提升（点云数据生产）)特定资格要求如下:
+	无
+三、获取招标文件
+	时间：2025年09月05日至2025年09月11日，每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间,法定节假日除外）
+	地点：甘肃省公共资源交易网（https://ggzyjy.gansu.gov.cn）
+	方式：在线获取
+	售价：免费获取
+四、提交投标文件截止时间、开标时间和地点
+	时间：2025年09月26日10时00分00秒（北京时间）
+	地点：甘肃省公共资源交易中心第四电子开标厅（线上开标）
+五、公告期限
+	自本公告发布之日起5个工作日。
+六、其他补充事宜
+1.中标结果公布后中标人按以下要求的资料邮寄至采购代理机构，未中标人无需邮寄。正本1份、副本1份、U盘1份（电子版与固化上传至系统文件一致的PDF版。） 邮寄地址：甘肃省兰州市城关区名城广场3号写字楼1032室 联系人：达经理 联系电话：15609419724 。
+2.未尽事宜：签订合同时双方另行约定。
+七、对本次招标提出询问，请按以下方式联系。
+1.采购人信息
+	名称：甘肃省地质矿产勘查开发局第三地质矿产勘查院
+	地址：兰州市七里河区兰工坪路121号
+	联系方式：18919298376
+2.采购代理机构信息
+	名称：甘肃昱春龙招标有限公司
+	地址：甘肃省兰州市城关区名城广场3号写字楼1032室
+	联系方式：15609419724
+3.项目联系方式
+	项目联系人：甘肃昱春龙招标有限公司管理员
+	电话：15609419724
+	甘肃昱春龙招标有限公司
+	2025年09月04日
+相关附件：
+实景三维项目基础能力提升（数据生产）（包1）采购文件（2025090402）.pdf（链接：https://gcycloud.cn/gpx-bid-file/ZF_JGBM_000004/620001/2025/9/4/8a80843698c25ae20198ee70d7634e04/gpx-tender/8a80857498ae0691019912bfb61e79ec.pdf?accessCode=f6996ee5261a37f9f9719186eafec0c7）
+实景三维项目基础能力提升（数据生产）（包2）采购文件（2025090401）.pdf（链接：https://gcycloud.cn/gpx-bid-file/ZF_JGBM_000004/620001/2025/9/4/8a80843698c25ae20198ee70d7634e04/gpx-tender/8a80802e98ae0570019912bdb6f9098c.pdf?accessCode=17c1519492a1e5a722c7dd5b0c5ab1b8）
+实景三维项目基础能力提升（数据生产）（包3）采购文件（2025090401）.pdf（链接：https://gcycloud.cn/gpx-bid-file/ZF_JGBM_000004/620001/2025/9/4/8a80843698c25ae20198ee70d7634e04/gpx-tender/8a80802e98ae0570019912be1f0b099a.pdf?accessCode=be02f05ef8a8ff0cb4d03a8dc3abd0f1）
+实景三维项目基础能力提升（数据生产）（包4）采购文件（2025090401）.pdf（链接：https://gcycloud.cn/gpx-bid-file/ZF_JGBM_000004/620001/2025/9/4/8a80843698c25ae20198ee70d7634e04/gpx-tender/8a80857498ae0691019912be853179c9.pdf?accessCode=83c4a07c6919cb3023d244a11c147d9a）</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>江苏省气象信息中心CMACAST卫星广播接收系统公开招标公告</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25287779.htm</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/zygg/gkzb/202509/t20250904_25293513.htm</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>项目概况         CMACAST卫星广播接收系统 招标项目的潜在投标人应在南京市雨花台区软件大道180号大数据5号楼M层B108-B获取招标文件，并于2025年09月25日 10点00分（北京时间）前递交投标文件。                  
+一、项目基本情况        
+项目编号：JSSJ-HW-007        
+项目名称：CMACAST卫星广播接收系统        
+预算金额：58.400000 万元（人民币）                
+采购需求：
+中国气象局《中国气象局卫星广播系统（CMACAST）升级实施方案》要求，江苏省气象信息中心已于2022年4月21至22日在北极阁完成3.7米天线安装与对星工作。但受场地限制，当前仅有一套省级卫星广播小站承担全省广播数据接收工作，一旦接收设备出现硬件故障，将极大影响业务工作。因此，需采购卫星信号接收机一台备用，以增强硬件故障应急处理能力。
+近年来，我国自然灾害频发。一些极端天气引起的自然灾害会造成信息通信基础设施的损毁，导致受灾区域无法及时与外界及时通讯，影响应急保障工作和防灾减灾工作的进行。而卫星通信作为一种先进的通信方式，具有信号覆盖范围广、通信能力强、环境适应性强等优点，在灾害预警与监测、应急指挥与协调以及信息传递等方面具有独特的应用价值。为增强气象部门各单位应急通信能力，提升气象防灾减灾水平，需采购天通卫星通信服务，服务期为三年。        
+合同履行期限：中标后三个月内完成交付。         
+本项目( 不接受   )联合体投标。        
+二、申请人的资格要求：        
+1.满足《中华人民共和国政府采购法》第二十二条规定；        
+2.落实政府采购政策需满足的资格要求：
+本项目为非预留份额的采购项目或采购包，执行价格扣除优惠政策，具体详见第五章 评标方法与评标标准。
+本项目采购标的对应的中小企业划分标准所属行业为：软件和信息技术服务业。        
+3.本项目的特定资格要求：无        
+三、获取招标文件        
+时间：2025年09月05日         至 2025年09月11日，每天上午9:30至11:30，下午14:00至17:00。（北京时间，法定节假日除外）        
+地点：南京市雨花台区软件大道180号大数据5号楼M层B108-B        
+方式：自招标公告发布之日起至2025年09月11日上午9：30-11：30，下午14：00-17：00止（北京时间，法定节假日除外），请各潜在供应商将以下材料以扫描件形式发送至代理机构邮箱（jiangsusjgc@163.com），并注明单位（全称）、法定代表人、授权委托人、联系电话、项目名称、项目编号，通过后代理机构将会把招标文件发送至供应商邮箱，代理机构将在收到邮件后的一个工作日内回复供应商是否通过，请各供应商留意邮箱情况。 （1）具有有效期内的营业执照副本或具有有效年检的社会组织法人登记证书（加盖公章复印件）； （2）法人授权委托书（原件并加盖公章）； （3）授权委托人身份证（加盖公章复印件）； 注：供应商通过后，须将购买招标文件的付款记录截图发送至代理机构邮箱，经代理机构确认无误后方可获取招标文件。招标文件购买付款账号（支付宝）：jiangsusjgc@163.com，付款时请备注相关项目及供应商单位名称。        
+售价：￥800.0  元，本公告包含的招标文件售价总和        
+四、提交投标文件截止时间、开标时间和地点        
+提交投标文件截止时间：2025年09月25日 10点00分（北京时间）        
+开标时间：2025年09月25日 10点00分（北京时间）        
+地点：南京市雨花台区软件大道180号大数据5号楼M层B108-B        
+五、公告期限        
+自本公告发布之日起5个工作日。        
+六、其他补充事宜        
+无        
+七、对本次招标提出询问，请按以下方式联系。        
+1.采购人信息        
+名 称：江苏省气象信息中心　　　　　        
+地址：南京市建邺区雨顺路8号（江苏气象中心）　　　　　　　　        
+联系方式：技术联系人：牛霭琛 联系电话：025-52698069 商务联系人：耿先生 采购单位联系方式：025-52698069　　　　　　                
+2.采购代理机构信息        
+名 称：江苏苏建工程项目管理咨询有限公司　　　　　　　　　　　　        
+地　址：南京市雨花台区软件大道180号大数据5号楼M层B108-B 　　　　　　　　　　　　        
+联系方式：顾工、吴工15952197379　　　　　　　　　　　　        
+3.项目联系方式        
+项目联系人：顾工、吴工        
+电　话：　　15952197379</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>唐山市自然资源和规划局本级自然资源卫星遥感数据应用（软件购置）竞争性谈判公告</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxtpgg/202509/t20250904_25293576.htm</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>项目概况	  	  
+遥感卫星影像变化检测处理软件、遥感卫星影像超分处理软件采购项目的潜在供应商应在注册后的供应商登录主体系统，自行下载（http://ggzyjy.xzspj.tangshan.gov.cn/）获取采购文件，并于2025年09月11日09点00分（北京时间）前提交响应文件。			  	
+一、项目基本情况    
+项目编号：Z1302002504841221    
+项目名称：自然资源卫星遥感数据应用（软件购置）    
+采购方式：竞争性谈判    
+预算金额：45.000000 万元（人民币）    
+最高限价（如有）：450000    
+采购需求：自然资源卫星遥感数据应用（软件购置）    
+合同履行期限：合同签订生效后30日内送货安装调试完毕    
+本项目不接受联合体投标。    
+二、申请人的资格要求：    
+1.满足《中华人民共和国政府采购法》第二十二条规定；    
+2.落实政府采购政策需满足的资格要求：该项目专门面向中小企业采购。其中预留给小微企业的比例100%，监狱企业、残疾人福利性单位视同小微企业。单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的采购活动。为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的供应商，不得参加本采购项目。    
+3.本项目的特定资格要求：无    
+三、获取采购文件    
+时间：2025年09月08日至2025年09月10日,每天上午08:30至12:00,下午14:30至17:30（北京时间，法定节假日除外）    
+地点：注册后的供应商登录主体系统，自行下载（http://ggzyjy.xzspj.tangshan.gov.cn/）    
+方式：其它    
+售价：0    
+四、响应文件提交    
+截止时间：2025年09月11日09点00分（北京时间）    
+地点：唐山市公共资源交易中心C01谈判室    
+五、开启    
+时间：2025年09月11日09点00分（北京时间）    
+地点：唐山市公共资源交易中心C01谈判室    
+六、公告期限    
+自本公告发布之日起3个工作日。    
+七、其他补充事宜    
+本项目采用全流程电子化采购。（1）已在河北省公共资源交易服务平台市场主体库通过资格确认（注册登记）并办理其中任意一家CA证书（包括河北CA、北京CA、山西吉大CA、联通CA、CFCA、CQCCA）的供应商可直接登录唐山市电子交易系统下载文件。（2）未经资格确认（注册登记）的供应商可在“河北省公共资源交易平台（http://ggzyjy.xzspj.tangshan.gov.cn/）” 网站进行账号注册，点击“市场主体登录”进入系统，选择【唐山市】进入“唐山市公共资源交易综合信息平台-市场主体”系统，选择左侧“业务管理”菜单下的“填写投标信息”，找到对应项目进行投标。完成后在“交易文件下载”菜单下载相应采购文件。详细注册流程可参考河北省公共资源交易平台（http://ggzyjy.xzspj.tangshan.gov.cn/）唐山市网站首页“常用下载”栏目中的《市场主体注册登记操作手册》完成注册登记。 （3）未通过交易平台下载采购文件的供应商，其提交的投标（响应）文件将被作为无效文件处理。（4）技术支持电话：4009980000。 CA认证服务热线： 河北CA：400-707-3355；北京CA：400-994-3319； 山西吉大CA：400-653-0200；联通CA：0311-85691619。CFCA:400-880-9888;CQCCA:1383232617 4。    
+八、凡对本次采购提出询问，请按以下方式联系。    
+1.采购人信息    
+名 称：唐山市自然资源和规划局本级    
+地    址：唐山市路北区北新西道23号    
+联系方式：0315-5266855    
+2.采购代理机构信息（如有）    
+名 称：唐山市政府采购中心    
+地 址：唐山市路北区学院北路1300号    
+联系方式：0315-5398256    
+3.项目联系方式    
+项目联系人：孔凡兴    
+电 话：0315-5398256    
+九、附件</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>某单位卫星网络与终端模拟及测量分析设备采购项目公开招标公告</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/zygg/gkzb/202509/t20250904_25290765.htm</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>项目概况         某单位卫星网络与终端模拟及测量分析设备采购项目 招标项目的潜在投标人应在http://www.oitccas.com/获取招标文件，并于2025年09月26日 09点30分（北京时间）前递交投标文件。                  
+一、项目基本情况        
+项目编号：OITC-G250391475        
+项目名称：某单位卫星网络与终端模拟及测量分析设备采购项目        
+预算金额：386.000000 万元（人民币）                
+最高限价（如有）：386.000000 万元（人民币）                
+采购需求：
+包号			
+货物名称			
+数量			
+是否允许采购进口产品			
+采购预算（人民币）			
+是否核心产品			
+1			
+多体制卫星终端模拟器			
+1台			
+否			
+56万元			
+是			
+2			
+高性能NTN网络模拟器			
+1台			
+否			
+70万元			
+是			
+3			
+5G-NR手机直连卫星网络模拟器			
+3台			
+否			
+99万元			
+是			
+4			
+NTN手机直连卫星网络测量分析仪			
+1台			
+否			
+161万元			
+是			
+合同履行期限：详见项目需求         
+本项目( 不接受   )联合体投标。        
+二、申请人的资格要求：        
+1.满足《中华人民共和国政府采购法》第二十二条规定；        
+2.落实政府采购政策需满足的资格要求：
+本项目第1、2、3包 专门面向中小企业采购。第4包 非专门面向中小企业采购。        
+3.本项目的特定资格要求：1）在中华人民共和国境内依法注册的，具有独立承担民事责任能力，遵守国家法律法规，具有良好信誉，具有履行合同能力和良好的履行合同的记录，具有良好资金、财务状况的企事业法人、其他组织或者自然人；2）为本项目提供整体设计、规范编制或者项目管理、监理、检测等服务的投标人，不得参加本项目投标；3）投标单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加同一合同项下的政府采购活动；4）按本投标邀请的规定获取招标文件；5）投标人不得为列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单的投标人。        
+三、获取招标文件        
+时间：2025年09月04日         至 2025年09月11日，每天上午9:00至11:00，下午13:00至17:00。（北京时间，法定节假日除外）        
+地点：http://www.oitccas.com/        
+方式：登录东方招标http://www.oitccas.com/注册并购买        
+售价：￥600.0  元，本公告包含的招标文件售价总和        
+四、提交投标文件截止时间、开标时间和地点        
+提交投标文件截止时间：2025年09月26日 09点30分（北京时间）        
+开标时间：2025年09月26日 09点30分（北京时间）        
+地点：北京市海淀区丹棱街1号互联网金融中心20层东方厅（二）        
+五、公告期限        
+自本公告发布之日起5个工作日。        
+六、其他补充事宜        
+1、投标文件递交地点：北京市海淀区丹棱街1号互联网金融中心20层东方厅（二）
+2、招标文件采用网上电子版本发售和纸质招标文件同时发售方式：
+1）登陆“东方招标”平台（http://www.oitccas.com/），点击“获取采购文件”链接图标，或直接输入访问地（http://www.oitccas.com/pages/sign_in.html?page=mine）完成投标人注册手续（免费），然后登陆系统寻找有意向参与的项目，已注册的投标人无需重新注册。招标文件售价：每包人民币600 元。如决定购买招标文件，请完成标书款缴费及标书下载手续。纸质文件可联系采购代理机构联系人通过快递或现场领取获取。电子版招标文件与纸质招标文件具有同等的法律效力。
+2）投标人可以电汇的形式支付标书款（应以公司名义汇款至下述指定账号）。
+开户名称：东方国际招标有限责任公司
+开户行：招商银行北京西三环支行
+账  号：862081657710001
+投标人应在平台上填写开票信息。在投标人足额缴纳标书款后，标书款电子发票将发送至投标人在平台上登记的电子邮箱，投标人自行下载打印。
+3、以电汇方式购买招标文件和递交投标保证金的，须在电汇凭据附言栏中写明招标编号(如未标明招标编号OITC-G250391475，有可能导致投标无效)。
+4、采购项目需要落实的政府采购政策：
+(1)政府采购促进中小企业发展
+(2)政府采购支持监狱企业发展
+(3)政府采购促进残疾人就业
+(4)政府采购鼓励采购节能环保产品        
+七、对本次招标提出询问，请按以下方式联系。        
+1.采购人信息        
+名 称：zycgr22011905　　　　　        
+地址：北京市海淀区　　　　　　　　        
+联系方式：袁老师 010-68290548　　　　　　                
+2.采购代理机构信息        
+名 称：东方国际招标有限责任公司　　　　　　　　　　　　        
+地　址：北京市海淀区丹棱街1号互联网金融中心20层　　　　　　　　　　　　        
+联系方式：迟兆洋、叶明、荀笑尘、芮虎峥 010-68290585/0589 mye@oitc.com.cn、hzrui@oitc.com.cn、xcxun@oitc.com.cn　　　　　　　　　　　　        
+3.项目联系方式        
+项目联系人：迟兆洋、叶明、荀笑尘、芮虎峥        
+电　话：　　010-68290585/0589</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>浙江求是招标代理有限公司关于浙江交通职业技术学院轨道扣件智能检测机器人研发实验室的竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxcs/202509/t20250904_25295181.htm</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>项目概况    
+轨道扣件智能检测机器人研发实验室采购项目的潜在供应商应在政府采购云平台（https://www.zcygov.cn）获取（下载）采购文件，并于2025年09月16日 09:30（北京时间）前提交（上传）响应文件。    
+一、项目基本情况
+项目编号：QSZBC250093ZHCSL      
+项目名称：轨道扣件智能检测机器人研发实验室      
+采购方式：竞争性磋商      
+预算金额（元）：247100      
+最高限价（元）：247100      
+采购需求：        
+数量：1          
+预算金额（元）：247100          
+单位：批          
+简要规格描述：详见采购需求          
+备注：          
+合同履约期限：标项 1，详见采购需求      
+本项目（是）接受联合体投标。      
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。      
+2.落实政府采购政策需满足的资格要求：无      
+3.本项目的特定资格要求：标项1：无      
+三、获取（下载）采购文件
+时间：/至2025年09月16日，每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）      
+地点（网址）：政府采购云平台（https://www.zcygov.cn）      
+方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）      
+售价（元）：0      
+四、响应文件提交（上传）
+截止时间：2025年09月16日 09:30（北京时间）
+地点（网址）：政府采购云平台（https://www.zcygov.cn）      
+五、响应文件开启
+开启时间： 2025年09月16日 09:30（北京时间）
+地点（网址）：政府采购云平台（https://www.zcygov.cn）/杭州市西湖区玉古路173号中田大厦21楼（求是招标会议室1）      
+六、公告期限
+自本公告发布之日起3个工作日。      
+七、其他补充事宜
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。      
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表：鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。      
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。      
+4.其他事项：（1）需要落实的政府采购政策：包括节约资源、保护环境、支持科技创新、促进中小企业发展等。详见磋商文件的第三章-采购项目需要落实的政府采购政策。
+八、凡对本次招标提出询问、质疑、投诉，请按以下方式联系
+1.采购人信息        
+名    称：浙江交通职业技术学院        
+地    址：杭州市余杭区古墩路1516号        
+传    真：        
+项目联系人（询问）：李老师        
+项目联系方式（询问）：0571-88484981        
+质疑联系人：徐老师        
+质疑联系方式：0571-88484981        
+2.采购代理机构信息        
+名    称：浙江求是招标代理有限公司        
+地    址：杭州市西湖区玉古路173号中田大厦21楼        
+传    真：        
+项目联系人（询问）：李聪、温瑶、陈培特、孟畅、杜伟波        
+项目联系方式（询问）：0571-87666115        
+质疑联系人：周安琪        
+质疑联系方式：0571-81110356        
+3.该项目由采购人处理采购争议。质疑环节，采购人委托采购代理机构处理的，可由采购代理机构答复。对质疑答复不满意的，向采购人内部设置的采购监督机构反映。        
+政策咨询：何一平、冯华，0571-87058424、87055741            
+预算金额未达100万元的采购项目，由采购人处理采购争议。            
+339900        
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商  
+附件信息：
+9.16AMQSZBC250093ZHCSL浙江交通职业技术学院轨道扣件智能检测机器人研发实验室[定稿].docx
+191.3K</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>低空飞行与智能机器人场景应用推广暨机器人精密装配大赛晋陕蒙联赛选拔赛活动单一来源公示</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/dylygg/202509/t20250904_25295023.htm</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>一、项目信息                                               
+采购人：襄垣县发展改革和科学技术局    
+项目名称：低空飞行与智能机器人场景应用推广暨机器人精密装配大赛晋陕蒙联赛选拔赛活动    
+拟采购的货物或服务的说明：    
+标的名称：低空飞行与智能机器人场景应用推广暨机器人精密装配大赛晋陕蒙联赛选拔赛活动
+数量：1
+预算金额(元)：1142000
+单位：项
+货物或服务的说明：鉴于政府计划主承办低空飞行与智能机器人场景应用推广暨机器人精密装配大赛晋陕蒙联赛选拔赛活动，通过低空飞行场景展示、机器人典型应用场景推广、专业赛事举办、校企人才交流、行业供需对接等形式，整合晋陕蒙三地的教育链、产业链和人才链，展示低空经济发展成果、促进区域协同发展、加速高端人才集聚、推动智配产业项目落地与能级提升。赛事举办含活动策划组织、专家组织、晋陕蒙三省参赛团队招报与推广、机器人场景推广、大赛技术培训、竞赛设备提供、竞赛组织、场地布展与现场技术支持等服务内容。     
+拟采购的货物或服务的预算总金额（元）：1142000    
+采用单一来源采购方式的原因及说明：为确保大赛的专业性、公正性及高效执行，经过详尽的市场调研与技术评估，决定采用单一来源采购方式，遨博（北京）智能科技股份有限公司为本次大赛提供全方位服务，本决定基于以下核心原因，特此说明：
+二、拟定供应商信息    
+名称：遨博（北京）智能科技股份有限公司    
+地址：北京市门头沟区莲石湖西路98号院5号楼407室   
+三、公示期限   
+2025年09月04日至2025年09月11日   
+四、其他补充事宜    
+有关单位和个人如对本项目采用单一来源采购方式有异议，请在公示有效期内以实名书面（包括联系人、地址、联系电话）形式向采购人反映，逾期不予受理。   
+五、联系方式   
+1.采购人信息     
+联 系 人：连先生    
+联系电话：13903557812    
+联系地址：襄垣县政务服务中心    
+2.财政部门    
+联 系 人：山西省财政厅政府采购处    
+联系电话：0351-4123278    
+联系地址：山西省太原市小店区学府街41号    
+3.采购代理机构（如有）    
+联 系 人：/    
+联系电话：/    
+联系地址：/    
+六、附件    
+专业人员论证意见（格式见附件）    
+附件信息:   
+单一来源采购方式专业人员论证意见（低空飞行与智能机器人场景应用推广暨机器人精密装配大赛晋陕蒙联赛选拔赛活动）.pdf (2.5 M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>智能建造机器人实训室的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25293613.htm</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>项目概况     
+智能建造机器人实训室 招标项目的潜在投标人应在上海市政府采购网获取招标文件，并于2025年09月25日 10:00（北京时间）前递交投标文件。    
+一、项目基本情况   
+项目编号：310000000250627120229-00255111   
+项目名称：智能建造机器人实训室
+预算编号： 0025-W00017921    
+预算金额（元）： 2174000元（国库资金：0元；自筹资金：2174000元）   
+最高限价（元）： 包1-2174000.00元    
+采购需求：   
+包名称：智能建造机器人实训室      
+数量：1      
+预算金额（元）：2174000.00      
+简要规格描述或项目基本概况介绍、用途：智能建筑机器人实训室项目采购及相关售后服务。     
+合同履约期限： 2025年10月31日前 
+本项目（ 否 ）接受联合体投标。   
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；   
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购（所属行业：工业。从业人员1000人以下或营业收入40000万元以下的为中小微型企业。）   
+3.本项目的特定资格要求： 1、符合《中华人民共和国政府采购法》第二十二条的规定
+三、获取招标文件  
+时间：2025年09月04日至2025年09月11日，每天上午00:00:00-12:00:00，下午12:00:00-23:59:59（北京时间，法定节假日除外）   
+地点：上海市政府采购网   
+方式： 网上获取    
+售价（元）： 0   
+四、提交投标文件截止时间、开标时间和地点  
+提交投标文件截止时间：2025年09月25日 10:00（北京时间）   
+投标地点：上海政府采购网（http://www.zfcg.sh.gov.cn）电子招投标系统网上投标。   
+开标时间： 2025年09月25日 10:00    
+开标地点：上海政府采购网（http://www.zfcg.sh.gov.cn）电子招投标系统网上投标。  
+五、公告期限  
+自本公告发布之日起5个工作日。  
+六、其他补充事宜  
+根据上海市财政局《关于上海市政府采购信息管理平台招投标系统正式运行的通知》（沪财采[2014]27号）的规定，本项目招投标相关活动在上海市政府采购信息管理平台（简称：电子采购平台）（网址：www.zfcg.sh.gov.cn）电子招投标系统进行。电子采购平台是由市财政局建设和维护。投标人应根据《上海市电子政府采购管理暂行办法》等有关规定和要求执行。投标人在电子采购平台的有关操作方法可以参照电子采购平台中的“操作须知”专栏的有关内容和操作要求办理。  
+本项目为预留采购份额采购项目，预留采购份额措施为整体预留   
+七、对本次采购提出询问，请按以下方式联系  
+1.采购人信息    
+名 称：上海建设管理职业技术学院
+地 址：上海市高泾路588号    
+联系方式：021-59889071    
+2.采购代理机构信息    
+名 称：上海教育建设管理咨询有限公司    
+地 址：上海市钦江路88号东楼626室    
+联系方式：021-63820186-8129    
+3.项目联系方式    
+项目联系人：胡华
+电 话：021-63820186-8129   
+潜在供应商</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>201提质升级C132-机器人中心-触力反馈系统等设备采购包1（第二次）公开招标公告</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/zygg/gkzb/202509/t20250904_25293475.htm</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>项目概况         201提质升级C132-机器人中心-触力反馈系统等设备采购 招标项目的潜在投标人应在四川雄烽建设工程管理有限公司（四川省成都市锦江区三色路199号五冶大厦A2栋9楼）获取招标文件，并于2025年09月25日 10点00分（北京时间）前递交投标文件。                  
+一、项目基本情况        
+项目编号：XFJG-ZC-2025-077        
+项目名称：201提质升级C132-机器人中心-触力反馈系统等设备采购        
+预算金额：95.000000 万元（人民币）                
+最高限价（如有）：95.000000 万元（人民币）                
+采购需求：
+详见需求        
+合同履行期限：政府采购合同签订后120日内，完成货物交付和安装、调试，交付采购人验收。         
+本项目( 不接受   )联合体投标。        
+二、申请人的资格要求：        
+1.满足《中华人民共和国政府采购法》第二十二条规定；        
+2.落实政府采购政策需满足的资格要求：
+无        
+3.本项目的特定资格要求：无        
+三、获取招标文件        
+时间：2025年09月05日         至 2025年09月11日，每天上午9:00至12:00，下午13:00至16:00。（北京时间，法定节假日除外）        
+地点：四川雄烽建设工程管理有限公司（四川省成都市锦江区三色路199号五冶大厦A2栋9楼）        
+方式：①现场报名时，投标人购买招标文件时应出示针对本项目的单位介绍信原件(须注明项目名称、项目编号、联系人及联系电话、电子邮箱、加盖投标单位公章)、经办人身份证复印件(加盖投标单位公章)并出示身份证原件、公司营业执照副本复印件(加盖投标单位公章)。 ②通过电子邮件方式报名时，请自行下载公告附件中的报名登记表，并按要求填写相关信息。将已填写的报名登记表、单位介绍信原件扫描件(须注明项目名称、项目编号、联系人及联系电话、电子邮箱、加盖投标单位公章)和经办人身份证明复印件原件扫描，发送至采购代理机构邮箱909240471@qq.com，邮箱标题应备注项目编号+包号+公司全称，并加盖单位公章        
+售价：￥400.0  元，本公告包含的招标文件售价总和        
+四、提交投标文件截止时间、开标时间和地点        
+提交投标文件截止时间：2025年09月25日 10点00分（北京时间）        
+开标时间：2025年09月25日 10点00分（北京时间）        
+地点：四川雄烽建设工程管理有限公司（四川省成都市锦江区三色路199号五冶大厦A2栋9楼）本项目开标室        
+五、公告期限        
+自本公告发布之日起5个工作日。        
+六、其他补充事宜        
+因系统原因本项目的项目名称为201提质升级C132-机器人中心-触力反馈系统等设备采购包1（第二次）        
+七、对本次招标提出询问，请按以下方式联系。        
+1.采购人信息        
+名 称：四川大学　　　　　        
+地址：成都市一环路南一段24号　　　　　　　　        
+联系方式：官老师 13980020402　　　　　　                
+2.采购代理机构信息        
+名 称：四川雄烽建设工程管理有限公司　　　　　　　　　　　　        
+地　址：四川省成都市锦江区三色路199号五冶大厦A2栋9楼　　　　　　　　　　　　        
+联系方式： 李先生 028-86055792转8011　　　　　　　　　　　　        
+3.项目联系方式        
+项目联系人：李先生        
+电　话：　　 028-86055792转8011</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>中山大学孙逸仙纪念医院深汕中心医院中山大学孙逸仙纪念医院深汕中心医院内窥镜手术控制系统（手术机器人）维护保养采购项目采购实行单一来源采购方式的公示</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/dylygg/202509/t20250904_25293309.htm</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>﻿    一、项目信息 
+采购人：中山大学孙逸仙纪念医院深汕中心医院  
+项目名称：中山大学孙逸仙纪念医院深汕中心医院内窥镜手术控制系统（手术机器人）维护保养采购项目  
+拟采购的货物或服务的说明： 
+内窥镜手术控制系统（手术机器人）维护保养服务  1项  总价 4,800,000.00元 
+拟采购的货物或服务的预算金额：4,800,000.00元 
+采用单一来源采购方式的原因及说明:只能从唯一供应商处采购的。 
+二、拟定供应商信息： 
+名称1： 直观复星医疗器械技术（上海）有限公司  
+地址1： 上海市浦东新区蓝靛路1389号1号楼  
+三、公示期限 
+2025年09月04日至2025年09月11日  
+四、其他补充事宜 
+无。 
+五、联系方式 
+1．采购人 
+联系人： 郑旺烁  
+联系地址： 汕尾市城区东涌镇站前横二路1号  
+联系电话： 0660-3863370  
+2．财政部门 
+联系人： 汕尾市财政局政府采购监管科  
+联系地址： 汕尾市城区政和路10号404  
+联系电话： 06603310721  
+3．采购代理机构 
+名称： 广东华伦招标有限公司  
+联系人： 冯英伟  
+联系地址： 广州市越秀区广仁路1号广仁大厦6A  
+联系电话： 020-83172290  
+六、附件 
+1.专家论证意见附件.pdf 
+中山大学孙逸仙纪念医院深汕中心医院 
+2025年09月04日</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>成都市妇女儿童中心医院（成都市妇幼保健院、成都市妇产科医院、成都市儿童医院）手术室达芬奇机器人维保服务采购项目(二次)招标公告</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25292464.htm</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
         <is>
           <t>项目概况   
-广东松山职业技术学院具身智能机器人产教融合基地建设项目招标项目的潜在投标人应在广东省政府采购网https://gdgpo.czt.gd.gov.cn/获取招标文件，并于 2025年09月25日 09时30分 （北京时间）前递交投标文件。  
+手术室达芬奇机器人维保服务采购项目(二次)的潜在投标人应在四川省政府采购一体化平台项目电子化交易系统（以下简称“项目电子化交易系统”）获取招标文件，并于 2025年09月25日 10时00分 （北京时间）前递交投标文件。本项目通过项目电子化交易系统实行电子化采购。  
 一、项目基本情况 
-项目编号：1371-2541GDGH1156 
-项目名称：广东松山职业技术学院具身智能机器人产教融合基地建设项目 
+项目编号：N5101012025001481 
+项目名称：手术室达芬奇机器人维保服务采购项目(二次) 
 采购方式：公开招标 
-预算金额：2,205,800.00元 
+预算金额：1,700,000.00元 
+采购需求：详见采购需求附件 
+合同履行期限： 
+采购包1：合同签订之日起3年，合同一年一签。 
+本项目是否接受联合体投标： 
+采购包1：不接受联合体投标 
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定： 
+（1）具有独立承担民事责任的能力；（2）具有良好的商业信誉和健全的财务会计制度；（3）具有履行合同所必需的设备和专业技术能力；（4）有依法缴纳税收和社会保障资金的良好记录；（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录。 
+2.落实政府采购政策需满足的资格要求： 
+采购包1：无 
+3.本项目的特定资格要求：
+采购包1：无 
+三、获取招标文件 
+时间：2025年09月05日至2025年09月11日，每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间） 
+途径：项目电子化交易系统-投标（响应）管理-未获取采购文件中选择本项目获取招标文件 
+方式：在线获取 
+售价：0元 
+四、提交投标文件截止时间、开标时间和地点 
+时间：2025年09月25日 10时00分00秒（北京时间） 
+提交投标文件地点：通过项目电子化交易系统-投标（响应）管理在线提交投标文件  
+开标地点：通过项目电子化交易系统-开标/开启大厅参与开标 
+五、公告期限 
+自本公告发布之日起5个工作日。 
+六、其他补充事宜 
+1、备案编号：51010025210200043381。 
+2、监督部门：成都市财政局；监督电话：028-61882648；监督部门地址：四川省成都市锦城大道366号。 
+3、本项目采购预算及最高限价为：170万元/年。
+七、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
+名称：成都市妇女儿童中心医院（成都市妇幼保健院、成都市妇产科医院、成都市儿童医院） 
+地址：成都市青羊区日月大道1617号 
+联系方式：028-61866155 
+2.采购代理机构信息 
+名称：中航技国际经贸发展有限公司 
+地址：成都市高新区益州大道北段777号中航国际交流中心A座1501-1502、1508-1510号 
+联系方式：028-86266522转617、608 
+3.项目联系方式  
+项目联系人：巫嵬伟、孙蕾 
+电话：028-86266522转617、608 
+中航技国际经贸发展有限公司 
+2025年09月04日
+相关附件： 
+（采购需求）手术室达芬奇机器人维保服务采购项目(二次).pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>［江西省公共资源交易平台］江西省机电设备招标有限公司关于江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目（第二次）（JXTC2025200244C1）电子化竞争性谈判公告</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxtpgg/202509/t20250904_25290801.htm</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>江西省机电设备招标有限公司关于江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目（第二次）（JXTC2025200244C1）电子化竞争性谈判公告        
+项目概况        
+江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目（第二次） 招标项目的潜在投标人应在 江西省公共资源交易平台（网址：https://www.jxsggzy.cn ）（新平台） 获取招标文件，并于		 2025年09月15日  09点30分 （北京时间）前递交投标文件。        		        
+一、项目基本情况：		
+项目编号：JXTC2025200244C1		
+项目名称：江西工业工程职业技术学院智能机器人技术专业实训基地设备采购项目（第二次）		
+采购方式：竞争性谈判		
+预算金额：929900.00 元		
+最高限价：  元		
+采购需求：        
+采购条目编号采购条目名称数量单位采购预算（人民币）技术需求或服务要求
+赣购2025J000058855实验及实训基地建设1套929900.00元详见公告附件
+合同履行期限：合同签订完，在收到采购人方书面通知交货后，60天内完成交货和施工并调试完成。		
+本项目不接受联合体投标。				
+二、申请人的资格要求		
+1.满足《中华人民共和国政府采购法》第二十二条规定：1.1 具有独立承担民事责任的能力；1.2 具有良好的商业信誉和健全的财务会计制度；1.3 具有履行合同所必需的设备和专业技术能力；1.4 有依法缴纳税收和社会保障资金的良好记录；1.5 参加政府采购活动前三年内,在经营活动中没有重大违法记录；1.6 法律、行政法规规定的其他条件。2.单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的采购活动。为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得参加本项目的政府采购活动。3.供应商被“信用中国”网站列入失信被执行人或重大税收违法案件当事人名单、或被“中国政府采购网”网站列入政府采购严重违法失信行为记录名单（处罚期限尚未届满的）的，不得参加本项目的政府采购活动。4. 落实政府采购政策需满足的资格要求：4.1 中小企业政策R 本项目非专门面向中小企业采购。4.2 如本项目采购的产品属于政府强制采购节能产品的，响应文件中必须提供《参与实施政府采购节能产品认证机构名录》中的对应产品认证机构出具的节能产品认证证书；5. 本项目的特定资格要求： 无				
+三、获取采购文件：		
+时间：2025年09月08日  00:00 至 2025年09月11日  23:30		
+地点：江西省公共资源交易平台（网址：https://www.jxsggzy.cn ）（新平台）		
+方式：网上确认和下载谈判文件。（详见其他补充事宜）		
+售价：0.0元				
+四、响应文件提交：		
+2025年09月15日  09点30分 （北京时间）（从磋商文件开始发出之日起至供应商提交首次响应文件截止之日止不得少于10日；从谈判文件开始发出之日起至供应商提交首次响应文件截止之日止不得少于3个工作日；从询价通知书开始发出之日起至供应商提交响应文件截止之日止不得少于3个工作日）		
+地点：江西省南昌市东湖区省府西二路3号发改委综合楼12楼（不见面开标，供应商无需到现场）				
+五、开启：		
+2025年09月15日  09点30分 （北京时间）		
+地点：江西省南昌市东湖区省府西二路3号发改委综合楼12楼（不见面开标，供应商无需到现场）				
+六、公告期限：		
+自本公告发布之日起3个工作日。				
+七、其他补充事宜：		
+1.潜在供应商必须在江西省公共资源交易平台（网址：https://www.jxsggzy.cn ） 注册并办理江西省 CA 数字证书和电子签章。具体要求详见“江西省公共资源交易平台-服务指南-投标单位”（网址：https://www.jxsggzy.cn ）。潜在供应商未使用本单位 CA 数字证书在江西省公共资源交易平台下载谈判文件的，视为未获取谈判文件，不得参加本项目的谈判活动；2.本项目采用“不见面”谈判方式，供应商无需到谈判现场，供应商应在提交响应文件截止时间前1小时进入江西省公共资源交易网-不见面开标大厅进行线上签到（具体详见供应商操作手册）。具体注意事项详见谈判文件第二章，各供应商需保持在线进行远程线上报价，规定时间内未完成二次报价的，视为退出谈判。3.本项目采购国内产品，不允许提供进口产品参与采购活动；4.本项目需要落实的政府采购政策：节约能源，保护环境，促进中小企业发展，支持监狱、戒毒企业发展，促进残疾人就业等政府采购政策（不适用者除外）。5.本项目是否采用远程异地评标： R 否				
+八、凡对本次采购提出询问，请按以下方式联系：		
+1.采购人信息		
+名称：江西工业工程职业技术学院		
+地址：江西省萍乡市经济开发区玉湖东路106号		
+联系方式：0799-7062278		
+2.采购代理机构信息		
+名称：江西省机电设备招标有限公司		
+地址：江西省南昌市东湖区省政府大院北二路92号		
+联系方式：0791-86271501		
+3.项目联系方式		
+项目联系人：谢兰诗雨		
+电话：0791-86271501</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）(SPB24A00751)询价公告</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/xjgg/202509/t20250904_25289407.htm</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）(SPB24A00751)询价公告                
+发布日期： 2025年9月4日                    
+本项目保证金支持电子投标保函形式，如需申请保函请点击右上角“申请投标保函”            
+项目概况：        
+“重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）”招标项目的潜在供应商应在“招标公告所附招标文件仅供阅览使用，投标人只有登陆“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处完成网上获取采购文件才被视为合法获取了采购文件，否则其投标将被拒绝。即：未通过“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处下载、获取招标文件，将无法上传投标文件”获取采购文件，并于 2025年9月10日  15:00（北京时间）前递交响应文件。        
+一、项目基本情况    
+项目号：SPB24A00751        采购执行编号：ZC2024120(2)        
+项目名称：重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）        
+采购方式：询价            
+预算金额：1,970,000.00元                
+最高限价：1,970,000.00元        
+采购需求：         
+包号：1                    包内容            最高限价                            数量            单位                                            简要技术要求                             
+重庆市第一中学校采购“小平科技创新实验室”设备、器材、课程项目（二）                1,970,000.00元                                                    1                台                采购标的对应的中小企业划分标准所属行业：工业                                
+最高限价总计：1,970,000.00元                    
+合同履行期限：详见采购文件            
+本项目是否接受联合体：否             
+二、申请人的资格要求    
+1、满足《中华人民共和国政府采购法》第二十二条规定。        
+2、落实政府采购政策需满足的资格要求：    
+供应商是指向采购人提供货物、工程或者服务的法人、其他组织或者自然人。合格的询价供应商应首先符合政府采购法第二十二条规定的基本条件，同时符合根据该项目特殊要求设置的特定资格条件、落实政府采购政策需满足的资格要求（如果有）。
+（一）基本资格条件
+1、具有独立承担民事责任的能力；
+2、具有良好的商业信誉和健全的财务会计制度；
+3、具有履行合同所必需的设备和专业技术能力；
+4、有依法缴纳税收和社会保障资金的良好记录；
+5、参加政府采购活动前三年内，在经营活动中没有重大违法记录；
+6、法律、行政法规规定的其他条件。
+（二）落实政府采购政策需满足的资格要求：
+本项目专门面向中小微企业采购。
+3、本项目的特定资格要求：
+已按规定缴纳询价保证金的证明材料。        
+三、获取采购文件            
+获取文件期限：2025年9月4日 至 2025年9月9日。        
+每天上午09:00:00至12:00:00，下午14:00:00至18:00:00。（北京时间，法定节假日除外 ）        
+文件购买费:0.00元/包    
+获取文件地点：招标公告所附招标文件仅供阅览使用，投标人只有登陆“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处完成网上获取采购文件才被视为合法获取了采购文件，否则其投标将被拒绝。即：未通过“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处下载、获取招标文件，将无法上传投标文件    
+方式或事项：    
+（一）投标人应通过重庆市政府采购网（www.ccgp-chongqing.gov.cn）注册成为重庆市政府采购供应商。
+（二）凡有意参加投标的投标人，请到“重庆市政府采购网” → “个人中心” → “在线开评标” → “电子标书在线获取”处在线下载或获取本项目招标文件以及图纸、澄清等开标前公布的所有项目资料（本次招标不提供纸质版招标文件），无论投标人下载或获取与否，均视为已知晓所有招标内容
+（三）招标公告所附招标文件仅供阅览使用，供应商只有登陆“重庆政府采购网”完成网上报名申请且报名审核通过后才被视为合法获取了招标文件，否则其投标将被拒绝。
+注意事项：首次参与电子招投标的投标人须办理CA数字证书并下载投标文件制作系统。
+1、CA数字证书的办理：首次参加重庆政府采购网电子招投标项目的供应商应办理CA数字证书（办理流程请进入”在线开评标” → “电子招投标中心”相关下载中，下载CA办理手册。）
+2、投标文件制作：首次参加重庆市政府采购网电子招投标项目的供应商应当登录重庆政府采购网。进入”在线开评标”→“电子招投标中心”相关下载中下载投标文件制作系统。
+见招标文件(公示日期：自采购公告发布之日起三个工作日)。
+四、响应文件提交         
+询价响应文件递交开始时间： 2025年9月9日  15:00         
+询价响应文件递交截止时间： 2025年9月10日  15:00    
+询价响应文件递交地点：本项目采用网上递交方式，投标人于投标截止时间前，登录“重庆市政府采购网”，进入“在线开评标”栏目，在“我的投标项目”→“在线投标”板块提交    
+五、评审信息                     
+询价开始时间： 2025年9月10日  15:00                            
+询价地点：投标人可在“重庆市政府采购网”→“个人中心”→“在线开评标”→“开评标大厅”远程参与开标（开标必备设备：CA证书和可以无线上网的笔记本电脑（必须带有摄像头、麦克风和声卡等功能）、无线网卡等）。也可由法定代表人或其授权代表持以上设备在规定的开标时间前，抵达指定开标地点（重庆市沙坪坝区公共资源交易中心）参加开标。因投标人自身原因导致未能在规定时间内解密电子投标文件或参与开标的，其后果由投标人自行承担。         
+六、公告期限    
+(公示日期：自采购公告发布之日起三个工作日)。    
+七、其他补充事宜            
+1.投标人如未在规定时间内（系统默认30分钟，可根据现场响应情况进行延长/变更）解密电子投标文件的情形约定：
+（1）因政府采购全程电子化系统客观原因影响解密时间的，采购人/采购代理机构可根据现场实际情况延长解密时间。投标人在仍不能解密的情况下，投标人可向采购人/采购代理机构申请，启用上传不加密的电子备份文件的方法作为补救措施；在规定的时间内，投标人既不解密，也未提供不加密的电子备份文件作为补救措施的，视为投标人主动放弃对该项目的投标资格。
+（2）因投标人主观原因未完成解密工作的，且未在规定时间内提供有效不加密的备份文件的，都视为投标人在提交投标文件截止时间后撤销投标文件，响应无效且投标人不得再参与本项目后续采购活动。如果项目提供了保证金的，保证金扣除不予退还。
+2.本项目采用全流程电子招投标。各投标人需熟悉了解整个政府采购电子化开评标全过程。具体电子化采购规则以及操作指南请下载项目公告附件《重庆市全流程电子招投标项目投标人办理正式CA签章流程手册》和《政府采购全程电子化采购系统供应商操作手册（CA证书签章版）》、《【供应商必看】政府采购（CA版）供应商投标前软件安装手册》，并按其要求操作。
+其他补充事宜
+本项目投标保证金支持保函&gt;&gt;
+http://218.70.109.205:6536/LBv3/n_financial_services.aspx
+本项目投标保证金指定收取账户信息&gt;&gt;
+开户银行：重庆银行沙坪坝支行 
+账号：280402029012244650-4 
+户名：重庆市沙坪坝区公共资源交易中心 
+采购经办人（采购文件质疑经办人）：金老师
+采购人电话：13340248578
+代理机构地址：重庆市沙坪坝区沙中路6号附6号
+采购过程和采购结果质疑经办人：王老师
+八、联系方式         
+1、采购人信息            
+采购人：重庆市第一中学校    
+采购经办人：金老师    
+采购人电话：13340248578    
+采购人地址：重庆市沙坪坝区沙南街2号                
+2、采购代理机构信息             
+代理机构：重庆市沙坪坝区公共资源交易中心     
+代理机构经办人：向老师      
+代理机构电话：81151011      
+代理机构地址：重庆市沙坪坝区沙中路6号附6号            
+3、项目联系方式            
+项目联系人：向老师    
+项目联系人电话：81151011
+九、附件            采购公告附件（投标人必看手册）24-8版.zip        采购需求.docx        附件1.doc        附件4.zip        重庆市第一中学校采购“小平科技创新实验室”设备、器材、课程项目（二）.docx        附件3.zip        附件2.doc                                             
+免责声明：  	
+本页面提供的内容是按照政府采购有关法律法规要求由采购人或采购代理机构发布的，重庆市政府采购网对其内容概不负责，亦不承担任何法律责任。</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>合肥工业大学机器人核心零部件、手术机器人核心组件、仿人双臂ICU巡诊查房机器人项目招标公告</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/zygg/gkzb/202509/t20250904_25289342.htm</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>项目概况         合肥工业大学机器人核心零部件、手术机器人核心组件、仿人双臂ICU巡诊查房机器人项目 招标项目的潜在投标人应在安天e采招标采购电子交易系统（https://www.xinecai.com）获取招标文件，并于2025年09月25日 09点00分（北京时间）前递交投标文件。                  
+一、项目基本情况        
+项目编号：25AT186017105389        
+项目名称：合肥工业大学机器人核心零部件、手术机器人核心组件、仿人双臂ICU巡诊查房机器人项目        
+预算金额：412.250000 万元（人民币）                
+最高限价（如有）：412.250000 万元（人民币）                
+采购需求：
+手术机器人核心组件、机器人核心零部件、仿人双臂ICU巡诊查房机器人，详见招标文件采购需求。
+最高限价：412.250000 万元（人民币），其中第1包手术机器人核心组件184.8万元；第2包机器人核心零部件129.45万元；第3包仿人双臂ICU巡诊查房机器人98万元        
+合同履行期限：合同签订后12周内完成供货         
+本项目( 不接受   )联合体投标。        
+二、申请人的资格要求：        
+1.满足《中华人民共和国政府采购法》第二十二条规定；        
+2.落实政府采购政策需满足的资格要求：
+本项目第2包专门面向中小企业采购，投标人所提供的货物由中小微企业、监狱企业或残疾人福利性单位制造；        
+3.本项目的特定资格要求：无4.投标人不得存在以下不良信用记录情形之一：（1）投标人被人民法院列入失信被执行人的；（2）投标人被税务部门列入重大税收违法案件当事人名单的；（3）投标人被政府采购监管部门列入政府采购严重违法失信行为记录名单的。（4）被市场监督管理部门（或工商行政管理部门）列入经营异常名录或者严重违法失信企业名单的（未按照《企业信息公示暂行条例》（国务院令第654号）第八条规定的期限公示年度报告被列入经营异常名录的除外）；5.单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的政府采购活动。        
+三、获取招标文件        
+时间：2025年09月04日         至 2025年09月11日，每天上午9:00至12:00，下午14:00至17:00。（北京时间，法定节假日除外）        
+地点：安天e采招标采购电子交易系统（https://www.xinecai.com）        
+方式：网上获取。具体操作参见安天e采操作手册，安天e采服务热线：400-050-9988        
+售价：￥0.0  元，本公告包含的招标文件售价总和        
+四、提交投标文件截止时间、开标时间和地点        
+提交投标文件截止时间：2025年09月25日 09点00分（北京时间）        
+开标时间：2025年09月25日 09点00分（北京时间）        
+地点：安天e采招标采购电子交易系统（https://www.xinecai.com）        
+五、公告期限        
+自本公告发布之日起5个工作日。        
+六、其他补充事宜        
+1.本项目落实节能环保、中小微型企业扶持等相关政府采购政策。
+2.本次招标公告同时在中国政府采购网上发布。
+3.投标人应合理安排招标文件获取时间，特别是网络速度慢的地区防止在系统关闭前网络拥堵无法操作。如果因计算机及网络故障造成无法完成招标文件获取，责任自负。        
+七、对本次招标提出询问，请按以下方式联系。        
+1.采购人信息        
+名 称：合肥工业大学　　　　　        
+地址：安徽省合肥市屯溪路193号　　　　　　　　        
+联系方式：钱老师，0551-62901760　　　　　　                
+2.采购代理机构信息        
+名 称：安徽安天利信工程管理股份有限公司　　　　　　　　　　　　        
+地　址：安徽省合肥市蜀山区蜀鑫路69号　　　　　　　　　　　　        
+联系方式：刘元军，0551-63735933　　　　　　　　　　　　        
+3.项目联系方式        
+项目联系人：刘元军        
+电　话：　　0551-63735933</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>浙江豪圣建设项目管理有限公司关于中国美术学院2025“两新”工业设计学院人形机器人实验教学系统等采购项目的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25288095.htm</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>项目概况        
+中国美术学院2025“两新”工业设计学院人形机器人实验教学系统等采购项目招标项目的潜在投标人应在政采云平台线上获取（下载）招标文件，并于2025年09月29日 09:30（北京时间）前递交（上传）投标文件。          
+一、项目基本情况
+项目编号：HSZB-2025-774
+项目名称：中国美术学院2025“两新”工业设计学院人形机器人实验教学系统等采购项目
+预算金额（元）：7857700
+最高限价（元）：7857700
+采购需求：  
+标项名称：中国美术学院2025“两新”工业设计学院人形机器人实验教学系统等采购项目    
+数量：1    
+预算金额（元）：7857700    
+简要规格描述或项目基本概况介绍、用途：具体以招标文件第三部分采购需求为准。    
+备注：    
+合同履约期限：标项 1，合同签订后30天内供货、安装、调试完毕。最终通过验收，直至交付采购人正常使用。
+本项目（是）接受联合体投标。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。
+2.落实政府采购政策需满足的资格要求：无。
+3.本项目的特定资格要求：标项1：无
+三、获取招标文件
+时间：/至2025年09月29日 ，每天上午00:00:00至12:00:00 ，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）
+地点（网址）：政采云平台线上获取
+方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）
+售价（元）：0
+四、提交投标文件截止时间、开标时间和地点
+提交投标文件截止时间：2025年09月29日 09:30（北京时间）
+投标地点（网址）：请登录政采云投标客户端投标
+开标时间：2025年09月29日 09:30
+开标地点（网址）：政采云平台https://www.zcygov.cn
+五、公告期限
+自本公告发布之日起5个工作日。
+六、其他补充事宜
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号））、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表:鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。
+4.其他事项：（1）需要落实的政府采购政策：包括节约资源、保护环境、支持创新、促进中小企业发展等。详见招标文件的第二部分总则。（2）电子招投标的说明：①电子招投标：本项目以数据电文形式，依托“政府采购云平台（www.zcygov.cn）”进行招投标活动，不接受纸质投标文件；②投标准备：注册账号--点击“商家入驻”，进行政府采购供应商资料填写；申领CA数字证书---申领流程详见“浙江政府采购网-下载专区-电子交易客户端-CA驱动和申领流程”；安装“政采云电子交易客户端”----前往“浙江政府采购网-下载专区-电子交易客户端”进行下载并安装；③招标文件的获取：使用账号登录或者使用CA登录政采云平台；进入“项目采购”应用，在获取采购文件菜单中选择项目，获取招标文件；④投标文件的制作：在“政采云电子交易客户端”中完成“填写基本信息”、“导入投标文件”、“标书关联”、“标书检查”、“电子签名”、“生成电子标书”等操作；⑤采购人、采购代理机构将依托政采云平台完成本项目的电子交易活动，平台不接受未按上述方式获取招标文件的供应商进行投标活动； ⑥对未按上述方式获取招标文件的供应商对该文件提出的质疑，采购人或采购代理机构将不予处理；⑦不提供招标文件纸质版；⑧投标文件的传输递交：投标人在投标截止时间前将加密的投标文件上传至政府采购云平台，还可以在投标截止时间前直接提交或者以邮政快递方式递交备份投标文件1份。备份投标文件的制作、存储、密封详见招标文件第二部分第15点—“备份投标文件”；⑨投标文件的解密：投标人按照平台提示和招标文件的规定在半小时内完成在线解密。通过“政府采购云平台”上传递交的投标文件无法按时解密，投标供应商递交了备份投标文件的，以备份投标文件为依据，否则视为投标文件撤回。通过“政府采购云平台”上传递交的投标文件已按时解密的，备份投标文件自动失效。投标人仅提交备份投标文件，未在电子交易平台传输递交投标文件的，投标无效；⑩具体操作指南：详见政采云平台“服务中心-帮助文档-项目采购-操作流程-电子招投标-政府采购项目电子交易管理操作指南-供应商”。（3）招标文件公告期限与招标公告的公告期限一致。
+七、对本次采购提出询问、质疑、投诉，请按以下方式联系
+1.采购人信息
+名    称：中国美术学院
+地    址：杭州市上城区南山路218号
+传    真：/
+项目联系人（询问）：傅老师
+项目联系方式（询问）：0571-87602322
+质疑联系人：林老师
+质疑联系方式：0571-87164774
+2.采购代理机构信息
+名    称：浙江豪圣建设项目管理有限公司
+地    址：杭州市拱墅区大关路179号远洋国际中心A座17楼1706室
+传    真：/
+项目联系人（询问）：赵邵东、陈梦菲、曹剑斌、陈敏娇
+项目联系方式（询问）：0571-87981527
+质疑联系人：桑国坚
+质疑联系方式：0571-56386096
+3.同级政府采购监督管理部门
+名    称：浙江省政府采购行政裁决服务中心（杭州）
+地    址：杭州市上城区清泰街549号城建综合大楼11楼（快递仅限ems或顺丰）
+传    真：
+联 系 人：匡老师
+监督投诉电话：0571-87807798 
+政策咨询：何一平、冯华，0571-87058424、87055741    
+预算金额未达100万元的采购项目，由采购人处理采购争议。    
+339900
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商   
+附件信息：
+（发布稿）中国美术学院2025“两新”工业设计学院人形机器人实验教学系统等采购项目HSZB-2025-774.docx
+249.9K</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>浙江乐诚工程咨询有限公司关于浙江工贸职业技术学院人工智能训练师智能系统公开招标公告</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25294755.htm</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>项目概况        
+人工智能训练师智能系统招标项目的潜在投标人应在政采云平台线上获取（下载）招标文件，并于2025年09月25日 14:00（北京时间）前递交（上传）投标文件。          
+一、项目基本情况
+项目编号：Z-ZJYC2025126（GK)
+项目名称：人工智能训练师智能系统
+预算金额（元）：730000
+最高限价（元）：730000
+采购需求：  
+标项名称：人工智能训练师智能系统     
+数量：1    
+预算金额（元）：730000    
+简要规格描述或项目基本概况介绍、用途：详见招标文件    
+备注：    
+合同履约期限：标项 1，详见招标文件
+本项目（是）接受联合体投标。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。
+2.落实政府采购政策需满足的资格要求：专门面向中小企业采购项目
+3.本项目的特定资格要求：标项1：无
+三、获取招标文件
+时间：/至投标截止时间，每天上午00:00:00至12:00:00 ，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）
+地点（网址）：政采云平台线上获取
+方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）
+售价（元）：0
+四、提交投标文件截止时间、开标时间和地点
+提交投标文件截止时间：2025年09月25日 14:00（北京时间）
+投标地点（网址）：请登录政采云投标客户端投标
+开标时间：2025年09月25日 14:00
+开标地点（网址）：温州市瓯江口产业集聚区雁云路301号浙江工贸职业技术学院资讯楼508室（政府采购云平台（https://login.zcygov.cn））
+五、公告期限
+自本公告发布之日起5个工作日。
+六、其他补充事宜
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号））、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表:鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。
+4.其他事项：无
+七、对本次采购提出询问、质疑、投诉，请按以下方式联系
+1.采购人信息
+名    称：浙江工贸职业技术学院
+地    址：温州市瓯江口产业集聚区雁云路301号
+传    真：/
+项目联系人（询问）：卢老师
+项目联系方式（询问）：0577-85515718
+质疑联系人：陈老师
+质疑联系方式：0577-85515948
+2.采购代理机构信息
+名    称：浙江乐诚工程咨询有限公司
+地    址：温州市瓯海区三垟街道桥头河大桥温州生命健康小镇B03
+传    真：/
+项目联系人（询问）：钱学丰/陈素芳
+项目联系方式（询问）：0577-86077700/15356271770
+质疑联系人：王纪凤
+质疑联系方式：15805779720
+3.该项目由采购人处理采购争议。质疑环节，采购人委托采购代理机构处理的，可由采购代理机构答复。对质疑答复不满意的，向采购人内部设置的采购监督机构反映。  
+政策咨询：何一平、冯华，0571-87058424、87055741    
+预算金额未达100万元的采购项目，由采购人处理采购争议。    
+339900
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商   
+附件信息：
+招标文件：浙江工贸职业技术学院人工智能训练师智能系统-发布稿.docx
+180.8K</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>浙江天弘招标代理有限公司关于杭州市体育局杭州体育在线人工智能服务和权益建设项目的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25294515.htm</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>项目概况        
+杭州体育在线人工智能服务和权益建设项目招标项目的潜在投标人应在政采云平台线上获取（下载）招标文件，并于2025年09月24日 10:00（北京时间）前递交（上传）投标文件。          
+一、项目基本情况
+项目编号：THZB-25NC19116
+项目名称：杭州体育在线人工智能服务和权益建设项目
+预算金额（元）：2620000
+最高限价（元）：2620000
+采购需求：  
+标项名称：杭州体育在线人工智能服务和权益建设项目    
+数量：1    
+预算金额（元）：2620000    
+简要规格描述或项目基本概况介绍、用途：杭州体育在线人工智能服务和权益建设项目，主要内容：构建体育健身智能服务场景；基于平台打造体育运动类权益产品开发。具体以招标文件第三部分采购需求为准，供应商可点击本公告下方“浏览采购文件”查看采购需求。    
+备注：    
+合同履约期限：标项 1，合同签订之日起6个月（验收时间另行约定）
+本项目（是）接受联合体投标。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。
+2.落实政府采购政策需满足的资格要求：专门面向中小企业，服务全部由符合政策要求的中小企业承接，提供中小企业声明函。
+3.本项目的特定资格要求：标项1：无
+三、获取招标文件
+时间：/至2025年09月24日 ，每天上午00:00:00至12:00:00 ，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）
+地点（网址）：政采云平台线上获取
+方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）
+售价（元）：0
+四、提交投标文件截止时间、开标时间和地点
+提交投标文件截止时间：2025年09月24日 10:00（北京时间）
+投标地点（网址）：政采云平台（https://www.zcygov.cn/）
+开标时间：2025年09月24日 10:00
+开标地点（网址）：政采云平台（https://www.zcygov.cn/）
+五、公告期限
+自本公告发布之日起5个工作日。
+六、其他补充事宜
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号））、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表:鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。
+4.其他事项：（1）需要落实的政府采购政策：包括节约资源、保护环境、支持创新、促进中小企业发展等。详见招标文件的第二部分总则。（2）电子招投标的说明：①电子招投标：本项目以数据电文形式，依托“政府采购云平台（www.zcygov.cn）”进行招投标活动，不接受纸质投标文件；②投标准备：注册账号--点击“商家入驻”，进行政府采购供应商资料填写；申领CA数字证书---申领流程详见“浙江政府采购网-下载专区-电子交易客户端-CA驱动和申领流程”；安装“政采云电子交易客户端”----前往“浙江政府采购网-下载专区-电子交易客户端”进行下载并安装；③招标文件的获取：使用账号登录或者使用CA登录政采云平台；进入“项目采购”应用，在获取采购文件菜单中选择项目，获取招标文件；④投标文件的制作：在“政采云电子交易客户端”中完成“填写基本信息”、“导入投标文件”、“标书关联”、“标书检查”、“电子签名”、“生成电子标书”等操作；⑤采购人、采购代理机构将依托政采云平台完成本项目的电子交易活动，平台不接受未按上述方式获取招标文件的供应商进行投标活动；⑥对未按上述方式获取招标文件的供应商对该文件提出的质疑，采购人或采购代理机构将不予处理；⑦不提供招标文件纸质版；⑧投标文件的传输递交：投标人在投标截止时间前将加密的投标文件上传至政府采购云平台，还可以在投标截止时间前直接提交或者以邮政快递方式递交备份投标文件1份。备份投标文件的制作、存储、密封详见招标文件第二部分第15点—“备份投标文件”；⑨投标文件的解密：投标人按照平台提示和招标文件的规定在半小时内完成在线解密。通过“政府采购云平台”上传递交的投标文件无法按时解密，投标供应商递交了备份投标文件的，以备份投标文件为依据，否则视为投标文件撤回。通过“政府采购云平台”上传递交的投标文件已按时解密的，备份投标文件自动失效。投标人仅提交备份投标文件，未在电子交易平台传输递交投标文件的，投标无效；⑩具体操作指南：详见政采云平台“服务中心-帮助文档-项目采购-操作流程-电子招投标-政府采购项目电子交易管理操作指南-供应商”。（3）招标文件公告期限与招标公告的公告期限一致。
+七、对本次采购提出询问、质疑、投诉，请按以下方式联系
+1.采购人信息
+名    称：杭州市体育局
+地    址：杭州市跑马场巷9号
+传    真：
+项目联系人（询问）：王老师
+项目联系方式（询问）：0571-89583340
+质疑联系人：陈老师
+质疑联系方式：0571-89583346
+2.采购代理机构信息
+名    称：浙江天弘招标代理有限公司
+地    址：杭州市上城区钱江路639号新城大楼16楼
+传    真：
+项目联系人（询问）：屠杉珊 顾奇祺
+项目联系方式（询问）：0571-87186955 87186977
+质疑联系人：孙雷
+质疑联系方式：0571-87187933
+3.同级政府采购监督管理部门
+名    称：杭州市财政局政府采购监管处/浙江省政府采购行政裁决服务中心（杭州）
+地    址：杭州市上城区清泰街549号城建综合大楼11楼（快递仅限ems或顺丰）
+传    真：
+联 系 人：朱女士、王女士
+监督投诉电话：0571-87227671,0571-87800218 
+330199
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商   
+附件信息：
+定稿--杭州体育在线人工智能服务和权益建设项目0903.docx
+163.0K</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目招标公告</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25293551.htm</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>项目概况   
+岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目招标项目的潜在投标人应在广东省政府采购网https://gdgpo.czt.gd.gov.cn/获取招标文件，并于 2025年09月25日 09时30分 （北京时间）前递交投标文件。  
+一、项目基本情况 
+项目编号：GPCGD251156HG356F 
+项目名称：岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目 
+采购方式：公开招标 
+预算金额：3,000,000.00元 
 采购需求： 
-采购包1(人形机器人及配套教学设备采购): 
-采购包预算金额：1,690,000.00元 
+采购包1(岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目): 
+采购包预算金额：3,000,000.00元 
 品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
-1-1 工业机器人 人形机器人 1(套) 详见采购文件   320,000.00    -   
-1-2 工业机器人 服务机器人实训平台 9(套) 详见采购文件   1,215,000.00    -   
-1-3 工业机器人 智能蛇形机器人 2(台) 详见采购文件   78,000.00    -   
-1-4 工业机器人 智能六足机器人 2(台) 详见采购文件   69,000.00    -   
-1-5 其他模型 仿生机器人应用场景－抗震救灾应用 1(套) 详见采购文件   8,000.00    -   
+1-1 服务器 GPU服务器集群设备 1(套) 详见采购文件   2,300,000.00    -   
+1-2 其他信息化设备 岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目其他设备及服务 1(项) 详见采购文件   700,000.00    -   
 本采购包不接受联合体投标  
-合同履行期限：合同生效后30个工作日内完成硬件设备（教材出版、课程视频资源录制除外）供货、安装调试并验收合格，180个工作日内完成教材出版、课程视频资源录制等交付并验收合格，除双方对推迟工期书面达成一致外，中标人必须在规定日期内完成交付使用。  
-采购包2(多媒体讲台等设备采购): 
-采购包预算金额：515,800.00元 
-品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
-2-1 图形工作站 数智化实训工作站 61(台) 详见采购文件   457,500.00    -   
-2-2 其他家具 多媒体讲台 1(套) 详见采购文件   2,750.00    -   
-2-3 音响电视组合机 音响系统 1(套) 详见采购文件   11,500.00    -   
-2-4 教学、实验椅凳 教师椅 1(张) 详见采购文件   450.00    -   
-2-5 教学、实验用桌 六人位实训桌 10(套) 详见采购文件   35,000.00    -   
-2-6 路由器 路由器 1(套) 详见采购文件   600.00    -   
-2-7 广告宣传服务 文化墙建设 1(套) 详见采购文件   8,000.00    -   
-本采购包不接受联合体投标  
-合同履行期限：合同生效后30个工作日内完成硬件设备（教材出版、课程视频资源录制除外）供货、安装调试并验收合格，180个工作日内完成教材出版、课程视频资源录制等交付并验收合格，除双方对推迟工期书面达成一致外，中标人必须在规定日期内完成交付使用。  
+合同履行期限：合同签订后45日内。供应商应保证在要求时间内完成全部货物的供货、安装、调试和培训工作,符合国家标准、行业规范和合同等相关文件的要求。  
 二、申请人的资格要求：  
 1.投标供应商应具备《中华人民共和国政府采购法》第二十二条规定的条件，提供下列材料： 
-1）具有独立承担民事责任的能力：在中华人民共和国境内注册的法人或其他组织或自然人，投标（响应）时提交有效的营业执照（或事业法人登记证或身份证等相关证明）副本复印件。分公司投标的，须提供总公司和分公司营业执照副本复印件，总公司出具给分公司的授权书。 
-2）有依法缴纳税收和社会保障资金的良好记录：提供投标截止日前6个月内任意1个月依法缴纳税收和社会保障资金的相关材料。如依法免税或不需要缴纳社会保障资金的，提供相应证明材料。 
-3）具有良好的商业信誉和健全的财务会计制度：提供2024年财务状况报告或2025年基本开户行出具的资信证明材料。 
+1）具有独立承担民事责任的能力：在中华人民共和国境内注册的法人或其他组织或自然人， 投标（响应）时提交有效的营业执照（或事业法人登记证或身份证等相关证明） 副本复印件。分支机构投标的，须提供总公司和分公司营业执照副本复印件，总公司出具给分支机构的授权书。 
+2）有依法缴纳税收和社会保障资金的良好记录：提供投标截止日前6个月内任意1个月依法缴纳税收和社会保障资金的相关材料。 
+3）具有良好的商业信誉和健全的财务会计制度：供应商必须具有良好的商业信誉和健全的财务会计制度（提供以下2种证明材料之一：①2024年度经会计师事务所审计的财务状况报告；②同时提供a.基本开户行出具的资信证明，b.《基本存款账号信息》或《开户许可证》。 
 4）履行合同所必需的设备和专业技术能力：按投标（响应）文件格式填报设备及专业技术能力情况。 
-5）参加采购活动前3年内，在经营活动中没有重大违法记录：参照投标（报价）函相关承诺格式内容。重大违法记录，是指投标人因违法经营受到刑事处罚或者责令停产停业、吊销许可证或者执照、较大数额罚款等行政处罚。（根据财库〔2022〕3号文，“较大数额罚款”认定为200万元以上的罚款，法律、行政法规以及国务院有关部门明确规定相关领域“较大数额罚款”标准高于200万元的，从其规定） 
-2.落实政府采购政策需满足的资格要求： 
-采购包1(人形机器人及配套教学设备采购)落实政府采购政策需满足的资格要求如下: 
-1)本项目落实《政府采购促进中小企业发展管理办法》(财库〔2020〕46号)、《关于政府采购支持监狱企业发展有关问题的通知》(财库〔2014〕68号)、《关于促进残疾人就业政府采购政策的通知》(财库〔2017〕141号)、《关于调整优化节能产品、环境标志产品政府采购执行机制的通知》（财库〔2019〕9号）及《广东省政府采购促进中小企业发展实施细则(试行)》(粤财采购〔2022〕10号) 政策。 
-采购包2(多媒体讲台等设备采购)落实政府采购政策需满足的资格要求如下: 
-1)本项目落实《政府采购促进中小企业发展管理办法》(财库〔2020〕46号)、《关于政府采购支持监狱企业发展有关问题的通知》（财库〔2014〕68号)、《关于促进残疾人就业政府采购政策的通知》(财库〔2017〕141号)、《关于调整优化节能产品、环境标志产品政府采购执行机制的通知》（财库〔2019〕9号）及《广东省政府采购促进中小企业发展实施细则(试行)》(粤财采购〔2022〕10号) 政策。 
+5）参加采购活动前3年内，在经营活动中没有重大违法记录：参照投标函相关承诺格式内容。 重大违法记录，是指供应商因违法经营受到刑事处罚或者责令停产停业、吊销许可证或者执照、较大数额罚款等行政处罚。（根据财库〔2022〕3号文，“较大数额罚款”认定为200万元以上的罚款，法律、行政法规以及国务院有关部门明确规定相关领域“较大数额罚款”标准高于200万元的，从其规定） 
+2.落实政府采购政策需满足的资格要求： 无。  
 3.本项目的特定资格要求：
-采购包1(人形机器人及配套教学设备采购)特定资格要求如下: 
-(1)投标人未被列入“信用中国”网站(www.creditchina.gov.cn)“记录失信被执行人或重大税收违法失信主体或政府采购严重违法失信行为记录名单”；不处于中国政府采购网(www.ccgp.gov.cn)“政府采购严重违法失信行为记录名单”中的禁止参加政府采购活动期间。（以采购代理机构于投标截止日当天在“信用中国”网站（www.creditchina.gov.cn）及中国政府采购网（http://www.ccgp.gov.cn/）查询结果为准，如相关失信记录已失效，投标人需提供相关证明资料）。 
-(2)单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得同时参加本采购项目（或采购包）投标（响应）。为本项目提供整体设计、规范编制或者项目管理、监理、检测等服务的投标人，不得再参与本项目投标（响应）。投标（报价）函相关承诺要求内容。 
-(3)本项目不接受联合体投标。 
-(4)已在云平台系统参与本项目并获取招标文件。 
-采购包2(多媒体讲台等设备采购)特定资格要求如下: 
-(1)投标人未被列入“信用中国”网站(www.creditchina.gov.cn)“记录失信被执行人或重大税收违法失信主体或政府采购严重违法失信行为记录名单”；不处于中国政府采购网(www.ccgp.gov.cn)“政府采购严重违法失信行为记录名单”中的禁止参加政府采购活动期间。（以采购代理机构于投标截止日当天在“信用中国”网站（www.creditchina.gov.cn）及中国政府采购网（http://www.ccgp.gov.cn/）查询结果为准，如相关失信记录已失效，投标人需提供相关证明资料）。 
-(2)单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得同时参加本采购项目（或采购包）投标（响应）。为本项目提供整体设计、规范编制或者项目管理、监理、检测等服务的投标人，不得再参与本项目投标（响应）。投标（报价）函相关承诺要求内容。 
-(3)本项目不接受联合体投标。 
-(4)已在云平台系统参与本项目并获取招标文件。 
+采购包1(岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目)特定资格要求如下: 
+(1)供应商未被列入“信用中国”网站(www.creditchina.gov.cn)“记录失信被执行人或重大税收违法失信主体或政府采购严重违法失信行为”记录名单；不处于中国政府采购网(www.ccgp.gov.cn)“政府采购严重违法失信行为信息记录”中的禁止参加政府采购活动期间。（以资格审查人员于投标（响应）截止时间当天在“信用中国”网站（www.creditchina.gov.cn）及中国政府采购网（http://www.ccgp.gov.cn/）查询结果为准，如相关失信记录已失效，供应商需提供相关证明资料）。 
+(2)单位负责人为同一人或者存在直接控股、 管理关系的不同供应商，不得同时参加本采购项目（或采购包） 投标（响应）。 为本项目提供整体设计、 规范编制或者项目管理、 监理、 检测等服务的供应商， 不得再参与本项目投标（响应）。 投标函相关承诺要求内容。 
 三、获取招标文件 
-时间： 2025年09月03日 至 2025年09月10日 ，每天上午 00:00:00 至 12:00:00 ，下午 12:00:00 至 23:59:59 （北京时间,法定节假日除外） 
+时间： 2025年09月04日 至 2025年09月11日 ，每天上午 00:00:00 至 12:00:00 ，下午 12:00:00 至 23:59:59 （北京时间,法定节假日除外） 
 地点：广东省政府采购网https://gdgpo.czt.gd.gov.cn/ 
 方式：在线获取 
 售价： 免费获取  
 四、提交投标文件截止时间、开标时间和地点 
 2025年09月25日 09时30分00秒 （北京时间） 
-递交文件地点：电子版（广东省政府采购网https://gdgpo.czt.gd.gov.cn/）；  
-开标地点：远程电子开标（广东省政府采购网https://gdgpo.czt.gd.gov.cn/）；现场开标（广东国和采购咨询有限公司会议室，详细地址：广州市越秀区先烈中路102号华盛大厦北塔18楼） 
+递交文件地点：广州市越秀区越华路112号珠江国际大厦3楼（投标文件在线提交，网上远程开标）  
+开标地点：广州市越秀区越华路112号珠江国际大厦3楼（投标文件在线提交，网上远程开标） 
 五、公告期限 
 自本公告发布之日起5个工作日。 
 六、其他补充事宜 
 1.本项目采用电子系统进行招投标，请在投标前详细阅读供应商操作手册，手册获取网址：https://gdgpo.czt.gd.gov.cn/help/transaction/download.html。投标供应商在使用过程中遇到涉及系统使用的问题，可通过020-88696588 进行咨询或通过广东政府采购智慧云平台运维服务说明中提供的其他服务方式获取帮助。 
 2.供应商参加本项目投标，需要提前办理CA和电子签章，办理方式和注意事项详见供应商操作手册与CA办理指南，指南获取地址：https://gdgpo.czt.gd.gov.cn/help/problem/。 
 3.如需缴纳保证金，供应商可通过"广东政府采购智慧云平台金融服务中心"(http://gdgpo.czt.gd.gov.cn/zcdservice/zcd/guangdong/)，申请办理投标（响应）担保函、保险（保证）保函。 
-4.本项目采用“远程电子开标”，参与本项目的供应商应在开标截止时间前登录广东省政府采购云平台系统，选择“新供应商开标大厅”里对应的项目进行开标、投标（响应）文件解密及电子签章。供应商亦可委派授权代表前往采购代理机构处进行现场开标，如供应商选择现场开标的，须携带CA-key、存储有非加密投标（响应）文件（备用标书）的U盘。（温馨提示：供应商选择“远程电子开标”进行投标（响应）文件解密及电子签章操作时，电脑需提前安装CA统一安全认证客户端，并运行CA证书。） 
+4.需要落实的政府采购政策：《政府采购促进中小企业发展管理办法》（财库〔2020〕46号）、《关于政府采购支持监狱企业发展有关问题的通知》(财库〔2014〕68号)、《关于促进残疾人就业政府采购政策的通知》（财库〔2017〕141号)等。 
+5.云平台操作过程中如有相关问题可通过广东省政府采购网（http://gdgpc.czt.gd.gov.cn）下载操作手册查询，或通过云平台公布的在线客服、微信/QQ群、专线电话等方式咨询。 
+6.请投标/报价人按“远程开标”有关要求，在投标/报价截止时间前上传加密的电子投标/报价文件，未按要求上传的将视为自动放弃投标/报价。 
+7.在开标/唱价截止时间前，请各投标/报价人核实并确认填写授权代表的姓名与手机号码，若因填写的授权代表信息有误而导致的不良后果，由供应商自行承担。 
+8.开标/唱价时，供应商应当使用编制本项目（采购包）电子投标/报价文件时加密所用数字证书开始解密，解密时限为主持人开启远程解密起30分钟内完成。各供应商在参加开标/唱价之前须自行对使用电脑的网络环境、驱动安装、客户端安装以及数字证书的有效性等进行检测，确保可以正常使用。 
 七、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
-名  称：广东松山职业技术学院 
-地  址：广东省韶关市曲江区南华 
-联系方式：0751-6502690  
+名  称：岭南师范学院 
+地  址：湛江市赤坎区寸金路29号岭南师范学院 
+联系方式：0759-3182700 
 2.采购代理机构信息 
-名  称：广东国和采购咨询有限公司 
-地  址：广州市越秀区先烈中路102号华盛大厦北塔18楼 
-联系方式：020-37625911 
+名  称：广东省政府采购中心 
+地  址：广东省广州市越秀区越华路112号珠江国际大厦3楼 
+联系方式：020-83196835 
 3.项目联系方式  
-项目联系人：黄小姐、林先生 
-电  话：020-37625911 
-广东国和采购咨询有限公司 
-2025年09月03日
+项目联系人：宋工 
+电  话：020-83196835 
+广东省政府采购中心 
+2025年09月04日
 相关附件： 
-广东松山职业技术学院具身智能机器人产教融合基地建设项目招标文件（2025090301）.zip   代理协议-广东松山职业技术学院具身智能机器人产教融合基地建设项目.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>河北机电职业技术学院焊接机器人教学设备及焊接工作站建设采购项目废标公告</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
+岭南师范学院人工智能应用创新实训中心-基于大模型的课程中心建设项目招标文件（2025090402）.zip   （选用）附件：设备及专业技术能力情况表.docx   251-356委托代理协议.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>隆昌市教仪站2025年隆昌市网链共享计划建设项目-人工智能教室竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/qtgg/202509/t20250903_25283302.htm</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxcs/202509/t20250904_25293404.htm</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>一、项目基本情况    
-采购项目编号：Z1300002520522001    
-采购项目名称：焊接机器人教学设备及焊接工作站建设采购项目    
-二、项目终止的原因    
-根据《政府采购法》第三十六条和三十七条规定，采购人决定本项目废标，重新开展政府采购活动。    
-三、其他补充事宜    
-四、凡对本次公告内容提出询问，请按以下方式联系。    
-1.采购人信息    
-名    称：河北机电职业技术学院    
-地    址：邢台市信都区泉北西大街1169号    
-联系方式：0319-8769802    
-2.采购代理机构信息（如有）    
-名    称：大华建设项目管理有限公司    
-地    址：石家庄市裕华区金马路建投十号院    
-联系方式：0311-85850295    
-3.项目联系方式    
-项目联系人：田国红    
-电      话：0311-85850295    
-五、附件</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>某单位机器人采购项目公开招标公告</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>项目概况   
+2025年隆昌市网链共享计划建设项目-人工智能教室的潜在供应商应在四川省政府采购一体化平台项目电子化交易系统（以下简称“项目电子化交易系统”）获取采购文件，并于 2025年09月15日 09时30分 （北京时间）前提交响应文件。本项目通过项目电子化交易系统实行电子化采购。  
+一、项目基本情况 
+项目编号：N5110832025000181 
+项目名称：2025年隆昌市网链共享计划建设项目-人工智能教室 
+采购方式：竞争性磋商 
+预算金额：1,500,000.00元 
+采购需求：详见采购需求附件 
+合同履行期限： 
+采购包1：合同签订生效后30日。 
+本项目是否接受联合体参与： 
+采购包1：不接受联合体投标 
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定： 
+（1）具有独立承担民事责任的能力；（2）具有良好的商业信誉和健全的财务会计制度；（3）具有履行合同所必需的设备和专业技术能力；（4）有依法缴纳税收和社会保障资金的良好记录；（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录。 
+2.落实政府采购政策需满足的资格要求： 
+采购包1：无 
+3.本项目的特定资格要求：
+采购包1： 
+(1)参加政府采购活动的供应商及其现任法定代表人三年内无行贿犯罪记录（供应商需提供独立的承诺函）；(2)本次政府采购活动不接受联合体投标（供应商需提供独立的承诺函）。  
+三、获取采购文件 
+时间：2025年09月05日至2025年09月11日，每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间） 
+途径：项目电子化交易系统-投标（响应）管理-未获取采购文件中选择本项目获取招标文件 
+方式：在线获取 
+售价：0元 
+四、响应文件提交 
+截止时间：2025年09月15日 09时30分00秒（北京时间） 
+地点：通过项目电子化交易系统-投标（响应）管理在线提交响应文件  
+五、开启 
+时间：2025年09月15日 09时30分00秒（北京时间） 
+地点：通过项目电子化交易系统-开标/开启大厅参与开启 
+六、公告期限 
+自本公告发布之日起3个工作日。 
+七、其他补充事宜  
+投诉受理单位：本项目同级财政部门，即内江市隆昌市财政局
+联系人：吴老师 
+地址：隆昌市滨江路3段64号
+八、凡对本次采购提出询问，请按以下方式联系。  1.采购人信息 
+名称：隆昌市教仪站 
+地址：四川省内江市隆昌市康复中路488号 
+联系方式：15883299778 
+2.采购代理机构信息 
+名称：中锦军贤工程咨询集团有限公司 
+地址：四川省内江市东兴区西林大道中段996号18栋2楼18号（内江中国农批城18栋2楼18号） 
+联系方式：13696041155 
+3.项目联系方式  
+项目联系人：中锦军贤工程咨询集团有限公司 
+电话：13696041155 
+中锦军贤工程咨询集团有限公司 
+2025年09月04日
+相关附件： 
+采购需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025年度长兴县工业“50 强” 企业家暨人工智能赋能产业发展培训的竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25281889.htm</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxcs/202509/t20250904_25292064.htm</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>‍
-项目概况
-某单位机器人采购项目招标项目的潜在投标人应在政采云平台线上获取招标文件，并于2025年09月24日 11:00（北京时间）前递交投标文件。
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>项目概况    
+2025年度长兴县工业“50 强” 企业家暨人工智能赋能产业发展培训采购项目的潜在供应商应在浙江政府采购网http://zfcg.czt.zj.gov.cn获取（下载）采购文件，并于2025年09月15日 14:00（北京时间）前提交（上传）响应文件。    
 一、项目基本情况
-项目编号：XZJ256-225（2）-ZK
-项目名称：某单位机器人采购项目
-采购方式：公开招标
-预算金额（元）：200000
-最高限价（元）：200000
-采购需求：
-某单位机器人采购项目
-1
-200000
-批 
-采购机器人一套，具体采购内容及采购数量详见招标文件。
-具体详见招标文件
-合同履约期限：标项 1，具体详见招标文件
+项目编号：HZ-2025-ZY023      
+项目名称：2025年度长兴县工业“50 强” 企业家暨人工智能赋能产业发展培训      
+采购方式：竞争性磋商      
+预算金额（元）：670000      
+最高限价（元）：670000      
+采购需求：        
+数量：1          
+预算金额（元）：670000          
+单位：项          
+简要规格描述：主要包括长兴县 50 强企业游学服务等内容，具体详见磋商文件第二章磋商需求。          
+备注：          
+合同履约期限：标项 1，6日历天，自合同签订之日起计算。      
+本项目（否）接受联合体投标。      
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。      
+2.落实政府采购政策需满足的资格要求：供应商应符合中小企业，请根据要求上传《中小企业声明函》，格式以采购文件要求为准；
+3.本项目的特定资格要求：标项1：无      
+三、获取（下载）采购文件
+时间：/至2025年09月15日，每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）      
+地点（网址）：浙江政府采购网http://zfcg.czt.zj.gov.cn      
+方式：（1）在线获取（登录政府采购云平台→项目采购→获取采购文件→申请，审核通过后可下载采购文件）。本次采购不提供纸质版采购文件。（2）供应商获取采购文件前应注册成为政府采购云平台正式供应商。（3）采购公告所附采购文件仅供阅览使用，供应商只有在“政府采购云平台”完成获取采购文件申请并下载了采购文件后才被视为合法获取了采购文件，否则其投标将被拒绝。      
+售价（元）：0      
+四、响应文件提交（上传）
+截止时间：2025年09月15日 14:00（北京时间）
+地点（网址）：请登录政采云投标客户端投标      
+五、响应文件开启
+开启时间： 2025年09月15日 14:00（北京时间）
+地点（网址）：长兴县公共资源交易中心（长兴县锦绣路8号）4楼二号开标室（具体以电子屏幕今日交易场地安排为准）      
+六、公告期限
+自本公告发布之日起3个工作日。      
+七、其他补充事宜
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。      
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表：鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。      
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。      
+4.其他事项：（1）为有效破解当前中小企业面临的“融资难、融资贵”困局，充分发挥好政府采购扶持中小企业发展的政策功能，本项目成交供应商可凭政府采合同或成交通知书等材料至政采云平台申请相关融资产品。
+八、凡对本次招标提出询问、质疑、投诉，请按以下方式联系
+1.采购人信息        
+名    称：长兴县经济和信息化局        
+地    址：浙江省长兴县龙山新区广场路1号行政中心C座14-15楼        
+项目联系人（询问）：陈先生        
+项目联系方式（询问）：0572-6151321        
+质疑联系人：章工        
+质疑联系方式：18157202716        
+2.采购代理机构信息        
+名    称：湖州弘泽项目管理有限公司        
+地    址：浙江省湖州市长兴县龙山街道浙北商业广场11幢201室        
+项目联系人（询问）：章工        
+项目联系方式（询问）：0572-6250311、18805826367        
+质疑联系人：郑工     
+质疑联系方式：0572-6250311        
+3.同级政府采购监督管理部门
+名    称：长兴县财政局
+地    址：浙江省长兴县龙山街道锦绣路6号兴国商务楼1号楼1305室
+联 系 人：佘工
+监督投诉电话：0572-6027789       
+330522        
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商  
+附件信息：
+定-2025年度长兴县工业“50 强” 企业家暨人工智能赋能产业发展培训.doc
+417.1K</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>金华市万全招标代理有限公司关于生态环境监测人工智能实验室（一期）项目的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25291299.htm</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>项目概况        
+生态环境监测人工智能实验室（一期）项目招标项目的潜在投标人应在浙江政府采购网（http：//zfcg.czt.zj.gov.cn）（下载）招标文件，并于2025年09月24日 09:00（北京时间）前递交（上传）投标文件。          
+一、项目基本情况
+项目编号：WQ2025278-ZFCG057
+项目名称：生态环境监测人工智能实验室（一期）项目
+预算金额（元）：2500000
+最高限价（元）：2500000
+采购需求：  
+标项名称：生态环境监测人工智能实验室（一期）项目     
+数量：1批    
+预算金额（元）：2500000    
+简要规格描述或项目基本概况介绍、用途：详细要求见招标文件第二章。    
+备注：    
+合同履约期限：标项 1，合同签订之日起至所有合同义务履约完毕为止。
 本项目（否）接受联合体投标。
 二、申请人的资格要求：
-1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：标项1：供应商须为中小企业/小微企业：即供应商所提供货物由中小企业制造（货物由中小企业生产且使用该中小企业商号或者注册商标，须出具《中小企业声明函》）。
-3.本项目的特定资格要求：无
+1.满足《中华人民共和国政府采购法》第二十二条规定；未被“信用中国”（www.creditchina.gov.cn)、中国政府采购网（www.ccgp.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。
+2.落实政府采购政策需满足的资格要求：专门面向中小企业采购，即所有货物全部由符合政策要求的中小企业制造（提供中小企业声明函。残疾人福利性单位和监狱企业视同小微企业，提供承诺函或相关依据。本项目所属行业为“工业”。从业人员1000人以下或营业收入40000万元以下的为中小微型企业。其中，从业人员300人及以上，且营业收入2000万元及以上的为中型企业；从业人员20人及以上，且营业收入300万元及以上的为小型企业；从业人员20人以下或营业收入300万元以下的为微型企业）。
+3.本项目的特定资格要求：标项1：无
 三、获取招标文件
-时间：2025年09月02日至2025年09月09日，每天上午00:00至14:00，下午14:00至23:59（北京时间，法定节假日除外）
-地点：政采云平台线上
-方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件），或者点击采购公告底部潜在供应商“获取采购文件”，页面跳转后登陆，直接获取采购文件。
+时间：/至2025年09月24日 ，每天上午00:00:00至12:00:00 ，下午12:00:00至23:59:59（北京时间，线上获取法定节假日均可，线下获取文件法定节假日除外）
+地点（网址）：浙江政府采购网（http：//zfcg.czt.zj.gov.cn）
+方式：供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）。供应商只有在“政府采购云平台”完成获取采购文件申请并下载了采购文件后才视作依法获取采购文件（法律法规所指的供应商获取采购文件时间以供应商完成获取采购文件申请后下载采购文件的时间为准）。供应商获取采购文件前应先完成“政府采购云平台”的账号注册（注册咨询电话：95763；注册流程见网址：https://www.zcygov.cn/luban/ruzhu/sjzc）。供应商应当按照公告规定的方式获取采购文件。未按照公告规定的方式获取采购文件的，不得对采购文件提起质疑、投诉。如未在“政采云”系统内完成相关流程，引起的投标无效责任由供应商自行承担。同时，供应商在参加投标前应随时关注项目的更正公告情况，因供应商未及时查看项目变更情况造成无效投标的责任由供应商自行承担。
 售价（元）：0
 四、提交投标文件截止时间、开标时间和地点
-提交投标文件截止时间：2025年09月24日 11:00（北京时间）
-投标地点：请登录政采云投标客户端投标
-开标时间：2025年09月24日 11:00（北京时间）
-开标地点：投标人登录政采云平台https://www.zcygov.cn/，进入“项目采购-开标评标-右边选择对应项目点击“进入项目”进入开标大厅。
+提交投标文件截止时间：2025年09月24日 09:00（北京时间）
+投标地点（网址）：“政采云投标客户端”（本项目采用在线投标方式，供应商须在投标截止时间前按规定上传加密的投标文件至政采云平台）
+开标时间：2025年09月24日 09:00（北京时间）
+开标地点（网址）：“政采云投标客户端”开标大厅（本项目采用在线解密开启投标文件，供应商自行关注政采云平台开标评标过程及结果。评标地点：金华市公共资源交易中心四楼评标室）
 五、公告期限
 自本公告发布之日起5个工作日。
 六、其他补充事宜
-1、本项目实行网上投标，采用电子投标文件。
-2、各供应商应在开标前确保成为正式注册入库供应商，并完成CA数字证书(符合国密标准)申领。因未注册入库、未办理CA数字证书等原因造成无法投标或投标失败等后果由供应商自行承担。如需咨询，请联系新疆-安信CA服务热线0991-7810912；翔晟CA服务热线025-66085508；新疆CA服务热线4000921999。
-3、供应商将政采云电子交易客户端下载、安装完成后，可通过账号密码或CA登录客户端进行投标文件的制作。在使用政采云投标客户端时，建议使用WIN7及以上操作系统。
-4、其他事项： 1、本项目实行网上投标，采用电子投标文件；
-特别提示：
-1、采购限额标准以上，200万元以下的货物和服务采购项目、400万元以下的工程采购项目，适宜由中小企业提供的，采购人应当专门面向中小企业采购。
-2、超过200万元的货物和服务采购项目，预留该部分采购项目预算总额的30%以上专门面向中小企业采购，其中预留给小微企业的比例不低于60%。
-3、超过400万元的工程采购项目中适宜由中小企业提供的，预留该部分采购项目预算总额的40%以上专门面向中小企业采购，其中预留给小微企业的比例不低于60%。
-4、对于未预留份额专门面向中小企业的采购项目，以及预留份额项目中的非预留部分采购包，采购人、采购代理机构应当对符合规定的小微企业报价给予10%~20%（工程项目为3%~5%）的扣除，用扣除后的价格参加评审。适用招标投标法的政府采购工程建设项目，采用综合评估法但未采用低价优先法计算价格分的，评标时应当在采用原报价进行评分的基础上增加其价格得分的3%~5%作为其价格分。
-5、接受大中型企业与小微企业组成联合体或者允许大中型企业向一家或者多家小微企业分包的采购项目，对于联合协议或者分包意向协议约定小微企业的合同份额占到合同总金额30%以上的，采购人、采购代理机构应当对联合体或者大中型企业的报价给予4%~6%（工程项目为1%~2%）的扣除，用扣除后的价格参加评审。适用招标投标法的政府采购工程建设项目，采用综合评估法但未采用低价优先法计算价格分的，评标时应当在采用原报价进行评分的基础上增加其价格得分的1%~2%作为其价格分。
-七、对本次采购提出询问，请按以下方式联系
+1.《浙江省财政厅关于进一步发挥政府采购政策功能全力推动经济稳进提质的通知》（浙财采监（2022）3号）、《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号））、《浙江省财政厅关于进一步加大政府采购支持中小企业力度助力扎实稳住经济的通知》（浙财采监（2022）8号）已分别于2022年1月29日、2022年2月1日和2022年7月1日开始实施，此前有关规定与上述文件内容不一致的，按上述文件要求执行。
+2.根据《浙江省财政厅关于进一步促进政府采购公平竞争打造最优营商环境的通知》（浙财采监（2021）22号）文件关于“健全行政裁决机制”要求，鼓励供应商在线提起询问，路径为：政采云-项目采购-询问质疑投诉-询问列表:鼓励供应商在线提起质疑，路径为：政采云-项目采购-询问质疑投诉-质疑列表。质疑供应商对在线质疑答复不满意的，可在线提起投诉，路径为：政采云平台-项目采购-询问质疑投诉-投诉列表。
+3.供应商认为采购文件使自己的权益受到损害的，可以自获取采购文件之日或者采购公告期限届满之日（公告期限届满后获取采购文件的，以公告期限届满之日为准）起7个工作日内，对采购文件需求的以书面形式向采购人提出质疑，对其他内容的以书面形式向采购人和采购代理机构提出质疑。质疑供应商对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。质疑函范本、投诉书范本请到浙江政府采购网下载专区下载。
+4.未按招标公告规定依法获取招标文件的潜在投标人不得对招标文件提出质疑、投诉。
+七、对本次采购提出询问、质疑、投诉，请按以下方式联系
 1.采购人信息
-名 称：新疆维吾尔自治区乌鲁木齐某某某单位
-地 址：乌鲁木齐市骑马山路东二巷25号
-联系方式：0991-5171989
+名    称：浙江省金华生态环境监测中心
+地    址：金华市金东区东宁路223号 
+传    真：
+项目联系人（询问）：钱先生
+项目联系方式（询问）：0579-82181505
+质疑联系人：楼先生
+质疑联系方式：0579-82181503
 2.采购代理机构信息
-名 称：新疆新之建工程咨询有限公司
-地 址：新疆乌鲁木齐市沙依巴克区克拉玛依西路618号亚欣国际酒店5楼
-联系方式：0991-4519928
-3.项目联系方式
-项目联系人：汤梦雨、卫茜
-电 话：0991-4519928
+名    称：金华市万全招标代理有限公司
+地    址：金华市玉泉东路288号3楼
+传    真：
+项目联系人（询问）：方晓琳（项目负责人）
+项目联系方式（询问）：0579-82583379 
+质疑联系人：吴贵兰
+质疑联系方式：0579-82583380
+3.同级政府采购监督管理部门
+名    称：金华市财政局政府采购监管处 
+地    址：金华市双龙南街801号财政局510办公室 
+传    真：
+联 系 人：张老师
+监督投诉电话：0579-82468735 
+330799
+若对项目采购电子交易系统操作有疑问，可登录政采云（https://www.zcygov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打政采云服务热线95763获取热线服务帮助。
+CA问题联系电话（人工）：汇信CA 400-888-4636；天谷CA 400-087-8198。
+潜在供应商   
 附件信息：
-XZJ256-225-ZK 某单位机器人采购项目-公开招标文件09.02定稿.doc
-761.4K</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购项目公开招标公告</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
+9-24上午9：00开标。生态环境监测人工智能实验室（一期）项目公开招标文件.doc
+598.6K</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>河北软件职业技术学院人工智能训练师培训平台采购项目（二次）招标公告</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25281746.htm</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25290407.htm</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>项目概况	  	  
-2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购项目招标项目的潜在投标人应在衡水市公共资源交易平台（http：//hsggzy.hengshui.gov.cn/）获取招标文件，并于2025年09月24日09点00分（北京时间）前递交投标文件。			  	
+人工智能训练师培训平台招标项目的潜在投标人应在河北省公共资源交易服务平台获取招标文件，并于2025年09月26日09点00分（北京时间）前递交投标文件。			  	
 一、项目基本情况	
-项目编号：HBRN-202511	
-项目名称：2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购项目	
-预算金额：417000	
-最高限价（如有）：417000.00元	
-采购需求：2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购	
-合同履行期限：签订合同后30日历天内供货完成	
+项目编号：BDJL-2025047	
+项目名称：人工智能训练师培训平台	
+预算金额：600000	
+最高限价（如有）：600000	
+采购需求：详见招标文件技术部分	
+合同履行期限：自合同签订起 45个工作日内	
 本项目不接受联合体投标。	
 二、申请人的资格要求：	
 1.满足《中华人民共和国政府采购法》第二十二条规定；	
-2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购；	
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购	
 3.本项目的特定资格要求：无	
 三、获取招标文件	
-时间：2025年09月04日至2025年09月10日,每天上午00：00至12：00,下午12：00至23：59（北京时间，法定节假日除外）	
-地点：衡水市公共资源交易平台（http：//hsggzy.hengshui.gov.cn/）	
+时间：2025年09月05日至2025年09月11日,每天上午09:00至12:00,下午12:00至17:00（北京时间，法定节假日除外）	
+地点：河北省公共资源交易服务平台	
 方式：其它	
 售价：0	
 四、提交投标文件截止时间、开标时间和地点	
-2025年09月24日09点00分（北京时间）	
-地点：网上开标（衡水市公共资源交易平台http：//hsggzy.hengshui.gov.cn/）	
+2025年09月26日09点00分（北京时间）	
+地点：河北省公共资源交易网上开标大厅	
 五、公告期限	
 自本公告发布之日起5个工作日。	
 六、其他补充事宜	
-依据《河北省财政厅 河北省政务服务管理办公室关于印发&lt;政府采购公开招标项目全面实行“双盲”评审实施方案&gt;的通知》相关要求，本项目采用“双盲”评审。供应商应按照招标文件要求对投标文件的商务标“明标”、技术标“暗标”分开制作，评标委员会按要求对商务标采取明标评审、对技术标采取暗标评审。1、招标文件获取方式：投标人通过登录衡水市公共资源交易信息平台（http://hsggzy.hengshui.gov.cn/），选择“市场主体登录”后进行平台自行下载招标文件。尚未完成市场主体网上注册的供应商，请登录衡水市公共资源交易信息平台网站及时进行网上注册，注册信息填写完整后，按市场主体注册核验流程要求，完成注册登记、资料验审，采取网上在线验审方式，注册验审服务电话：0318-6991060。外地供应商可就近选择河北省内任意城市公共资源交易平台进行注册资料验审。2、电子投标文件制作及开标解密需使用CA数字证书及电子签章，CA签证实行网上在线办理，河北CA在线办理网址：http://www.hebca.com/ggzyhs.html，联系电话：4007073355。3、投标方式：本项目实行远程不见面投标及开标解密，投标人无需到现场。请投标人在投标截止之前及时上传投标文件电子版，并及时解密投标文件，新版解密系统地址：http://121.17.30.211:8086/BidOpening。解密步骤详见《衡水新版开标大厅解密手册》。技术支持电话0318-6991059；400电话：400-998-0000。请各投标供应商确保授权委托人或项目联系人在开标、评标期间的通讯畅通。4、依据《河北省财政厅关于规范政府采购保证金收取行为的通知》（冀财采[2021]7号），本项目不收取供应商投标保证金。依据《河北省2023年政府采购领域优化营商环境工作实施方案》冀财采[2023]5号，供应商无需提供相关财务状况、缴纳税收和社会保障资金等证明材料，改为承诺函形式。	
+本项目实行盲评，即投标文件的商务标、技术标分开制作，评标委员会按要求对商务标采取明标评审、对技术标采取暗标评审。1.依据《河北省财政厅河北省政务服务管理办公室关于印发&lt;政府采购公开招标项目全面实行“双盲”评审实施方案&gt;的通知》相关要求，本项目采用“双盲”评审。供应商应按照招标文件要求对投标文件的商务标“明标”、技术标“暗标”分开制作，评标委员会按要求对商务标采取明标评审、对技术标采取暗标评审。2.本次招标为全流程电子招投标，供应商无须到达开标现场。投标文件采用数据电子文件，供应商通过河北省公共资源交易平台远程在线参与开标活动。3.已在河北省公共资源交易中心受理处通过资格确认（注册登记）的供应商可直接登录河北省公共资源交易平台下载文件。未经资格确认（注册登记）的供应商，请按照“河北省公共资源交易平台”首页“通知公告”中“河北省公共资源交易中心关于市场主体注册登记的通知”的要求办理相关手续，具体事宜可联系0311-66635531/32。潜在供应商如未在“河北省公共资源交易平台”下载招标文件及相关资料或未获取到完整资料导致投标被否决的，自行承担责任。4.CA 是企业在互联网中的合法身份，是参与电子招标投标活动的必要条件。取得河北 CA 的方式：登录“河北省公共资源交易服务平台”→办事指南→数字证书办理指南→新用户申请 CA，按要求办理相关事宜。 如需帮助请详询河北 CA 客服热线:400-707-3355。（注：上述方式只是取得河北 CA 方式之一，潜在供应商亦可通过河北省各级地市的公共资源交易平台取得，具体流程请登录相关网站查询）。5.公告发布媒体：中国河北政府采购网、河北省公共资源交易网、河北软件职业技术学院官网	
 七、对本次招标提出询问，请按以下方式联系。	
 1.采购人信息	
-名    称：武邑县教育局本级	
-地    址：武邑县建设西路	
-联系方式：0318-5711961	
+名    称：河北软件职业技术学院	
+地    址：保定市东风东路999号	
+联系方式：0312-5971345	
 2.采购代理机构信息（如有）	
-名 称：河北儒诺工程项目管理有限公司	
-地 址：河北省衡水市桃城区前进北大街666号	
-联系方式：0318-2667546	
+名 称：保定金路投资咨询服务有限公司	
+地 址：保定市东风中路158号5楼	
+联系方式：0312-5362524	
 3.项目联系方式	
-项目联系人：姜中保	
-电 话：0318-2667546	
+项目联系人：赵红俭	
+电 话：0312-5362524	
 八、附件</t>
         </is>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目采购公告</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>福建省泉州第五中学AI人工智能数字实验室采购项目(二次)竞争性谈判公告</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25281641.htm</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxtpgg/202509/t20250904_25290020.htm</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
         <is>
           <t>中国政府采购网</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>项目概况
-江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目 JSZC-320900-JSJW-G2025-0060 招标项目的潜在投标人应在“苏采云”系统内免费下载（投标人必须在苏采云系统中获取采购文件，方能参与政府采购项目） 获取招标文件，并于2025-09-26 09:00 （北京时间）前递交投标文件。
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>项目概况 
+受福建省泉州第五中学委托，泉州市新开源项目咨询有限公司对[350501]QZXKY[TP]2025002-1、福建省泉州第五中学AI人工智能数字实验室采购项目(二次)组织竞争性谈判，现欢迎国内合格的供应商前来参加。福建省泉州第五中学AI人工智能数字实验室采购项目(二次)的潜在供应商应在福建省政府采购网(zfcg.czt.fujian.gov.cn)免费申请账号在福建省政府采购网上公开信息系统按项目获取采购文件，并于2025年09月10日 09时00分00秒（北京时间）前递交响应文件。 
+一、项目基本情况 
+项目编号：[350501]QZXKY[TP]2025002-1 
+项目名称：福建省泉州第五中学AI人工智能数字实验室采购项目(二次) 
+采购方式：竞争性谈判 
+预算金额：1,850,000.00元 
+采购包1(福建省泉州第五中学AI人工智能数字实验室采购项目(二次)): 
+采购包预算金额：1,850,000.00元 
+采购包最高限价： 1,850,000.00元  
+谈判保证金： 0元  
+采购需求：（包括但不限于标的的名称、数量、简要技术需求或服务要求等） 
+品目号 品目编码及品目名称 采购标的 数量（单位） 允许进口 简要需求或要求 品目预算(元) 中小企业划分标准所属行业  
+1-1 A02019900-其他信息化设备 AI人工智能数字实验室 1(批) 否 AI基础教学机器人: AI绘画机器人: 通用具身智能平台: 理论基础: 行为克隆（模仿学习）。 实现方式: 通过高精度动作捕捉和数据融合，让人类示范操作，机器人学习并掌握从简单抓取到复杂的精细任务。 目标: 降低具身智能研发门槛，推动技术从实验室走向实际应用。 具体按合同要求进行。   1,850,000.00    工业   
+本采购包不接受联合体投标  
+合同履行期限：自合同签订之日起30天内完成设备到货、安装部署、调试上线运行等工作。 
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定; 
+2.落实政府采购政策需满足的资格要求： 
+采购包1： 
+本采购包为专门面向中小企业采购，供应商须提供中小企业声明函。监狱企业、残疾人福利性单位视同小型、微型企业。   
+3.本项目的特定资格要求：
+采购包1： 
+(1)①本采购包允许供应商采用资格承诺制。采用资格承诺制的供应商，应当根据投标(响应)格式文件要求提供资格承诺函，无需提供《政府采购法实施条例》第十七条第一款规定的一般资格条件证明材料；资格承诺函不符合采购文件要求的，视为未按照采购文件规定提交供应商的资格及资信文件，按资格审查不合格处理。②采购项目有特殊资格要求的，供应商还应按要求提供相应的证明材料。。  
+三、采购项目需要落实的政府采购政策 
+进口产品：不适用于采购包1 
+节能产品：不适用于采购包1 
+环境标志产品：不适用于采购包1  
+四、获取采购文件 
+时间： 2025-09-04  至 2025-09-09 ，（提供期限自本公告发布之日起不得少于3个工作日），每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间，法定节假日除外） 
+地点：采购文件随同本项目招标公告一并发布，供应商应通过福建省政府采购网上公开信息系统的注册账号（免费注册）并获取竞争性谈判文件(登陆福建省政府采购网上公开信息系统进行文件获取)，否则报价响应将被拒绝。 
+方式：在线获取 
+售价：免费 
+五、提交投标文件截止时间、开标时间和地点 
+截止时间：2025-09-10 09:00:00（北京时间）（从谈判文件开始发出之日起至供应商提交首次响应文件截止之日止不得少于3个工作日） 
+地点：福建省泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825泉州市新开源项目咨询有限公司 
+六、开启 
+时间：2025-09-10 09:00:00（北京时间） 
+地点：福建省泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825泉州市新开源项目咨询有限公司 
+七、公告期限 
+自本公告发布之日起3个工作日。 
+八、其他补充事宜  
+无
+九、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
+名称：福建省泉州第五中学 
+地址：泉州鲤城区桂坛巷49号 
+联系方式：0595-29881913 
+2.采购代理机构信息（如有） 
+名称：泉州市新开源项目咨询有限公司 
+地址：泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825。 
+联系方式：0595-22000151 
+3.项目联系方式  
+项目联系人：黄宗铭 
+电话：0595-22000151 
+网址： zfcg.czt.fujian.gov.cn 
+开户名：泉州市新开源项目咨询有限公司 
+泉州市新开源项目咨询有限公司 
+2025年09月04日
+相关附件： 
+福建省泉州第五中学AI人工智能数字实验室采购项目(二次)（[350501]QZXKY[TP]2025002-120250903001）-文件集.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>人工智能活动中心建设（第二次）(PSX25A00315)询价公告</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/xjgg/202509/t20250904_25289883.htm</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>人工智能活动中心建设（第二次）(PSX25A00315)询价公告                
+发布日期： 2025年9月4日                    
+本项目保证金支持电子投标保函形式，如需申请保函请点击右上角“申请投标保函”            
+项目概况：        
+“人工智能活动中心建设（第二次）”招标项目的潜在供应商应在“网上获取”获取采购文件，并于 2025年9月10日  10:30（北京时间）前递交响应文件。        
+一、项目基本情况    
+项目号：PSX25A00315        采购执行编号：PSZC-XJ-2025        
+项目名称：人工智能活动中心建设（第二次）        
+采购方式：询价            
+预算金额：600,000.00元                
+最高限价：600,000.00元        
+采购需求：         
+包号：1                    包内容            最高限价                            数量            单位                                            简要技术要求                             
+人工智能活动中心建设（第二次）                600,000.00元                                                    1                台                                                
+最高限价总计：600,000.00元                    
+合同履行期限：详见采购文件            
+本项目是否接受联合体：否             
+二、申请人的资格要求    
+1、满足《中华人民共和国政府采购法》第二十二条规定。        
+2、落实政府采购政策需满足的资格要求：    
+本项目专门面向中小企业采购，所提供产品制造商应为中小企业（包括中型、小型和微型企业，须提供“中小企业声明函”）或监狱企业（提供“监狱企业证明文件”）或残疾人福利性单位（提供“残疾人福利性单位声明函”）。
+注：①“中小企业声明函”应由供应商出具，并加盖供应商公章，声明函格式详见本询价通知书第七篇“中小企业声明函”；
+②“监狱企业证明文件”应当由供应商提供其货物制造商属于监狱企业的证明文件，该证明文件由省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具；
+③“残疾人福利性单位声明函”应由供应商提供其货物制造商出具的“残疾人福利性单位声明函”，并加盖该残疾人福利性。            
+3、本项目的特定资格要求：
+无        
+三、获取采购文件            
+获取文件期限：2025年9月4日 至 2025年9月9日。        
+每天上午09:00:00至12:00:00，下午14:00:00至18:00:00。（北京时间，法定节假日除外 ）        
+文件购买费:0.00元/包    
+获取文件地点：网上获取    
+方式或事项：    
+（一）投标人应通过重庆市政府采购网（www.ccgp-chongqing.gov.cn）注册成为重庆市政府采购供应商。
+（二）凡有意参加投标的投标人，请到“重庆市政府采购网” → “个人中心” → “在线开评标” → “电子标书在线获取”处在线下载或获取本项目招标文件以及图纸、澄清等开标前公布的所有项目资料（本次招标不提供纸质版招标文件），无论投标人下载或获取与否，均视为已知晓所有招标内容
+（三）招标公告所附招标文件仅供阅览使用，供应商只有登陆“重庆政府采购网”完成网上报名申请且报名审核通过后才被视为合法获取了招标文件，否则其投标将被拒绝。
+注意事项：首次参与电子招投标的投标人须办理CA数字证书并下载投标文件制作系统。
+1、CA数字证书的办理：首次参加重庆政府采购网电子招投标项目的供应商应办理CA数字证书（办理流程请进入”在线开评标” → “电子招投标中心”相关下载中，下载CA办理手册。）
+2、投标文件制作：首次参加重庆市政府采购网电子招投标项目的供应商应当登录重庆政府采购网。进入”在线开评标”→“电子招投标中心”相关下载中下载投标文件制作系统。
+四、响应文件提交         
+询价响应文件递交开始时间： 2025年9月9日  10:30         
+询价响应文件递交截止时间： 2025年9月10日  10:30    
+询价响应文件递交地点：本项目采用网上递交方式，投标人于投标截止时间前使用平台提供的客户端投标工具编制投标文件，然后登录“重庆市政府采购网”，进入“在线开评标”栏目，在“我的投标项目”→“在线投标”板块提交。    
+五、评审信息                     
+询价开始时间： 2025年9月10日  10:30                            
+询价地点：本项目采用网上开标方式，投标人可在“重庆市政府采购网”→“个人中心”→“在线开评标”→“开评标大厅”远程参与开标（开标必备设备：CA证书和可以无线上网的笔记本电脑（必须带有摄像头、麦克风和声卡等功能）、无线网卡等），因投标人自身原因导致未能在规定时间内解密电子投标文件或参与开标的，其后果由投标人自行承担         
+六、公告期限    
+自本公告发布之日起3个工作日    
+七、其他补充事宜            
+1.投标人如未在规定时间内（系统默认30分钟，可根据现场响应情况进行延长/变更）解密电子投标文件的情形约定：
+（1）因政府采购全程电子化系统客观原因影响解密时间的，采购人/采购代理机构可根据现场实际情况延长解密时间。投标人在仍不能解密的情况下，投标人可向采购人/采购代理机构申请，启用上传不加密的电子备份文件的方法作为补救措施；在规定的时间内，投标人既不解密，也未提供不加密的电子备份文件作为补救措施的，视为投标人主动放弃对该项目的投标资格。
+（2）因投标人主观原因未完成解密工作的，且未在规定时间内提供有效不加密的备份文件的，都视为投标人在提交投标文件截止时间后撤销投标文件，响应无效且投标人不得再参与本项目后续采购活动。如果项目提供了保证金的，保证金扣除不予退还。
+2.本项目采用全流程电子招投标。各投标人需熟悉了解整个政府采购电子化开评标全过程。具体电子化采购规则以及操作指南请下载项目公告附件《重庆市全流程电子招投标项目投标人办理正式CA签章流程手册》和《政府采购全程电子化采购系统供应商操作手册（CA证书签章版）》、《【供应商必看】政府采购（CA版）供应商投标前软件安装手册》，并按其要求操作。
+八、联系方式         
+1、采购人信息            
+采购人：重庆市彭水苗族土家族自治县民族中学校    
+采购经办人：冯老师    
+采购人电话：15856021645    
+采购人地址：彭水苗族土家族自治县民族中学校                
+2、采购代理机构信息             
+代理机构：重庆兴辰盛项目管理有限公司     
+代理机构经办人：王兵      
+代理机构电话：023-77720234      
+代理机构地址：重庆市武隆区芙蓉街道芙蓉西路90号7栋3楼            
+3、项目联系方式            
+项目联系人：王兵    
+项目联系人电话：023-77720234
+九、附件            采购公告附件（投标人必看手册）24-8版.zip        最新挂网稿第二次人工智能活动中心建设.doc                                             
+免责声明：  	
+本页面提供的内容是按照政府采购有关法律法规要求由采购人或采购代理机构发布的，重庆市政府采购网对其内容概不负责，亦不承担任何法律责任。</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目-公开招标公告</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25291543.htm</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>公告内容文档        
+中小微企业融资申请            
+项目概况                
+开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目招标项目的潜在投标人应在开封市公共资源交易信息网获取招标文件，并于2025年09月25日09时30分（北京时间）前递交投标文件。            
+一、项目基本情况    
+1、项目编号：尉财公开采购2025-22    
+2、项目名称：开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目    
+3、采购方式：公开招标    
+4、预算金额：997,700.00元    
+最高限价：997700元                    
+序号                            包号                            包名称                            包预算（元）                            包最高限价（元）                            是否专门面向中小企业                            采购预留金额（元）                                                
+1                                尉财公开采购2025-22-1                                开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目                                997700                                997700                                                                                是                                                                                                                997700                                                                                
+5、采购需求（包括但不限于标的的名称、数量、简要技术需求或服务要求等）    
+5.1.采购内容：采购G240路段固定垂直式遥感监测设备主机（详见招标文件采购清单内容）
+6、合同履行期限：同交货期    
+7、本项目是否接受联合体投标：否    
+8、是否接受进口产品：否        
+9、是否专门面向中小企业：是    
+二、申请人资格要求：    
+1、满足《中华人民共和国政府采购法》第二十二条规定；    
+2、落实政府采购政策满足的资格要求：    
+本项目执行节能环保、中小微企业、监狱企业、残疾人福利性单位等相关政府采购政策。    
+3、本项目的特定资格要求    
+3.1、具有独立承担民事责任的能力；（提供合法有效的营业执照、税务登记证、组织机构代码证，三证合一只需营业执照即可。）；
+三、获取招标文件    
+1.时间：2025年09月05日 至 2025年09月24日，每天上午00:00至12:00，下午12:00至23:59（北京时间，法定节假日除外。）    
+2.地点：开封市公共资源交易信息网    
+3.方式：供应商应注册成为开封市公共资源交易中心网站会员并取得 CA钥,凭CA密钥登录开封市公共资源交易网（http://www.kfsggzyjyw.cn/kfggzy/）会员系统，按要求下载电子招标文件。供应商未按规定下载电子招标文件的，其投标将被拒绝。潜在供应商、供应商可打开开封市公共资源交易中心网站（http://www.kfsggzyjyw.cn）首页“流程公开”里查询招标文件。    
+4.售价：0元    
+四、投标截止时间及地点    
+1.时间：2025年09月25日09时30分（北京时间）    
+2.地点：加密电子响应文件须在投标截止时间前在开封市公共资源交易信息网站（http://www.kfsggzyjyw.cn/kfggzy/）会员系统中加密上传。    
+五、开标时间及地点    
+1.时间：2025年09月25日09时30分（北京时间）    
+2.地点：尉氏县公共资源交易中心开标室（尉氏县市民之家6楼）。    
+六、发布公告的媒介及招标公告期限    
+本次招标公告在《河南省政府采购网》、《开封市公共资源交易信息网》上发布，            招标公告期限为五个工作日。                
+七、其他补充事宜    
+1、本项目采用“远程不见面”开标方式，供应商无需到现场提交原件资料、无需到尉氏县公共资源交易中心现场参加开标会议；供应商应当在开标时间前,登录远程开标大厅,在线准时参加开标活动并进行响应文件解密、答疑澄清等，系统解密时长默认为40分钟，错过解密时长者视为自动放弃本次投标。
+八、凡对本次招标提出询问，请按照以下方式联系    
+1. 采购人信息    
+名称：开封市生态环境局尉氏分局    
+地址：尉氏县西关中路    
+联系人：刘先生    
+联系方式：0371-27960261    
+2.采购代理机构信息（如有）    
+名称：河南铭巨工程管理咨询有限公司    
+地址：河南省开封市顺河回族区铁塔街道北门大街314号303室    
+联系人：陈女士    
+联系方式：0371-22356792    
+3.项目联系方式    
+项目联系人：陈女士    
+联系方式：0371-22356792</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>［江西省公共资源交易平台］江西明泰项目服务有限公司关于丰城市黑烟车抓拍系统和遥感监测系统运行维护服务项目（项目编号：明泰-YC2025-006）电子化公开招标公告</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25290821.htm</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>江西明泰项目服务有限公司关于丰城市黑烟车抓拍系统和遥感监测系统运行维护服务项目（项目编号：明泰-YC2025-006）电子化公开招标公告    
+项目概况    
+丰城市黑烟车抓拍系统和遥感监测系统运行维护服务项目 招标项目的潜在投标人应在 江西省公共资源交易平台（网址：https://www.jxsggzy.cn） 获取招标文件，并于             2025年09月28日  09点00分 （北京时间）前递交投标文件。        
+一、项目基本情况：    
+项目编号：明泰-YC2025-006    
+项目名称：丰城市黑烟车抓拍系统和遥感监测系统运行维护服务项目    
+采购方式：公开招标    
+预算金额：900000.00 元    
+最高限价：  元    
+采购需求：    
+采购条目编号采购条目名称数量单位采购预算（人民币）技术需求或服务要求
+宜购2025F000077971黑烟车电子抓拍系统和遥感监测系统运行维护项目1项900000.00元详见公告附件
+合同履行期限：服务期为3年（从签订合同之日起计算）。    
+本项目不接受联合体投标。    
+二、申请人的资格要求    
+1.满足《中华人民共和国政府采购法》第二十二条规定：1.1 具有独立承担民事责任的能力；1.2 具有良好的商业信誉和健全的财务会计制度；1.3 具有履行合同所必需的设备和专业技术能力；1.4 有依法缴纳税收和社会保障资金的良好记录；1.5 参加政府采购活动前三年内,在经营活动中没有重大违法记录；1.6 法律、行政法规规定的其他条件。2.单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加同一合同项下的采购活动。为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得参加本项目的政府采购活动。3.供应商被“信用中国”网站列入失信被执行人或重大税收违法案件当事人名单、或被“中国政府采购网”网站列入政府采购严重违法失信行为记录名单（处罚期限尚未届满的）的，不得参加本项目的政府采购活动。4.落实政府采购政策需满足的资格要求：4.1 中小企业政策：本项目不专门面向中小企业采购。4.2 如本项目采购的产品属于政府强制采购节能产品的，投标文件中必须提供《参与实施政府采购节能产品认证机构名录》中的对应产品认证机构出具的节能产品认证证书；5.本项目的特定资格要求：无    
+三、获取招标文件：    
+时间：2025年09月06日  00:00 至 2025年09月14日  23:30（提供期限自本公告发布之日起不得少于5个工作日）        
+地点：江西省公共资源交易平台（网址：https://www.jxsggzy.cn）    
+方式：网上确认和下载招标文件。（详见其他补充事宜）    
+售价：0.0元    
+四、提交投标文件截止时间、开标时间和地点：    
+2025年09月28日  09点00分 （北京时间）（自招标文件开始发出之日起至投标人提交投标文件截止之日止，不得少于20日）    
+地点：江西省公共资源交易平台（网址：https://www.jxsggzy.cn）    
+五、公告期限：    
+自本公告发布之日起5个工作日。    
+六、其他补充事宜：    
+1.潜在投标人必须在江西省公共资源交易平台（网址：https://www.jxsggzy.cn） 注册并办理江西省CA数字证书和电子签章。具体要求详见“江西省公共资源交易平台-服务指南-投标单位”（网址：https://www.jxsggzy.cn）。潜在投标人未使用本单位CA数字证书在江西省公共资源交易平台下载招标文件的，视为未获取招标文件，不得参加本项目的投标活动；2.本项目采用“不见面开标”系统开标，投标人无需到达开标现场，投标人应在投标截止时间前1小时内进入江西省公共资源交易平台-不见面开标大厅进行线上签到（具体操作详见《江西省公共资源交易中心不见面开标系统投标人操作手册（政府采购）》（网址：https://www.jxsggzy.cn）。注意事项详见招标文件第二章；投标人应仔细阅读有关不见面开标的内容，如有疑问请联系新点工作人员，联系电话：400-998-0000；3.本项目需要落实的政府采购政策：节约能源，保护环境，促进中小企业发展，支持监狱、戒毒企业发展，促进残疾人就业等政府采购政策（不适用者除外）。4.本项目是否采用远程异地评标：否    
+七、对本次招标提出询问，请按以下方式联系：    
+1.采购人信息    
+名称：宜春市丰城生态环境局本级    
+地址：江西省丰城市龙光东大道1269号    
+联系方式：0795-6598983    
+2.采购代理机构信息    
+名称：江西明泰项目服务有限公司    
+地址：宜春市宜春北路899号明月之都大厦东座23楼    
+联系方式：18379092609    
+3.项目联系方式    
+项目联系人：陈先生    
+电话：18379092609</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25293563.htm</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>项目概况     
+上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期) 招标项目的潜在投标人应在上海市政府采购网获取招标文件，并于2025年09月25日 10:30（北京时间）前递交投标文件。    
+一、项目基本情况   
+项目编号：310110000250728125502-10261656   
+项目名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)
+预算编号： 1025-000170819, 1025-K00002606    
+预算金额（元）： 27325000元（国库资金：27325000元；自筹资金：0元）   
+最高限价（元）： 包1-27325000.00元    
+采购需求：   
+包名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)      
+数量：2      
+预算金额（元）：27325000.00      
+简要规格描述或项目基本概况介绍、用途：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)，需保证杨浦区智慧城市基础设施系统业务运行稳定、数据安全准确，业务运维与技术运维紧密结合。需建设完善的运维体系，从标准化、规范化入手，需保障系统稳定、安全、高效运行。     
+合同履约期限： 合同签订后一年 
+本项目（ 否 ）接受联合体投标。   
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；   
+2.落实政府采购政策需满足的资格要求：本采购项目执行政府采购有关鼓励支持节能产品、环境认证产品、支持中小企业、残疾人福利性单位、监狱企业等的政策规定。   
+3.本项目的特定资格要求： 1、符合《中华人民共和国政府采购法》第二十二条的规定
+三、获取招标文件  
+时间：2025年09月05日至2025年09月14日，每天上午00:00:00-12:00:00，下午12:00:00-23:59:59（北京时间，法定节假日除外）   
+地点：上海市政府采购网   
+方式： 网上获取    
+售价（元）： 0   
+四、提交投标文件截止时间、开标时间和地点  
+提交投标文件截止时间：2025年09月25日 10:30（北京时间）   
+投标地点：上海政府采购网（www.zfcg.sh.gov.cn）   
+开标时间： 2025年09月25日 10:30    
+开标地点：上海政府采购网（www.zfcg.sh.gov.cn）  
+五、公告期限  
+自本公告发布之日起5个工作日。  
+六、其他补充事宜  
+根据上海市财政局《关于上海市政府采购云平台第三批单位上线运行的通知》的规定，本项目采购相关活动在由市财政局建设和维护的上海市政府采购云平台（简称：采购云平台，门户网站：上海政府采购网，网址：www.zfcg.sh.gov.cn）进行。供应商应根据《上海市电子政府采购管理暂行办法》等有关规定和要求执行。供应商在采购云平台的有关操作方法可以参照采购云平台中的“操作须知”专栏的有关内容和操作要求办理。
+七、对本次采购提出询问，请按以下方式联系  
+1.采购人信息    
+名 称：上海市杨浦区数据局（上海市杨浦区信息化委员会、上海市杨浦区政务服务办公室）
+地 址：惠民路800号    
+联系方式：021-25031260、1896450597    
+2.采购代理机构信息    
+名 称：上海市杨浦区政府采购中心    
+地 址：上海市杨浦区宁国路129号城建大厦16楼    
+联系方式：65550185    
+3.项目联系方式    
+项目联系人：章笑吟
+电 话：65550185   
+潜在供应商</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25293609.htm</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>项目概况  
+上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期) 招标项目的潜在投标人应在上海市政府采购网获取招标文件，并于2025年09月25日 10:30（北京时间）前递交投标文件。  
+一、项目基本情况  
+项目编号：310110000250728125502-10261656 
+项目名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)
+预算编号： 1025-000170819, 1025-K00002606  
+预算金额（元）： 27325000元（国库资金：27325000元；自筹资金：0元） 
+最高限价（元）： 包1-27325000.00元  
+采购需求： 
+包名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)  
+数量：2  
+预算金额（元）：27325000.00  
+简要规格描述或项目基本概况介绍、用途：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)，需保证杨浦区智慧城市基础设施系统业务运行稳定、数据安全准确，业务运维与技术运维紧密结合。需建设完善的运维体系，从标准化、规范化入手，需保障系统稳定、安全、高效运行。  
+合同履约期限： 合同签订后一年 
+本项目（ 否 ）接受联合体投标。 
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：本采购项目执行政府采购有关鼓励支持节能产品、环境认证产品、支持中小企业、残疾人福利性单位、监狱企业等的政策规定。 
+3.本项目的特定资格要求： 1、符合《中华人民共和国政府采购法》第二十二条的规定
+三、获取招标文件 
+时间：2025年09月05日至2025年09月14日，每天上午00:00:00-12:00:00，下午12:00:00-23:59:59（北京时间，法定节假日除外） 
+地点：上海市政府采购网 
+方式： 网上获取  
+售价（元）： 0  
+四、提交投标文件截止时间、开标时间和地点 
+提交投标文件截止时间：2025年09月25日 10:30（北京时间） 
+投标地点：上海政府采购网（www.zfcg.sh.gov.cn） 
+开标时间： 2025年09月25日 10:30  
+开标地点：上海政府采购网（www.zfcg.sh.gov.cn） 
+五、公告期限 
+自本公告发布之日起5个工作日。 
+六、其他补充事宜 
+根据上海市财政局《关于上海市政府采购云平台第三批单位上线运行的通知》的规定，本项目采购相关活动在由市财政局建设和维护的上海市政府采购云平台（简称：采购云平台，门户网站：上海政府采购网，网址：www.zfcg.sh.gov.cn）进行。供应商应根据《上海市电子政府采购管理暂行办法》等有关规定和要求执行。供应商在采购云平台的有关操作方法可以参照采购云平台中的“操作须知”专栏的有关内容和操作要求办理。
+七、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名 称：上海市杨浦区数据局（上海市杨浦区信息化委员会、上海市杨浦区政务服务办公室）
+地 址：惠民路800号 
+联系方式：021-25031260、1896450597 
+2.采购代理机构信息 
+名 称：上海市杨浦区政府采购中心 
+地 址：上海市杨浦区宁国路129号城建大厦16楼 
+联系方式：65550185 
+3.项目联系方式 
+项目联系人：章笑吟
+电 话：65550185 
+潜在供应商</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>实景三维项目基础能力提升（数据生产）招标公告</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250904_25288950.htm</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>中国政府采购网</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>项目概况   
+实景三维项目基础能力提升（数据生产）招标项目的潜在投标人应在甘肃省公共资源交易网（https://ggzyjy.gansu.gov.cn）获取招标文件，并于 2025年09月26日 10时00分 （北京时间）前递交投标文件。  
+一、项目基本情况 
+项目编号：甘财采备字[2025]04535号 
+项目名称：实景三维项目基础能力提升（数据生产） 
+采购方式：公开招标 
+预算金额：2,060,000.00元 
+采购需求： 
+合同包1(实景三维项目基础能力提升（模型构建）): 
+合同包预算金额：900,000.00元 
+品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
+1-1 其他信息化设备 实景三维项目基础能力提升项目（模型构建） 1(套) 详见采购文件   900,000.00    -   
+本合同包不接受联合体投标  
+合同履行期限：自合同签订之日起60日内  
+合同包2(实景三维项目基础能力提升（单体数据生产）): 
+合同包预算金额：600,000.00元 
+品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
+2-1 其他信息化设备 实景三维项目基础能力提升项目（单体数据生产） 2(套) 详见采购文件   600,000.00    -   
+本合同包不接受联合体投标  
+合同履行期限：自合同签订之日起60日内  
+合同包3(实景三维项目基础能力提升（地理实体数据生产）): 
+合同包预算金额：260,000.00元 
+品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
+3-1 其他信息化设备 实景三维项目基础能力提升项目（地理实体数据生产） 2(套) 详见采购文件   260,000.00    -   
+本合同包不接受联合体投标  
+合同履行期限：自合同签订之日起60日内  
+合同包4(实景三维项目基础能力提升（点云数据生产）): 
+合同包预算金额：300,000.00元 
+品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
+4-1 其他信息化设备 实景三维项目基础能力提升项目（点云数据生产） 2(套) 详见采购文件   300,000.00    -   
+本合同包不接受联合体投标  
+合同履行期限：自合同签订之日起60日内  
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定; 
+2.落实政府采购政策需满足的资格要求： 
+合同包1(实景三维项目基础能力提升（模型构建）)落实政府采购政策需满足的资格要求如下: 
+详见文件 
+合同包2(实景三维项目基础能力提升（单体数据生产）)落实政府采购政策需满足的资格要求如下: 
+详见文件 
+合同包3(实景三维项目基础能力提升（地理实体数据生产）)落实政府采购政策需满足的资格要求如下: 
+详见文件 
+合同包4(实景三维项目基础能力提升（点云数据生产）)落实政府采购政策需满足的资格要求如下: 
+详见文件 
+3.本项目的特定资格要求：
+合同包1(实景三维项目基础能力提升（模型构建）)特定资格要求如下: 
+无 
+合同包2(实景三维项目基础能力提升（单体数据生产）)特定资格要求如下: 
+无 
+合同包3(实景三维项目基础能力提升（地理实体数据生产）)特定资格要求如下: 
+无 
+合同包4(实景三维项目基础能力提升（点云数据生产）)特定资格要求如下: 
+无 
+三、获取招标文件 
+时间： 2025年09月05日 至 2025年09月11日 ，每天上午 00:00:00 至 12:00:00 ，下午 12:00:00 至 23:59:59 （北京时间,法定节假日除外） 
+地点：甘肃省公共资源交易网（https://ggzyjy.gansu.gov.cn） 
+方式：在线获取 
+售价：免费获取 
+四、提交投标文件截止时间、开标时间和地点 
+时间： 2025年09月26日 10时00分00秒 （北京时间） 
+地点：甘肃省公共资源交易中心第四电子开标厅（线上开标）  
+五、公告期限 
+自本公告发布之日起5个工作日。 
+六、其他补充事宜  1.中标结果公布后中标人按以下要求的资料邮寄至采购代理机构，未中标人无需邮寄。正本1份、副本1份、U盘1份（电子版与固化上传至系统文件一致的PDF版。） 邮寄地址：甘肃省兰州市城关区名城广场3号写字楼1032室 联系人：达经理 联系电话：15609419724 。  2.未尽事宜：签订合同时双方另行约定。   七、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
+名称：甘肃省地质矿产勘查开发局第三地质矿产勘查院 
+地址：兰州市七里河区兰工坪路121号 
+联系方式：18919298376 
+2.采购代理机构信息 
+名称：甘肃昱春龙招标有限公司 
+地址：甘肃省兰州市城关区名城广场 3号写字楼1032室 
+联系方式：15609419724 
+3.项目联系方式  
+项目联系人：甘肃昱春龙招标有限公司管理员 
+电话：15609419724 
+甘肃昱春龙招标有限公司 
+2025年09月04日
+相关附件： 
+实景三维项目基础能力提升（数据生产）（包1）采购文件（2025090402）.pdf   实景三维项目基础能力提升（数据生产）（包2）采购文件（2025090401）.pdf   实景三维项目基础能力提升（数据生产）（包3）采购文件（2025090401）.pdf   实景三维项目基础能力提升（数据生产）（包4）采购文件（2025090401）.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>智能建造机器人实训室的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>上海政府采购网</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/310000/0201/202509/04/0031349149d4cc9f4c47aecd3c6061762f08.shtml</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>项目概况  
+智能建造机器人实训室 招标项目的潜在投标人应在上海市政府采购网获取招标文件，并于2025年09月25日 10:00（北京时间）前递交投标文件。  
+一、项目基本情况  
+项目编号：310000000250627120229-00255111 
+项目名称：智能建造机器人实训室
+预算编号： 0025-W00017921  
+预算金额（元）： 2174000元（国库资金：0元；自筹资金：2174000元） 
+最高限价（元）： 包1-2174000.00元  
+采购需求： 
+包名称：智能建造机器人实训室  
+数量：1  
+预算金额（元）：2174000.00  
+简要规格描述或项目基本概况介绍、用途：智能建筑机器人实训室项目采购及相关售后服务。  
+合同履约期限： 2025年10月31日前 
+本项目（ 否 ）接受联合体投标。 
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：本项目专门面向中小企业采购（所属行业：工业。从业人员1000人以下或营业收入40000万元以下的为中小微型企业。） 
+3.本项目的特定资格要求： 1、符合《中华人民共和国政府采购法》第二十二条的规定
+三、获取招标文件 
+时间：2025年09月04日至2025年09月11日，每天上午00:00:00-12:00:00，下午12:00:00-23:59:59（北京时间，法定节假日除外） 
+地点：上海市政府采购网 
+方式： 网上获取  
+售价（元）： 0  
+四、提交投标文件截止时间、开标时间和地点 
+提交投标文件截止时间：2025年09月25日 10:00（北京时间） 
+投标地点：上海政府采购网（http://www.zfcg.sh.gov.cn）电子招投标系统网上投标。 
+开标时间： 2025年09月25日 10:00  
+开标地点：上海政府采购网（http://www.zfcg.sh.gov.cn）电子招投标系统网上投标。 
+五、公告期限 
+自本公告发布之日起5个工作日。 
+六、其他补充事宜 
+根据上海市财政局《关于上海市政府采购信息管理平台招投标系统正式运行的通知》（沪财采[2014]27号）的规定，本项目招投标相关活动在上海市政府采购信息管理平台（简称：电子采购平台）（网址：www.zfcg.sh.gov.cn）电子招投标系统进行。电子采购平台是由市财政局建设和维护。投标人应根据《上海市电子政府采购管理暂行办法》等有关规定和要求执行。投标人在电子采购平台的有关操作方法可以参照电子采购平台中的“操作须知”专栏的有关内容和操作要求办理。 
+本项目为预留采购份额采购项目，预留采购份额措施为整体预留  
+七、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名 称：上海建设管理职业技术学院
+地 址：上海市高泾路588号 
+联系方式：021-59889071 
+2.采购代理机构信息 
+名 称：上海教育建设管理咨询有限公司 
+地 址：上海市钦江路88号东楼626室 
+联系方式：021-63820186-8129 
+3.项目联系方式 
+项目联系人：胡华
+电 话：021-63820186-8129 
+潜在供应商  
+附件信息：
+智能建筑机器人实训室项目.zip
+136.7K
+["1024FPA/undefined/319900/2100000000056447/20259/880447af-4baf-4ea8-8119-5f5fba78c9d2.zip"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>成都市妇女儿童中心医院（成都市妇幼保健院、成都市妇产科医院、成都市儿童医院）手术室达芬奇机器人维保服务采购项目(二次)招标公告</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/510000/0201/202509/04/0051783f5e1bd8824780a89060cf74b05a5b.shtml</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>相关附件： 
+（采购需求）手术室达芬奇机器人维保服务采购项目(二次).pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）(SPB24A00751)询价公告</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>重庆市公共资源交易服务平台</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/500000/0201/202509/04/0050b3e0c9d279d048d2ba5fcb1c7128cc2d.shtml</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>本项目保证金支持电子投标保函形式，如需申请保函请点击右上角“申请投标保函”
+项目概况：
+“重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二）”招标项目的潜在供应商应在“招标公告所附招标文件仅供阅览使用，投标人只有登陆“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处完成网上获取采购文件才被视为合法获取了采购文件，否则其投标将被拒绝。即：未通过“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处下载、获取招标文件，将无法上传投标文件”获取采购文件，并于 2025年9月10日 15:00（北京时间）前递交响应文件。
 一、项目基本情况
-项目编号：JSZC-320900-JSJW-G2025-0060 
-项目名称：江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目 
-预算金额：198.000000万元 
-最高限价（如有）：198.00万元  
+项目号：SPB24A00751 采购执行编号：ZC2024120(2) 
+项目名称：重庆市第一中学校采购“小平科技创新实验室”（示范型、智能机器人方向）设备、器材、课程项目（二） 
+采购方式：询价 
+预算金额：1,970,000.00元 
+最高限价：1,970,000.00元
 采购需求：
-江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目，主要包括机器人系统集成平台、工业机器人供料罐装工作站、复合机器人采购、安装及相关伴随服务，详细内容见本招标文件第四章。
-合同履行期限：合同签订之日起30日历天内完成测试安装及相关伴随服务，并通过采购人验收。 
-本项目（是/否）接受联合体投标：否
+包号：1
+包内容
+最高限价 
+数量
+单位
+简要技术要求 
+重庆市第一中学校采购“小平科技创新实验室”设备、器材、课程项目（二）
+1,970,000.00元 
+1
+台
+采购标的对应的中小企业划分标准所属行业：工业
+最高限价总计：1,970,000.00元
+合同履行期限：详见采购文件
+本项目是否接受联合体：否  
+二、申请人的资格要求
+1、满足《中华人民共和国政府采购法》第二十二条规定。
+2、落实政府采购政策需满足的资格要求：
+供应商是指向采购人提供货物、工程或者服务的法人、其他组织或者自然人。合格的询价供应商应首先符合政府采购法第二十二条规定的基本条件，同时符合根据该项目特殊要求设置的特定资格条件、落实政府采购政策需满足的资格要求（如果有）。
+（一）基本资格条件
+1、具有独立承担民事责任的能力；
+2、具有良好的商业信誉和健全的财务会计制度；
+3、具有履行合同所必需的设备和专业技术能力；
+4、有依法缴纳税收和社会保障资金的良好记录；
+5、参加政府采购活动前三年内，在经营活动中没有重大违法记录；
+6、法律、行政法规规定的其他条件。
+（二）落实政府采购政策需满足的资格要求：
+本项目专门面向中小微企业采购。
+3、本项目的特定资格要求：
+已按规定缴纳询价保证金的证明材料。
+三、获取采购文件
+获取文件期限：2025年9月4日 至 2025年9月9日。
+每天上午09:00:00至12:00:00，下午14:00:00至18:00:00。（北京时间，法定节假日除外 ）
+文件购买费:0.00元/包
+获取文件地点：招标公告所附招标文件仅供阅览使用，投标人只有登陆“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处完成网上获取采购文件才被视为合法获取了采购文件，否则其投标将被拒绝。即：未通过“重庆市政府采购网”→“个人中心”→“在线开评标”→“电子标书在线获取”处下载、获取招标文件，将无法上传投标文件
+方式或事项：
+（一）投标人应通过重庆市政府采购网（www.ccgp-chongqing.gov.cn）注册成为重庆市政府采购供应商。
+（二）凡有意参加投标的投标人，请到“重庆市政府采购网” → “个人中心” → “在线开评标” → “电子标书在线获取”处在线下载或获取本项目招标文件以及图纸、澄清等开标前公布的所有项目资料（本次招标不提供纸质版招标文件），无论投标人下载或获取与否，均视为已知晓所有招标内容
+（三）招标公告所附招标文件仅供阅览使用，供应商只有登陆“重庆政府采购网”完成网上报名申请且报名审核通过后才被视为合法获取了招标文件，否则其投标将被拒绝。
+注意事项：首次参与电子招投标的投标人须办理CA数字证书并下载投标文件制作系统。
+1、CA数字证书的办理：首次参加重庆政府采购网电子招投标项目的供应商应办理CA数字证书（办理流程请进入”在线开评标” → “电子招投标中心”相关下载中，下载CA办理手册。）
+2、投标文件制作：首次参加重庆市政府采购网电子招投标项目的供应商应当登录重庆政府采购网。进入”在线开评标”→“电子招投标中心”相关下载中下载投标文件制作系统。
+见招标文件(公示日期：自采购公告发布之日起三个工作日)。
+四、响应文件提交
+询价响应文件递交开始时间： 2025年9月9日 15:00
+询价响应文件递交截止时间： 2025年9月10日 15:00
+询价响应文件递交地点：本项目采用网上递交方式，投标人于投标截止时间前，登录“重庆市政府采购网”，进入“在线开评标”栏目，在“我的投标项目”→“在线投标”板块提交
+五、评审信息
+询价开始时间： 2025年9月10日 15:00
+询价地点：投标人可在“重庆市政府采购网”→“个人中心”→“在线开评标”→“开评标大厅”远程参与开标（开标必备设备：CA证书和可以无线上网的笔记本电脑（必须带有摄像头、麦克风和声卡等功能）、无线网卡等）。也可由法定代表人或其授权代表持以上设备在规定的开标时间前，抵达指定开标地点（重庆市沙坪坝区公共资源交易中心）参加开标。因投标人自身原因导致未能在规定时间内解密电子投标文件或参与开标的，其后果由投标人自行承担。
+六、公告期限
+(公示日期：自采购公告发布之日起三个工作日)。
+七、其他补充事宜
+1.投标人如未在规定时间内（系统默认30分钟，可根据现场响应情况进行延长/变更）解密电子投标文件的情形约定：
+（1）因政府采购全程电子化系统客观原因影响解密时间的，采购人/采购代理机构可根据现场实际情况延长解密时间。投标人在仍不能解密的情况下，投标人可向采购人/采购代理机构申请，启用上传不加密的电子备份文件的方法作为补救措施；在规定的时间内，投标人既不解密，也未提供不加密的电子备份文件作为补救措施的，视为投标人主动放弃对该项目的投标资格。
+（2）因投标人主观原因未完成解密工作的，且未在规定时间内提供有效不加密的备份文件的，都视为投标人在提交投标文件截止时间后撤销投标文件，响应无效且投标人不得再参与本项目后续采购活动。如果项目提供了保证金的，保证金扣除不予退还。
+2.本项目采用全流程电子招投标。各投标人需熟悉了解整个政府采购电子化开评标全过程。具体电子化采购规则以及操作指南请下载项目公告附件《重庆市全流程电子招投标项目投标人办理正式CA签章流程手册》和《政府采购全程电子化采购系统供应商操作手册（CA证书签章版）》、《【供应商必看】政府采购（CA版）供应商投标前软件安装手册》，并按其要求操作。
+其他补充事宜
+本项目投标保证金支持保函&gt;&gt;
+http://218.70.109.205:6536/LBv3/n_financial_services.aspx
+本项目投标保证金指定收取账户信息&gt;&gt;
+开户银行：
+重庆银行沙坪坝支行 
+账号：
+280402029012244650-4 
+户名：
+重庆市沙坪坝区公共资源交易中心 
+采购经办人（采购文件质疑经办人）：金老师
+采购人电话：13340248578
+代理机构地址：重庆市沙坪坝区沙中路6号附6号
+采购过程和采购结果质疑经办人：王老师
+八、联系方式
+1、采购人信息
+采购人：重庆市第一中学校
+采购经办人：金老师
+采购人电话：13340248578
+采购人地址：重庆市沙坪坝区沙南街2号
+2、采购代理机构信息
+代理机构：重庆市沙坪坝区公共资源交易中心
+代理机构经办人：向老师
+代理机构电话：81151011
+代理机构地址：重庆市沙坪坝区沙中路6号附6号
+3、项目联系方式
+项目联系人：向老师
+项目联系人电话：81151011
+九、附件
+采购公告附件（投标人必看手册）24-8版.zip
+采购需求.docx
+附件1.doc
+附件4.zip
+重庆市第一中学校采购“小平科技创新实验室”设备、器材、课程项目（二）.docx
+附件3.zip
+附件2.doc
+免责声明：
+本页面提供的内容是按照政府采购有关法律法规要求由采购人或采购代理机构发布的，重庆市政府采购网对其内容概不负责，亦不承担任何法律责任。
+请到原网址下载附件</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025深圳中学龙岗学校人工智能创新教室设备购置项目招标公告</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/440000/0201/202509/04/004458a6acaa4aaf4bb4b6fd0e67511aba2b.shtml</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2025深圳中学龙岗学校人工智能创新教室设备购置项目招标公告 
+项目概况
+2025深圳中学龙岗学校人工智能创新教室设备购置项目招标项目的潜在投标人应在（本公告附件中）获取招标文件，并于2025年09月15日 13:00（北京时间）前递交投标文件。
+一、项目基本情况：
+1.项目编号：LGDL2025000155
+2.项目名称：2025深圳中学龙岗学校人工智能创新教室设备购置项目
+3.项目预算：1449770.00元
+4.最高限价：无
+5.采购需求：
+标的名称
+数量
+单位
+简要技术需求（服务需求）
+备注
+2025深圳中学龙岗学校人工智能创新教室设备购置项目
+1
+项
+详见招标文件
+6.合同履行期限：详见招标文件用户需求书。
+7.本项目不接受联合体投标，详见“申请人的资格要求”。
 二、申请人的资格要求：
-（一）满足《中华人民共和国政府采购法》第二十二条规定：
-1.法人或者其他组织的营业执照等证明文件，自然人的身份证明；
-2.上一年度的财务状况报告（成立不满一年无需提供）；
-3.具备履行合同所必需的设备和专业技术能力的书面声明；
-4.依法缴纳税收和社会保障资金的相关材料（提供提交响应文件截止时间前一年内至少一个月依法缴纳税收及缴纳社会保障资金的证明材料。供应商依法享受缓缴、免缴税收、社会保障资金的提供证明材料。）；
-5.参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明。
-6.法律、行政法规规定的其他条件。
-7.在“信用中国”网站查询，无被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的信用记录。（响应文件中无需提供证明材料）
-8.单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的政府采购活动。
-（二）落实政府采购政策需满足的资格要求：
-本项目专门面向中小企业采购，标的所属行业为工业（中小企业划分标准详见《关于印发中小企业划型标准规定的通知》工信部联企业〔2011〕300号），响应供应商应为中小微企业、监狱企业、残疾人福利企业。供应商须在响应文件中提供《中小企业声明函》或《残疾人福利性单位声明函》或省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具的属于监狱企业的证明文件，否则视为无效响应；小微企业、残疾人福利企业、监狱企业不再享受价格评审优惠政策。
-（三）本项目的特定资格要求： 
-无
+1、具有独立法人资格或具有独立承担民事责任能力的其他组织（提供营业执照或事业单位法人证书等证明资料扫描件）；总公司或者分公司只允许一家投标，不允许同时参与本项目投标，以分公司名义参与投标的，须提供总公司出具的愿为其参与本项目投标的行为以及履约等行为承担民事责任的加盖总公司公章的授权函，以及提供总、分公司的营业执照扫描件；    2、落实政府采购政策需满足的资格要求：无；    3、参与本项目投标前三年内，在经营活动中没有重大违法记录（由供应商在《政府采购投标及履约承诺函》中作出声明）；    4、参与本项目政府采购活动时不存在被有关部门禁止参与政府采购活动且在有效期内的情况（由供应商在《政府采购投标及履约承诺函》中作出声明）；    5、不存在《深圳市财政局政府采购供应商信用信息管理办法》（深财规〔2023〕3号）列明的严重违法失信行为（由供应商在《政府采购投标及履约承诺函》中作出声明)；    6、除单一来源采购项目外，为采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的供应商，不得再参加该采购项目的其他采购活动（由供应商在《政府采购投标及履约承诺函》中作出声明）；    7、投标人未被列入失信被执行人、重大税收违法案件当事人名单及政府采购严重违法失信行为记录名单（由供应商在《政府采购投标及履约承诺函》中作出声明）；    8、本项目不接受联合体投标，不接受投标人选用进口产品参与投标，不允许分包、转包）；    9、不同供应商的法定代表人、主要经营负责人、项目投标授权代表人、项目负责人、主要技术人员不得为同一人、属同一单位或者在同一单位缴纳社会保险；不同投标供应商的投标文件不得由同一单位或者同一人编制；单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加本项目政府采购活动；（由供应商填写《供应商基本情况表》相关信息）。    
+（2）供应商投标（上传投标文件）必须先行办理注册手续，具体请按照本公告“六、其他补充事宜”相关内容指引办理。
 三、获取招标文件
-时间：自招标文件公告发布之日起5个工作日 
-地点：“苏采云”系统内免费下载（投标人必须在苏采云系统中获取采购文件，方能参与政府采购项目） 
-方式：本项目采用网上注册登记方式，具体详见本公告其他补充事宜。 
-售价：0.00元 
+时间：自本公告发布之日起至2025年09月15日（北京时间）。
+地点：登录深圳政府采购智慧(监管)平台（http://zfcg.szggzy.com:8081/）下载本项目的招标文件。
+方式：在线下载。
+售价：免费 。
+凡已注册的深圳市网上政府采购供应商，按照授予的操作权限，可于自本公告发布之日起至2025年09月15日 13:00期间登录深圳政府采购智慧（监管）平台（http://zfcg.szggzy.com:8081/）下载本项目的采购文件。投标人如确定参加投标，首先要在深圳政府采购智慧(监管)平台网上办事子系统（http://zfcg.szggzy.com:8081/TPBidder/memberLogin）网上报名投标，方法为在网上办事子系统后点击“【招标公告】→【我要报名】”；如果网上报名后上传了投标文件，又不参加投标，应再到【我的项目】→【项目流程】→【递交投标(应答)文件】功能点中进行“【撤回本次投标】”操作；如果是未注册为深圳政府采购智慧(监管)平台（http://zfcg.szggzy.com:8081/）的供应商，请先办理密钥（请点击），深圳市南山区沙河西路3185号南山智谷A座（深圳交易集团总部大楼）3楼前台（咨询电话：0755-83948165、0755-83938966、020-89524338）绑定深圳政府采购智慧(监管)平台用户,再进行投标报名。在网上报名后，点击“【我的项目】→【项目流程】→【采购文件下载】”进行采购文件的下载。
 四、提交投标文件截止时间、开标时间和地点
-2025-09-26 09:00 （北京时间）
-地点：苏采云“不见面”开标大厅。 
+1.投标截止时间：所有投标文件应于2025年09月15日 13:00（北京时间）之前上传到深圳政府采购智慧(监管)平台（http://zfcg.szggzy.com:8081/）。具体操作为登录“深圳政府采购智慧(监管)平台用户网上办事子系统（http://zfcg.szggzy.com:8081/TPBidder/memberLogin）”，用“【我的项目】→【项目流程】→【递交投标(应答)文件】”功能点上传投标文件。本项目电子投标文件最大容量为100MB，超过此容量的文件将被拒绝。
+2.开标时间和地点：定于2025年09月15日 13:00（北京时间），在正采（深圳）招标代理有限公司公开开标。供应商可以登录“深圳政府采购智慧(监管)平台用户网上办事子系统（http://zfcg.szggzy.com:8081/TPBidder/memberLogin）”，在“【我的项目】→【项目流程】→【开标及解密】”进行在线解密、查询开标情况。
+3.在线解密： 投标人须在开标当日2025-09-15 13:00 ~ 2025-09-15 14:00期间进行解密，逾期未解密的作无效处理。解密方法：登录“深圳政府采购智慧(监管)平台用户网上办事子系统（http://zfcg.szggzy.com:8081/TPBidder/memberLogin）”，使用本单位制作电子投标文件同一个电子密钥，在“【我的项目】→【项目流程】→【开标及解密】”进行在线解密、查询开标情况。
+4.投标提醒
+请各供应商在投标前根据《深圳市财政局关于在采购文件及深圳政府采购智慧平台增设供应商投标投标警示条款等事宜的通知》要求，核实自身是否存在特别警示条款中，关于供应商参与投标禁止的情形。
+5.其他说明
+本项目允许使用电子营业执照加、解密，投标（应答）供应商在使用“投标文件制作专用软件”制作投标（应答）文件时，可以通过微信扫码功能调用“电子营业执照”小程序制作、加密、解密投标（应答）响应文件。供应商加密投标（应答）响应文件与开标解密必须使用同一种方式，否则解密失败，导致投标无效（即：使用电子执照加密的，后续开标只能使用电子执照解密）。 重要提示： （1）使用电子营业执照功能时，请确保已经在手机微信安装 “电子营业执照”小程序，或已安装了“电子营业执照”APP，并且在 “电子营业执照”小程序/app中完成相应的下载电子营业执照、法人授权、备份密钥等操作（具体详见国家工商总局网站），电子投标地区必须选择 “广东省-深圳市-深圳政府采购智慧平台”（请根据手机小程序/app提示进行设置，或拨打电子营业执照平台技术支持电话010-86355313，15921122750）。 （2）电子营业执照应用于投标文件制作和加解密属于创新应用场景，如不熟悉操作可能导致错过投标截止时间，系统已提供加密、测试解密和撤回重新上传的功能，各投标人须预留充足时间，提前制作和加密上传投标文件。 （3）已办理数字证书（电子密钥）的用户，可以继续使用数字证书完成投标活动。未申请电子营业执照或无法通过电子营业执照完成投标文件制作和加解密的用户，必须使用电子密钥进行投标文件制作和加解密，咨询电话0755-83948165，020-89524338（CA办理指引详见链接https://www.szggzy.com/calock/caLock.html）。
 五、公告期限
 自本公告发布之日起5个工作日。
 六、其他补充事宜
-1.根据省财政厅《关于更换全省政府采购交易系统CA数字证书和电子签章的通知》（苏财购〔2023〕101号），“苏采云”政府采购交易系统（以下简称苏采云系统）的CA数字证书、电子签章已更换为江苏省电子政务证书认证中心CA和方正国际软件（北京）有限公司电子签章。如果投标人通过苏采云系统参与政府采购项目，需要更换CA数字证书和电子签章。具体办理指南和操作手册：在盐城市政府采购网点击【办事指南】-【供应商参与政府采购活动相关资料】。
-领取CA和办理电子签章（请至亭湖区政务服务中心二楼226窗口办理，联系电话：15051556883，办理邮箱：yancheng@ideabank.net.cn，具体联系方式见《苏采云系统供应商操作手册》（以下简称《操作手册》））、进行注册并按《操作手册》要求制作、上传电子投标文件,《苏采云系统供应商操作手册》：在盐城市政府采购网点击【办事指南】-【供应商参与政府采购活动相关资料】。
-2.潜在供应商访问电子招标响应交易平台的网络地址和方法： 
-2.1“苏采云”系统用户注册--获取“CA 数字证书”--CA 绑定与登录--参与投 标--下载采购文件（后缀名为“.kedt”）--将后缀名为“.kedt”的采购文件导入政府采购客户端工具--制作响应文件--导出加密的响应文件（后缀名为 zip）--通过“苏采云”系统上传响应文件。具体见《“苏采云”系统供应商操作手册》 （手册下载地址：苏采云系统-右侧消息通知栏）。 
-2.2 潜在投标人访问“苏采云”系统方法：江苏省政府采购网首页-“苏采云”链接。 
-2.3 采购文件（后缀名为“.kedt”）、供应商操作手册及政府采购客户端 工具可通过“苏采云”系统相应链接进行下载。 
-2.4 采购代理机构将数据电文形式的采购文件加载至“苏采云”系统，供潜在供应商下载或者查阅。 
-2.5 请潜在投标单位提前安装相应的控件（详见《“苏采云”系统供应商操作手册》）并使用谷歌浏览器登录“苏采云”系统参与不见面开评标。 
-如潜在投标人未按上述要求操作，将自行承担所产生的风险。
-3.有关本次招标的事项若存在变动或修改，敬请及时关注江苏建威建设管理有限公司在“中国政府采购网”、“江苏政府采购网”、“盐城市政府采购网”发布的更正公告。
-4.本次招标不收取投标保证金，不收取质量保证金。
-七、对本次招标提出询问，请按以下方式联系。
-1.采购人信息 
-单位名称：江苏省盐城技师学院
-单位地址：盐城市盐都区海洋路29号
-联系人：王老师
-联系电话：13056150848
+1.本项目实行网上投标，采用电子投标文件。
+2.报名操作：投标人如确定参加投标，首先要在深圳政府采购网上报名投标，方法为登录深圳政府采购智慧(监管)平台  （http://zfcg.szggzy.com:8081/）网后点击“招标公告”选中要报名标段点击“我要报名”或“待办→邀请提醒”；如果网上报名后上传了投标文件，又不参加投标，应再到【我的项目】→【项目流程】→【递交投标(应答)文件】→【上传投标文件】功能点中进行“撤标”操作；如果是未注册为深圳政府采购的供应商，请访问深圳公共资源交易中心（统一用户中心 https://trade.szggzy.com/ggzy/center/#/login）,先办理注册手续（注册咨询：0755-36568999）,再进行投标报名。在网上报名后，点击“我的项目→项目流程”中进行招标文件的下载。
+3.开标操作：投标人可以登录“深圳政府采购智慧(监管)平台  （http://zfcg.szggzy.com:8081/）网站”，在系统登录首页面即可查看开标情况。
+4.投标操作：具体操作为登录“深圳政府采购智慧(监管)平台  （http://zfcg.szggzy.com:8081/） 网站”，用“我的项目→项目流程→递交投标(应答)文件→上传投标文件”功能点上传投标文件。本项目电子投标文件最大容量为100MB，超过此容量的文件将被拒绝。
+5.采购文件澄清/修改事项：2025年09月10日 00:00（北京时间）前，供应商如果认为采购文件存在不明确、不清晰和前后不一致等问题，可登录深圳政府采购智慧(监管)平台（http://zfcg.szggzy.com:8081/）→“深圳政府采购智慧(监管)平台用户网上办事子系统（http://zfcg.szggzy.com:8081/TPBidder/memberLogin）”，在“【我的项目】→【项目流程】→【提问】”功能点中填写需澄清内容。2025年09月12日 00:00（北京时间）前将采购文件澄清/修改情况在“【我的项目】→【项目流程】→【答疑澄清文件下载】”中公布，望投标人予以关注。
+6.正采（深圳）招标代理有限公司有权对投标人就本项目要求提供的相关证明资料（原件）进行审查。供应商提供虚假资料被查实的，则可能面临被取消本项目中标资格、列入不良行为记录名单和三年内禁止参与深圳市政府采购活动的风险。
+本招标公告及本项目招标文件所涉及的时间一律为北京时间。投标人有义务在招标活动期间浏览深圳政府采购智慧(监管)平台  （http://zfcg.szggzy.com:8081/）,在深圳政府采购智慧(监管)平台  （http://zfcg.szggzy.com:8081/）网上公布的与本次招标项目有关的信息视为已送达各投标人。
+7.本项目不需要投标保证金。
+8.项目中标(成交)供应商可凭借中标通知书和采购合同向金融机构申请政府采购订单融资，详情可登录深圳要素交易金融服务平台https://finance.szexgrp.com/gtm/web/guarantee/#/（或从【深圳政府采购智慧平台】点击【金服平台】），咨询电话0755-36568999转8或拨打0755-88653331。
+七、对本次招标提出询问，请按以下方式联系
+1.采购人信息
+名称：深圳市龙岗区深圳中学龙岗学校
+地址：广东省深圳市龙岗区龙城街道爱心路130号
+联系方式：0755-89553989
+2.采购代理机构 
+名称： 正采（深圳）招标代理有限公司 
+地址：深圳市龙岗区龙城街道盛平社区龙平西路12号天集雅苑1号楼A栋A303
+联系方式：0755-28996869
+3.项目联系方式
+采购项目联系人：李工
+采购项目联系人电话：0755-28996869
+系统技术支持：0755-36568999转1转1
+正采（深圳）招标代理有限公司 
+2025年09月04日
+八、附件
+采购文件szczf：-详见后面附件-
+采购文件PDF：-详见后面附件-
+采购文件DOC：-详见后面附件-
+采购文件附件：（如工程类项目，还包括图纸和工程量清单）-详见后面附件-
+通用附件：
+1、请下载并使用相应的深圳智慧采购平台投标文件制作专用软件打开招标文件（.szczf格式）。
+2、供应商端操作手册。</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>人工智能活动中心建设（第二次）(PSX25A00315)询价公告</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>重庆市公共资源交易服务平台</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/500000/0201/202509/04/005066d35c1501c24cff930a1db3d25fedbf.shtml</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>本项目保证金支持电子投标保函形式，如需申请保函请点击右上角“申请投标保函”
+项目概况：
+“人工智能活动中心建设（第二次）”招标项目的潜在供应商应在“网上获取”获取采购文件，并于 2025年9月10日 10:30（北京时间）前递交响应文件。
+一、项目基本情况
+项目号：PSX25A00315 采购执行编号：PSZC-XJ-2025 
+项目名称：人工智能活动中心建设（第二次） 
+采购方式：询价 
+预算金额：600,000.00元 
+最高限价：600,000.00元
+采购需求：
+包号：1
+包内容
+最高限价 
+数量
+单位
+简要技术要求 
+人工智能活动中心建设（第二次）
+600,000.00元 
+1
+台
+最高限价总计：600,000.00元
+合同履行期限：详见采购文件
+本项目是否接受联合体：否  
+二、申请人的资格要求
+1、满足《中华人民共和国政府采购法》第二十二条规定。
+2、落实政府采购政策需满足的资格要求：
+本项目专门面向中小企业采购，所提供产品制造商应为中小企业（包括中型、小型和微型企业，须提供“中小企业声明函”）或监狱企业（提供“监狱企业证明文件”）或残疾人福利性单位（提供“残疾人福利性单位声明函”）。
+注：①“中小企业声明函”应由供应商出具，并加盖供应商公章，声明函格式详见本询价通知书第七篇“中小企业声明函”；
+②“监狱企业证明文件”应当由供应商提供其货物制造商属于监狱企业的证明文件，该证明文件由省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具；
+③“残疾人福利性单位声明函”应由供应商提供其货物制造商出具的“残疾人福利性单位声明函”，并加盖该残疾人福利性。
+3、本项目的特定资格要求：
+无
+三、获取采购文件
+获取文件期限：2025年9月4日 至 2025年9月9日。
+每天上午09:00:00至12:00:00，下午14:00:00至18:00:00。（北京时间，法定节假日除外 ）
+文件购买费:0.00元/包
+获取文件地点：网上获取
+方式或事项：
+（一）投标人应通过重庆市政府采购网（www.ccgp-chongqing.gov.cn）注册成为重庆市政府采购供应商。
+（二）凡有意参加投标的投标人，请到“重庆市政府采购网” → “个人中心” → “在线开评标” → “电子标书在线获取”处在线下载或获取本项目招标文件以及图纸、澄清等开标前公布的所有项目资料（本次招标不提供纸质版招标文件），无论投标人下载或获取与否，均视为已知晓所有招标内容
+（三）招标公告所附招标文件仅供阅览使用，供应商只有登陆“重庆政府采购网”完成网上报名申请且报名审核通过后才被视为合法获取了招标文件，否则其投标将被拒绝。
+注意事项：首次参与电子招投标的投标人须办理CA数字证书并下载投标文件制作系统。
+1、CA数字证书的办理：首次参加重庆政府采购网电子招投标项目的供应商应办理CA数字证书（办理流程请进入”在线开评标” → “电子招投标中心”相关下载中，下载CA办理手册。）
+2、投标文件制作：首次参加重庆市政府采购网电子招投标项目的供应商应当登录重庆政府采购网。进入”在线开评标”→“电子招投标中心”相关下载中下载投标文件制作系统。
+四、响应文件提交
+询价响应文件递交开始时间： 2025年9月9日 10:30
+询价响应文件递交截止时间： 2025年9月10日 10:30
+询价响应文件递交地点：本项目采用网上递交方式，投标人于投标截止时间前使用平台提供的客户端投标工具编制投标文件，然后登录“重庆市政府采购网”，进入“在线开评标”栏目，在“我的投标项目”→“在线投标”板块提交。
+五、评审信息
+询价开始时间： 2025年9月10日 10:30
+询价地点：本项目采用网上开标方式，投标人可在“重庆市政府采购网”→“个人中心”→“在线开评标”→“开评标大厅”远程参与开标（开标必备设备：CA证书和可以无线上网的笔记本电脑（必须带有摄像头、麦克风和声卡等功能）、无线网卡等），因投标人自身原因导致未能在规定时间内解密电子投标文件或参与开标的，其后果由投标人自行承担
+六、公告期限
+自本公告发布之日起3个工作日
+七、其他补充事宜
+1.投标人如未在规定时间内（系统默认30分钟，可根据现场响应情况进行延长/变更）解密电子投标文件的情形约定：
+（1）因政府采购全程电子化系统客观原因影响解密时间的，采购人/采购代理机构可根据现场实际情况延长解密时间。投标人在仍不能解密的情况下，投标人可向采购人/采购代理机构申请，启用上传不加密的电子备份文件的方法作为补救措施；在规定的时间内，投标人既不解密，也未提供不加密的电子备份文件作为补救措施的，视为投标人主动放弃对该项目的投标资格。
+（2）因投标人主观原因未完成解密工作的，且未在规定时间内提供有效不加密的备份文件的，都视为投标人在提交投标文件截止时间后撤销投标文件，响应无效且投标人不得再参与本项目后续采购活动。如果项目提供了保证金的，保证金扣除不予退还。
+2.本项目采用全流程电子招投标。各投标人需熟悉了解整个政府采购电子化开评标全过程。具体电子化采购规则以及操作指南请下载项目公告附件《重庆市全流程电子招投标项目投标人办理正式CA签章流程手册》和《政府采购全程电子化采购系统供应商操作手册（CA证书签章版）》、《【供应商必看】政府采购（CA版）供应商投标前软件安装手册》，并按其要求操作。
+八、联系方式
+1、采购人信息
+采购人：重庆市彭水苗族土家族自治县民族中学校
+采购经办人：冯老师
+采购人电话：15856021645
+采购人地址：彭水苗族土家族自治县民族中学校
+2、采购代理机构信息
+代理机构：重庆兴辰盛项目管理有限公司
+代理机构经办人：王兵
+代理机构电话：023-77720234
+代理机构地址：重庆市武隆区芙蓉街道芙蓉西路90号7栋3楼
+3、项目联系方式
+项目联系人：王兵
+项目联系人电话：023-77720234
+九、附件
+采购公告附件（投标人必看手册）24-8版.zip
+最新挂网稿第二次人工智能活动中心建设.doc
+免责声明：
+本页面提供的内容是按照政府采购有关法律法规要求由采购人或采购代理机构发布的，重庆市政府采购网对其内容概不负责，亦不承担任何法律责任。
+请到原网址下载附件</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>长春理工大学高质量发展-博士点-人工智能学院大模型智能实验室建设项目</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/220000/0201/202509/04/00227504a61f301f41058959a78b2fb2d224.shtml</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>竞争性谈判公告
+项目概况
+长春理工大学高质量发展-博士点-人工智能学院大模型智能实验室建设项目采购项目的潜在供应商应在吉林省公共资源交易一体化平台获取采购文件，并于2025年09月26日09点00分前提交响应文件。
+一、项目基本情况
+项目编号：JLSZC20250041201
+项目名称：高质量发展-博士点-人工智能学院大模型智能实验室建设项目
+预算金额：1600000.00元
+采购需求：详见招标文件。
+合同履行期限：签订合同后30日内
+本项目不接受联合体投标。
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定；
+2.落实政府采购政策需满足的资格要求：本项目非专门面向中小企业采购
+3.本项目的特定资格要求：无
+三、获取采购文件
+时间：2025年09月04日08时00分至2025年09月10日16时00分
+获取招标文件网址：http://www.ggzyzx.jl.gov.cn/
+1.首先登录吉林省公共资源交易中心网站“公共资源交易主体注册”栏目（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin），按要求完成交易主体信息注册。完成交易主体信息注册的用户，可携带所需材料至吉林省公共资源交易中心（吉林省长春市人民大街9999号）四楼CA证书办理处免费办理CA数字证书，也可到吉林省内各市（州）、长白山管委会公共资源交易平台和梅河口市公共资源交易场所现场办理CA数字证书，CA数字证书全省通办通用 (咨询电话:0431-85177688 QQ:800805008) 。未进行网上注册并办理CA认证的供应商将无法参与吉林省公共资源交易中心（吉林省政府采购中心）组织的所有招标采购活动。  
+2.供应商取得CA认证后，可登录吉林省公共资源交易中心（吉林省政府采购中心）网站“供应商-&gt;吉林省公共资源交易一体化平台”登录后选择“公告-&gt;采购-&gt;进入项目-&gt;交易文件下载”下载电子招标文件。供应商下载招标文件后，务必在规定的“获取招标文件结束时间”之前操作“投标确认”并完善相关投标信息，点击“投标确认”按钮确认参加投标才可参与该项目的采购活动。如果供应商在规定的“获取招标文件结束时间”之前没有点击“投标确认”按钮确认参加投标，将不能参与该项目的采购活动和对采购文件提出质疑。
+四、响应文件提交
+截止时间：2025年09月26日09点00分
+地    点：吉林省公共资源交易一体化平台
+（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
+五、谈判预备会时间、地点
+开始时间：2025年09月26日09点00分
+地    点：吉林省公共资源交易一体化平台
+（https://www.ggzyyth.jl.cn/EpointSSO/memberLogin）
+六、公告期限
+自本公告发布之日起不少于3个工作日。
+七、其他补充事宜
+1.凡与本中心招投标活动有关的时间，均以吉林省公共资源交易中心（吉林省政府采购中心）服务器显示的北京时间为准。
+八、联系方式
+对本次招标提出询问，请与下列人员联系。
+1.采购人信息
+名    称：长春理工大学
+地    址：长春市卫星路7089号
+联 系 人：宋磊
+联系方式：13756675961
+2.吉林省公共资源交易中心（吉林省政府采购中心）
+采购文件编制联系人：徐溦蔚   联系方式：0431-81866980
+组织开标评标联系人：张曦予   联系方式：0431-81866983
+地    址：吉林省长春市南关区人民大街9999号
+吉林省公共资源交易中心
+（吉林省政府采购中心）
+2025年 09月04日
+附件信息：
+招标文件正文.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>广东省惠州市中韩产业园新圩人工智能产业片区基础设施建设项目－新圩启沃智谷地块五项目（施工总承包）【施工】招标公告</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>惠州市公共资源交易中心</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/440000/0101/202509/04/00445e201b6f5125495c84850a1cf052f1d5.shtml</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>投资项目代码 
+2412-441303-04-01-931141 
+投资项目名称 
+广东省惠州市中韩产业园新圩人工智能产业片区基础设施建设项目 
+招标项目名称 
+广东省惠州市中韩产业园新圩人工智能产业片区基础设施建设项目－新圩启沃智谷地块五项目（施工总承包） 
+标段（包）名称 
+\ 
+公告性质 
+正常 
+资格审查方式 
+资格后审 
+招标项目实施 
+（交货）地点 
+惠州市惠阳区新圩镇红田片区 
+资金来源 
+财政资金 
+资金来源构成 
+项目建设所需资金由惠阳区新圩镇人民政府自筹并积极申请专项债券资金。 
+招标范围 
+及规模 
+本项目位于惠州市惠阳区新圩镇红田片区，场地平整面积约90947平方米，场地共挖方129.4万立方米，填方10.95万立方米。边坡防护工程28386.06平方米。挡土墙工程249米，主要内容包括：场地平整、高边坡防护、挡墙设置、临时排水及修建便道等。 
+按照招标人提供的全套施工图纸、工程量清单和有关资料及说明的范围内所有内容，完成广东省惠州市中韩产业园新圩人工智能产业片区基础设施建设项目－新圩启沃智谷地块五项目的施工总承包。本项目概算总投资21424.46万元，其中：工程建安费16405.03万元。 
+招标内容 
+按照招标人提供的全套施工图纸、工程量清单和有关资料及说明的范围内所有内容，主要工程内容包括：新圩启沃智谷地块五项目的场地平整、高边坡防护、挡墙设置、临时排水及修建便道等施工及保修（具体施工内容以招标人提供的施工图及工程量清单为准）。 
+工期（交货期） 
+365日历天 
+最高投标限价 
+162154115.05元 
+是否接受联合体投标 
+是，本项目接受联合体投标；联合体由不超过2家单位组成，联合体各方须具有建筑工程施工总承包三级（或以上）或市政公用工程施工总承包三级（或以上）资质，投标时需提交联合体协议书，联合体各方均应为独立法人。 
+投标资格能力要求（包括但不限于资质人员、业绩等要求） 
+投标人资格要求 
+1.投标人（若为联合体投标，指联合体各方）须具有建筑工程施工总承包三级（或以上）或市政公用工程施工总承包三级（或以上）资质的施工企业；同时招标项目施工现场配备的最基本的管理班子人员（若为联合体投标，由联合体各方共同组建）必须要有：项目负责人（建造师）1人，为建筑工程专业或市政公用工程专业二级（或以上）注册建造师，具有注册建造师证书和建设行政主管部门颁发的安全生产考核合格证（B类）；施工员4人、质量检查员3人，具有相应的岗位证书；安全员3人，具有建设行政主管部门颁发的安全生产考核合格证（C类）。 
+2.是否接受联合体投标：接受。联合体投标的需提交联合体协议书，联合体各方须具有本款第1条要求的施工资质并且应为独立法人。联合体投标的，应满足下列要求： 
+（1）联合体各方应按招标文件提供的格式签订联合体协议书，明确联合体牵头人和成员各方权利义务，并承诺就中标项目向招标人承担连带责任； 
+（2）联合体由不超过2家单位组成（即：联合体牵头人和成员单位的数量上限为2家）； 
+（3）由同一专业的单位组成的联合体，按照资质等级较低的单位确定资质等级； 
+（4）联合体各方不得再以自己名义单独或参加其他联合体在同一标段中投标。 
+3.投标人（若为联合体投标，指联合体各方）应在惠州市建筑业信用信息平台办理并通过信用信息录入，拟派驻本工程的项目管理班子成员必须是惠州市建筑业信用信息平台录入的对应岗位人员（提供相关网页截图）。 
+4.其他要求：信用承诺书（格式详见招标文件“第九章投标文件格式”）。 
+投标人业绩要求 
+无 
+是否采用电子
+招标投标方式 
+是 
+获取招标文件的方式 
+下载招标文件的网络地址 
+惠州市公共资源交易中心建设工程招标投标电子交易系统 
+获取招标文件的方式 
+具备本公告投标人资格要求且有意参与项目投标的潜在投标人，应在《招标日程安排表》确定的获取招标文件开始时间至获取招标文件结束时间期间内，从惠州市公共资源交易中心建设工程招标投标电子交易系统下载招标文件、工程量清单和施工图纸等资料。 
+获取招标文件开始时间 
+详见《招标日程安排表》 
+获取招标文件截止时间 
+详见《招标日程安排表》 
+递交投标文件截止时间 
+详见《招标日程安排表》 
+投标文件递交方式 
+本工程采用电子招标投标方式开展招标投标，具体的操作流程见惠州市公共资源交易中心发布的《惠州市公共资源交易中心建设工程招投标业务系统投标人操作手册》。 
+递交方式：电子投标文件通过网络上传至惠州市公共资源交易中心建设工程招标投标电子交易系统对应招标项目的指定模块。 
+开标时间 
+详见《招标日程安排表》 
+开标地点 
+惠州市公共资源交易中心惠阳分中心开标室（详见《招标日程安排表》） 
+发布公告媒介 
+本次招标公告同时在广东省公共资源交易平台、惠州市公共资源交易中心网、广东省招标投标监管网、中国招标投标公共服务平台发布。 
+招标人 
+惠州市惠阳区新圩镇人民政府 
+联系地址 
+惠州市惠阳区新圩镇商业街镇政府大院 
+招标人联系人 
+罗先生 
+联系电话 
+0752-3333289 
+招标代理机构 
+广东联城工程咨询有限公司 
+联系地址 
+惠州市惠城区四环南路1号惠州信利康大厦A座403室 
+招标代理联系人 
+杨先生 
+联系电话 
+0752-2299553 
+招标监督机构 
+惠州市惠阳区住房和城乡建设局建筑工程管理股 
+联系电话 
+0752-3819329 
+其他依法应当载明的内容 
+1.质量要求：合格。 
+2.答疑时间、提交投标文件时间、开标时间及地点 
+2.1答疑时间：投标人存在疑问的，应按照《招标日程安排表》确定的投标人提出问题截止时间前进行网上询疑。招标人及招标代理机构应在《招标日程安排表》中招标人网上澄清截止时间对投标人提出的疑问予以网上发布答疑。 
+2.2网上投标文件提交截止时间：投标人应在《招标日程安排表》确定的投标（网上报价）截止时间前通过招标投标电子交易系统提交投标文件。 
+2.3开标时间：按《招标日程安排表》确定的开标时间进行开标活动。 
+2.4开标地点：按《招标日程安排表》确定的开标地点开标。 
+2.5评标地点：按《招标日程安排表》确定的评标地点评标。 
+3.按照惠州市《关于房建市政类施工监理项目推行信用承诺制优化招投标活动流程的通知》（惠市公易委办函〔2018〕6号）及相关文件规定，对提供安全生产许可证失效或被暂扣、伪造虚假证件、冒名顶替参加会议、不同投标人委托同一单位或者个人办理投标事宜等情形，记入不诚信记录，并向行政监督部门推送，不诚信行为一经行政监管部门认定，实施联合惩戒。 
+4.按照《关于建设工程项目全面启用投标文件特征码检测功能的通知》（惠公易函〔2020〕78号）要求，进一步扩大所有建设工程项目PDF格式及XML格式投标文件的特征码检测功能，特征码检测包括IP地址、MAC地址及硬盘序列号。在开评标过程中，若特征码检测环节出现不同投标人存在IP地址、MAC地址或硬盘序列号相同情况，将视为不同投标人委托同一单位或者个人办理投标事宜。为保证投标文件特征码检测功能的有效性，所有PDF格式投标文件应当在加盖电子签名（签章）后再行上传。具体操作方法详见交易中心门户网站→【服务指南】→【操作指引】。 
+5.电子交易规则：按照《惠州市政务服务和数据管理局 关于印发&lt;惠州市公共资源电子交易规则&gt;的通知》（惠市政数〔2025〕13号）有关规定执行。具体的操作流程见惠州市公共资源交易中心发布的《惠州市公共资源交易中心建设工程招投标业务系统投标人操作手册》。 
+6.其他相关方式： 
+6.1交易平台：惠州市公共资源交易中心惠阳分中心 
+联系地址：惠州市惠阳区叶挺大道好益康一路区政务服务中心B栋10楼 
+联系电话：0752-3911976 
+6.2 监督单位：惠州市惠阳区住房和城乡建设局 
+联系电话：0752-3819329 
+7.招标方式：公开招标。 
+发布日期：2025年9月4日 
+招标日程安排表
+项目名称 广东省惠州市中韩产业园新圩人工智能产业片区基础设施建设项目－新圩启沃智谷地块五项目（施工总承包）工程编号 惠公易建惠阳〔2025〕062号
+获取（发售）招标文件开始时间2025-09-04 14:30:00获取（发售）招标文件结束时间2025-09-25 09:00:00
+投标人提出问题截止时间2025-09-14 17:00:00招标人网上澄清截止时间2025-09-15 17:00:00
+保证金到账截止时间2025-09-25 09:00:00投标(网上报价)截止时间2025-09-25 09:00:00
+现场递交原件开始时间现场递交原件结束时间 
+开标开始时间2025-09-25 09:00:00评标开始时间2025-09-25 10:00:00
+开标结束时间2025-09-25 10:00:00评标结束时间
+开标室1号开标室评标室2号评标室
+定标室1号定标室
+开评标地址惠州市公共资源交易中心惠阳分中心</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>海安市人工智能融合实验室建设项目采购公告</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/320000/0201/202509/04/00327cd0c0c2d136489aa5f9ad6a81720241.shtml</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>项目概况
+海安市人工智能融合实验室建设项目 JSZC-320685-JZCG-C2025-0049 采购项目的潜在供应商应在江苏政府采购网 获取采购文件，并于2025-09-16 09:00 （北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：JSZC-320685-JZCG-C2025-0049 
+项目名称：海安市人工智能融合实验室建设项目 
+采购方式：竞争性磋商 
+预算金额：260.000000万元（采购包1：72.000000万元；采购包2：40.000000万元；采购包3：60.000000万元；采购包4：48.000000万元；采购包5：40.000000万元） 
+最高限价（如有）：标段一72万元；标段二40万元；标段三60万元；标段四48万元；标段五40万元，报价超过最高限价的将作为无效响应处理。 
+采购需求：
+详细内容见本采购文件第三章，请仔细研究。
+合同履行期限：标段一：三年；标段二：自合同签定之日起30天内完成所有设备安装调试，投入试运行；标段三：合同签订后30天内完成部署，试运行一个月验收，软件维保期3年，硬件质保期1年；标段四：自合同签定之日起30天内完成所有设备安装调试，投入试运行；标段五：自合同签定之日起30天内完成所有设备安装调试，投入试运行。 
+本项目（是/否）接受联合体：否 
+二、申请人的资格要求：
+（一）满足《中华人民共和国政府采购法》第二十二条规定：
+1.满足《中华人民共和国政府采购法》第二十二条规定。（按附件1格式进行声明，响应文件中无需提供其他证明材料）
+2.在“信用中国”网站（www.creditchina.gov.cn）查询，无被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的信用记录。（按附件1格式进行声明，响应文件中无需提供其他证明材料）
+（二）落实政府采购政策需满足的资格要求：
+无
+（三）本项目的特定资格要求：
+无
+三、获取采购文件
+时间：自磋商文件公告发布之日起5个工作日 
+地点：江苏政府采购网 
+方式：本项目采用网上注册登记方式 
+售价：0.00元 
+四、响应文件提交
+截止时间：2025-09-16 09:00 （北京时间）
+地点：江苏政府采购网 
+五、开启
+时间：2025-09-16 09:00 （北京时间）
+地点：海安市公共资源交易中心2楼开标二室 
+六、公告期限
+自本公告发布之日起3个工作日。
+七、其他补充事宜
+1、投标保证金：免收
+2、项目开标活动模式：不见面远程开标模式，供应商在各自地点通过“苏采云”政府采购交易系统参加磋商活动。
+3、项目演示、样品、答辩等（如有请描述）：标段二、标段四、标段五有/标段一、标段三无
+4、对项目需求部分（供应商资格要求、项目需求、商务技术评分标准）的询问、质疑由采购人负责答复；对项目磋商文件其它部分的询问请向磋商文件制作人或项目磋商经办人提出；对在“电子交易平台”操作阶段的询问请向交易系统软件维护人员提出。
+5. 根据省财政厅《关于更换全省政府采购交易系统C A数字证书和电子签章的通知》（苏财购〔2023〕101号），“苏采云”政府采购交易系统（以下简称苏采云系统）的CA数字证书、电子签章已更换为江苏省电子政务证书认证中心C A和方正国际软件（北京）有限公司电子签章。如果供应商通过苏采云系统参与政府采购项目，需要更换CA数字证书和电子签章。具体办理指南和操作手册见链接：http://www.ccgp-jiangsu.gov.cn/jiangsu/zlxz/ee/ee3a4bc5a3454aa2b0d9312230633ce9.html。（CA两种渠道办理：1、选择就近所在地市自行办理；2、联系江苏意源科技有限公司线上提交申请表 朱工 0513-59001215）
+6. 供应商应依照规定提交各类声明函、承诺函，不再同时提供原件备查或提供有关部门出具的相关证明文件。但成交供应商应做好提交声明函、承诺函相应原件的核查准备；核查后发现虚假或违背承诺的，依照相关法律法规规定处理。
+7. 有关本次磋商的事项若存在变动或修改，敬请及时关注海安市公共资源交易中心在“江苏政府采购网”发布的更正公告。
+8. 成交供应商须提供一份纸质版响应文件正本至采购人处。
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+采购包1、采购包2、采购包3、采购包4、采购包5
+单位名称：海安市教育体育局
+单位地址：海安市黄海西路3号
+联系人：丁忠荣
+联系电话：13511574863
 2.采购代理机构信息（如有）
-单位名称：江苏建威建设管理有限公司
-单位地址：盐城市盐都区兆泉商务中心六楼
-联系人：朱女士
-联系电话：18066198320
+单位名称：海安市公共资源交易中心
+单位地址：江苏省海安市镇南路399号
+联系人：吴冬清
+联系电话：0513-81819585
 3.项目联系方式
-项目联系人：朱女士
-电话：18066198320
-附件：JSZC-320900-JSJW-G2025-0060采购文件.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25286762.htm</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告&lt;!--    var currentpos, timer;    function initialize() {        timer = setInterval("scrollwindow()", 60);    }    function sc() {        clearInterval(timer);    }    function scrollwindow() {        window.scrollBy(0, 1);    }    document.onmousedown = sc    document.ondblclick = initialize//--&gt;    
-天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告                        						 
-发布日期：2025年09月03日    发布来源：天津市南洋工业学校						
+项目联系人：吴冬清
+电话：0513-81819585</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>启东市人民医院人工智能影像辅助诊断系统项目（四次）采购公告</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/320000/0201/202509/04/0032a7ed724f63c2413bae876988a5f38b38.shtml</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>项目概况
+启东市人民医院人工智能影像辅助诊断系统项目（四次） JSZC-320681-JZCG-C2025-0060 采购项目的潜在供应商应在详见磋商文件 获取采购文件，并于2025-09-15 09:00 （北京时间）前提交响应文件。
+一、项目基本情况
+项目编号：JSZC-320681-JZCG-C2025-0060 
+项目名称：启东市人民医院人工智能影像辅助诊断系统项目（四次） 
+采购方式：竞争性磋商 
+预算金额：150.000000万元 
+最高限价（如有）：150万元 
+采购需求：
+详见磋商文件，请仔细研究。
+合同履行期限：详见磋商文件第三部分项目需求。 
+本项目（是/否）接受联合体：否 
+二、申请人的资格要求：
+（一）满足《中华人民共和国政府采购法》第二十二条规定：
+1.响应人符合《中华人民共和国政府采购法》第二十二条规定条件的声明函（格式见附件1）（如分公司参加响应的，另需提供总公司的授权证明）
+2.法定代表人身份证明书（格式见附件2）及法人或者其他组织的营业执照等证明文件，自然人参加的提供身份证明
+3.法定代表人授权委托书原件（格式见附件3，法定代表人参加的，无需提供授权委托书），磋商代表本人身份证复印件
+4.供应商信用承诺书（格式见附件4）
+5.磋商响应函（格式见附件5）
+（二）落实政府采购政策需满足的资格要求：
+本项目无落实政府采购政策需满足的资格要求
+（三）本项目的特定资格要求：
+1.未被“信用中国”网站（www.creditchina.gov.cn）列入失信被执行人、重大税收违法案件当事人名单、政府采购严重失信行为记录名单。
+三、获取采购文件
+时间：自磋商文件公告发布之日起5个工作日 
+地点：详见磋商文件 
+方式：详见磋商文件 
+售价：0.00元 
+四、响应文件提交
+截止时间：2025-09-15 09:00 （北京时间）
+地点：详见磋商文件 
+五、开启
+时间：2025-09-15 09:00 （北京时间）
+地点：启东市不见面开标室-1 
+六、公告期限
+自本公告发布之日起3个工作日。
+七、其他补充事宜
+无
+八、凡对本次采购提出询问，请按以下方式联系。
+1.采购人信息
+单位名称：启东市人民医院
+单位地址：启东市汇龙镇江海中路753号启东市人民医院
+联系人：朱先生
+联系电话：0513-83106018
+2.采购代理机构信息（如有）
+单位名称：启东市公共资源交易中心（南通市公共资源交易中心启东分中心）
+单位地址：启东市金桥路199号
+联系人：张女士
+联系电话：0513-83340291
+3.项目联系方式
+项目联系人：张女士
+电话：0513-83340291</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目-招标[采购]公告</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/410000/0201/202509/04/0041ec0fb8a1c48c440283d93192a1a277b6.shtml</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>公告内容文档
 项目概况
-2025年创优赋能建设人工智能创新应用综合实训设备采购项目招标项目的潜在投标人应在天津市津南区双港镇海天南苑13号楼203室获取招标文件，并于2025年09月24日 09点30分（北京时间）前递交投标文件。                                               一、项目基本情况                        项目编号：FSZB-2025-086                        项目名称：2025年创优赋能建设人工智能创新应用综合实训设备采购项目                        预算金额：93.4万元                        最高限价：93.4万元                        采购需求：
-包号                                是否设置最高限价                                预算（万元）                                最高限价（万元）                                采购目录                                采购需求                                                                                                                
-第1包                                                                                                                                                                                                	是                                                                                                                                                                93.4                                                                                                93.4                                                                其他电气设备                                2025年创优赋能建设人工智能创新应用综合实训设备采购项目，详见项目需求书                                                                                 
-合同履行期限：货到：签订合同之日起30天内（特殊情况以合同为准）。安装（施工）完成：货到之日起7个工作日内（特殊情况以合同为准）。                         本项目不接受联合体参与        ，本项目不接受进口产品                         二、申请人的资格要求：                        1.满足《中华人民共和国政府采购法》第二十二条规定；                        2.落实政府采购政策需满足的资格要求：（一）按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，根据开标当日开标时间之前“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）的信息，对列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的投标人，拒绝参与政府采购活动，同时对信用信息查询记录和证据进行打印存档。（二）按照财政部、工业和信息化部关于《政府采购促进中小企业发展管理办法》的通知（财库〔2020〕46号）的规定，本项目是专门面向中小企业采购的项目。（三）根据财政部、司法部关于政府采购支持监狱企业发展有关问题的通知（财库【2014】68号）第二条约定在政府采购活动中，监狱企业视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。（四）根据《财政部民政部中国残疾人联合会关于促进残疾人就业政府采购政策的通知》（财库〔2017〕141号）的规定，残疾人福利性单位视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。注：小微企业以投标人填写的《中小企业声明函》为判定标准，残疾人福利性单位以投标人填写的《残疾人福利性单位声明函》为判定标准，监狱企业须投标人提供由省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具的属于监狱企业的证明文件，否则不予认定。以上政策不重复享受。符合小微企业划分标准的个体工商户，在政府采购活动中视同小微企业。  本项目专门面向中小企业采购；                        3.本项目的特定资格要求：（一）投标人须具备《中华人民共和国政府采购法》第二十二条第一款规定的条件，提供以下材料：1.须具有独立承担民事责任的能力，提供营业执照副本或事业单位法人证书或民办非企业单位登记证书或社会团体法人登记证书或基金会法人登记证书复印件并加盖公章或自然人的身份证明复印件并由本人签字或盖人名章。2.财务状况报告等相关材料：提供2023年度或2024年度经第三方会计师事务所审计的企业财务报告扫描件（应包括完整的审计报告和财务报表）或提供投标截止日期前近3个月内银行出具的资信证明复印件并加盖公章。3.提供2025年至开标截止之日起至少1个月的依法缴纳税收和社会保障资金（专用收据或社会保险缴纳清单等）的相关证明材料复印件并加盖公章。纳税零申报投标人应当按照以下任意一种方式提供相应证明文件：1）税务大厅零申报报表且加盖受理章；2）网络申报截图复印件加盖公章。依法免税或不需要缴纳社会保障资金的投标人，应提供税务机关出具的依法免税的证明文件或社会保险基金管理部门出具的不需要缴纳社会保障资金的证明文件。新成立的投标人按实际的缴纳情况递交相关证明。4.投标截止日前3年在经营活动中没有重大违法记录的书面声明（截至开标日成立不足3年的投标人可提供自成立以来无重大违法记录的书面声明）。注：按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，实际查询结果以采购代理机构于开标当日，开标时间时打印的信用中国、中国政府采购网的查询结果为准。5.本项目专门面向中小企业，须提供中小企业声明函。6.本项目不接受联合体投标，投标人须提供《非联合体投标声明函》。                         三、获取招标文件                        时间：2025年09月03日到 2025年09月10日，每天上午09:00至12:00，下午14:00至17:00（北京时间，法定节假日除外）                        地点：天津市津南区双港镇海天南苑13号楼203室                        方式：（1）现场获取文件：提供营业执照复印件加盖公章获取投标文件：（2）网上获取：提供营业执照复印件加盖公章并注明单位名称、项目名称、项目编号与汇款凭证一起发送至本邮箱：tianjinfusong@163.com；请在汇款备注栏注明：项目编号+单位简称（如需开票请提供开票信息）采购代理机构开户信息1.单位名称：天津福松工程项目管理有限公司2.开户银行：中国农业银行股份有限公司天津东城支行3.银行账号：02071601040010851                        售价：300元                        四、提交投标文件截止时间、开标时间和地点						2025年09月24日 09点30分（北京时间）。                        地点：天津市津南区双港镇海天南苑13号楼201室                        五、公告期限                        自本公告发布之日起5个工作日。                        六、其他补充事宜                                                七、对本次招标提出询问，请按以下方式联系。                        1.采购人信息                          名称：天津市南洋工业学校                          地址：天津市津南区咸水沽镇津沽路700号                          联系方式：022-88918632                        2.采购代理机构信息                          名称：天津福松工程项目管理有限公司                          地址：天津市津南区双港镇海天南苑13号楼203室                          联系方式：022-28219819                        3.项目联系方式                          项目联系人：李小松                          电　话：022-28219819                                                                        其他附件文件下载                                                    项目需求书.docx                                                                        
-天津福松工程项目管理有限公司                              
-2025年09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>厦门公物—公开招标—GW2025-SH597（2025CGZXGKZB0080）—人工智能实验平台—招标公告</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/zygg/qtgg/202509/t20250903_25286591.htm</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>厦门市公物采购招投标有限公司受华侨大学 委托，根据《中华人民共和国政府采购法》等有关规定，现对人工智能实验平台进行其他招标，欢迎合格的供应商前来投标。
-项目名称：人工智能实验平台
-项目编号：GW2025-SH597（2025CGZXGKZB0080）
-项目联系方式：
-项目联系人：黄小姐、杜小姐，咨询时间：法定工作日，上午8:00-12:00、下午14:30-17:30。
-项目联系电话：0592-2229570、2233020
-采购单位联系方式：
-采购单位：华侨大学
-采购单位地址：福建省厦门市集美区集美大道668号
-采购单位联系方式：0592-2229570
-代理机构联系方式：
-代理机构：厦门市公物采购招投标有限公司
-代理机构联系人：黄小姐、杜小姐，0592-2229570、2233020，咨询时间：法定工作日，上午8:00-12:00、下午14:30-17:30。
-代理机构地址： 厦门市湖滨南路81号光大银行大厦10楼
-一、采购项目内容
-一、项目基本情况			
-项目编号：GW2025-SH597（2025CGZXGKZB0080）			
-项目名称：人工智能实验平台			
-采购预算：29.99万元			
-采购需求：人工智能实验平台，1台。			
-服务时间：合同签订后，15个日历日内货到安装调试完毕并通过验收合格、交付使用。			
-二、供应商的资格要求			
-一、法人或者其他组织的营业执照等证明文件，自然人的身份证明；			
-投标人是法人或者其他组织的应提供营业执照等证明文件；投标人是自然人的应提供有效的自然人身份证明。			
-二、财务状况报告，依法缴纳税收和社会保障资金的相关材料；			
-投标人是法人的，应提供上一年度或近期的财务状况报告（至少包含资产负债表、现金流量表、利润分配表）；或提供银行出具的资信证明；或提供专业担保机构出具的投标担保函。			
-依法缴纳税收和社会保障资金的证明材料主要是供应商缴纳相应税收（如增值税、营业税或企业所得税等）的凭据，缴纳社会保险的凭据（专用收据或社会保险缴纳清单）。依法免税或不需要缴纳社会保障资金的供应商，应提供相应文件证明其依法免税或不需要缴纳社会保障资金。			
-三、具备履行合同所必需的设备和专业技术能力的证明材料（可以提供证书、承诺书等）；			
-四、参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明（或者在参加政府采购活动前3年内因违法经营被禁止在一定期限内参加政府采购活动，期限已届满）；			
-五、具备法律、行政法规规定的其他条件的证明材料。			
-六、本项目不接受联合体投标。			
-七、投标人代表若不是法定代表人，则必须提供法定代表人对投标人代表的授权书原件。			
-八、在资格审查时，将通过中国政府采购网（www.ccgp.gov.cn）、“信用中国”网站（www.creditchina.gov.cn）、“信用厦门”网站（www.creditxm.gov.cn）等渠道全面查询投标人截止开标当日前3年内的信用及违法记录。对参加政府采购活动前3年内在经营活动中有重大违法记录的供应商，投标无效（“重大违法记录”指供应商因违法经营受到刑事处罚或者责令停产停业、吊销许可证或者执照、较大数额罚款等行政处罚，例如被列入失信被执行人、重大税收违法失信主体名单、政府采购严重违法失信行为记录名单、“信用厦门”警示警告名单，受到政府采购行政处罚或者存在行贿犯罪记录，且相关信用惩戒期限未满，以及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的。联合体成员存在重大违法记录的，视同联合体存在重大违法记录）。			
-三、获取招标文件			
-一、获取招标文件时间：即日起至2025年9月12日下午17:30时止。			
-二、获取招标文件方式（可通过下列任何一种方式获取）：			
-1、在线报名：先通过公e采电子招标采购服务平台进行相关信息登记、在线支付文件费用，否则其投标（响应）将被拒绝。供应商如未在平台注册，请先按平台要求进行注册，注册免费，注册后可免费在线预览招标（采购）文件的主要内容，对平台操作有疑问的，请联系平台客服电话：400-805-9899。			
-2、现场获取：前往厦门市湖滨南路81号光大银行大厦10楼前台报名并获取纸质招标文件。			
-3、邮寄获取（邮费到付）：邮寄购买的请将购买招标文件的费用汇入此账号：收款单位：厦门市公物采购招投标有限公司，开 户 行：中国农业银行股份有限公司厦门非矿支行，账 号：40343001040010641，并致电0592-2230888获取报名表，填写相关信息后发送至1330885265@qq.com。			
-招标文件售价：50元。			
-采取现场获取或邮寄获取方式获取招标文件，有任何疑问的，请联系：程小姐，电话：0592-2230888，传真：0592-2225703。			
-四、提交投标文件截止时间、开标时间和地点			
-截止时间、开标时间：2025年9月24日09：30			
-开标地点：厦门市湖滨南路81号光大银行大厦10楼开标厅1			
-提交方式：提交纸质投标文件至开标地点。			
-五、公告期限			
-自本公告发布之日起5个工作日。			
-六、其他补充事宜			
-本项目不属于政府采购项目，本公告第一段修改为“厦门市公物采购招投标有限公司受采购单位委托，现对本项目进行公开招标，欢迎合格的供应商前来投标。”			
-七、对本次招标提出询问的联系方式			
-1.采购人信息			
-名称：华侨大学			
-地址：福建省厦门市集美区集美大道668号			
-联系方式： 0592-2229570			
-2.采购代理机构信息			
-名称：厦门市公物采购招投标有限公司			
-地址：厦门市湖滨南路81号光大银行大厦10楼			
-联系方式：0592-2230888			
-3.项目联系方式			
-项目联系人：黄小姐、杜小姐			
-电话：0592-2229570、2233020			
-咨询时间：法定工作日，上午8:00-12:00、下午14:30-17:30。			
-二、开标时间：2025年09月24日 09:30
-三、其它补充事宜
-/
-四、预算金额：
-预算金额：29.990000 万元（人民币）</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2025年人工智能大模型实验室设备采购项目招标公告</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25285697.htm</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>项目概况   
-2025年人工智能大模型实验室设备采购项目招标项目的潜在投标人应在广东省政府采购网https://gdgpo.czt.gd.gov.cn/获取招标文件，并于 2025年09月24日 09时30分 （北京时间）前递交投标文件。  
-一、项目基本情况 
-项目编号：ZSCC-025-JZG-0047 
-项目名称：2025年人工智能大模型实验室设备采购项目 
-采购方式：公开招标 
-预算金额：2,340,641.00元 
+开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目招标项目的潜在投标人应在开封市公共资源交易信息网获取招标文件，并于2025年09月25日09时30分（北京时间）前递交投标文件。
+一、项目基本情况
+1、项目编号：尉财公开采购2025-22
+2、项目名称：开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目
+3、采购方式：公开招标
+4、预算金额：997,700.00元
+最高限价：997700元
+序号
+包号
+包名称
+包预算（元）
+包最高限价（元）
+是否专门面向中小企业
+采购预留金额（元）
+1
+尉财公开采购2025-22-1
+开封市生态环境局尉氏分局G240路段固定垂直式遥感监测设备采购项目
+997700
+997700
+是
+997700
+5、采购需求（包括但不限于标的的名称、数量、简要技术需求或服务要求等）
+5.1.采购内容：采购G240路段固定垂直式遥感监测设备主机（详见招标文件采购清单内容）
+6、合同履行期限：同交货期
+7、本项目是否接受联合体投标：否
+8、是否接受进口产品：否
+9、是否专门面向中小企业：是
+二、申请人资格要求：
+1、满足《中华人民共和国政府采购法》第二十二条规定；
+2、落实政府采购政策满足的资格要求：
+本项目执行节能环保、中小微企业、监狱企业、残疾人福利性单位等相关政府采购政策。
+3、本项目的特定资格要求
+3.1、具有独立承担民事责任的能力；（提供合法有效的营业执照、税务登记证、组织机构代码证，三证合一只需营业执照即可。）；
+三、获取招标文件
+1.时间：2025年09月05日 至 2025年09月24日，每天上午00:00至12:00，下午12:00至23:59（北京时间，法定节假日除外。）
+2.地点：开封市公共资源交易信息网
+3.方式：供应商应注册成为开封市公共资源交易中心网站会员并取得 CA钥,凭CA密钥登录开封市公共资源交易网（http://www.kfsggzyjyw.cn/kfggzy/）会员系统，按要求下载电子招标文件。供应商未按规定下载电子招标文件的，其投标将被拒绝。潜在供应商、供应商可打开开封市公共资源交易中心网站（http://www.kfsggzyjyw.cn）首页“流程公开”里查询招标文件。
+4.售价：0元
+四、投标截止时间及地点
+1.时间：2025年09月25日09时30分（北京时间）
+2.地点：加密电子响应文件须在投标截止时间前在开封市公共资源交易信息网站（http://www.kfsggzyjyw.cn/kfggzy/）会员系统中加密上传。
+五、开标时间及地点
+1.时间：2025年09月25日09时30分（北京时间）
+2.地点：尉氏县公共资源交易中心开标室（尉氏县市民之家6楼）。
+六、发布公告的媒介及招标公告期限
+本次招标公告在《河南省政府采购网》、《开封市公共资源交易信息网》上发布，
+招标公告期限为五个工作日
+。
+七、其他补充事宜
+1、本项目采用“远程不见面”开标方式，供应商无需到现场提交原件资料、无需到尉氏县公共资源交易中心现场参加开标会议；供应商应当在开标时间前,登录远程开标大厅,在线准时参加开标活动并进行响应文件解密、答疑澄清等，系统解密时长默认为40分钟，错过解密时长者视为自动放弃本次投标。
+八、凡对本次招标提出询问，请按照以下方式联系
+1. 采购人信息
+名称：开封市生态环境局尉氏分局
+地址：尉氏县西关中路
+联系人：刘先生
+联系方式：0371-27960261
+2.采购代理机构信息（如有）
+名称：河南铭巨工程管理咨询有限公司
+地址：河南省开封市顺河回族区铁塔街道北门大街314号303室
+联系人：陈女士
+联系方式：0371-22356792
+3.项目联系方式
+项目联系人：陈女士
+联系方式：0371-22356792
+附件下载：公开招标公告.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>青海茫丰项目管理有限公司关于智慧茫崖平台遥感数据支撑项目的竞争性磋商公告</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>青海省公共资源交易网</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/630000/0201/202509/04/00636631f243e704430ab028a279012d1e4c.shtml</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>智慧茫崖平台遥感数据支撑项目公开招标公告 
+&amp;nbsp&amp;nbsp受 茫崖市自然资源和林业草原局委托，拟对智慧茫崖平台遥感数据支撑项目进行国内 竞争性磋商，现予以公告，欢迎符合条件的供应商前来参加投标。
+采购项目编号
+青海茫丰竞磋（服务）2025-001
+采购项目名称
+智慧茫崖平台遥感数据支撑项目
+采购方式
+竞争性磋商
+采购预算控制额度
+750000.00元
+项目分包个数
+1
+各包要求
+具体内容详见《招标文件》
+各包供应商资格条件
+1、符合《中华人民共和国政府采购法》第二十二条要求;
+公告发布时间
+2025-09-04
+招标文件发布起止时间
+2025-09-04 至 2025-09-11
+招标文件发售方式
+供应商登录政采云平台https://www.zcygov.cn/在线申请获取采购文件（进入“项目采购”应用，在获取采购文件菜单中选择项目，申请获取采购文件）
+招标文件售价
+0.0元
+招标文件发售地点
+政采云平台线上获取
+购买招标文件时应提供材料
+无
+投标截止时间
+2025-09-16 09:30
+开标时间
+2025-09-16 09:30
+投标及开标地点
+青海省西宁市城北区海西路9号公馆西区28-211号（青海茫丰项目管理有限公司）
+采购单位及联系人电话
+采购单位：茫崖市自然资源和林业草原局
+采购代理机构及联系人电话
+采购代理机构：青海茫丰项目管理有限公司
+采购代理机构开户银行
+收款人
+青海茫丰项目管理有限公司
+银行账号
+其他事项
+本公告在《中国采购与招标网》、《青海省电子招标投标公共服务平台》、
+同时发布。
+财政部门监督电话 
+单位名称：空
+青海茫丰项目管理有限公司
+2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>数字古田智慧城市能力提升项目（应急广播体系建设工程）二次招标</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>宁德市公共资源交易中心</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/350000/0101/202509/04/00355a4c9be243554787ac2c0433cd1dd7e2.shtml</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>招标公告（适用于公开招标）
+本招标项目数字古田智慧城市能力提升项目（应急广播体系建设工程）二次招标已由古田县发展和改革局以古发改审批(2025)68号批准建设，项目业主为古田县城市建设投资开发有限公司，建设资金来自专项债资金，招标人为古田县城市建设投资开发有限公司，委托的招标代理单位为福建省鸿远招标有限公司。本项目已具备招标条件，现对该项目进行公开招标。
+1.招标编号：E3509220902100316002。
+2.招标内容详细数量及主要技术规格等，详见“附件1-1”。
+3.招标文件获取
+3.1招标文件发售时间： 本招标公告发布之日起至 投标截止时间前每日00:00至23:59，登录宁德市公共资源电子交易平台（公共资源电子交易平台，网址：http://ggzyjy.xgw.ningde.gov.cn/，以下简称电子交易平台）下载电子招标文件。
+4.评标办法
+本招标项目采用的评标办法：?综合评估法？ □经评审的最低投标价中标法。
+5.投标人的资格要求：
+5.1凡具备本招标文件所述项目实施能力的法人或其他组织均可能成为合格的投标人。
+5.2信用信息查询结果：通过“信用中国”网站（www.creditchina.gov.cn)查询并打印投标人信用记录。（查询结果存在投标人应当被拒绝参加招标活动相关信息的，其资格性审查不合格）。
+5.3投标人须提供参加本次招标活动前三年内在经营活动中没有重大违法记录、也无行贿犯罪记录书面声明。
+5.4是否接受联合体形式的响应投标：?不接受□接受。
+5.5类似项目业绩要求：本项目资格无业绩要求。
+5.6其他资格条件：无。
+根据上述资格要求，投标人投标文件中应提交的“资格证明文件”相关规定和资料要求，详见第二章投标须知和第六章投标文件格式。
+6.投标保证金的提交
+6.1.投标保证金提交截止时间：投标截止时间前。
+6.2.投标保证金提交的金额：100000元。
+6.3.投标保证金提交的方式：详见“招标文件”
+7.投标文件的递交
+7.1投标文件递交的截止时间（投标截止时间，下同）2025年9月30日 09:00，投标人应在截止时间前通过宁德市公共资源电子交易平台（网址：http://ggzyjy.xgw.ningde.gov.cn/）（电子交易平台）递交电子投标文件。
+7.2逾期送达的投标文件，电子交易平台将予以拒收。
+8.开标时间、地点
+8.1开标时间：2025年9月30日 09:00。
+8.2开标地点：宁德市公共资源网上交易系统（http://ggzyjy.xgw.ningde.gov.cn/），同时在古田县公共资源交易中心（古田县城东街道食用菌基地40号1楼）设立开标现场。
+9.发布公告的媒介
+本次招标公告同时在福建省公共资源交易电子公共服务平台(ggzyfw.fujian.gov.cn)、宁德市公共资源电子交易平台（网址：http://ggzyjy.xgw.ningde.gov.cn/）上发布。
+10.招标人联系方式
+招标人：古田县城市建设投资开发有限公司
+联系人：余先生 
+电子邮箱：/？ 
+传？ 真：/ 
+电？ 话：0593-3668069
+地？ 址：福建省古田县建设路37号3-4层
+11.招标代理机构联系方式
+招标代理机构：福建省鸿远招标有限公司
+地？ 址：宁德市蕉城区蕉城南路40号锦绣名苑1幢1907室
+电子邮箱：fjshyzb@163.com
+电？ 话：0593-2916316
+传？ 真：/
+12.电子交易平台联系方式
+电子交易平台名称：宁德市公共资源电子交易平台
+网？ 址：http://ggzyjy.xgw.ningde.gov.cn/
+联系电话：4009980000、0593-2250236
+13.招标项目监督部门联系方式
+招标项目监督部门：古田县发展和改革局
+地址：古田县城东街道解放路169号
+联系电话：0593-3882030
+附件1-1：招标项目一览表
+金额单位：人民币元
+招标项目名称
+数字古田智慧城市能力提升项目(应急广播体系建设工程)二次招标
+合同包
+品目号
+招标标的
+数量
+品目号预算（元）
+合同包预算（元）
+投标保证金（元）
+1
+1-1
+数字古田智慧城市能力提升项目(应急广播体系建设工程)二次招标
+1
+6547271
+6547271
+100000
+项目完成时间： 详见招标文件第4章“招标内容及要求”。
+项目实施地点：福建省古田县（招标人指定地点）。
+运行维护、技术支持和保修服务要求：详见招标文件第4章招标内容及要求。
+报价要求：本项目最高投标限价为6547271元。投标人报价超过合同包预算金额（或最高投标限价）的投标报价视为无效报价,其投标将被否决。本工程按照相关法律法规进行竣工验收和结（决）算，合同最终结算价以第三方结算审核的价格为准。详见招标文件第4章“招标内容及要求”。　
+履约保证金：□无要求   ?现金   ?保函   □其他：               。
+备注： 投标人的报价不得超过本表中对应的合同包预算，否则其投标将被否决。
+function RefreshTimeStatus() {  $.post("", { "BiaoDuanGuid": "d66def63-e8ef-4ea5-9491-c38cdc7f8315" }, function (data, status) {  if (status == "success") {         if (data == "") {document.getElementById("tagABC").style.display = "none";document.getElementById("tagBBC").style.display = "";            }        else  { document.getElementById("tagABC").style.display = "";document.getElementById("tagBBC").style.display = "none";document.getElementById("tagABC").href += data;            } } else {   alert("获取时间出错，请联系管理人员！");}})}function ShowA(){  RefreshTimeStatus();var date = new Date();  if (date &lt;= XiaZaiDate &amp;&amp; date&gt;=XiaZaiKSDate){document.getElementById("tagB").style.display = "none";}else{document.getElementById("tagA").style.display = "none"; }}window.onload = ShowA();function Check() {var date = new Date(); if (date &lt;= XiaZaiDate){document.getElementById("tagA").style.display = "";document.getElementById("tagB").style.display = "none";window.open("?BiaoDuanGuid=d66def63-e8ef-4ea5-9491-c38cdc7f8315")}else{document.getElementById("tagA").style.display = "none";document.getElementById("tagA").href = "#";document.getElementById("tagB").style.display = "";MyAlert("招标文件已过下载时间");return false; }}var bl = 0;var bl2 = 0;function MyAlert(txt) {var shield = document.createElement("DIV");var t = bl;var aa = "shield" + bl;shield.id = aa;shield.style.position = "absolute";shield.style.left = "0px";shield.style.top = "0px";shield.style.width = "100%";shield.style.height = document.body.scrollHeight + 1000 + "px";shield.style.background = "Black";shield.style.textAlign = "center";shield.style.zIndex = "10000";shield.style.filter = "alpha(opacity=0)";var alertFram = document.createElement("DIV");var bb = "alertFram" + bl;alertFram.id = bb;alertFram.style.position = "absolute";alertFram.style.left = "50%";alertFram.style.top = "40%";alertFram.style.marginLeft = "-225px";alertFram.style.marginTop = "-75px";alertFram.style.width = "500px";alertFram.style.height = "150px";alertFram.style.background = "#ccc";alertFram.style.textAlign = "center";alertFram.style.lineHeight = "150px";alertFram.style.zIndex = "10001";strHtml = "&lt;ul style=\"list-style:none;margin:0px;padding:0px;width:100%\"&gt;\n";strHtml += " &lt;li style=\"background:#1C60A9;text-align:left;padding-left:20px;font-size:14px;font-weight:bold;height:25px;line-height:25px;border:1px solid #F9CADE;\"&gt;[系统提示]&lt;/li&gt;\n";strHtml += " &lt;li style=\"background:#fff;text-align:center;font-size:24px;height:45px;line-height:45px;border-left:1px solid #F9CADE;border-right:1px solid #F9CADE;\"&gt;&lt;/li&gt;\n";strHtml += " &lt;li style=\"background:#fff;text-align:center;font-size:23px;height:30px;line-height:30px;border-left:1px solid #F9CADE;border-right:1px solid #F9CADE;\"&gt;" + txt + "&lt;/li&gt;\n";strHtml += " &lt;li style=\"background:#fff;text-align:center;font-size:24px;height:45px;line-height:45px;border-left:1px solid #F9CADE;border-right:1px solid #F9CADE;\"&gt;&lt;/li&gt;\n";strHtml += " &lt;li style=\"background:#9EC7E5;text-align:center;font-weight:bold;height:40px;line-height:40px; border:1px solid #F9CADE;\"&gt;&lt;input style=\"width:120px;height:36px;font-size:20px\" type=\"button\" value=\"确  定\" onclick=\"doOk(" + t + ")\" /&gt;&lt;/li&gt;\n";strHtml += "&lt;/ul&gt;\n";alertFram.innerHTML = strHtml;document.body.appendChild(alertFram);document.body.appendChild(shield);var c = 0;this.doAlpha = function () {    if (c++ &gt; 20) { clearInterval(ad); return 0; }    shield.style.filter = "alpha(opacity=" + c + ");";};var ad = setInterval("doAlpha()", 5);this.doOk = function (s) {    document.body.removeChild(document.getElementById("shield" + s));    document.body.removeChild(document.getElementById("alertFram" + s));};bl = bl + 1;alertFram.focus();document.body.onselectstart = function () { return false; };}</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)的公开招标公告</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>上海政府采购网</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/310000/0201/202509/04/003110b8688205ce4076bced40e810877a39.shtml</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>项目概况  
+上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期) 招标项目的潜在投标人应在上海市政府采购网获取招标文件，并于2025年09月25日 10:30（北京时间）前递交投标文件。  
+一、项目基本情况  
+项目编号：310110000250728125502-10261656 
+项目名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)
+预算编号： 1025-000170819, 1025-K00002606  
+预算金额（元）： 27325000元（国库资金：27325000元；自筹资金：0元） 
+最高限价（元）： 包1-27325000.00元  
 采购需求： 
-采购包1(2025年人工智能大模型实验室设备采购): 
-采购包预算金额：2,340,641.00元 
-品目号 品目名称 采购标的 数量（单位） 技术规格、参数及要求 品目预算(元) 最高限价(元)  
-1-1 其他计算机 高性能GPU2 20(张) 详见采购文件   1,082,900.00    -   
-1-2 其他计算机 大模型训练服务器 1(台) 详见采购文件   59,940.00    -   
-1-3 其他计算机 大模型推理服务器 5(台) 详见采购文件   164,835.00    -   
-1-4 其他计算机 高性能GPU1 4(张) 详见采购文件   759,240.00    -   
-1-5 其他计算机 边缘终端套件 50(台) 详见采购文件   149,850.00    -   
-1-6 其他计算机 144T容量分布式存储设备 1(套) 详见采购文件   123,876.00    -   
-本采购包不接受联合体投标  
-合同履行期限：按采购需求对应货物的质保期，自验收合格之日起开始计算  
-二、申请人的资格要求：  
-1.投标供应商应具备《中华人民共和国政府采购法》第二十二条规定的条件，提供下列材料： 
-1）具有独立承担民事责任的能力：在中华人民共和国境内注册的法人或其他组织或自然人，投标（响应）时提交有效的营业执照（或事业法人登记证或身份证等相关证明）副本复印件。分支机构投标的，须提供总公司和分公司营业执照副本复印件，总公司出具给分支机构的授权书。 
-2）有依法缴纳税收和社会保障资金的良好记录：按招标公告附件格式提供《政府采购供应商资格信用承诺函》。 
-3）具有良好的商业信誉和健全的财务会计制度：按招标公告附件格式提供《政府采购供应商资格信用承诺函》。 
-4）履行合同所必需的设备和专业技术能力：提供承诺函（格式自拟，其中承诺内容包括但不限于：“我方具有履行本项目合同所必需的设备及专业技术能力。”）或提供《设备和专业技术能力情况表》（格式自拟）。 
-5）参加采购活动前3年内，在经营活动中没有重大违法记录：按招标公告附件格式提供《政府采购供应商资格信用承诺函》。重大违法记录，是指供应商因违法经营受到刑事处罚或者责令停产停业、吊销许可证或者执照、较大数额罚款等行政处罚。（根据财库〔2022〕3号文，“较大数额罚款”认定为200万元以上的罚款，法律、行政法规以及国务院有关部门明确规定相关领域“较大数额罚款”标准高于200万元的，从其规定） 
-2.落实政府采购政策需满足的资格要求： 
-采购包1(2025年人工智能大模型实验室设备采购)落实政府采购政策需满足的资格要求如下: 
-本项目不专门面向中小企业采购。 
-3.本项目的特定资格要求：
-采购包1(2025年人工智能大模型实验室设备采购)特定资格要求如下: 
-(1)供应商未被列入“信用中国”网站(www.creditchina.gov.cn)“记录失信被执行人或重大税收违法案件当事人名单或政府采购严重违法失信行为”记录名单；不处于中国政府采购网(www.ccgp.gov.cn)“政府采购严重违法失信行为信息记录”中的禁止参加政府采购活动期间。（以资格审查人员于投标（响应）截止时间当天在“信用中国”网站（www.creditchina.gov.cn）及中国政府采购网（http://www.ccgp.gov.cn/）查询结果为准，如相关失信记录已失效，供应商需提供相关证明资料）。 
-(2)单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得同时参加本采购项目（或采购包）投标（响应）。为本项目提供整体设计、规范编制或者项目管理、监理、检测等服务的供应商，不得再参与本项目投标（响应）。投标（报价）函相关承诺要求内容。 
+包名称：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)  
+数量：2  
+预算金额（元）：27325000.00  
+简要规格描述或项目基本概况介绍、用途：上海市杨浦区数据局杨浦区智慧城市基础设施运维维护(一期)，需保证杨浦区智慧城市基础设施系统业务运行稳定、数据安全准确，业务运维与技术运维紧密结合。需建设完善的运维体系，从标准化、规范化入手，需保障系统稳定、安全、高效运行。  
+合同履约期限： 合同签订后一年 
+本项目（ 否 ）接受联合体投标。 
+二、申请人的资格要求：
+1.满足《中华人民共和国政府采购法》第二十二条规定； 
+2.落实政府采购政策需满足的资格要求：本采购项目执行政府采购有关鼓励支持节能产品、环境认证产品、支持中小企业、残疾人福利性单位、监狱企业等的政策规定。 
+3.本项目的特定资格要求： 1、符合《中华人民共和国政府采购法》第二十二条的规定
 三、获取招标文件 
-时间： 2025年09月03日 至 2025年09月10日 ，每天上午 00:00:00 至 12:00:00 ，下午 12:00:00 至 23:59:59 （北京时间,法定节假日除外） 
-地点：广东省政府采购网https://gdgpo.czt.gd.gov.cn/ 
-方式：在线获取 
-售价： 免费获取  
+时间：2025年09月05日至2025年09月14日，每天上午00:00:00-12:00:00，下午12:00:00-23:59:59（北京时间，法定节假日除外） 
+地点：上海市政府采购网 
+方式： 网上获取  
+售价（元）： 0  
 四、提交投标文件截止时间、开标时间和地点 
-2025年09月24日 09时30分00秒 （北京时间） 
-递交文件地点：在投标文件提交截止时间前，投标人须将电子投标文件成功完整上传到云平台项目采购系统，且取得投标回执。时间以云平台项目采购系统服务器从中国科学院国家授时中心取得的北京时间为准，投标截止时间结束后，系统将不允许投标人上传投标文件，已上传投标文件但未完成传输的文件系统将拒绝接收。  
-开标地点：本项目为远程电子开标，供应商在投标截止时间前30分钟，应当登录云平台开标大厅进行签到，并且填写授权代表的姓名与手机号码。若因签到时填写的授权代表信息有误而导致的不良后果，由供应商自行承担。 
+提交投标文件截止时间：2025年09月25日 10:30（北京时间） 
+投标地点：上海政府采购网（www.zfcg.sh.gov.cn） 
+开标时间： 2025年09月25日 10:30  
+开标地点：上海政府采购网（www.zfcg.sh.gov.cn） 
 五、公告期限 
 自本公告发布之日起5个工作日。 
 六、其他补充事宜 
-1.本项目采用电子系统进行招投标，请在投标前详细阅读供应商操作手册，手册获取网址：https://gdgpo.czt.gd.gov.cn/help/transaction/download.html。投标供应商在使用过程中遇到涉及系统使用的问题，可通过020-88696588 进行咨询或通过广东政府采购智慧云平台运维服务说明中提供的其他服务方式获取帮助。 
-2.供应商参加本项目投标，需要提前办理CA和电子签章，办理方式和注意事项详见供应商操作手册与CA办理指南，指南获取地址：https://gdgpo.czt.gd.gov.cn/help/problem/。 
-3.如需缴纳保证金，供应商可通过"广东政府采购智慧云平台金融服务中心"(http://gdgpo.czt.gd.gov.cn/zcdservice/zcd/guangdong/)，申请办理投标（响应）担保函、保险（保证）保函。 
-4.需要落实的政府采购政策：《政府采购促进中小企业发展管理办法》（财库﹝2020﹞46号）、《关于政府采购支持监狱企业发展有关问题的通知》(财库〔2014〕68号)、《关于促进残疾人就业政府采购政策的通知》（财库〔2017〕141号)、《财政部发展改革委生态环境部市场监管总局关于调整优化节能产品环境标志产品政府采购执行机制的通知》（财库[2019]9号）、《中山市财政局中山市金融工作局中国人民银行中山市中心支行关于开展中山市政府采购合同融资工作的通知》【供应商在中标（成交）后需要融资时可以申请政府采购合同融资，具体指引条款请查看https://gdgpo.czt.gd.gov.cn/freecms/site/guangdong/tzggzlm/info/2021/5738699.html】。 
-5.重要提示（建议供应商按提示要求进行准备，避免影响正常报价或投标）: 
-(1)在云平台进行在线签到及在线解密，供应商不需要委派代表前往开标现场。远程开标操作指南（供应商版）：https://gdgpo.czt.gd.gov.cn/help/transaction/gongyinshan.html。 
-(2)供应商的法定代表人或其授权代表在投标文件截止时间前30分钟，登录云平台开标大厅进行签到，并且填写授权代表的姓名与手机号码。若因签到时填写的授权代表信息有误而导致的不良后果，由供应商自行承担。有提供演示的供应商须到现场进行演示（详见采购需求书的相关要求）。 
-(3)开启时，供应商应当使用编制本项目（采购包）电子投标文件时加密所用数字证书在开始解密后按照采购代理机构规定的时间内完成电子投标文件的解密。 
-(4)供应商在参加开启以前须自行对使用电脑的网络环境、驱动安装、客户端安装以及数字证书的有效性等进行检测，确保可以正常使用。 
-(5)纸质投标文件的递交补充要求：招标完成后各投标人须按采购代理机构要求提供纸质投标文件供采购人及采购代理机构存档使用。 
-七、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
-名  称：电子科技大学中山学院 
-地  址：中山市石岐区学院路1号 
-联系方式：0760-88362837 
+根据上海市财政局《关于上海市政府采购云平台第三批单位上线运行的通知》的规定，本项目采购相关活动在由市财政局建设和维护的上海市政府采购云平台（简称：采购云平台，门户网站：上海政府采购网，网址：www.zfcg.sh.gov.cn）进行。供应商应根据《上海市电子政府采购管理暂行办法》等有关规定和要求执行。供应商在采购云平台的有关操作方法可以参照采购云平台中的“操作须知”专栏的有关内容和操作要求办理。
+七、对本次采购提出询问，请按以下方式联系 
+1.采购人信息 
+名 称：上海市杨浦区数据局（上海市杨浦区信息化委员会、上海市杨浦区政务服务办公室）
+地 址：惠民路800号 
+联系方式：021-25031260、1896450597 
 2.采购代理机构信息 
-名  称：中山市翠城工程管理有限公司 
-地  址：广东省中山市火炬开发区中山六路60号传盛东方名都11卡 
-联系方式：0760-89896168、415722310@qq.com 
-3.项目联系方式  
-项目联系人：贺工、陈工 
-电  话：0760-89896168、415722310@qq.com 
-中山市翠城工程管理有限公司 
-2025年09月03日
-相关附件： 
-2025年人工智能大模型实验室设备采购项目招标文件（2025090201）.zip   附件1.政府采购供应商资格信用承诺函.docx   047招标代理委托合同.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>河北软件职业技术学院人工智能训练师培训平台采购项目废标公告</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/qtgg/202509/t20250903_25283004.htm</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>一、项目基本情况    
-采购项目编号：BDJL-2025047    
-采购项目名称：人工智能训练师培训平台    
-二、项目终止的原因    
-符合专业条件的供应商或者对招标文件作实质响应的供应商不足三家的    
-三、其他补充事宜    
-本公告发布媒体：中国河北政府采购网、河北省公共资源交易服务平台、河北软件职业技术学院官网。    
-四、凡对本次公告内容提出询问，请按以下方式联系。    
-1.采购人信息    
-名    称：河北软件职业技术学院    
-地    址：保定市东风东路999号    
-联系方式：0312-5971345    
-2.采购代理机构信息（如有）    
-名    称：保定金路投资咨询服务有限公司    
-地    址：保定市东风中路158号5楼    
-联系方式：0312-5362524    
-3.项目联系方式    
-项目联系人：赵红俭    
-电      话：0312-5362524    
-五、附件</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>西北民族大学人工智能与大数据研究平台设备更新（一期）项目公开招标公告</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/zygg/gkzb/202509/t20250903_25282521.htm</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>项目概况         西北民族大学人工智能与大数据研究平台设备更新（一期）项目 招标项目的潜在投标人应在详见招标公告社会公众可通过甘肃省公共资源交易网免费下载或查阅招标文件。拟参与甘肃省公共资源交易活动的潜在投标人需先在甘肃省公共资源交易网上注册，获取“用户名+密码+验证码”，以软认证方式登录；也可以用数字证书（CA）方式登录。这两种方式均可进行“我要投标”等后续工作。获取招标文件，并于2025年09月24日 11点00分（北京时间）前递交投标文件。                  
-一、项目基本情况        
-项目编号：TXZB-JK-2025-01656        
-项目名称：西北民族大学人工智能与大数据研究平台设备更新（一期）项目        
-预算金额：270.000000 万元（人民币）                
-最高限价（如有）：270.000000 万元（人民币）                
-采购需求：
-采购并安装调试模块化数据中心、动力配电制冷系统、动环监控平台、低压配电及安防系统、显示及安装调测系统、机房基础环境改造等,具体参数详见附件。        
-合同履行期限：以合同签订为准         
-本项目( 不接受   )联合体投标。        
-二、申请人的资格要求：        
-1.满足《中华人民共和国政府采购法》第二十二条规定；        
-2.落实政府采购政策需满足的资格要求：
-无        
-3.本项目的特定资格要求：（1）营业执照：投标人有效的营业执照，或事业单位法人证书，或自然人身份证明，或其他非企业组织证明独立承担民事责任能力的文件。（原件彩色扫描件）（2）财务状况：投标人提供投标截止日前18个月内经第三方审计的财务报告原件彩色扫描件，或财政部门认可的政府采购专业担保机构出具的投标担保函原件彩色扫描件，或银行出具的资信证明原件彩色扫描件。（以出报告日期为准）（3）纳税证明：投标人需提供投标截止日前缴纳的6个月内任意一个月的增值税或企业所得税的凭据，依法免税的投标人，应提供相应的证明文件。（原件彩色扫描件）（4）社保缴纳证明：社会保障资金缴纳记录（投标人逐月缴纳社会保障资金的，须提供投标截止日前6个月内至少一个月的缴纳社会保障资金的入账票据凭证原件彩色扫描件，投标人逐年缴纳社会保障资金的，须提供投标截止日前上年度缴纳社会保障资金的入账票据凭证原件彩色扫描件）（5）无重大违法记录声明：参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明（原件彩色扫描件）。（截至开标日成立不足3年的供应商可提供自成立以来无重大违法记录的书面声明）。（6）法定代表人身份证明或法定代表人授权书：法定代表人身份证明（原件彩色扫描件）或法定代表人授权书（原件彩色扫描件）（7）信用记录：供应商未被列入“信用中国”网站(www.creditchina.gov.cn)记录失信被执行人或重大税收违法失信主体名单；不处于中国政府采购网(www.ccgp.gov.cn)政府采购严重违法失信行为记录名单中的禁止参加政府采购活动期间的方可参加本项目的投标。投标日当天，由资格审查小组根据以上要求对各供应商信用记录进行查询，有以上行为的视为无效响应。（供应商无需在其资格证明文件中提供信用记录的查询结果）（8）声明函：提供具有履行合同所必需的设备和专业技术能力，提供声明函(加盖供应商公章)。（9）承诺书：单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一标段投标或未划分标段的同一政府采购活动招标项目（供应商提供相关承诺，格式自拟）。（10）非联合体承诺书：本项目不接受联合体投标（供应商提供承诺）。        
-三、获取招标文件        
-时间：2025年09月04日         至 2025年09月11日，每天上午8:00至14:00，下午12:00至21:00。（北京时间，法定节假日除外）        
-地点：详见招标公告社会公众可通过甘肃省公共资源交易网免费下载或查阅招标文件。拟参与甘肃省公共资源交易活动的潜在投标人需先在甘肃省公共资源交易网上注册，获取“用户名+密码+验证码”，以软认证方式登录；也可以用数字证书（CA）方式登录。这两种方式均可进行“我要投标”等后续工作。        
-方式：详见招标公告社会公众可通过甘肃省公共资源交易网免费下载或查阅招标文件。拟参与甘肃省公共资源交易活动的潜在投标人需先在甘肃省公共资源交易网上注册，获取“用户名+密码+验证码”，以软认证方式登录；也可以用数字证书（CA）方式登录。这两种方式均可进行“我要投标”等后续工作。        
-售价：￥0.0  元，本公告包含的招标文件售价总和        
-四、提交投标文件截止时间、开标时间和地点        
-提交投标文件截止时间：2025年09月24日 11点00分（北京时间）        
-开标时间：2025年09月24日 11点00分（北京时间）        
-地点：甘肃省公共资源交易中心网络开标直播二厅第八坐席        
-五、公告期限        
-自本公告发布之日起5个工作日。        
-六、其他补充事宜        
-无        
-七、对本次招标提出询问，请按以下方式联系。        
-1.采购人信息        
-名 称：西北民族大学　　　　　        
-地址：兰州市西北新村1号　　　　　　　　        
-联系方式：田斐予 0931-2938080　　　　　　                
-2.采购代理机构信息        
-名 称：甘肃省通信产业服务有限公司　　　　　　　　　　　　        
-地　址：兰州市平凉路366号中国通信服务甘肃大厦18楼　　　　　　　　　　　　        
-联系方式：胡昕 15339316899　　　　　　　　　　　　        
-3.项目联系方式        
-项目联系人：胡昕        
-电　话：　　15339316899</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院新型基础测绘与实景三维建设竞争性磋商公告</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxcs/202509/t20250903_25284962.htm</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院新型基础测绘与实景三维建设竞争性磋商公告		
-发布日期：2025-09-03 16:48｜发布单位：武汉渤正项目管理有限公司｜文件递交截止时间：2025-09-16｜项目监管地：省本级|阅读次数：	
-【项目概况】
-新型基础测绘与实景三维建设采购项目的潜在供应商应在湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。获取采购文件，并于2025年09月16日10点00分（北京时间）前提交响应文件。
-一、项目基本情况	
-1、项目编号：WHBZC-2025-143		
-2、采购计划备案号：420000-2025-07675		
-3、项目名称：新型基础测绘与实景三维建设		
-4、采购方式：竞争性磋商		
-5、预算金额：50.000000(万元)	
-6、最高限价：50.000000(万元)	
-7、采购需求：	
-详见竞争性磋商文件第三章		
-8、合同履行期限：合同签订之日起至2025年12月05日前完成	
-9、本项目（是/否）接受联合体投标：否  			
-10、是否可采购进口产品：否           
-11、本项目（是/否）接受合同分包：否          
-12、本项目（是/否）专门面向中小微企业：是 	      
-13、面向中小微企业的类型为：小微企业	    	
-二、申请人的资格要求	
-1、满足《中华人民共和国政府采购法》第二十二条规定，即：	
-（1）具有独立承担民事责任的能力；	
-（2）具有良好的商业信誉和健全的财务会计制度；	
-（3）具有履行合同所必需的设备和专业技术能力；	
-（4）有依法缴纳税收和社会保障资金的良好记录；	
-（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录；	
-（6）法律、行政法规规定的其他条件。		
-2、单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加本项目同一合同项下的政府采购活动。	
-3、为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得再参加本项目的其他招标采购活动。	
-4、未被列入失信被执行人、重大税收违法失信主体，未被列入政府采购严重违法失信行为记录名单。	
-5、落实政府采购政策需满足的资格要求：	
-本采购项目是专门面向中小企业采购项目，供应商应为符合《政府采购促进中小企业发展管理办法》（财库【2020】46号）规定的中小企业，并按管理办法附件格式提供中小企业声明函。		
-6、本项目的特定资格要求：	
-（1）供应商须具备测绘行政主管部门颁发的乙级及以上测绘资质；（2）本项目不接受联合体投标；（3）本项目不接受合同分包。		
-三、获取采购文件	
-1、时间：2025年09月04日至2025年09月10日，每天00:00至12:00，12:00至24:00（北京时间，法定节假日除外）			
-2、地点：湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。	
-3、方式：	
-供应商在布络供应商客户端选择已经发布公告的项目进行报名并下载招标文件			
-4、售价：0(元)	
-四、响应文件提交	
-1、开始时间：2025年09月04日00点00分（北京时间）		
-2、截止时间：2025年09月16日10点00分（北京时间）		
-3、地点：通过布络供应商客户端选择项目分包进入文件递交页面进行递交	
-五、开启	
-1、时间：2025年09月16日10点00分（北京时间）		
-2、地点：布络湖北政府采购电子交易系统		
-六、公告期限	
-自本公告发布之日起3个工作日。	
-七、其他补充事宜	
-1.以上所称供应商投标系统是与湖北省政府采购电子交易数据汇聚平台完成对接的供应商投标系统。2.供应商在湖北省政府采购电子交易数据汇聚平台（https://czt.hubei.gov.cn/zchj/user）完成注册并办理 CA后方可下载本项目采购文件，操作指南下载地址：https://czt.hubei.gov.cn/zchj/zIndex/details供应商获取文件及CA办理等相关事宜详见供应商操作指南(https://hbzc.bossbolo.com/help/index.html)		
-八、凡对本次采购提出询问，请按以下方式联系	
-1、采购人信息	
-名   称：湖北省航测遥感院		
-地   址：武汉市洪山区民族大道39号湖北测绘大厦		
-联系方式：027-87850867		
-2、采购代理机构信息	
-名   称：武汉渤正项目管理有限公司		
-地   址：武汉市国家农业科技园创业中心13楼1318		 
-联系方式：027-86615324	  	
-3、项目联系方式	
-项目联系人：刘工		
-电   话：027-86615324</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>广西机电设备招标有限公司关于土地变更调查与遥感监测项目 （项目编号：NNZC2025-G3-990993-JDZB）公开招标公告</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25284101.htm</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>项目概况                                                    
-土地变更调查与遥感监测项目招标项目的潜在投标人应在广西政府采购云平台（https://www.gcy.zfcg.gxzf.gov.cn/）获取招标文件，并于 2025年09月24日 09:30（北京时间）前递交投标文件。                                                
-一、项目基本情况                                            
-项目编号：NNZC2025-G3-990993-JDZB 
-项目名称：土地变更调查与遥感监测项目
-预算总金额（元）：9144110  
-采购需求：
-土地变更调查与遥感监测项目
-1
-9144110
-土地变更调查与遥感监测项目1项。如需进一步了解详细内容，详见招标文件。
-最高限价（如有）：/
-合同履约期限：2025年11月30日前提交本项目所有成果资料。
-本标项（否）接受联合体投标
-二、申请人的资格要求：
-1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：分标1：非专门面向中小企业采购的项目 
-3.本项目的特定资格要求：
-三、获取招标文件 
-时间：/至2025年09月24日 ，每天上午00:00至12:00 ，下午12:00至23:59（北京时间，法定节假日除外）
-地点（网址）：广西政府采购云平台（https://www.gcy.zfcg.gxzf.gov.cn/） 
-方式：网上下载。本项目不发放纸质文件，投标人可自行在本公告“六、其他补充事宜”中网上查询地址的信息公告处下载招标文件。电子投标文件制作需要基于“广西政府采购云平台”（https://www.gcy.zfcg.gxzf.gov.cn/）获取的招标文件编制，拟参与本项目的潜在投标人需使用账号登录或者使用CA登录“广西政府采购云平台”平台-进入“项目采购”应用，在获取招标文件菜单中选择项目，获取招标文件。 
-售价（元）：0 
-四、提交投标文件截止时间、开标时间和地点
-提交投标文件截止时间：2025年09月24日 09:30（北京时间）
-投标地点（网址）：请登录广西政府采购云平台投标客户端投标 
-开标时间：2025年09月24日 09:30 
-开标地点：广西政府采购云平台（https://www.gcy.zfcg.gxzf.gov.cn/）  
-五、公告期限 
-自本公告发布之日起5个工作日。
-六、其他补充事宜
-1.投标保证金：本项目不收取投标保证金
-七、对本次采购提出询问，请按以下方式联系
-1.采购人信息
-名    称：南宁市自然资源局 
-地    址：南宁市锦春路3-1号 
-项目联系人： 陈虹颖  
-项目联系方式：0771-5609207 
-名    称：广西机电设备招标有限公司             
-地    址：广西南宁市金湖路63号金源CBD现代城7层              
-项目联系人：梁艳冰、谭玉华、黄晓蕾              
-项目联系方式：0771-2808981</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院数据技术服务竞争性磋商公告</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxcs/202509/t20250903_25283585.htm</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院数据技术服务竞争性磋商公告		
-发布日期：2025-09-03 15:51｜发布单位：武汉渤正项目管理有限公司｜文件递交截止时间：2025-09-16｜项目监管地：省本级|阅读次数：	
-【项目概况】
-数据技术服务采购项目的潜在供应商应在湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。获取采购文件，并于2025年09月16日09点30分（北京时间）前提交响应文件。
-一、项目基本情况	
-1、项目编号：WHBZC-2025-142		
-2、采购计划备案号：420000-2025-07221		
-3、项目名称：数据技术服务		
-4、采购方式：竞争性磋商		
-5、预算金额：42.000000(万元)	
-6、最高限价：42.000000(万元)	
-7、采购需求：	
-详见竞争性磋商文件第三章		
-8、合同履行期限：合同签订之日起至2025年10月15日前完成	
-9、本项目（是/否）接受联合体投标：否  			
-10、是否可采购进口产品：否           
-11、本项目（是/否）接受合同分包：否          
-12、本项目（是/否）专门面向中小微企业：是 	      
-13、面向中小微企业的类型为：小微企业	    	
-二、申请人的资格要求	
-1、满足《中华人民共和国政府采购法》第二十二条规定，即：	
-（1）具有独立承担民事责任的能力；	
-（2）具有良好的商业信誉和健全的财务会计制度；	
-（3）具有履行合同所必需的设备和专业技术能力；	
-（4）有依法缴纳税收和社会保障资金的良好记录；	
-（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录；	
-（6）法律、行政法规规定的其他条件。		
-2、单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加本项目同一合同项下的政府采购活动。	
-3、为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得再参加本项目的其他招标采购活动。	
-4、未被列入失信被执行人、重大税收违法失信主体，未被列入政府采购严重违法失信行为记录名单。	
-5、落实政府采购政策需满足的资格要求：	
-本采购项目是专门面向中小企业采购项目，供应商应为符合《政府采购促进中小企业发展管理办法》（财库【2020】46号）规定的中小企业，并按管理办法附件格式提供中小企业声明函。		
-6、本项目的特定资格要求：	
-（1）供应商须具备测绘行政主管部门颁发的乙级及以上测绘资质；（2）本项目不接受联合体投标；（3）本项目不接受合同分包。		
-三、获取采购文件	
-1、时间：2025年09月04日至2025年09月10日，每天00:00至12:00，12:00至24:00（北京时间，法定节假日除外）			
-2、地点：湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。	
-3、方式：	
-供应商在布络供应商客户端选择已经发布公告的项目进行报名并下载招标文件			
-4、售价：0(元)	
-四、响应文件提交	
-1、开始时间：2025年09月04日00点00分（北京时间）		
-2、截止时间：2025年09月16日09点30分（北京时间）		
-3、地点：通过布络供应商客户端选择项目分包进入文件递交页面进行递交	
-五、开启	
-1、时间：2025年09月16日09点30分（北京时间）		
-2、地点：布络湖北政府采购电子交易系统		
-六、公告期限	
-自本公告发布之日起3个工作日。	
-七、其他补充事宜	
-1.以上所称供应商投标系统是与湖北省政府采购电子交易数据汇聚平台完成对接的供应商投标系统。2.供应商在湖北省政府采购电子交易数据汇聚平台（https://czt.hubei.gov.cn/zchj/user）完成注册并办理 CA后方可下载本项目采购文件，操作指南下载地址：https://czt.hubei.gov.cn/zchj/zIndex/details供应商获取文件及CA办理等相关事宜详见供应商操作指南(https://hbzc.bossbolo.com/help/index.html)		
-八、凡对本次采购提出询问，请按以下方式联系	
-1、采购人信息	
-名   称：湖北省航测遥感院		
-地   址：武汉市洪山区民族大道39号湖北测绘大厦		
-联系方式：027-87850867		
-2、采购代理机构信息	
-名   称：武汉渤正项目管理有限公司		
-地   址：武汉市国家农业科技园创业中心13楼1318		 
-联系方式： 027-86615324	  	
-3、项目联系方式	
-项目联系人：刘工		
-电   话： 027-86615324</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）澄清公告</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gzgg/202509/t20250903_25281874.htm</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）
-澄清公告
-一、项目基本情况
-原公告的采购项目编号：SDGP371700000202502000322
-原公告的采购项目名称：菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）
-首次公告日期：2025年08月22日
-二、更正信息
-更正事项：采购文件
-更正内容：因对接方电子交易平台在数据传输过程中调取有误，需要重新设置，不影响本项目正常采购，特此说明。
-更正日期：2025年09月03日09时40分
-三、其他补充事宜：
-无
-四、凡对本次公告内容提出询问，请按以下方式联系。
-1.采购人信息
-名    称：菏泽市自然资源和规划局
-地    址：菏泽市中华路659号
-联系方式：樊先生  15253070186
-2.采购代理机构信息
-名    称：山东仁帆项目管理有限公司
-地    址：菏泽市广州路与黄河路交叉口鑫凯国际B栋1219室
-联系方式：张先生  15963029992
-3.项目联系方式
-项目联系人：张先生
-电      话：15963029992
-澄清公告.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）澄清公告</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gzgg/202509/t20250903_25281852.htm</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）
-澄清公告
-一、项目基本情况
-原公告的采购项目编号：SDGP371700000202502000322
-原公告的采购项目名称：菏泽市自然资源遥感数据管理应用平台(二期)项目B包（二次）
-首次公告日期：2025年08月22日
-二、更正信息
-更正事项：采购文件
-更正内容：因对接方电子交易平台在数据传输过程中调取有误，需要重新设置，不影响本项目正常采购，特此说明。
-更正日期：2025年09月03日09时40分
-三、其他补充事宜：
-无
-四、凡对本次公告内容提出询问，请按以下方式联系。
-1.采购人信息
-名    称：菏泽市自然资源和规划局
-地    址：菏泽市中华路659号
-联系方式：樊先生  15253070186
-2.采购代理机构信息
-名    称：山东仁帆项目管理有限公司
-地    址：菏泽市广州路与黄河路交叉口鑫凯国际B栋1219室
-联系方式：张先生  15963029992
-3.项目联系方式
-项目联系人：张先生
-电   话：15963029992
-澄清公告.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>丹东市智慧城市指挥中心空调采购项目招标公告</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25281951.htm</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>公告信息                  
-丹东市智慧城市指挥中心空调采购项目招标公告                                  
-撰写单位:                      丹东市公共资源交易中心                       发布时间:                      2025-09-03                                         
-项目概况                                                                   
-丹东市智慧城市指挥中心空调采购项目招标项目的潜在供应商应在线上获取招标文件,并于2025年09月24日 09时30分（北京时间）前递交投标文件。                      
-一、项目基本情况                                                                项目编号：JH25-210600-02847                                                                 项目名称：丹东市智慧城市指挥中心空调采购项目                                           包组编号：001                                                                预算金额（元）：460000                                                                 最高限价（元）：460000                                                                 采购需求：查看                                           
-第三章 货物需求
-多联式空调外机2台，多联式空调内机10台
-一、空调外机（2台）：
-1、制冷量：≥78kW；
-2、制热量：≥87kW；
-3、额定功率：≤20.5kW；
-4、噪音：≤65dB(A)；
-5、外机风量：≥26000m3/h；
-6、APF值：≥4.6；
-7、额定电源：380V；
-二、空调内机（10台）：
-1、制冷量：≥12kW；
-2、制热量：≥14kW；
-3、静压：≥200pa；
-4、电辅热：≥3kW；
-5、耗电量：≤350W；
-6、风量：≥2000m3/h；
-7、噪音：≤44dB（A）
-8、额定电源：380V；
-（一）招标范围及采用标准
-1. 设备基本要求
-1.1通过多联机空调内机设备、外机设备及铜管管道系统、冷凝水管道系统实现相应房间的制冷制热功能。
-1.2投标人提供的货物包含投标设备、投标设备所需辅材、伴随现场环境拆除、设备安装、现场环境恢复等服务。
-1.3所供设备必须是所供品牌的全新合格设备，所供设备为生产厂家定型投产的成熟产品，要求必须为本厂组装完成，非代工生产产品。要求结构合理、可靠性高、能耗低、无污染、操作保养和维护简便。
-1.4所供设备在运送、储存及安装期间，应采取正确的保护设施，以确保有关设备在任何情况下不受破损。
-（二）设备技术要求
-1. 基本要求
-1.1 投标人提供的多联空调系统机组（以下简称“机组”），应是满足以下基本技术要求：运行可靠、技术先进、空间节省、安装简单、维护方便、高效节能、控制灵活的成熟产品。
-1.2 机组工作的室外环境温度、湿度范围应满足如下要求：
-制冷：机组在-5℃～55℃范围内应保证正常运行
-制热：机组在-25℃～27℃范围内应保证正常运行
-1.3 机组要求能连续运行时间15年；
-1.4 投标机组应采用 R410A 环保制冷剂。
-★1.5 投标产品需具有中国质量认证中心颁发的中国节能产品认证，提供中国节能产品认证证书复印件并加盖投标人公章。
-★1.6 投标机组须满足国家规范GB21454-2021《多联式空调（热泵）机组能效限定值及能源效率等级》所规定的一级能效要求，提供中国能效标识网的截图并加盖投标人公章。
-★1.7 所投多联机产品应具有中国环境标志产品认证，提供中国环境标志产品认证证书复印件并加盖投标人公章。
-2. 技术要求
-2.1 机组室外机及系统
-2.1.1 室外机要求采用变频喷气增焓技术的压缩机。
-2.1.2 室外机的压缩机之间应具后备运转功能，即当机组有两个以上的压缩机时，某一台压缩机发生故障，其他压缩机能紧急启动运转以避免整个系统的关闭。如设备具有其他后备运转的功能。
-2.1.3 为防止在气温较低的环境下，室外机换热器结冰影响机组正常工作，换热器应具有防结冰功能。
-2.1.4 系统的控制通讯要求可靠性高：某台室内机或室外机故障掉线，对整个通讯系统无影响，其他设备还可正常运行。
-2.1.5 要求室外机有风机自清洁功能。
-2.1.6 为保证化霜期间的制热效果，机组需具备蓄热快速化霜功能，同时拥有智能化霜功能，做到有霜化霜，无霜不化。
-2.1.7 为保证机组启动、运行的安全及稳定性，应具备压缩机退磁保护功能。
-2.1.8 系统具有来电自动重启功能，断电以前的设置不会被消除。
-2.1.9 系统的控制通讯要求速率：单冷媒系统的通讯波特率X≥10kbps。
-2.1.10 系统的通讯距离：通讯距离最远可达≥1000m。
-★2.1.11 机组应为低功耗产品，提供设备低功耗待机参数功能截图并加盖投标人公章。
-2.1.12 为了提高用户使用过程的舒适性，所投机组需具有快速制热启动功能。
-2.2 多联机普通室内机
-2.2.1 要求采用直流电机，且运行平稳、噪音低。。
-2.2.2 蒸发器具有自清洁功能。
-2.2.3 至少具备多档风速选择，满足不同的风量需求。
-3. 其他要求
-3.1.质量保修范围：投标人应对提供的所有货物（不包含耗材）质保期内，除人为因素损坏外，全部免费维修。
-3.2.包装和运输要求：包装应抗震、防潮、防冻、防锈，适于长途运输；投标人对由于包装不当或防护措施不力而导致的商品损坏、损失、腐蚀等任何机械和性能损伤负责，并承担由此产生的一切费用。
-3.3.售后服务要求：
-★3.3.1质保期：货到安装完毕验收合格之日起24个月。（提供承诺函并加盖投标人公章）
-3.3.2投标人承担所提供设备的全部售后服务和技术支持，其中包括提供电话支持，必要时提供现场服务，所需费用由供应商自行承担。
-3.3.3投标人免费提供设备使用中必要的培训及指导直至使用人员能够正确了解使用本设备。需对空调使用及管理人员进行不少于8课时的培训。
-★3.3.4质保期内设备发生故障时，投标人接到维修电话后应在2小时内做应答处理，3小时内到现场服务排除故障。投标人超过三天仍未履行更换或保修义务，用户有权要求供应商承担赔偿责任。质保期过后投标人负责本设备终身协助维修。（提供承诺函并加盖投标人公章）3.3.5如投标人提供的设备包含软件设备，该设备软件出现新版本，投标人应保证质保期内对该设备进行免费升级。
-合同履行期限：自合同签订之日起1个月。                                                                 需落实的政府采购政策内容：促进中小企业、促进残疾人就业、支持监狱企业、支持脱贫攻坚等相关政策。                                                                本项目（是/否）接受联合体投标：否                                                                 二、供应商的资格要求                                                                1.满足《中华人民共和国政府采购法》第二十二条规定。                                                                2.落实政府采购政策需满足的资格要求：促进中小企业、促进残疾人就业、支持监狱企业、支持脱贫攻坚等相关政策。                                                                3.本项目的特定资格要求：无。                                                                三、政府采购供应商入库须知                                                                参加辽宁省政府采购活动的供应商未进入辽宁省政府采购供应商库的，请详阅辽宁政府采购网 “首页—政策法规”中公布的“政府采购供应商入库”的相关规定，及时办理入库登记手续。填写单位名称、统一社会信用代码和联系人等简要信息，由系统自动开通账号后，即可参与政府采购活动。具体规定详见《关于进一步优化辽宁省政府采购供应商入库程序的通知》（辽财采函〔2020〕198号）。                                                                四、获取招标文件                                                                时间：2025年09月03日13时00分至2025年09月11日16时30分（北京时间，法定节假日除外）                                                                地点：线上获取                                                                方式：线上                                                                售价：免费                                                                五、提交投标文件截止时间、开标时间和地点                                                                 2025年09月24日 09时30分（北京时间）                                                                 地点：丹东市公共资源交易中心开标室四                                                                六、公告期限                                                                自本公告发布之日起5个工作日。                                                                七、质疑与投诉                                                                供应商认为自己的权益受到损害的，可以在知道或者应知其权益受到损害之日起七个工作日内，向采购代理机构或采购人提出质疑。                                                                1、接收质疑函方式：线上或书面纸质质疑函                                                                 2、质疑函内容、格式：应符合《政府采购质疑和投诉办法》相关规定和财政部制定的《政府采购质疑函范本》格式，详见辽宁政府采购网。                                                                 质疑供应商对采购人、采购代理机构的答复不满意，或者采购人、采购代理机构未在规定时间内作出答复的，可以在答复期满后15个工作日内向本级财政部门提起投诉。                                                                 八、其他补充事宜                                                                1、本项目中标通知书将以邮件的形式发送至中标人在本项目投标函中填写的邮箱内。 2、参加辽宁省政府采购活动的投标人，请详阅辽宁政府采购网“首页-办事指南”中公布的“辽宁政府采购网关于办理CA数字证书的操作手册”和“辽宁政府采购网新版系统供应商操作手册”，具体规定详见《关于启用政府采购数字认证和电子招投标业务有关事宜的通知》（辽财采〔2020〕298号），请按照相关规定，及时办理CA锁及相关手续，因未办理相关手续造成的所有后果，由投标人自行承担。 3、投标人需自主学习辽宁政府采购网电子文件制作指南，按照招标文件和电子评审系统要求进行投标信息填报、电子文件编制、盖章或电子签章等工作，如未按照要求制作，影响文件上传造成的所有后果，由投标人自行承担。系统操作问题请咨询技术支持电话（400-128-8588），CA 办理问题请咨询CA认证机构。 4、投标文件递交方式采用线上递交及现场递交U 盘存储形式的备份文件（U盘按要求密封，详见招标文件），备份文件在开标当天，提交投标文件截止时间前现场提交至丹东市公共资源交易中心，供应商同时准备电子投标文件、电子文件（U 盘）一致性承诺函，并按招标文件要求进行签字、盖章，备系统突发故障使用。投标人参会代表必须按时到达丹东市公共资源交易中心递交备份文件，参与招标活动。启用备份文件进行评审具体规定详见《关于完善政府采购电子评审业务流程等有关事宜的通知》（辽财采函〔2021〕363 号）。若系统突发故障需启用备份文件进行评审，则未递交备份文件的按照投标无效处理。 5、开标时，投标人须自带电脑及CA锁至开标现场进行电子文件解密，也可以由自家投标人工作人员远程进行解密，交易中心不提供解密设备及解密环节的相关服务，投标人解密时长原则上不超过30分钟，因政府采购系统原因，采购代理机构将酌情延长解密时长。 6、投标人出现以下（1）（2）情形的，视为放弃投标；出现（3）情形的，由投标人自行承担相应责任： （1）因投标人原因造成投标文件未解密的； （2）因投标人自用设备原因造成的未在规定时间内解密、上传文件或投标报价等问题影响电子评审的； （3）因投标人原因未对文件校验造成信息缺失、文件内容或格式不正确以及备份文件不符合要求等问题影响评审的。 注意事项：投标人在辽宁省政府采购网上传投标文件时需保证文件清晰度。因文件上传清晰度问题，导致评审委员会无法认定，相关后果由投标人自行承担。 7、启用备份文件应由采购人、采购代理机构和相关投标人共同签字确认。系统恢复后采购人或采购代理机构应及时将备份文件上传至电子评审系统，并将存储备份文件的介质与采购档案一并存档。投标人上传的投标文件正常解密的且采购活动正常进行的，备份文件自动失效。采购人、采购代理机构应在中标通知书发出前将未使用的密封备份文件退还供应商，并做好记录存档。                                                                 九、对本次招标提出询问，请按以下方式联系                                                                1.采购人信息                                                                名  称： 丹东市数据局                                                                地  址： 丹东市振兴区爱河大街121-1号                                                                联系方式：0415-2661230                                                                2.采购代理机构信息：                                                                名  称：丹东市公共资源交易中心                                                                地  址：丹东市新区银河大街100-1号                                                                联系方式：0415-2171055                                                                邮箱地址：ddzfcgzx@163.com                                                                开户行：丹东银行股份有限公司营业部                                                                账户名称：丹东市公共资源交易中心                                                                账号：0                                                                3.项目联系方式                                                                项目联系人：陈旭 于航                                                                电  话：0415-2171055                                                                                              
-附件：</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>实景三维郯城建设项目二次招标公告</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/202509/t20250903_25280284.htm</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>中国政府采购网</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>项目概况：      
-郯城县自然资源和规划局实景三维郯城建设的潜在供应商应在临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)获取采购文件，并于2025年9月24日 09时00分（北京时间）前提交响应文件。      
-一、项目基本情况： 
-项目编号：SDGP371322000202502000062
-项目名称：实景三维郯城建设
-采购方式：公开招标
-预算金额：301.8361万元 
-最高限价：301.8361万元 
-采购需求： 
-标的      
-标的名称      
-数量      
-简要技术需求或服务要求      
-本包预算金额（单位：万元）      
-A      
-城市级实景三维郯城建设      
-1      
-详见招标文件      
-156.3361      
-B      
-地形级实景三维郯城建设      
-1      
-详见招标文件      
-145.5      
-合同履行期限：详见招标文件。 
-本项目不接受联合体投标。 
-二、申请人的资格要求： 
-1、满足《中华人民共和国政府采购法》第二十二条规定； 
-2、落实政府采购政策需满足的资格要求：鼓励节能政策、环保政策、中小企业政策、监狱企业政策、残疾人福利性企业政策等。 
-3、本项目的特定资格要求：1、满足《中华人民共和国政府采购法》第二十二条规定的供应商资格要求；2、具有独立承担民事责任的能力，具有良好的商业信誉和健全的财务会计制度；3、具有履行合同所必需的设备和专业技术能力；4、有依法缴纳税收和社会保障资金的良好记录；5、具备有效的营业执照或事业单位法人证书、税务登记证、组织机构代码证（三证或五证合一的只需提供带有社会信用代码的营业执照或事业单位法人证书），须具有测绘主管部门颁发的乙级测绘资质证书（含测绘航空摄影专业、摄影测量与遥感专业），具有独立法人资格； 6、参加政府采购活动前三年内，在经营活动中没有重大违法记录，投标单位未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单，信用信息以“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）公布为准及“中国裁判文书网”（http://wenshu.court.gov.cn/）无行贿记录证明；7、在山东省政府采购信息公开平台注册，在临沂市公共资源交易网办理诚信入库和CA实名认证并进行网上下载招标文件；8、法律、法规及招标文件规定的其他条件。 
-三、获取采购文件： 
-1.时间：2025年09月04日08时30分至2025年09月10日17时00分（北京时间） 
-2.地点：临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)。 
-3.方式：①供应商在获取采购文件截止时间前办理CA认证、诚信入库并登录临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)在线下载采购文件，未下载采购文件视为自动放弃投标；注：本项目实行网上招投标，潜在投标申请人应自行关注交易平台，因自身贻误行为导致未成功获取招标文件及补充（答疑、澄清）文件，责任自负。供应商需在临沂市公共资源交易网系统中的“招标文件下载”页面下载电子采购文件（.LYZF），并制作电子版投标文件（.LYTF）上传到系统。②本项目采用“不见面开标系统”，各供应商须于响应文件递交截止时间之前将响应文件上传至临沂市公共资源网电子交易平台，各供应商的法定代表授权委托代理人不需到开标现场，只需在投标截止时间前登陆临沂市公共资源交易网“不见面开标系统”参与本项目开标活动。
-4.售价：0元。 
-四、响应文件提交： 
-1.截止时间：2025年09月24日09时00分（北京时间） 
-2.地 点：临沂市公共资源交易网电子交易平台 
-五、开启： 
-1.开启时间：2025年09月24日09时00分（北京时间） 
-2.开启地点：郯城县公共资源交易中心开标室 
-六、公告期限： 
-自本公告发布之日起5个工作日。 
-七、其他补充事宜： 
-其他补充事宜: 无
-八、对本次招标提出询问，请按以下方式联系： 
-1、采购人信息 
-名  称：郯城县自然资源和规划局
-地  址：郯城县建设路东首
-联系方式：15866999206
-2、采购代理机构 
-名 称：临沂京棣建设项目管理咨询有限公司 
-地 址：临沂市郯城县郯东路56-9号
-联系方式：13365392944 
-3、项目联系方式 
-项目联系人：临沂京棣建设项目管理咨询有限公司
-联系方式：13365392944 
-九、本项目监督部门：
-名 称：郯城县财政局政府采购监督管理科
-电 话：0539-6800069</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>绵阳市涪城区妇女儿童医院提升改造项目专业工程暂估价（机器人暂列项）设备采购</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>达州市公共资源交易服务平台</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/510000/0101/202509/03/0051dea10af686814e81b44900da3ab693eb.shtml</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
+名 称：上海市杨浦区政府采购中心 
+地 址：上海市杨浦区宁国路129号城建大厦16楼 
+联系方式：65550185 
+3.项目联系方式 
+项目联系人：章笑吟
+电 话：65550185 
+潜在供应商</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>实景三维项目基础能力提升（数据生产）招标公告</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>甘肃省公共资源交易平台</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://www.ggzy.gov.cn/information/html/b/620000/0201/202509/04/0062da8c69c56158489a9e048d55d46172e0.shtml</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
         <is>
           <t>全国公共资源交易平台</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>第一章 招标公告（适用于公开招标）
-绵阳市涪城区妇女儿童医院提升改造项目(项目名称)设备采购 绵阳市涪城区妇女儿童医院提升改造项目专业工程暂估价（机器人暂列项）设备采购 标段
-招标公告
-1.招标条件
-1.1本招标项目 绵阳市涪城区妇女儿童医院提升改造项目(项目名称)已由绵阳市涪城区发展和改革局(项目审批、核准或备案机关名称)以 绵涪发改固〔2022〕117号 （批文名称及编号）批准建设，项目业主为四川昌泰建筑工程有限公司，建设资金来自 争取专项债券资金及自筹 （资金来源），项目出资比例为 100% ，招标人为四川昌泰建筑工程有限公司。项目已具备招标条件，现对该项目的 非接触一体式标本配送机器人等设备 （设备名称）采购进行公开招标。
-1.2本招标项目由 绵阳市涪城区发展和改革局 （核准机关名称）核准（招标事项核准文号为 绵涪发改固〔2022〕180号）的招标组织形式为 委托招标 （□自行招标 委托招标）。招标人选择的招标代理机构是 四川同得利工程项目管理有限公司。
-2.项目概况与招标范围
-2.1 标段划分：1个标段。 
-2.2 建设地点：绵阳市涪城区金家林总部经济试验区福发路中段。 
-2.3 项目建设内容及规模: 具体详见第五章材料采购清单。 
-2.4 供货期：收到招标人通知后60日内完成供货并安装调试完成。
-2.5供货地点：招标人指定地点。 
-2.6 招标范围：本项目设备采购清单内所示全部内容（具体详见第五章供货要求）。
-（说明工程建设项目的建设地点、规模、建设工期、标段划分和本次招标采购材料的名称、数量、技术规格、交货地点、交货期等）。
-3.投标人资格要求
-3.1本次招标要求投标人须具备
-3.1.1资质要求： 具有独立承担民事责任的能力（对制造商资质有要求的，应分别列出并注明），并具有与本招标项目相应的供货能力。
-3.1.2投标人业绩要求：
-□近年（ / 年 / 月 / 日至投标截止时间，不少于3年）（□已完成  □已完成或新承接或正在供货）不少于 / （1 至3个）个类似项目。类似项目是指: / 。
-无投标人业绩要求。
-3.1.3投标设备业绩要求：
-□近年（ / 年 / 月 / 日至投标截止时间，不少于3年）（□已完成  □已完成或新承接或正在供货）不少于 / （1 至3个）个类似项目。类似项目是指: / 。
-无投标设备业绩要求。
-3.2 本次招标 □接受 不接受联合体投标。联合体投标的，应满足下列要求： / 。
-3.3 一个制造商对同一品牌同一型号的设备，仅能委托一个代理商参加投标。多种设备打包采购的，招标人应选择其中主要设备要求投标人提供授权，主要设备包括： / 。
-4.招标文件的获取
-4.1 凡有意参加投标者，请于 2025 年 09 月 04 日开始登录：全国公共资源交易平台（四川省·绵阳市）（网址：http://ggzy.my.gov.cn）-“用户注册登录”，通过数字证书免费下载招标资料（招标文件、技术资料等）。
-4.2 招标人不提供招标文件获取的其他方式。
-5.投标文件的递交
-投标文件递交的截止时间（投标截止时间，下同）为2025年09月 25 日09时10分，投标人应在投标截止时间前在线递交经投标人数字证书加密的数据电文形式投标文件。
-6.发布公告的媒介
-本次招标公告在《全国公共资源交易平台（四川省）》和《全国公共资源交易平台（四川省·绵阳市）》、 / (公告发布的其它媒介名称）上发布。
-7.联系方式
-招 标 人：四川昌泰建筑工程有限公司
-地    址：成都市武侯区星狮路818号4栋3单元12层1206号
-邮    编：610000      
-联 系 人：刘桥        
-电    话：028-83355888
-传    真：    /    
-电子邮件：    /    
-网    址：    /    
-开户银行：    /    
-账    号：    /    
-□ 招标代理机构：    /     
-招标代理机构：四川同得利工程项目管理有限公司
-地    址：四川省绵阳市高新区火炬西街南段23号1栋2楼202室  
-邮    编：621000      
-联 系 人：欧阳青强    
-电    话：15681231025 
-传    真： /          
-电子邮件： /          
-网    址： /          
-开户银行： /          
-账    号： /          
-2025 年09月03日
-注：
-（1）若划分标段，则填写标段序号；若划分为两个及以上标段，应分别明确各标段的具体内容、划分情况。
-（2）招标人对投标人的资质要求，应是国家对投标人生产、制造等方面的规定。
-（3）招标人对投标人的类似项目业绩要求，设置的合同额、供货数量、技术规格等量化指标不得高于本次采购相应指标，类似项目业绩的定义应明确，用语准确无歧义。
-（4）《招标投标法》第二十四条规定，“招标人应当确定投标人编制投标文件所需要的合理时间；但是，依法必须进行招标的项目，自招标文件开始发出之日起至投标人提交投标文件截止之日止，最短不得少于二十日。”　期间20日的计算方法为：从招标公告发布的次日起算并以全国公共资源交易平台（四川省）审核发布的时间为准（发布招标公告当日不算在期间内）。如某项目招标公告发布日期为2008年12月1日，期间届满的日期是2008年12月21日，递交投标文件截止时间应该为2008年12月22日。</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购项目公开招标公告</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/130000/0201/202509/03/00139faf26d18c604073bd00808f33841dfa.shtml</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>项目概况
-2025年武邑县教育局薄改第七小学等学校专递课堂和机器人教室设备采购项目招标项目的潜在投标人应在 衡水市公共资源交易平台（http：//hsggzy.hengshui.gov.cn/）获取招标（采购）文件,并于2025-09-24 09:00(北京时间)前递交投标（响应）文件。
-一、项目基本情况
-项目编号：HB2025093600010005
-二、申请人资格要求
-1、满足《中华人民共和国政府采购法》第二十二条规定；
-三、获取招标文件
-时间:2025-09-04至2025-09-10， 00：00-12：00-12：00-23：59(北京时间，法定节假日除外。)
-四、提交投标文件截止时间、开标时间和地点
-2025-09-24 09:00(北京时间)
-五、公告期限
-自本公告发布之日起5个工作日
-六、其他补充事宜
-依据《河北省财政厅 河北省政务服务管理办公室关于印发&lt;政府采购公开招标项目全面实行“双盲”评审实施方案&gt;的通知》相关要求，本项目采用“双盲”评审。供应商应按照招标文件要求对投标文件的商务标“明标”、技术标“暗标”分开制作，评标委员会按要求对商务标采取明标评审、对技术标采取暗标评审。
-1、招标文件获取方式：投标人通过登录衡水市公共资源交易信息平台（http://hsggzy.hengshui.gov.cn/），选择“市场主体登录”后进行平台自行下载招标文件。尚未完成市场主体网上注册的供应商，请登录衡水市公共资源交易信息平台网站及时进行网上注册，注册信息填写完整后，按市场主体注册核验流程要求，完成注册登记、资料验审，采取网上在线验审方式，注册验审服务电话：0318-6991060。外地供应商可就近选择河北省内任意城市公共资源交易平台进行注册资料验审。
-2、电子投标文件制作及开标解密需使用CA数字证书及电子签章，CA签证实行网上在线办理，河北CA在线办理网址：http://www.hebca.com/ggzyhs.html，联系电话：4007073355。
-3、投标方式：本项目实行远程不见面投标及开标解密，投标人无需到现场。请投标人在投标截止之前及时上传投标文件电子版，并及时解密投标文件，新版解密系统地址：http://121.17.30.211:8086/BidOpening。解密步骤详见《衡水新版开标大厅解密手册》。技术支持电话0318-6991059；400电话：400-998-0000。请各投标供应商确保授权委托人或项目联系人在开标、评标期间的通讯畅通。
-4、依据《河北省财政厅关于规范政府采购保证金收取行为的通知》（冀财采[2021]7号），本项目不收取供应商投标保证金。依据《河北省2023年政府采购领域优化营商环境工作实施方案》冀财采[2023]5号，供应商无需提供相关财务状况、缴纳税收和社会保障资金等证明材料，改为承诺函形式。
-七、对本次招标提出询问，请按以下方式联系
-1.采购人信息
-原文链接地址</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目采购公告</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/320000/0201/202509/03/003278cb5f278e984546b07beef58b061a03.shtml</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>项目概况
-江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目 JSZC-320900-JSJW-G2025-0060 招标项目的潜在投标人应在“苏采云”系统内免费下载（投标人必须在苏采云系统中获取采购文件，方能参与政府采购项目） 获取招标文件，并于2025-09-26 09:00 （北京时间）前递交投标文件。
-一、项目基本情况
-项目编号：JSZC-320900-JSJW-G2025-0060 
-项目名称：江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目 
-预算金额：198.000000万元 
-最高限价（如有）：198.00万元  
-采购需求：
-江苏省盐城技师学院电气工程学院工业机器人应用与维护设备设施采购项目，主要包括机器人系统集成平台、工业机器人供料罐装工作站、复合机器人采购、安装及相关伴随服务，详细内容见本招标文件第四章。
-合同履行期限：合同签订之日起30日历天内完成测试安装及相关伴随服务，并通过采购人验收。 
-本项目（是/否）接受联合体投标：否
-二、申请人的资格要求：
-（一）满足《中华人民共和国政府采购法》第二十二条规定：
-1.法人或者其他组织的营业执照等证明文件，自然人的身份证明；
-2.上一年度的财务状况报告（成立不满一年无需提供）；
-3.具备履行合同所必需的设备和专业技术能力的书面声明；
-4.依法缴纳税收和社会保障资金的相关材料（提供提交响应文件截止时间前一年内至少一个月依法缴纳税收及缴纳社会保障资金的证明材料。供应商依法享受缓缴、免缴税收、社会保障资金的提供证明材料。）；
-5.参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明。
-6.法律、行政法规规定的其他条件。
-7.在“信用中国”网站查询，无被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的信用记录。（响应文件中无需提供证明材料）
-8.单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的政府采购活动。
-（二）落实政府采购政策需满足的资格要求：
-本项目专门面向中小企业采购，标的所属行业为工业（中小企业划分标准详见《关于印发中小企业划型标准规定的通知》工信部联企业〔2011〕300号），响应供应商应为中小微企业、监狱企业、残疾人福利企业。供应商须在响应文件中提供《中小企业声明函》或《残疾人福利性单位声明函》或省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具的属于监狱企业的证明文件，否则视为无效响应；小微企业、残疾人福利企业、监狱企业不再享受价格评审优惠政策。
-（三）本项目的特定资格要求： 
-无
-三、获取招标文件
-时间：自招标文件公告发布之日起5个工作日 
-地点：“苏采云”系统内免费下载（投标人必须在苏采云系统中获取采购文件，方能参与政府采购项目） 
-方式：本项目采用网上注册登记方式，具体详见本公告其他补充事宜。 
-售价：0.00元 
-四、提交投标文件截止时间、开标时间和地点
-2025-09-26 09:00 （北京时间）
-地点：苏采云“不见面”开标大厅。 
-五、公告期限
-自本公告发布之日起5个工作日。
-六、其他补充事宜
-1.根据省财政厅《关于更换全省政府采购交易系统CA数字证书和电子签章的通知》（苏财购〔2023〕101号），“苏采云”政府采购交易系统（以下简称苏采云系统）的CA数字证书、电子签章已更换为江苏省电子政务证书认证中心CA和方正国际软件（北京）有限公司电子签章。如果投标人通过苏采云系统参与政府采购项目，需要更换CA数字证书和电子签章。具体办理指南和操作手册：在盐城市政府采购网点击【办事指南】-【供应商参与政府采购活动相关资料】。
-领取CA和办理电子签章（请至亭湖区政务服务中心二楼226窗口办理，联系电话：15051556883，办理邮箱：yancheng@ideabank.net.cn，具体联系方式见《苏采云系统供应商操作手册》（以下简称《操作手册》））、进行注册并按《操作手册》要求制作、上传电子投标文件,《苏采云系统供应商操作手册》：在盐城市政府采购网点击【办事指南】-【供应商参与政府采购活动相关资料】。
-2.潜在供应商访问电子招标响应交易平台的网络地址和方法： 
-2.1“苏采云”系统用户注册--获取“CA 数字证书”--CA 绑定与登录--参与投 标--下载采购文件（后缀名为“.kedt”）--将后缀名为“.kedt”的采购文件导入政府采购客户端工具--制作响应文件--导出加密的响应文件（后缀名为 zip）--通过“苏采云”系统上传响应文件。具体见《“苏采云”系统供应商操作手册》 （手册下载地址：苏采云系统-右侧消息通知栏）。 
-2.2 潜在投标人访问“苏采云”系统方法：江苏省政府采购网首页-“苏采云”链接。 
-2.3 采购文件（后缀名为“.kedt”）、供应商操作手册及政府采购客户端 工具可通过“苏采云”系统相应链接进行下载。 
-2.4 采购代理机构将数据电文形式的采购文件加载至“苏采云”系统，供潜在供应商下载或者查阅。 
-2.5 请潜在投标单位提前安装相应的控件（详见《“苏采云”系统供应商操作手册》）并使用谷歌浏览器登录“苏采云”系统参与不见面开评标。 
-如潜在投标人未按上述要求操作，将自行承担所产生的风险。
-3.有关本次招标的事项若存在变动或修改，敬请及时关注江苏建威建设管理有限公司在“中国政府采购网”、“江苏政府采购网”、“盐城市政府采购网”发布的更正公告。
-4.本次招标不收取投标保证金，不收取质量保证金。
-七、对本次招标提出询问，请按以下方式联系。
-1.采购人信息 
-单位名称：江苏省盐城技师学院
-单位地址：盐城市盐都区海洋路29号
-联系人：王老师
-联系电话：13056150848
-2.采购代理机构信息（如有）
-单位名称：江苏建威建设管理有限公司
-单位地址：盐城市盐都区兆泉商务中心六楼
-联系人：朱女士
-联系电话：18066198320
-3.项目联系方式
-项目联系人：朱女士
-电话：18066198320</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>佳木斯龙江环保水务有限公司智能国际化验室机器人采购项目</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>黑龙江省公共资源交易网</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/230000/0201/202509/03/002303b589ad72874005b77af625e56ef6cc.shtml</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>佳木斯龙江环保水务有限公司智能国际化验室机器人采购项目
-招标公告
-项目编号：HLJZC2025005
-黑龙江治辰项目管理咨询有限公司受佳木斯龙江环保水务有限公司的委托，对佳木斯龙江环保水务有限公司智能国际化验室机器人采购项目进行国内公开招标。现欢迎合格的投标人参加投标。
-1、项目概况及招标范围
-1.1 项目名称：佳木斯龙江环保水务有限公司智能国际化验室机器人采购项目；
-1.2 资金来源：企业自筹；
-1.3 采购内容：佳木斯东区、佳木斯西区、佳木斯高新区三座污水处理厂各采购1台智能国际化验室机器人，数量总计3台（具体采购内容及详细技术参数详见本项目招标文件）；
-1.4 交货地点：招标人指定地点（详见招标文件）；
-1.5 交货期：合同签订后三十日内完成供货并指导使用等。
-1.6 采购范围：所需货物的供货、运输、装卸、试验、按需调试、指导使用等。
-1.7 质量标准：符合国家相关质量合格标准。
-1.8 招标控制价：130万元/台，总计390万元。
-1.9 标段划分：本项目不划分标段
-2、投标人资格要求
-2.1 拟参加本项目的潜在投标人应为中华人民共和国境内注册的企业/事业法人或其他组织，具有独立承担民事责任的能力，具有良好的商业信誉，必须是拟投货物的生产商或代理商（代理商须为总代理或一级代理，提供生产商授权书。如出现多个相同生产商授权的代理商进行投标，以获取招标文件的先后顺序为准）；
-2.2 拟参加本项目的潜在投标人、法定代表人均未被司法机关列入失信被执行人名单，以中华人民共和国最高人民法院官方网站中国执行信息公开网（http://zxgk.court.gov.cn/）查询结果为准，被列入上述名单的投标人不得参加本项目；
-2.3 拟参加本项目的潜在投标人未被列入经营（活动）异常名录、重大税收违法失信主体名单，以信用中国官方网站（http://www.creditchina.gov.cn）查询结果为准，被列入上述名单的投标人不得参加本项目；
-2.4 拟参加本项目的潜在投标人未被工商行政管理机关在全国企业信用信息公示系统中列入列入严重违法失信名单，以国家企业信用信息公示系统（https://www.gsxt.gov.cn/index.html）查询结果为准，被列入上述名单的投标人不得参加本项目；
-2.5 拟参加本项目的潜在投标人、法定代表人近三年内（2022年01月01日至今）没有行贿犯罪记录。本条“行贿犯罪记录”是指存在行贿行为并被判有行贿罪的记录，以中国裁判文书网（https://wenshu.court.gov.cn）网站公布的判决结果为准；
-2.6 拟参加本项目的潜在投标人与招标人存在利害关系可能影响采购公正性的法人、其他组织或者个人，不得参加投标；单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加同一合同项下的招标活动；
-2.7 本次招标不接受联合体投标。
-2.8 资格审查方式：资格后审，具体审查标准、内容等详见招标文件，只有资格审查合格的投标人才有可能被授予合同。
-3.招标文件的获取
-3.1潜在投标人应先在“黑龙江省公共资源要素交易服务平台（http://1.58.199.44:84/xe/）”进行用户注册、办理数字证书,使用数字证书登录“黑龙江省公共资源要素交易服务平台”，下载招标相关资料。下载时间为2025年09月04日09时00分至2025年09月11日09时00分（北京时间，下同）；有关手续请查看“黑龙江省公共资源要素交易服务平台-建设工程投标人操作手册”；
-3.2凡有意参加投标者，还须在招标文件获取时间内，将以下材料加盖公章的扫描件发送到邮箱（hljzc2024@163.com）获取报名登记表，逾期不予受理。材料如下：（1）法定代表人身份证明书及法定代表人身份证或授权委托书（附法定代表人身份证及委托代理人身份证），注：法定代表人身份证明书或授权委托书上须标注联系方式；（2）营业执照；（3）黑龙江省公共资源要素交易服务平台网上登记完成截图；
-3.3招标文件售价每套500元，不接受邮寄，售后不退。
-3.4投标人须在招标文件获取截止时间前将上述材料发送至代理机构邮箱获取报名登记表，报名登记表按要求填写完成后发送至代理机构邮箱获取标书费汇款账号，投标人须在招标文件获取截止时间前支付标书费。
-3.5投标人标书费支付完成后须及时电话联系代理公司18145636857获取招标文件。未在规定时间内完成上述操作的潜在投标人无资格参与项目。
-4.投标文件的递交
-4.1.投标文件递交开始时间：2025年09月24日09时00分；
-4.2.投标文件递交截止时间（投标截止时间）：2025年09月24日09时30分（即开标时间）；
-4.3.投标文件递交地点：哈尔滨市香坊区三辅街83号黑龙江公共资源标准化交易所先锋国际中心。
-4.4.逾期送达的或者未送达指定地点的投标文件，招标人不予受理。
-5.发布公告的媒介
-本次招标公告同时在中国招标投标公共服务平台（http://www.cebpubservice.com）、黑龙江省公共资源要素交易服务平台（https://ggzyjyw.hlj.gov.cn/xe/）上发布，其他网站转载无效。
-6.其他
-根据《中华人民共和国招标投标法实施条例》有关规定，潜在投标人或者其他利害关系人对本招标公告有异议的，应当在投标登记受理期间以书面形式向招标人提出，书面异议材料应由法定代表人或授权委托代理人签字并加盖单位公章，招标人将在收到异议之日起3日内作出答复。潜在投标人或者其他利害关系人捏造事实、伪造材料进行异议和恶意缠诉的，将严格按照国家及省市有关规定严肃处理，给他人造成损失的，依法承担赔偿责任。
-7.联系方式
-招 标 人：佳木斯龙江环保水务有限公司
-地    址：黑龙江省佳木斯市东风区东区污水处理厂厂区
-联 系 人：于先生
-电    话：0451-86036707
-招标代理机构：黑龙江治辰项目管理咨询有限公司
-地址：哈尔滨市道里区群力大道恒大国际中心4栋1层SF18号
-联系人：秦先生
-电话：18145636857
-邮箱：hljzc2024@163.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>京津冀机器人暨新兴产业协同创新（唐山）基地--融合智创中心一期监理变更公告</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/130000/0101/202509/03/0013d749844dab3f47afa3ee44a2d5a44905.shtml</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>京津冀机器人暨新兴产业协同创新（唐山）基地--融合智创中心一期监理
-变更公告
-致各潜在投标人：
-由于系统原因，本项目各网站发布的招标公告中的招标文件下载时间与本项目招标文件内的招标文件下载时间不一致，以各网站发布的招标公告中的招标文件下载时间为准。
-正确的招标文件网上下载时间：2025年 09月02日09:00至2025年09月08日17:00。
-河北一询项目管理有限公司
-2025年9月3日</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2025年人工智能大模型实验室设备采购项目招标公告</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>广东</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/440000/0201/202509/03/004464fe47d790254f9b8bb8be0ffddf7bda.shtml</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>相关附件： 
-2025年人工智能大模型实验室设备采购项目招标文件（2025090201）.zip   附件1.政府采购供应商资格信用承诺函.docx   047招标代理委托合同.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>西北民族大学-西北民族大学人工智能与大数据研究平台设备更新（一期）项目-公开招标公告</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>甘肃省公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/620000/0201/202509/03/0062dd69ab918ea145a185ddc3fe71ad792c.shtml</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>西北民族大学人工智能与大数据研究平台设备更新（一期）项目公开招标公告
-交易编号：D01-12620000224333349J-20250312-054315-4
-甘肃省通信产业服务有限公司受西北民族大学委托，对西北民族大学人工智能与大数据研究平台设备更新（一期）项目以公开招标方式进行采购，欢迎符合资格条件的供应商前来参加。
-1.招标文件编号：TXZB-JK-2025-01656
-2.招标内容：采购并安装调试模块化数据中心、动力配电制冷系统、动环监控平台、低压配电及安防系统、显示及安装调测系统、机房基础环境改造等,具体参数详见附件。
-3.项目预算：270万元（其中货物部分249万元，装修部分21万元）
-4.投标人资格要求
-（1）营业执照：投标人有效的营业执照，或事业单位法人证书，或自然人身份证明，或其他非企业组织证明独立承担民事责任能力的文件。（原件彩色扫描件）
-（2）财务状况：投标人提供投标截止日前18个月内经第三方审计的财务报告原件彩色扫描件，或财政部门认可的政府采购专业担保机构出具的投标担保函原件彩色扫描件，或银行出具的资信证明原件彩色扫描件。（以出报告日期为准）
-（3）纳税证明：投标人需提供投标截止日前缴纳的6个月内任意一个月的增值税或企业所得税的凭据，依法免税的投标人，应提供相应的证明文件。（原件彩色扫描件）
-（4）社保缴纳证明：社会保障资金缴纳记录（投标人逐月缴纳社会保障资金的，须提供投标截止日前6个月内至少一个月的缴纳社会保障资金的入账票据凭证原件彩色扫描件，投标人逐年缴纳社会保障资金的，须提供投标截止日前上年度缴纳社会保障资金的入账票据凭证原件彩色扫描件）
-（5）无重大违法记录声明：参加政府采购活动前3年内在经营活动中没有重大违法记录的书面声明（原件彩色扫描件）。（截至开标日成立不足3年的供应商可提供自成立以来无重大违法记录的书面声明）。
-（6）法定代表人身份证明或法定代表人授权书：法定代表人身份证明（原件彩色扫描件）或法定代表人授权书（原件彩色扫描件）
-（7）信用记录：供应商未被列入“信用中国”网站(www.creditchina.gov.cn)记录失信被执行人或重大税收违法失信主体名单；不处于中国政府采购网(www.ccgp.gov.cn)政府采购严重违法失信行为记录名单中的禁止参加政府采购活动期间的方可参加本项目的投标。投标日当天，由资格审查小组根据以上要求对各供应商信用记录进行查询，有以上行为的视为无效响应。（供应商无需在其资格证明文件中提供信用记录的查询结果）
-（8）声明函：提供具有履行合同所必需的设备和专业技术能力，提供声明函(加盖供应商公章)。
-（9）承诺书：单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一标段投标或未划分标段的同一政府采购活动招标项目（供应商提供相关承诺，格式自拟）。
-（10）非联合体承诺书：本项目不接受联合体投标（供应商提供承诺）。
-5.获取招标文件的时间、地点、方式
-获取招标文件的时间：2025年9月4日00时00分至2025年9月11日00时00分；地点：详见招标公告社会公众可通过甘肃省公共资源交易网免费下载或查阅招标文件。拟参与甘肃省公共资源交易活动的潜在投标人需先在甘肃省公共资源交易网上注册，获取“用户名+密码+验证码”，以软认证方式登录；也可以用数字证书（CA）方式登录。这两种方式均可进行“我要投标”等后续工作。
-6.信息注册、投标须知
-为了规范交易平台的业务流程以及给用户提供方便快捷的服务，凡是拟参与甘肃省公共资源交易活动的招标人、招标代理机构、投标人需先在甘肃省公
-共资源交易网上注册，使用“用户名+密码+验证码”或CA数字认证方式登录办
-理业务。
-社会公众可通过甘肃省公共资源交易网浏览公告，（甘肃省公共资源交易网的网址：https://ggzyjy.gansu.gov.cn）。点击“免费下载招标文件”，根据系统提示，保存电子标书文件至本地电脑；投标人浏览电子标书后，确定投标的需登录甘肃省公共资源交易电子服务系统，在系统首页最新招标项目中查询需要投标的项目或在“招标方案”-“标段（包）”中查询需要投标的标段，选中后点击“我要投标”，根据要求填写信息。
-本项目的开评标活动通过“甘肃省政府采购、交通工程、水利工程电子交
-易系统”（https://wskpb.ggzyjy.gansu.gov.cn:3065/login）进行，请投标人在开标时间前登录系统，下载“投标文件编制工具”、“甘肃省政府采购、交通工程、水利工程电子交易系统使用帮助”和“固化后的招标文件”，并按照“甘肃省政府采购、交通工程、水利工程电子交易系统使用帮助”来编制投标文件，并完成网上投标（上传已编制投标文件的文件哈希值）和开标操作，若在开标截止时间前没有网上投标（上传已编制投标文件的文件哈希值）则视为放弃投标。
-7.投标截止时间、开标时间及地点
-提交投标文件截止时间：2025年09月24日11时00分（北京时间）。
-网上开标时间：2025年09月24日11时00分（北京时间）。
-网上开标地点：甘肃省公共资源交易中心网络开标直播二厅第八坐席
-8.公告期限
-自本项目招标公告发布之日起5个工作日
-9.开标方式：
-本项目通过“甘肃省政府采购、交通工程、水利工程电子交易系统”进行
-远程开标。
-10.项目联系人姓名及电话：
-采购人：西北民族大学
-地址：甘肃省兰州市城关区西北新村1号
-邮编：730030
-联系人：田斐予
-联系电话：0931-2938080
-代理机构：甘肃省通信产业服务有限公司
-地址：兰州市城关区平凉路366号
-邮编：730030
-联系人：胡昕
-联系电话：153********6899
-2025年9月3日</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>天津市公共资源交易平台交易系统</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/120000/0201/202509/03/0012c15c54fd54574e73a7e96961b932eff4.shtml</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告
-&lt;!--
-var currentpos, timer;
-function initialize() {
-timer = setInterval("scrollwindow()", 60);
-}
-function sc() {
-clearInterval(timer);
-}
-function scrollwindow() {
-window.scrollBy(0, 1);
-}
-document.onmousedown = sc
-document.ondblclick = initialize
-//--&gt;
-天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告
-发布日期：2025年09月03日    发布来源：天津市南洋工业学校
-项目概况
-2025年创优赋能建设人工智能创新应用综合实训设备采购项目招标项目的潜在投标人应在天津市津南区双港镇海天南苑13号楼203室获取招标文件，并于2025年09月24日 09点30分（北京时间）前递交投标文件。
-一、项目基本情况
-项目编号：FSZB-2025-086
-项目名称：2025年创优赋能建设人工智能创新应用综合实训设备采购项目
-预算金额：93.4万元
-最高限价：93.4万元
-采购需求：
-包号
-是否设置最高限价
-预算（万元）
-最高限价（万元）
-采购目录
-采购需求
-第1包
-是
-93.4
-93.4
-其他电气设备
-2025年创优赋能建设人工智能创新应用综合实训设备采购项目，详见项目需求书
-合同履行期限：货到：签订合同之日起30天内（特殊情况以合同为准）。
-安装（施工）完成：货到之日起7个工作日内（特殊情况以合同为准）。
-本项目不接受联合体参与        ，本项目不接受进口产品 
-二、申请人的资格要求：
-1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：（一）按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，根据开标当日开标时间之前“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）的信息，对列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的投标人，拒绝参与政府采购活动，同时对信用信息查询记录和证据进行打印存档。
-（二）按照财政部、工业和信息化部关于《政府采购促进中小企业发展管理办法》的通知（财库〔2020〕46号）的规定，本项目是专门面向中小企业采购的项目。
-（三）根据财政部、司法部关于政府采购支持监狱企业发展有关问题的通知（财库【2014】
-68号）第二条约定在政府采购活动中，监狱企业视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。
-（四）根据《财政部民政部中国残疾人联合会关于促进残疾人就业政府采购政策的通知》（财库〔2017〕141号）的规定，残疾人福利性单位视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。
-注：小微企业以投标人填写的《中小企业声明函》为判定标准，残疾人福利性单位以投标人填写的《残疾人福利性单位声明函》为判定标准，监狱企业须投标人提供由省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具的属于监狱企业的证明文件，否则不予认定。以上政策不重复享受。符合小微企业划分标准的个体工商户，在政府采购活动中视同小微企业。  本项目专门面向中小企业采购；
-3.本项目的特定资格要求：（一）投标人须具备《中华人民共和国政府采购法》第二十二条第一款规定的条件，提供以下材料：
-1.须具有独立承担民事责任的能力，提供营业执照副本或事业单位法人证书或民办非企业单位登记证书或社会团体法人登记证书或基金会法人登记证书复印件并加盖公章或自然人的身份证明复印件并由本人签字或盖人名章。
-2.财务状况报告等相关材料：提供2023年度或2024年度经第三方会计师事务所审计的企业财务报告扫描件（应包括完整的审计报告和财务报表）或提供投标截止日期前近3个月内银行出具的资信证明复印件并加盖公章。
-3.提供2025年至开标截止之日起至少1个月的依法缴纳税收和社会保障资金（专用收据或社会保险缴纳清单等）的相关证明材料复印件并加盖公章。
-纳税零申报投标人应当按照以下任意一种方式提供相应证明文件：1）税务大厅零申报报表且加盖受理章；2）网络申报截图复印件加盖公章。
-依法免税或不需要缴纳社会保障资金的投标人，应提供税务机关出具的依法免税的证明文件或社会保险基金管理部门出具的不需要缴纳社会保障资金的证明文件。
-新成立的投标人按实际的缴纳情况递交相关证明。
-4.投标截止日前3年在经营活动中没有重大违法记录的书面声明（截至开标日成立不足3年的投标人可提供自成立以来无重大违法记录的书面声明）。
-注：按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，实际查询结果以采购代理机构于开标当日，开标时间时打印的信用中国、中国政府采购网的查询结果为准。
-5.本项目专门面向中小企业，须提供中小企业声明函。
-6.本项目不接受联合体投标，投标人须提供《非联合体投标声明函》。
-三、获取招标文件
-时间：2025年09月03日到 2025年09月10日，每天上午09:00至12:00，下午14:00至17:00（北京时间，法定节假日除外）
-地点：天津市津南区双港镇海天南苑13号楼203室
-方式：（1）现场获取文件：提供营业执照复印件加盖公章获取投标文件：（2）网上获取：提供营业执照复印件加盖公章并注明单位名称、项目名称、项目编号与汇款凭证一起发送至本邮箱：tianjinfusong@163.com；请在汇款备注栏注明：项目编号+单位简称（如需开票请提供开票信息）采购代理机构开户信息1.单位名称：天津福松工程项目管理有限公司2.开户银行：中国农业银行股份有限公司天津东城支行3.银行账号：02071601040010851
-售价：300元
-四、提交投标文件截止时间、开标时间和地点
-2025年09月24日 09点30分（北京时间）。
-地点：天津市津南区双港镇海天南苑13号楼201室
-五、公告期限
-自本公告发布之日起5个工作日。
-六、其他补充事宜
-七、对本次招标提出询问，请按以下方式联系。
-1.采购人信息
-名称：天津市南洋工业学校
-地址：天津市津南区咸水沽镇津沽路700号
-联系方式：022-88918632
-2.采购代理机构信息
-名称：天津福松工程项目管理有限公司
-地址：天津市津南区双港镇海天南苑13号楼203室
-联系方式：022-28219819
-3.项目联系方式
-项目联系人：李小松
-电　话：022-28219819
-其他附件文件下载
-项目需求书.docx
-天津福松工程项目管理有限公司      
-2025年09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>广西机电设备招标有限公司关于土地变更调查与遥感监测项目 （项目编号：NNZC2025-G3-990993-JDZB）公开招标公告</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>南宁市公共资源交易中心</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/450000/0201/202509/03/0045ae4449f794e24a80a3044f54be2fe784.shtml</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>项目概况
-土地变更调查与遥感监测项目招标项目的潜在投标人应在“广西政府采购云平台”（https://www.gcy.zfcg.gxzf.gov.cn/）获取（下载）招标文件，并于2025年9月24日9点30分00秒（北京时间）前递交（上传）投标文件。
-一、项目基本情况
-1.项目编号：NNZC2025-G3-990993-JDZB 
-2.项目名称：土地变更调查与遥感监测项目
-3.预算金额：9144110.00元。
-4.最高限价（如有）：9144110.00元。
-5.采购需求：土地变更调查与遥感监测项目1项。如需进一步了解详细内容，详见招标文件。
-6.提交服务成果时间：2025年11月30日前提交本项目所有成果资料。
-7.本项目是否接受联合体投标：?是，R否。
-二、投标人的资格要求：
-1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：
-□专门面向中小企业采购的项目（供应商应为中小微企业、监狱企业、残疾人福利性单位)
-?非专门面向中小企业采购的项目
-3.本项目的特定资格要求：具有自然资源行政主管部门颁发有效的乙级或以上测绘资质，专业须包含：地理信息系统工程、界线与不动产测绘、测绘航空摄影或摄影测量与遥感、工程测量
-4. 本项目的特定条件：无
-5. 单位负责人为同一人或者存在直接控股、管理关系的不同供应商，不得参加同一合同项下的政府采购活动。为本项目提供过整体设计、规范编制或者项目管理、监理、检测等服务的供应商，不得再参加本项目上述服务以外的其他采购活动。
-6. 对在“信用中国”网站(www.creditchina.gov.cn) 、中国政府采购网(www.ccgp.gov.cn)被列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的供应商，不得参与政府采购活动。
-三、获取招标文件
-时间：自公告发布之日起至投标截止时间止。
-获取方式:网上下载。本项目不发放纸质文件，投标人可自行在本公告“六、其他补充事宜”中网上查询地址的信息公告处下载招标文件。电子投标文件制作需要基于“广西政府采购云平台”（https://www.gcy.zfcg.gxzf.gov.cn/）获取的招标文件编制，拟参与本项目的潜在投标人需使用账号登录或者使用CA登录“广西政府采购云平台”平台-进入“项目采购”应用，在获取招标文件菜单中选择项目，获取招标文件。
-售价：0元。
-四、提交投标文件截止时间、开标时间和地点
-1、提交投标文件截止时间和开标时间：2025年09月24日09 时30分（北京时间）
-2、投标和开标地点：
-（1）投标文件提交方式：本项目为南宁市全流程电子化项目，通过“广西政府采购云平台”（https://www.gcy.zfcg.gxzf.gov.cn/）实行在线电子投标，投标人应先安装“广西政府采购云平台电子交易客户端”（请自行前往“广西政府采购云平台”进行下载），并按照本项目招标文件和“广西政府采购云平台”的要求编制、加密后在投标截止时间前通过网络上传至南宁市本级“广西政府采购云平台”，投标人在“广西政府采购云平台”提交电子版投标文件时，请填写参加远程开标活动经办人联系方式，电子投标具体操作流程详见本公告附件3。
-（2）未进行网上注册并办理数字证书（CA认证）的投标人将无法参与本项目政府采购活动，潜在投标人应当在投标截止时间前，完成电子交易平台上的CA数字证书办理（申领流程见本公告附件2）及投标文件的提交。完成CA数字证书办理预计7日左右，投标人只需办理其中一家CA数字证书及签章，建议各投标人抓紧时间办理。
-（3）为确保网上操作合法、有效和安全，请投标人确保在电子投标过程中能够对相关数据电文进行加密和使用电子签章，妥善保管CA数字证书并使用有效的CA数字证书参与整个招标活动。
-注：投标人应当在投标截止时间前完成电子投标文件的上传、递交，投标截止时间前可以补充、修改或者撤回投标文件。补充或者修改投标文件的，应当先行撤回原文件，补充、修改后重新上传、递交。投标截止时间前未完成上传、递交的，视为撤回投标文件。投标截止时间以后上传递交的投标文件“广西政府采购云平台”将予以拒收。
-（4）开标地点：本次招标将于2025年09月24日09 时30分在“广西政府采购云平台”电子开标大厅开标。
-（5）CA证书在线解密：投标人投标时，需携带制作投标文件时用来加密的有效数字证书（CA认证）登录“广西政府采购云平台”电子开标大厅现场按规定时间对加密的投标文件进行解密，否则后果自负。
-五、公告期限
-自本公告发布之日起5个工作日。
-六、其他补充事宜
-1.投标保证金：本项目不收取投标保证金
-2.采购意向公开链接 ：
-http://www.ccgp-guangxi.gov.cn/site/detail?categoryCode=reformColumn&amp;parentId=66601&amp;articleId=qRBMbg8KXZRmxsK4QZoIEg==
-3.网上查询地址
-http://www.ccgp.gov.cn (中国政府采购网),http://zfcg.gxzf.gov.cn (广西政府采购网) , http://ggzy.jgswj.gxzf.gov.cn/nnggzy/ (全国公共资源交易平台（广西·南宁）)
-4. 本项目需要落实的政府采购政策：
-（1）政府采购促进中小企业发展。
-（2）政府采购支持采用本国产品的政策。
-（3）强制采购节能产品；优先采购节能产品、环境标志产品。
-（4）政府采购促进残疾人就业政策。
-（5）政府采购支持监狱企业发展。
-（6）扶持不发达地区和少数民族地区政策
-5.投标人认为招标文件使自己的权益受到损害的，可以在知道或者应知其权益受到损害之日起7个工作日内，以书面形式向采购人、采购代理机构提出质疑。质疑投标人对采购人、采购代理机构的答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在答复期满后十五个工作日内向同级政府采购监督管理部门投诉。
-6. 若对项目采购电子交易系统操作有疑问，可登录“广西政府采购云平台”（https://www.gcy.zfcg.gxzf.gov.cn/），点击右侧咨询小采，获取采小蜜智能服务管家帮助，或拨打广西政府采购云平台服务热线95763获取热线服务帮助。
-7.采购计划编号：NNZC[2025]5541号-001、NNZC[2025]5541号-002、NNZC[2025]5541号-003        
-七、对本次招标提出询问，请按以下方式联系。
-1.采购人信息
-名 称：南宁市自然资源局
-地址：南宁市锦春路3-1号
-项目联系人：陈虹颖
-联系电话：0771-5609207
-2.采购代理机构信息
-名 称：广西机电设备招标有限公司
-地　址：广西南宁市金湖路63号金源CBD现代城7层
-联系电话：0771-2808981
-3.项目联系方式
-项目联系人：梁艳冰、谭玉华、黄晓蕾
-电话：0771-2808981
-附件： 1.招标文件
-2.CA证书申请方式及操作指南下载地址（现场申请方式见网址：http://www.ccgp-guangxi.gov.cn/OfficeService/DownloadArea/8354055.html?utm=a0003.39a112b4.cmp001.d0002.f0464b20ff2a11eb873141bf9e381949（广西政府采购网）/网上申请方式见网址： http://nncz.nanning.gov.cn/（南宁市财政局官网）-下载专区-南宁市广西政府采购云平台CA证书办理操作指南）
-3.电子投标文件制作与投送教程（在此网址下载：http://nncz.nanning.gov.cn/（南宁市财政局官网）-下载专区）
-广西机电设备招标有限公司
-2025年09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院新型基础测绘与实景三维建设竞争性磋商公告</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>湖北省政府采购网</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/420000/0201/202509/04/004234aef5f766444fd1919c9ab41db661cb.shtml</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院新型基础测绘与实景三维建设竞争性磋商公告		
-发布日期：2025-09-03 16:48｜发布单位：武汉渤正项目管理有限公司｜文件递交截止时间：2025-09-16｜项目监管地：省本级|阅读次数：	
-【项目概况】
-新型基础测绘与实景三维建设采购项目的潜在供应商应在湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。获取采购文件，并于2025年09月16日10点00分（北京时间）前提交响应文件。
-一、项目基本情况	
-1、项目编号：WHBZC-2025-143		
-2、采购计划备案号：420000-2025-07675		
-3、项目名称：新型基础测绘与实景三维建设		
-4、采购方式：竞争性磋商		
-5、预算金额：50.000000(万元)	
-6、最高限价：50.000000(万元)	
-7、采购需求：	
-详见竞争性磋商文件第三章		
-8、合同履行期限：合同签订之日起至2025年12月05日前完成	
-9、本项目（是/否）接受联合体投标：否  			
-10、是否可采购进口产品：否           
-11、本项目（是/否）接受合同分包：否          
-12、本项目（是/否）专门面向中小微企业：是 	      
-13、面向中小微企业的类型为：小微企业	    	
-二、申请人的资格要求	
-1、满足《中华人民共和国政府采购法》第二十二条规定，即：	
-（1）具有独立承担民事责任的能力；	
-（2）具有良好的商业信誉和健全的财务会计制度；	
-（3）具有履行合同所必需的设备和专业技术能力；	
-（4）有依法缴纳税收和社会保障资金的良好记录；	
-（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录；	
-（6）法律、行政法规规定的其他条件。		
-2、单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加本项目同一合同项下的政府采购活动。	
-3、为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得再参加本项目的其他招标采购活动。	
-4、未被列入失信被执行人、重大税收违法失信主体，未被列入政府采购严重违法失信行为记录名单。	
-5、落实政府采购政策需满足的资格要求：	
-本采购项目是专门面向中小企业采购项目，供应商应为符合《政府采购促进中小企业发展管理办法》（财库【2020】46号）规定的中小企业，并按管理办法附件格式提供中小企业声明函。		
-6、本项目的特定资格要求：	
-（1）供应商须具备测绘行政主管部门颁发的乙级及以上测绘资质；（2）本项目不接受联合体投标；（3）本项目不接受合同分包。		
-三、获取采购文件	
-1、时间：2025年09月04日至2025年09月10日，每天00:00至12:00，12:00至24:00（北京时间，法定节假日除外）			
-2、地点：湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。	
-3、方式：	
-供应商在布络供应商客户端选择已经发布公告的项目进行报名并下载招标文件			
-4、售价：0(元)	
-四、响应文件提交	
-1、开始时间：2025年09月04日00点00分（北京时间）		
-2、截止时间：2025年09月16日10点00分（北京时间）		
-3、地点：通过布络供应商客户端选择项目分包进入文件递交页面进行递交	
-五、开启	
-1、时间：2025年09月16日10点00分（北京时间）		
-2、地点：布络湖北政府采购电子交易系统		
-六、公告期限	
-自本公告发布之日起3个工作日。	
-七、其他补充事宜	
-1.以上所称供应商投标系统是与湖北省政府采购电子交易数据汇聚平台完成对接的供应商投标系统。2.供应商在湖北省政府采购电子交易数据汇聚平台（https://czt.hubei.gov.cn/zchj/user）完成注册并办理 CA后方可下载本项目采购文件，操作指南下载地址：https://czt.hubei.gov.cn/zchj/zIndex/details供应商获取文件及CA办理等相关事宜详见供应商操作指南(https://hbzc.bossbolo.com/help/index.html)		
-八、凡对本次采购提出询问，请按以下方式联系	
-1、采购人信息	
-名   称：湖北省航测遥感院		
-地   址：武汉市洪山区民族大道39号湖北测绘大厦		
-联系方式：027-87850867		
-2、采购代理机构信息	
-名   称：武汉渤正项目管理有限公司		
-地   址：武汉市国家农业科技园创业中心13楼1318		 
-联系方式：027-86615324	  	
-3、项目联系方式	
-项目联系人：刘工		
-电   话：027-86615324</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院数据技术服务竞争性磋商公告</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>湖北省政府采购网</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/420000/0201/202509/04/004208154a0449ea40febd9e0960e4c608b4.shtml</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>湖北省航测遥感院数据技术服务竞争性磋商公告		
-发布日期：2025-09-03 15:51｜发布单位：武汉渤正项目管理有限公司｜文件递交截止时间：2025-09-16｜项目监管地：省本级|阅读次数：	
-【项目概况】
-数据技术服务采购项目的潜在供应商应在湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。获取采购文件，并于2025年09月16日09点30分（北京时间）前提交响应文件。
-一、项目基本情况	
-1、项目编号：WHBZC-2025-142		
-2、采购计划备案号：420000-2025-07221		
-3、项目名称：数据技术服务		
-4、采购方式：竞争性磋商		
-5、预算金额：42.000000(万元)	
-6、最高限价：42.000000(万元)	
-7、采购需求：	
-详见竞争性磋商文件第三章		
-8、合同履行期限：合同签订之日起至2025年10月15日前完成	
-9、本项目（是/否）接受联合体投标：否  			
-10、是否可采购进口产品：否           
-11、本项目（是/否）接受合同分包：否          
-12、本项目（是/否）专门面向中小微企业：是 	      
-13、面向中小微企业的类型为：小微企业	    	
-二、申请人的资格要求	
-1、满足《中华人民共和国政府采购法》第二十二条规定，即：	
-（1）具有独立承担民事责任的能力；	
-（2）具有良好的商业信誉和健全的财务会计制度；	
-（3）具有履行合同所必需的设备和专业技术能力；	
-（4）有依法缴纳税收和社会保障资金的良好记录；	
-（5）参加政府采购活动前三年内，在经营活动中没有重大违法记录；	
-（6）法律、行政法规规定的其他条件。		
-2、单位负责人为同一人或者存在直接控股、管理关系的不同投标人，不得参加本项目同一合同项下的政府采购活动。	
-3、为本采购项目提供整体设计、规范编制或者项目管理、监理、检测等服务的，不得再参加本项目的其他招标采购活动。	
-4、未被列入失信被执行人、重大税收违法失信主体，未被列入政府采购严重违法失信行为记录名单。	
-5、落实政府采购政策需满足的资格要求：	
-本采购项目是专门面向中小企业采购项目，供应商应为符合《政府采购促进中小企业发展管理办法》（财库【2020】46号）规定的中小企业，并按管理办法附件格式提供中小企业声明函。		
-6、本项目的特定资格要求：	
-（1）供应商须具备测绘行政主管部门颁发的乙级及以上测绘资质；（2）本项目不接受联合体投标；（3）本项目不接受合同分包。		
-三、获取采购文件	
-1、时间：2025年09月04日至2025年09月10日，每天00:00至12:00，12:00至24:00（北京时间，法定节假日除外）			
-2、地点：湖北省政府采购电子交易数据汇聚平台（网址：https://czt.hubei.gov.cn/zchj/user）或布络供应商客户端。	
-3、方式：	
-供应商在布络供应商客户端选择已经发布公告的项目进行报名并下载招标文件			
-4、售价：0(元)	
-四、响应文件提交	
-1、开始时间：2025年09月04日00点00分（北京时间）		
-2、截止时间：2025年09月16日09点30分（北京时间）		
-3、地点：通过布络供应商客户端选择项目分包进入文件递交页面进行递交	
-五、开启	
-1、时间：2025年09月16日09点30分（北京时间）		
-2、地点：布络湖北政府采购电子交易系统		
-六、公告期限	
-自本公告发布之日起3个工作日。	
-七、其他补充事宜	
-1.以上所称供应商投标系统是与湖北省政府采购电子交易数据汇聚平台完成对接的供应商投标系统。2.供应商在湖北省政府采购电子交易数据汇聚平台（https://czt.hubei.gov.cn/zchj/user）完成注册并办理 CA后方可下载本项目采购文件，操作指南下载地址：https://czt.hubei.gov.cn/zchj/zIndex/details供应商获取文件及CA办理等相关事宜详见供应商操作指南(https://hbzc.bossbolo.com/help/index.html)		
-八、凡对本次采购提出询问，请按以下方式联系	
-1、采购人信息	
-名   称：湖北省航测遥感院		
-地   址：武汉市洪山区民族大道39号湖北测绘大厦		
-联系方式：027-87850867		
-2、采购代理机构信息	
-名   称：武汉渤正项目管理有限公司		
-地   址：武汉市国家农业科技园创业中心13楼1318		 
-联系方式： 027-86615324	  	
-3、项目联系方式	
-项目联系人：刘工		
-电   话： 027-86615324</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>巫山县遥感智能服务项目</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/500000/0101/202509/03/005071376f7883c44317b19e1ecdeb1107b4.shtml</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>巫山县遥感智能服务项目招标公告
-1.招标条件
-本招标项目巫山县遥感智能服务项目已由巫山县发展和改革委员会以重庆市企业投资项目备案证（项目代码：2504-500237-04-04-767791）批准建设，项目业主为重庆巫山经济信息咨询有限公司，建设资金来自业主自筹，项目出资比例为100%，招标人为重庆巫山经济信息咨询有限公司。项目已具备招标条件，现对本项目采购进行公开招标。
-2.项目概况与招标范围
-2.1 建设地点：巫山县巫峡镇白泉村
-2.2 项目概况与建设规模：改建遥感智能中心1450.67㎡，其中包括接待区、展示区、控制操作室，主要建设内容包括智能化系统及设备采购、装饰装修等。
-2.3 本次招标项目货物采购估算金额：1390.00万元
-2.4 招标范围：包括完成本项目的供货（制造，含备品、备件、专用工器具等）、装配（含出厂前组装、测试和检验、现场整体组装等）、装卸、运输（含包装、保险）、安装（或指导安装）、调试、考核、验收，以及质量保证期内的维修、维护、保养、人员培训和其它相关伴随服务等工作内容。
-2.5 交货地点：巫山县巫峡镇白泉村。
-2.6 交货期：60日历天。
-2.7 质量保证期：自验收之日起1年质保。
-□2.8 标段划分：    /     
-2.9 其他：    /     
-3.政府采购工程
-3.投标人资格要求
-3.1  本次招标允许投标人以投标货物的下列身份参加投标：
-?制造商
-?代理商（包括经销商、制造商下属销售子公司）
-?3.1.1 投标人为制造商应符合以下要求：
-（1）具备有效的营业执照；
-（2）具备有效的机电工程施工总承包三级及以上资质；
-?3.1.2 投标人为代理商应符合以下要求：
-（1）具备有效的营业执照；
-（2）具备有效的机电工程施工总承包三级及以上资质；
-（3）具有投标货物制造商授权书；
-注：本招标项目同一标段中，一个制造商对同一品牌同一型号的货物，仅能委托一个代理商参加投标，否则各相关投标均无效；同一品牌同一型号货物的制造商和代理商不得在本招标项目同一标段中投标，否则各相关投标均无效。上述要求针对本次招标的核心设备为：LED屏、分布式输入节点、分布式输出节点提供授权书。
-（4）投标货物制造商应为代理商提供投标核心设备货物制造商有效的投标货物授权书。
-3.2  投标人还应在业绩、资金、人员等方面具有相应的供货能力，详见招标文件第二章投标人须知前附表第1.4.1项内容。
-3.3  本次招标?不接受联合体投标。联合体投标的，详见招标文件第二章投标人须知前附表第1.4.2项内容。
-.技术成果经济补偿
-本次招标对未中标人投标文件中的技术成果给予经济补偿。 给予经济补偿的，招标人将按如下标准支付经济补偿费：
-4.招标文件的获取
-4.1本招标项目采用全流程电子招投标，投标人在投标前可在重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）下载招标文件、工程量清单、电子图纸等资料。参与投标的投标人需在重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）完成市场主体信息登记以及CA数字证书办理，办理方式请参见重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）导航栏“主体信息”页面中“市场主体信息登记”、“CA 数字证书办理”。若投标人未及时完成市场主体信息登记和CA数字证书办理导致无法完成全流程电子招投标的，责任自负。
-4.2投标人可在重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）本项目招标公告网页下方“我要提问”栏提出疑问，提问时间从本公告发布至2025-09-07 17:00:00（北京时间）前。
-4.3招标人应于2025-09-08 17:00:00（北京时间）前在重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）发布澄清。
-5.投标文件递交的内容
-5.1投标文件递交的截止时间（投标截止时间，下同）为2025-09-23 09:30，投标人应当在投标截止时间前，通过互联网使用CA数字证书登录重庆市电子招投标系统，将加密的电子投标文件上传。
-5.2未按要求加密的电子投标文件，将无法上传至重庆市电子招投标系统，逾期未完成投标文件上传的，视为撤回投标文件。
-6.发布公告的媒介
-本次招标公告同时在重庆市公共资源交易监督网、重庆市公共资源交易网（巫山县）发布。[提示：依法必须招标项目的招标公告，必须在重庆市公共资源交易监督网上发布。]
-7.联系方式
-招标人:
-重庆巫山经济信息咨询有限公司
-代理机构:
-重庆丹铭项目管理有限公司
-地址:
-地址:
-联系人:
-陈海君
-联系人:
-程莉
-电子邮箱:
-电子邮箱:
-邮编:
-邮编:
-联系电话:
-18083024444
-联系电话:
-18996201777
-传真:
-传真:
-开户银行:
-开户银行:
-账号:
-账号:
-监督部门:
-电话:
-2025年09月02日</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>智慧城市综合管理服务中心项目(一期）招标公告</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>滨州市公共资源电子交易系统</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/370000/0101/202509/03/00373ef52c88657b48a584e0906e93fd8144.shtml</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>智慧城市综合管理服务中心项目(一期）招标公告 
-本招标项目智慧城市综合管理服务中心项目(一期），项目已具备招标条件，现对智慧城市综合管理服务中心项目(一期）进行公开招标，有关事项公告如下： 
-一、项目概况与招标范围 
-1、项目编号：BZWDGC-2025-048 
-2、项目名称：智慧城市综合管理服务中心项目(一期） 
-3、建设地点：无棣县丰达建设工程集团有限公司办公楼一楼西大厅和无棣县住房和城乡建设局一楼西大厅 
-4、招标内容：智慧城市综合管理服务中心项目(一期），8项建设内容：①公共服务基础支撑建设；②基础设施升级；③公共服务运营中心建设；④城市运行一网统揽建设开发软件；⑤城市运行一网统揽建设成品软件；⑥公共服务智能公文建设；⑦公共服务视频共享建设开发软件；⑧公共服务视频共享建设成品软件。 
-5、计划投资：3661.7万元。 
-6、资金来源：债券资金 
-7、建设工期：12个月 
-8、标段划分：本项目一个标段。 
-9、所采购设备的名称、数量、技术规格、交货地点、交货期：详见招标文件 
-二、投标人资格要求 
-1、本次招标要求投标人须在国内登记注册，具有独立法人资格，财务状况良好，并在人员、设备、资金等方面具有相应的供货能力且能完成本项目的全部要求。 
-2、本次招标不接受联合体投标。 
-3、本项目实行资格后审。 
-三、招标文件的获取 
-拟投标企业请于2025年09月03日上午08：30时至2025年09月10日下午18：00时登陆滨州市公共资源交易平台免费下载招标文件（文件格式为.bzzf）、图纸等资料，逾期无法下载且无法参与投标，并在投标截止时间前及时关注滨州市公共资源交易中心平台答疑文件下载栏目。 
-电子投标文件制作工具及视频教程请参考滨州市公共资源交易系统登录界面“平台帮助”栏目和滨州市公共资源交易中心网站“办事指南”栏目。 
-未进入滨州市公共资源交易平台的企业登陆滨州市公共资源交易中心网站（http://jypt.bzggzyjy.cn/bzweb/）点击“公共资源交易服务大厅---企业入口”，填写企业相关信息并上传有关资料的原件扫描件，待网上注册后即可下载招标文件。 
-本工程 不 组织现场勘查和投标预备会。 
-四、投标文件的递交 
-1、投标文件递交的截止时间（投标截止时间，下同）为2025年09月25日09：00时。 
-2、投标文件递交方式：将电子投标文件传送到滨州市公共资源交易平台投标文件上传栏目。 
-3、逾期送达的投标文件，招标人不予受理。 
-五、发布媒体： 
-1、《中国滨州》（http://www.binzhou.gov.cn） 
-2、《滨州市公共资源交易中心》（http://jypt.bzggzyjy.cn/bzweb/） 
-3、《山东省公共资源交易网》（http://ggzyjy.shandong.gov.cn/） 
-4、《中国招标投标公共服务平台》（http://www.cebpubservice.com） 
-六、联系方式 
-招标人：无棣县丰达建设工程集团有限公司  
-地  址：滨州市无棣县棣丰街道棣新四路588号 
-联系人及电话：王主任  0543-6789001（同时为接受异议的联系人及联系电话） 
-招标代理机构：滨州齐辰项目管理有限公司 
-地   址：无棣县新区温州步行街D6号楼 
-联系人及电话： 冯工 13792283389  
-公告备案单位：无棣县大数据中心 
-2025 年 09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>遂宁市河东新区智慧城市基础设施项目遂宁市河东新区智慧城市基础设施项目-监理-1</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>四川</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/510000/0101/202509/03/0051c0d043727d6d473a89719dafc3d76947.shtml</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>遂宁市河东新区智慧城市基础设施项目遂宁市河东新区智慧城市基础设施项目-监理-1
-遂宁市河东新区智慧城市基础设施项目（一期）(项目名称)监理 / 标段招标公告
-1. 招标条件
-1.1本招标项目遂宁市河东新区智慧城市基础设施项目（一期）(项目名称)已由遂宁市河东新区发展改革局(项目审批、核准或备案机关名称)以遂东区发投[2022]038号（批文名称及编号）批准建设，项目业主为遂宁市新城建设投资有限公司，建设资金来自债券融资、银行贷款（资金来源），项目出资比例为100%，招标人为遂宁市新城建设投资有限公司。项目已具备招标条件，现对该项目的监理进行公开招标。
-1.2本招标项目由遂宁市河东新区发展改革局（核准机关名称）核准（招标事项核准文号为遂东区发投[2022]038号）的招标组织形式为委托招标。招标人选择的招标代理机构是四川华建西北工程咨询有限公司。
-2. 项目概况与招标范围
-2.1 建设地点：河东新区。
-2.2 项目规模：遂宁市河东新区智慧城市基础设施项目（一期）设计为城市支路，道路全长约3km，设计车速40Km/h，规划标准路幅宽18m。具体内容详见本项目施工图纸及相关说明和招标工程量清单所示全部工作内容。
-2.3监理服务期：从开工之日起至本工程缺陷责任期满（具体开工日期以批准的开工报告为准）。施工计划工期：360日历天。
-2.4招标范围：本项目的工程施工全过程监理，包含施工图和财评控制价所有内容及招标人预留工程总造价内容和工程变更及其后的缺陷责任期内监理服务。
-2.5标段划分：监理一个标段 。
-（说明本次招标项目的建设地点、规模及投资额、监理服务期限、招标范围、标段划分及标段投资额等）。
-3. 投标人资格要求
-3.1本次招标要求投标人须具备
-3.1.1资质要求：具备独立法人资格、具备国家建设行政主管部门颁发的市政公用工程监理丙级及以上资质。
-3.1.2业绩要求：无业绩要求。
-3.1.3总监理工程师的资格要求：具有全国注册监理工程师（专业：市政公用工程专业）执业证书， / （业绩要求） ，须为本单位人员（若为联合体投标，须为联合体牵头人人员）。
-3.2本次招标不接受联合体投标。联合体投标的，应满足下列要求： / 。
-4. 招标文件的获取
-4.1 凡有意参加投标者，请于2025年 9月3日00时00分至2025年9月23日17时00分开始登陆：全国公共资源交易平台（四川省· 遂宁市）（网址：http://www.snsggzy.com）—“登录”—“遂宁市建设工程网上交易后台管理系统”，通过数字证书免费下载招标资料（招标文件、技术资料等）。（报名结束时间为2025年9月23日17时00分）。
-4.2 招标人不提供招标文件获取的其他方式。
-5. 投标文件的递交
-投标文件递交的截止时间（投标截止时间，下同）为2025年9月24 日 9 时 30 分，投标人应在投标截止时间前在线递交经投标人数字证书加密的数据电文形式投标文件。
-6. 发布公告的媒介
-本次招标公告在《全国公共资源交易平台（四川省）》和全国公共资源交易平台（四川省·遂宁市）(公告发布的其它媒介名称）上发布。
-7. 联系方式
-招 标 人：遂宁市新城建设投资有限公司
-地    址：遂宁市河东新区香林北路243号
-邮    编：629000
-联 系 人：郑女士
-电    话：0825-2922251
-传    真：     /    
-电子邮件：     /    
-网    址：     /    
-开户银行：     /    
-账    号：     /    
-招标代理机构：四川华建西北工程咨询有限公司
-地    址：成都市金牛区蜀西路52号2栋B座1804-1号
-邮    编：610000
-联 系 人：李先生
-电    话：028-86157858
-传    真：    /     
-电子邮件：    /     
-网    址：    /     
-开户银行：    /     
-账    号：    /</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>数字古田智慧城市能力提升项目（应急广播体系建设工程）项目终止通知[第(1)次答疑]</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>宁德市公共资源交易中心</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/350000/0101/202509/03/00356af94362d08542e595a447d29fc7a7de.shtml</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>致各投标人：
-招标人(招标代理单位)对招标项目编号为E3509220902100316001的“数字古田智慧城市能力提升项目（应急广播体系建设工程）”有关通知如下：
-由于本招标项目需要进行调整，现终止本次招投标活动，待调整后重新发布招标公告。
-本公告在福建省公共资源交易电子公共服务平台（https://ggzyfw.fujian.gov.cn/）及宁德市公共资源电子交易平台（http://ggzyjy.xzfw.ningde.gov.cn/）发布，各投标人应自行留意，若因投标人的疏忽而未及时发现本项目的相关信息，由此引起的后果及损失由各投标人自行承担。
-给投标人带来不便，敬请谅解！
-招标人：古田县城市建设投资开发有限公司
-招标代理机构：福建省鸿远招标有限公司
-2025年9月3日</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>实景三维郯城建设项目二次招标公告</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>临沂市公共资源电子交易系统</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>https://www.ggzy.gov.cn/information/html/b/370000/0201/202509/03/0037b8bd33305af04ac9a8fed2eb3251b2a0.shtml</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>全国公共资源交易平台</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>项目概况： 
-郯城县自然资源和规划局实景三维郯城建设的潜在供应商应在临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)获取采购文件，并于2025年9月24日 09时00分（北京时间）前提交响应文件。 
-一、项目基本情况：  
-项目编号：SDGP371322000202502000062  
-项目名称：实景三维郯城建设 
-采购方式：公开招标 
-预算金额：301.8361万元  
-最高限价：301.8361万元  
-采购需求：  
-标的 
-标的名称 
-数量 
-简要技术需求或服务要求 
-本包预算金额（单位：万元） 
-A 
-城市级实景三维郯城建设 
-1 
-详见招标文件 
-156.3361 
-B 
-地形级实景三维郯城建设 
-1 
-详见招标文件 
-145.5 
-合同履行期限：详见招标文件。  
-本项目不接受联合体投标。  
-二、申请人的资格要求：  
-1、满足《中华人民共和国政府采购法》第二十二条规定；  
-2、落实政府采购政策需满足的资格要求：鼓励节能政策、环保政策、中小企业政策、监狱企业政策、残疾人福利性企业政策等。  
-3、本项目的特定资格要求：1、满足《中华人民共和国政府采购法》第二十二条规定的供应商资格要求；2、具有独立承担民事责任的能力，具有良好的商业信誉和健全的财务会计制度；3、具有履行合同所必需的设备和专业技术能力；4、有依法缴纳税收和社会保障资金的良好记录；5、具备有效的营业执照或事业单位法人证书、税务登记证、组织机构代码证（三证或五证合一的只需提供带有社会信用代码的营业执照或事业单位法人证书），须具有测绘主管部门颁发的乙级测绘资质证书（含测绘航空摄影专业、摄影测量与遥感专业），具有独立法人资格； 6、参加政府采购活动前三年内，在经营活动中没有重大违法记录，投标单位未被列入失信被执行人名单、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单，信用信息以“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）公布为准及“中国裁判文书网”（http://wenshu.court.gov.cn/）无行贿记录证明；7、在山东省政府采购信息公开平台注册，在临沂市公共资源交易网办理诚信入库和CA实名认证并进行网上下载招标文件；8、法律、法规及招标文件规定的其他条件。  
-三、获取采购文件：  
-1.时间：2025年09月04日08时30分至2025年09月10日17时00分（北京时间）  
-2.地点：临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)。  
-3.方式：①供应商在获取采购文件截止时间前办理CA认证、诚信入库并登录临沂市公共资源交易网(http://ggzyjy.linyi.gov.cn)在线下载采购文件，未下载采购文件视为自动放弃投标；注：本项目实行网上招投标，潜在投标申请人应自行关注交易平台，因自身贻误行为导致未成功获取招标文件及补充（答疑、澄清）文件，责任自负。供应商需在临沂市公共资源交易网系统中的“招标文件下载”页面下载电子采购文件（.LYZF），并制作电子版投标文件（.LYTF）上传到系统。②本项目采用“不见面开标系统”，各供应商须于响应文件递交截止时间之前将响应文件上传至临沂市公共资源网电子交易平台，各供应商的法定代表授权委托代理人不需到开标现场，只需在投标截止时间前登陆临沂市公共资源交易网“不见面开标系统”参与本项目开标活动。 
-4.售价：0元。  
-四、响应文件提交：  
-1.截止时间：2025年09月24日09时00分（北京时间）  
-2.地 点：临沂市公共资源交易网电子交易平台  
-五、开启：  
-1.开启时间：2025年09月24日09时00分（北京时间）  
-2.开启地点：郯城县公共资源交易中心开标室  
-六、公告期限：  
-自本公告发布之日起5个工作日。  
-七、其他补充事宜：  
-其他补充事宜: 无 
-八、对本次招标提出询问，请按以下方式联系：  
-1、采购人信息  
-名  称：郯城县自然资源和规划局 
-地  址：郯城县建设路东首 
-联系方式：15866999206 
-2、采购代理机构  
-名 称：临沂京棣建设项目管理咨询有限公司  
-地 址：临沂市郯城县郯东路56-9号 
-联系方式：13365392944  
-3、项目联系方式  
-项目联系人：临沂京棣建设项目管理咨询有限公司 
-联系方式：13365392944  
-九、本项目监督部门： 
-名 称：郯城县财政局政府采购监督管理科 
-电 话：0539-6800069</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>http://ggzy.zwfwb.tj.gov.cn:80/jyxxcggg/KR7RL3IhY2lakV9HGu^Ykw.jhtml</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>天津市公共资源交易网</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>天津市南洋工业学校 2025年创优赋能建设人工智能创新应用综合实训设备采购项目 (项目编号:FSZB-2025-086)公开招标公告
-&lt;!--
-var currentpos, timer;
-function initialize() {
-timer = setInterval("scrollwindow()", 60);
-}
-function sc() {
-clearInterval(timer);
-}
-function scrollwindow() {
-window.scrollBy(0, 1);
-}
-document.onmousedown = sc
-document.ondblclick = initialize
-//--&gt;
-项目概况
-2025年创优赋能建设人工智能创新应用综合实训设备采购项目招标项目的潜在投标人应在天津市津南区双港镇海天南苑13号楼203室获取招标文件，并于2025年09月24日 09点30分（北京时间）前递交投标文件。
-一、项目基本情况
-项目编号：FSZB-2025-086
-项目名称：2025年创优赋能建设人工智能创新应用综合实训设备采购项目
-预算金额：93.4万元
-最高限价：93.4万元
-采购需求：
-包号
-是否设置最高限价
-预算（万元）
-最高限价（万元）
-采购目录
-采购需求
-第1包
-是
-93.4
-93.4
-其他电气设备
-2025年创优赋能建设人工智能创新应用综合实训设备采购项目，详见项目需求书
-合同履行期限：货到：签订合同之日起30天内（特殊情况以合同为准）。
-安装（施工）完成：货到之日起7个工作日内（特殊情况以合同为准）。
-本项目不接受联合体参与        ，本项目不接受进口产品 
-二、申请人的资格要求：
-1.满足《中华人民共和国政府采购法》第二十二条规定；
-2.落实政府采购政策需满足的资格要求：（一）按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，根据开标当日开标时间之前“信用中国”网站（www.creditchina.gov.cn）、中国政府采购网（www.ccgp.gov.cn）的信息，对列入失信被执行人、重大税收违法案件当事人名单、政府采购严重违法失信行为记录名单及其他不符合《中华人民共和国政府采购法》第二十二条规定条件的投标人，拒绝参与政府采购活动，同时对信用信息查询记录和证据进行打印存档。
-（二）按照财政部、工业和信息化部关于《政府采购促进中小企业发展管理办法》的通知（财库〔2020〕46号）的规定，本项目是专门面向中小企业采购的项目。
-（三）根据财政部、司法部关于政府采购支持监狱企业发展有关问题的通知（财库【2014】
-68号）第二条约定在政府采购活动中，监狱企业视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。
-（四）根据《财政部民政部中国残疾人联合会关于促进残疾人就业政府采购政策的通知》（财库〔2017〕141号）的规定，残疾人福利性单位视同小型、微型企业，享受预留份额、评审中价格扣除等政府采购促进中小企业发展的政府采购政策。
-注：小微企业以投标人填写的《中小企业声明函》为判定标准，残疾人福利性单位以投标人填写的《残疾人福利性单位声明函》为判定标准，监狱企业须投标人提供由省级以上监狱管理局、戒毒管理局（含新疆生产建设兵团）出具的属于监狱企业的证明文件，否则不予认定。以上政策不重复享受。符合小微企业划分标准的个体工商户，在政府采购活动中视同小微企业。  本项目专门面向中小企业采购；
-3.本项目的特定资格要求：（一）投标人须具备《中华人民共和国政府采购法》第二十二条第一款规定的条件，提供以下材料：
-1.须具有独立承担民事责任的能力，提供营业执照副本或事业单位法人证书或民办非企业单位登记证书或社会团体法人登记证书或基金会法人登记证书复印件并加盖公章或自然人的身份证明复印件并由本人签字或盖人名章。
-2.财务状况报告等相关材料：提供2023年度或2024年度经第三方会计师事务所审计的企业财务报告扫描件（应包括完整的审计报告和财务报表）或提供投标截止日期前近3个月内银行出具的资信证明复印件并加盖公章。
-3.提供2025年至开标截止之日起至少1个月的依法缴纳税收和社会保障资金（专用收据或社会保险缴纳清单等）的相关证明材料复印件并加盖公章。
-纳税零申报投标人应当按照以下任意一种方式提供相应证明文件：1）税务大厅零申报报表且加盖受理章；2）网络申报截图复印件加盖公章。
-依法免税或不需要缴纳社会保障资金的投标人，应提供税务机关出具的依法免税的证明文件或社会保险基金管理部门出具的不需要缴纳社会保障资金的证明文件。
-新成立的投标人按实际的缴纳情况递交相关证明。
-4.投标截止日前3年在经营活动中没有重大违法记录的书面声明（截至开标日成立不足3年的投标人可提供自成立以来无重大违法记录的书面声明）。
-注：按照《财政部关于在政府采购活动中查询及使用信用记录有关问题的通知》（财库〔2016〕125号）的要求，实际查询结果以采购代理机构于开标当日，开标时间时打印的信用中国、中国政府采购网的查询结果为准。
-5.本项目专门面向中小企业，须提供中小企业声明函。
-6.本项目不接受联合体投标，投标人须提供《非联合体投标声明函》。
-三、获取招标文件
-时间：2025年09月03日到 2025年09月10日，每天上午09:00至12:00，下午14:00至17:00（北京时间，法定节假日除外）
-地点：天津市津南区双港镇海天南苑13号楼203室
-方式：（1）现场获取文件：提供营业执照复印件加盖公章获取投标文件：（2）网上获取：提供营业执照复印件加盖公章并注明单位名称、项目名称、项目编号与汇款凭证一起发送至本邮箱：tianjinfusong@163.com；请在汇款备注栏注明：项目编号+单位简称（如需开票请提供开票信息）采购代理机构开户信息1.单位名称：天津福松工程项目管理有限公司2.开户银行：中国农业银行股份有限公司天津东城支行3.银行账号：02071601040010851
-售价：300元
-四、提交投标文件截止时间、开标时间和地点
-2025年09月24日 09点30分（北京时间）。
-地点：天津市津南区双港镇海天南苑13号楼201室
-五、公告期限
-自本公告发布之日起5个工作日。
-六、其他补充事宜
-七、对本次招标提出询问，请按以下方式联系。
-1.采购人信息
-名称：天津市南洋工业学校
-地址：天津市津南区咸水沽镇津沽路700号
-联系方式：022-88918632
-2.采购代理机构信息
-名称：天津福松工程项目管理有限公司
-地址：天津市津南区双港镇海天南苑13号楼203室
-联系方式：022-28219819
-3.项目联系方式
-项目联系人：李小松
-电　话：022-28219819
-其他附件文件下载
-项目需求书.docx
-天津福松工程项目管理有限公司      
-2025年09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>雄安新区人工智能公共研发平台项目设计服务招标公告</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>[惠招标]</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>https://szj.hebei.gov.cn/zbtbfwpt/infogk/newDetail.do?categoryid=101101&amp;infoid=f234437dc260cb8d1fbd2047a29904c0&amp;laiyuan=ptn</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>河北省招标投标公共服务平台</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>1.招标条件
-本招标项目 雄安新区人工智能公共研发平台项目设计服务已由  /  以 /   批准建设，项目业主为雄安未来产业技术研究院  ，建设资金来自新区财政资金 ，出资比例为 100%，资金落实情况为已落实，招标代理机构为国信国际工程咨询集团股份有限公司 ，招标人为 雄安国创中心科技有限公司 。项目已具备招标条件，现对该项目进行公开招标。
-2.项目概况与招标范围
-2.1项目概况：2.1.1项目建设地点：人工智能产业园（华序府创智园）3号楼及4号楼地下。
-2.1.2项目建设规模：建筑面积约为13844平方米。
-2.1.3设计服务期限：从合同签订之日起至竣工验收合格之日止，设计周期共计14日历天。
-2.1.4标段划分：本项目不划分标段。
-2.1.5本次招标项目最高投标限价为1655000.00元。
-2.2招标范围：①对人工智能公共研发平台的实验平台、实验室、办公场地等进行总体方案设计、初步设计、施工图设计、图纸审批、编制工程概算及施工过程的设计配合；②设计人工智能实验设备落位、根据设备使用需求提供相关水暖电设计；③根据精密实验室使用需求提供水暖电及装饰设计、配合环评工作；④对数据机房、UPS室场地及设备搭建提供相关设计；⑤3#地块配电室变压器升级改造及电力计算等。
-3.投标人资格要求
-3.1本次招标对投标人的资格要求如下:
-3.1.1资质要求:资质最低要求：具有国家建设行政主管部门颁发的工程设计综合甲级资质或工程设计建筑行业乙级及以上资质或工程设计建筑行业（建筑工程）专业乙级及以上资质或建筑装饰工程设计专项甲级资质。
-3.1.2业绩要求:业绩最低要求：/。
-3.1.3信誉要求:①本项目对被雄安新区/机构评为严重失信企业且正处在信用评价结果公示期内的投标人不采用（采用或不采用）否决性惩戒方式；
-②本项目对近3年内（从提交投标文件截止之日起倒算）曾被本项目招标人评价为履约不合格的投标人不采用（采用或不采用）否决性惩戒方式；
-③本项目对近2年内（从提交投标文件截止之日起倒算）在本项目招标人实施的项目中存在无正当理由放弃中标资格、拒不签订合同、拒不提供履约担保情形的投标人采用（采用或不采用）否决性惩戒方式；
-④本项目对近3年内（从提交投标文件截止之日起倒算）受到雄安新区政府有关部门警告、罚款等行政处罚，达到/次或累计罚款/元的投标人不采用（采用或不采用）否决性惩戒方式；
-⑤本项目对因违反工程质量、安全生产管理规定，或者因串通投标、转包、以他人名义投标或者违法分包等违法行为，正在接受雄安新区政府有关部门立案调查的投标人不采用（采用或不采用）否决性惩戒方式。
-3.1.4其他要求:不得存在下述法律法规禁止的情形：
-a.投标人为招标人不具有独立法人资格的附属机构（单位）；
-b.投标人与招标人存在利害关系可能影响招标公正性；
-c.投标人单位负责人与同一标段或者未划分标段的同一招标项目的其他投标人的单位负责人为同一人；
-d.投标人与同一标段或者未划分标段的同一招标项目的其他投标人存在控股、管理关系；
-e.投标人为同一标段或者未划分标段的同一招标项目的代建人；
-f.投标人为同一标段或者未划分标段的同一招标项目的招标代理机构；
-g.投标人与同一标段或者未划分标段的同一招标项目的代建人或招标代理机构同为一个法定代表人；
-h.投标人与同一标段或者未划分标段的同一招标项目的代建人或招标代理机构存在控股或参股关系；
-i.投标人被依法暂停或者取消雄安新区投标资格；
-j.投标人被责令停业，暂扣或吊销执照，或吊销资质证书；
-k.投标人进入清算程序，或被宣告破产，或其他丧失履约能力的情形；
-l.投标人在近三年内（从投标文件递交截止之日起倒算）有骗取中标或严重违约或重大设计质量问题（以相关行业主管部门的行政处罚决定或司法机关出具的有关法律文书为准）；
-m.投标人被市场监督管理部门在国家企业信用信息公示系统中列入严重违法失信企业名单；
-n.投标人被最高人民法院在“信用中国”网站（www.creditchina.gov.cn）中列入失信被执行人名单；
-o.在近三年内（从招标公告发布之日起倒算）投标人或其法定代表人、拟委任的设计负责人有行贿犯罪行为；
-p.近一年内（从投标文件递交截止之日起倒算）投标人因串通投标、转包、以他人名义投标或者违法分包等违法行为受到行政处罚；
-q.投标人因违反工程质量、安全生产管理规定等原因被给予行政处罚且在处罚期内（以“信用中国”网站（www.creditchina.gov.cn）公布的处罚及处罚期限为准，未列明处罚期限的视同不在处罚期内）；
-r.投标人因拖欠工人工资被有关部门责令改正而未改正或被列入拖欠工资“失信主体”且在公示期内（以因拖欠工资被列入“信用中国”网站（www.creditchina.gov.cn）严重拖欠农民工工资失信主体的为准）；
-s.投标人在同一标段或者未划分标段的同一招标项目投标中存在串通投标、弄虚作假、行贿等违法行为；
-t.被本项目招标人或招标人上级单位评价为履约不合格且在限制投标期内的或被本项目招标人或招标人上级单位纳入严重失信名单的（包括因拖欠农民工工资被招标人禁止其参加投标活动，本条是对上述招标公告“信誉要求”第②项的修改）；
-u.投标人被“全国建筑市场监管公共服务平台”网站（jzsc.mohurd.gov.cn）列入黑名单或失信联合惩戒被执行人且在有效期；
-v.投标人以弄虚作假方式骗取中标被给予行政处罚且在处罚期内的（以“信用中国”网站（www.creditchina.gov.cn）公布的处罚及处罚期限为准，未列明处罚期限的视同不在处罚期内）；
-w.投标人被雄安新区相关部门列入河北雄安新区工程建设项目招标投标领域“严重失信主体名单”且在限制投标期内的；
-x.投标人在近三年内（从投标文件递交截止之日起倒算）有骗取中标或严重违约或重大设计质量问题（以相关行业主管部门的行政处罚决定或司法机关出具的有关法律文书为准），行政处罚决定或最终法律文书中需明确定性为“骗取中标”或“严重违约”或“重大设计质量”问题，否则不视为具有前述情形）（上述招标公告“不得存在下述法律法规禁止的情形”第L项修改为本条）；
-y.在雄安新区招标范围内，因涉嫌围标、串通投标被立案调查，尚未被调查结束的（上述招标公告“信誉要求”第⑤项修改为本条）；
-z.近一年内（从投标文件递交截止之日起倒算）投标人因串通投标、转包、以他人名义投标或者违法分包等违法行为受到行政处罚（本条以投标文件递交截止当日“信用中国”网站（www.creditchina.gov.cn）公布的行政处罚为准，处罚日期以投标文件递交截止当日“信用中国”网站（www.creditchina.gov.cn）公布的行政处罚决定日期为准）（上述招标公告“不得存在下述法律法规禁止的情形”第p项修改为本条）；
-3.1.5项目负责人资格要求:设计负责人最低要求：1名，具有高级（含）以上技术职称。
-3.2本次招标 不接受  联合体投标。    
-4.招标文件的获取 
-4.1凡有意参加投标者，请于  2025-09-03 18:00  至  2025-09-24 09:29  （北京时间，下同），    登录惠招标电子招投标交易平台（https://www.hbidding.com/） 下载招标文件。
-4.2招标文件售价  0  元，售后不退。
-招标文件每套售价0元，售后不退。技术资料押金0元，在退还技术资料时退还（不计利息）。
-5.    投标文件的递交 
-5.1投标文件递交的截止时间（投标截止时间，下同）为   2025-09-24 09:30:00   ，递交地点/交易平台为   投标人应在投标截止时间前通过惠招标电子招投标交易平台（https://www.hbidding.com/）递交电子投标文件。不得存在下述法律法规禁止的情形：aa.投标人因拖欠工人工资被有关部门责令改正而未改正或被列入拖欠工资“失信主体”且在公示期内（本条以投标文件递交截止当日查询的“信用中国”网站（www.creditchina.gov.cn）“拖欠农民工工资失信联合惩戒对象名单”的为准）（上述招标公告“不得存在下述法律法规禁止的情形”第r项修改为本条）； ab.以上t、u、v、w、x、y、z、aa与信誉要求不一致的，以t、u、v、w、x、y、z、aa条要求为准； ac.投标人为电子招标投标交易平台的运营机构，以及与该机构有控股或者管理关系可能影响招标公正性的单位和个人。上述法律法规禁止情形的评审方式为公开承诺制，接受社会监督。若发现存在上述法律法规禁止的情形，投标人或者其他利害关系人在严格遵守“谁主张、谁举证”原则的前提下可通过“交易平台”向投标人须知前附表规定的行政监督部门投诉。 技术成果经济补偿： 不补偿 （补偿或不补偿） 其他要求：/。 各投标人对多个标段提出投标时，最多允许中标 / （具体数量）个标段（适用于分标段的招标项目）。     。
-5.2 逾期送达的投标文件，电子招标投标交易平台将予以拒收。
-6.    发布公告的媒介 
-本次招标公告同时在  本次招标公告、中标候选人公示及中标结果公示均同时在中国招标投标公共服务平台、河北省招标投标公共服务平台、惠招标电子招投标交易平台   上发布。    
-7. 其他公示内容                
-7.1. 开标形式及地点
-开标形式：远程开标
-开标地点：惠招标电子招投标交易平台（https://www.hbidding.com/）。
-7.2其他注意事项
-（1）本项目采用惠招标电子招投标交易平台（以下简称“交易平台”），投标人投标时须将已下载的.HZB格式招标文件导入“交易平台”提供的投标文件制作工具（可在平台首页下载）进行投标文件的制作，制作完成后将加密的电子投标文件（htb格式）上传至“交易平台”投标系统。“交易平台”技术支持联系方式：400-780-9998。
-（2）投标文件解密时间规定为30分钟，因投标人原因造成投标文件未解密的，其后果由投标人自行承担。
-（3）投标人解密必须使用导出投标文件时使用的CA锁。
-（4）编制投标文件需使用河北CA，未办理河北CA的投标人，需进行企业CA办理。CA办理有一定周期，因未及时办理河北CA导致的问题，其后果由投标人自行承担。
-7.3提出异议的渠道和方式：（4）异议应当以异议书形式提交，提出异议应当符合下列规定：
-①异议书应当加盖单位公章，并注明有效的联系方式。异议处理对接人非单位法定代表人的，还应由该单位为对接人出具加盖单位公章且经法定代表人签字的授权委托书；
-②异议书应当包含异议人的名称、地址、电话、邮箱、日期等基本信息及异议事项的基本事实、有效线索、证明材料、相关请求及主张；
-③开标现场未提出相关异议或已经投标人确认的事项，开标后不得就同一事项提出异议；
-④已经做出明确答复，无新的事实证据的，不得就同一事项提出异议；
-⑤异议书有关材料是外文的，异议人应当同时提供简体中文译本。外文与简体中文译本不一致的，以简体中文译本为准。
-⑥不满足本条要求的不予受理。
-（5）异议人撤回异议的，须以书面形式提出。异议人撤回异议的，视为该异议无效，异议程序自然终止，异议人不得以同一理由再次提出异议。
-（6）被质疑人须配合招标人对异议事项进行核查。
-被质疑人无正当理由拒绝配合调查的，招标人有权取消被质疑人中标资格，并按照评标委员会提出的候选人排序依次确定其他候选人为中标人，也可以依法重新招标。         
-8. 提出异议渠道和方式                
-（1）投标人及其他利害关系人有在法定时限内行使异议或者投诉的权利。
-（2）异议应当通过“交易平台”提出，异议书格式及内容应符合相关文件的要求。
-（3）异议受理的联系方式：
-联系人：徐海伦
-联系电话：19333313721
-电子信箱：372473587@qq.com
-通讯地址：河北雄安新区容东华望城容德路55号丰华谷写字楼C2号楼501-2         
-9. 本招标项目的监督部门                
-监督部门名称：雄安国创中心科技有限公司                 
-电话：0312-6588055                
-电子邮箱：xankejiyuan@163.com                 
-10. 本招标项目是否属于依法必须招标项目                    
-否                       
-11. 本招标项目是否采用双盲评审                    
-是                       
-12.  招标人或者其委托的招标代理机构使用的第三方交易平台的付费主体及收费标准                
-标段名称付费主体收费金额(元)
-雄安新区人工智能公共研发平台项目设计服务投标人/供应商900
-13.联系方式 
-招标人：                                                    
-雄安国创中心科技有限公司                                    
-招标代理机构：                                                    国信国际工程咨询集团股份有限公司                                        
-地址：                                                    河北雄安新区启动区科创中心                                                    地址：                                                    北京市海淀区首体南路22号国兴大厦10层                                        
-邮编：                                                    
-/                                    
-邮编：                                                    /                                        
-联系人：                                                    
-刘经理                                    
-联系人：                                                    徐海伦、韩永晖、周佳慧                                        
-电话：                                                    
-0312-6588055                                    
-电话：                                                    19333313721、18631164641、19902010251                                        
-传真：                                                    
-/                                    
-传真：                                                    /                                        
-电子邮件：                                                    
-/                                    
-电子邮件：                                                    372473587@qq.com                                        
-网址：                                                    
-/                                    
-网址：                                                    /                                        
-开户银行：                                                    
-/                                    
-开户银行：                                                    /                                        
-账号：                                                    
-/                                    
-账号：                                                    /</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>相关附件：
+实景三维项目基础能力提升（数据生产）（包1）采购文件（2025090402）.pdf
+实景三维项目基础能力提升（数据生产）（包2）采购文件（2025090401）.pdf
+实景三维项目基础能力提升（数据生产）（包3）采购文件（2025090401）.pdf
+实景三维项目基础能力提升（数据生产）（包4）采购文件（2025090401）.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>中关村翠湖科技园A1地块人工智能创新应用先导区HD00-0302-6019地块项目(1#科研楼等5项)变配电工程合格申请人商务信息公示</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>北京市工程建设招标投标交易系统</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://ggzyfw.beijing.gov.cn/jyxxgcjszsgs/20250904/5251435.html</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>北京市公共资源交易服务平台</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>• 公告内容
+合格申请人商务信息公示
+工程编号
+FZZFA02500267
+建设单位名称
+北京翠湖智达创融科技有限责任公司
+工程名称
+中关村翠湖科技园A1地块人工智能创新应用先导区HD00-0302-6019地块项目(1#科研楼等5项)变配电工程
+建筑规模
+建设地点
+翠湖科技园 HD00-0302-6019 地块
+公示开始时间
+2025-09-04
+附件列表: 
+投标人商务信息（6019 变配电）.pdf
+资格预审评审专家信息公示表（评标专家信息公示表）.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
         <is>
           <t>[电子化][竞争性谈判]长春理工大学高质量发展-博士点-人工智能学院大模型智能实验室建设项目</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>吉林省公共资源交易平台</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
+      <c r="D302" t="inlineStr">
         <is>
           <t>http://www.ggzyzx.jl.gov.cn/jyxx/zfcg/zbgg/202509/t20250904_3495836.html</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>吉林省公共资源交易中心</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="F302" t="inlineStr">
         <is>
           <t>项目概况
 长春理工大学高质量发展-博士点-人工智能学院大模型智能实验室建设项目采购项目的潜在供应商应在吉林省公共资源交易一体化平台获取采购文件，并于2025年09月26日09点00分前提交响应文件。
@@ -25058,111 +26004,142 @@
         </is>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>南京银行南京分行2025-2026年RPA机器人许可采购项目</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>江苏招标JSTCC</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>https://www.jszbtb.com/#/bulletindetail/TenderBulletin/663636?release={"release":"2025-09-03 19:30:02"}</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>江苏省招标投标公共服务平台</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>江苏省招标中心有限公司（以下简称“招标代理机构”）受南京银行股份有限公司南京分行（以下简称“招标人”）的委托，代理组织南京银行南京分行2025年度RPA机器人许可采购项目（招标编号：JSTCC2500515557）的公开招标工作。
-一、项目简介
-为提升招标人服务企业客户整体水平，进一步加深与企业客户合作深度，夯实客户基础、提升客户粘性，构建分行数字化、智能化服务体系，招标人拟使用RPA服务平台通过机器人自动化作业帮助企业客户减少人工重复劳动、提高工作效率，进而降低运营成本。本次采购按169套按年订阅RPA 机器人进行模拟，实际费用根据实际采购数量进行结算。
-最高投标限价：人民币132万元（含税）。
-二、合格投标人的资质要求
-1、投标人须是在中华人民共和国合法注册的独立法人，具有订立并履行合同的民事行为能力，并能够独立承担民事责任（须提供加盖公章的营业执照复印件）。
-2、投标人须出具2024年经第三方审计的年度财务报表复印件（须至少提供加盖投标人公章的经审计的资产负债表、利润表（收益表或损益表）、现金流量表复印件，财务报表须能体现经第三方审计）或由其基本账户出具的近三个月内有效的银行资信证明原件（若银行开具的资信证明为电子版，则无须提供原件，但要在投标文件中提供说明函。具体格式见招标文件附件）。
-3、投标人自2022年1月1日以来（以合同签订时间为依据）须在国内银行业具有机器人流程自动化（RPA）实施案例（合同服务主体须为银行，合同名称或内容中须包含关键词“机器人流程自动化（RPA）”或“RPA”），须提供投标人与银行签订的合同复印件，合同复印件中必须至少包含清晰的双方印章、合同名称、签订时间、主要内容等合同信息，缺少任何一项视同无效。
-4、截至投标截止日，投标人未被“信用中国”网站（http://www.creditchina.gov.cn）列入失信被执行人、重大税收违法失信主体、政府采购严重违法失信行为记录名单。
-5、投标人应当具有能保证可持续经营的财务状况和较好的行业信誉；投标人并非处于无清偿能力、财产被接管、破产或结业状态，其事务目前并非由法院或司法人员进行管理，其业务活动并未中止，而且也未因上述任何原因而成为法律诉讼的主体。投标人在从事本行业的经营活动中，没有重大违法记录（重大违法记录指投标人因违法经营受到刑事处罚或者责令停产停业、吊销许可证或者执照、较大数额罚款等行政处罚。较大数额罚款认定为200万元以上的罚款），且投标人的董事或主要成员自2022年1月1日以来未被判犯有与其职业行为有关的及/或与假报或虚报资格骗取采购合同有关的任何刑事犯罪，也未曾由于行政部门勒令停业或吊销营业执照而被取消资格。
-6、投标人须在法律和财务上独立、合法运作并独立于招标人、招标人项目管理公司和招标代理机构，不得直接或间接地与招标人为本项目所委托的咨询公司或其附属机构有任何关联。
-7、投标人须从招标代理机构获得招标文件并登记备案，否则不能参加本次项目的投标。
-8、法定代表人为同一个人的两个及两个以上法人，母公司与全资子公司/由其控股的子公司，不得同时参与本项目。
-9、本项目不接受联合投标、投标人中标后不得分包与转包。
-三、招标文件的获取
-获取时间：从2025年9月3日起至2025年9月10日，每日上午9：00-11：00，下午14：00-17：00（北京时间，节假日除外）。
-获取方式：投标人须在https://www.jstcc.cn/平台注册并下载电子版招标文件（注册、登录入口为“JSTCC（新版）”，之前在“JTCC（旧版）”注册过的投标人，请从“JSTCC（新版）”入口登录，并完善用户信息后再关注下载本项目招标文件。技术支持电话：4000580203）。注册时的联系人须为负责本项目的联系人。本项目后续相关通知将通过https://www.jstcc.cn/平台直接发送给此联系人。投标人注册的联系人信息错误是其自身的风险，招标人及招标代理机构对此不承担责任。 
-平台服务费：500元，支付完成后，平台提供在线下载电子发票。
-四、投标文件的递交和开标
-递交投标文件截止时间和开标时间：北京时间2025年9月24日上午9：00整。逾期收到或不符合规定的投标文件恕不接受。
-递交投标文件地点：南京市鼓楼区郑和中路118号D座12楼1201室。
-开标地点：远程不见面开标会议室。
-招标代理机构：江苏省招标中心有限公司
-地址：南京市鼓楼区郑和中路118号12楼
-邮政编码：210011
-联系人：薛弘宇 徐悦 叶逢春
-联系电话：025-83240905  18001595837  13584060515
-电子邮件：yefc@jitc.cn  
-招标人：南京银行股份有限公司南京分行
-地址：南京市玄武区中山路288号南京银行南京分行
-联系人：王志鹏
-电话：025-88810537</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>[省本级]江西省鼎跃招标咨询有限公司关于景德镇陶瓷大学未来实验室建设（陶瓷六轴加工机器人）采购项目（采购编号：JXDY2025-HW-G0024-2）第三次电子化公开招标公告</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>福建省泉州第五中学AI人工智能数字实验室采购项目(二次)</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>泉州市公共资源交易中心</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://ggzyfw.fujian.gov.cn/business/detail?name=福建省泉州第五中学AI人工智能数字实验室采购项目(二次)&amp;cid=D01-12350500MB03536900-20250815-052646-8&amp;type=ZFCG</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>福建省公共资源交易电子公共服务平台</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>项目概况 
+受福建省泉州第五中学委托，泉州市新开源项目咨询有限公司对[350501]QZXKY[TP]2025002-1、福建省泉州第五中学AI人工智能数字实验室采购项目(二次)组织竞争性谈判，现欢迎国内合格的供应商前来参加。福建省泉州第五中学AI人工智能数字实验室采购项目(二次)的潜在供应商应在福建省政府采购网(zfcg.czt.fujian.gov.cn)免费申请账号在福建省政府采购网上公开信息系统按项目获取采购文件，并于2025年09月10日 09时00分00秒（北京时间）前递交响应文件。 
+一、项目基本情况 
+项目编号：[350501]QZXKY[TP]2025002-1 
+项目名称：福建省泉州第五中学AI人工智能数字实验室采购项目(二次) 
+采购方式：竞争性谈判 
+预算金额：1,850,000.00元 
+采购包1(福建省泉州第五中学AI人工智能数字实验室采购项目(二次)): 
+采购包预算金额：1,850,000.00元 
+采购包最高限价： 1,850,000.00元  
+谈判保证金： 0元  
+采购需求：（包括但不限于标的的名称、数量、简要技术需求或服务要求等） 
+品目号 品目编码及品目名称 采购标的 数量（单位） 允许进口 简要需求或要求 品目预算(元) 中小企业划分标准所属行业  
+1-1 A02019900-其他信息化设备 AI人工智能数字实验室 1(批) 否 AI基础教学机器人: AI绘画机器人: 通用具身智能平台: 理论基础: 行为克隆（模仿学习）。 实现方式: 通过高精度动作捕捉和数据融合，让人类示范操作，机器人学习并掌握从简单抓取到复杂的精细任务。 目标: 降低具身智能研发门槛，推动技术从实验室走向实际应用。 具体按合同要求进行。   1,850,000.00    工业   
+本采购包不接受联合体投标  
+合同履行期限：自合同签订之日起30天内完成设备到货、安装部署、调试上线运行等工作。 
+二、申请人的资格要求：  
+1.满足《中华人民共和国政府采购法》第二十二条规定; 
+2.落实政府采购政策需满足的资格要求： 
+采购包1： 
+本采购包为专门面向中小企业采购，供应商须提供中小企业声明函。监狱企业、残疾人福利性单位视同小型、微型企业。？  
+3.本项目的特定资格要求：
+采购包1： 
+(1)①本采购包允许供应商采用资格承诺制。采用资格承诺制的供应商，应当根据投标(响应)格式文件要求提供资格承诺函，无需提供《政府采购法实施条例》第十七条第一款规定的一般资格条件证明材料；资格承诺函不符合采购文件要求的，视为未按照采购文件规定提交供应商的资格及资信文件，按资格审查不合格处理。②采购项目有特殊资格要求的，供应商还应按要求提供相应的证明材料。。  
+三、采购项目需要落实的政府采购政策 
+进口产品：不适用于采购包1 
+节能产品：不适用于采购包1 
+环境标志产品：不适用于采购包1  
+四、获取采购文件 
+时间： 2025-09-04  至 2025-09-09 ，（提供期限自本公告发布之日起不得少于3个工作日），每天上午00:00:00至12:00:00，下午12:00:00至23:59:59（北京时间，法定节假日除外） 
+地点：采购文件随同本项目招标公告一并发布，供应商应通过福建省政府采购网上公开信息系统的注册账号（免费注册）并获取竞争性谈判文件(登陆福建省政府采购网上公开信息系统进行文件获取)，否则报价响应将被拒绝。 
+方式：在线获取 
+售价：免费 
+五、提交投标文件截止时间、开标时间和地点 
+截止时间：2025-09-10 09:00:00（北京时间）（从谈判文件开始发出之日起至供应商提交首次响应文件截止之日止不得少于3个工作日） 
+地点：福建省泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825泉州市新开源项目咨询有限公司 
+六、开启 
+时间：2025-09-10 09:00:00（北京时间） 
+地点：福建省泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825泉州市新开源项目咨询有限公司 
+七、公告期限 
+自本公告发布之日起3个工作日。 
+八、其他补充事宜  
+无
+九、对本次招标提出询问，请按以下方式联系。  1.采购人信息 
+名称：福建省泉州第五中学 
+地址：泉州鲤城区桂坛巷49号 
+联系方式：0595-29881913 
+2.采购代理机构信息（如有） 
+名称：泉州市新开源项目咨询有限公司 
+地址：泉州市丰泽区东湖街凤山南段金贸大厦A栋823、825。 
+联系方式：0595-22000151 
+3.项目联系方式  
+项目联系人：黄宗铭 
+电话：0595-22000151 
+网址： zfcg.czt.fujian.gov.cn 
+开户名：泉州市新开源项目咨询有限公司 
+泉州市新开源项目咨询有限公司 
+2025年09月04日
+相关附件： 
+福建省泉州第五中学AI人工智能数字实验室采购项目(二次)（[350501]QZXKY[TP]2025002-120250903001）-文件集.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>[省本级]江西省鼎跃招标咨询有限公司关于井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目（采购编号：JXDY2025-HW-G0054）电子化公开招标公告</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
         <is>
           <t>江西省公共资源电子交易平台</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>https://www.jxsggzy.cn//jyxx/002006/002006001/20250903/12e3455c-161f-42c5-8ff5-a8849a13e35d.html</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://www.jxsggzy.cn//jyxx/002006/002006001/20250904/4bdaba17-0ea0-4cb3-b6b4-389eb0b0eb49.html</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
         <is>
           <t>江西省公共资源交易网</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>江西省鼎跃招标咨询有限公司关于景德镇陶瓷大学未来实验室建设（陶瓷六轴加工机器人）采购项目（采购编号：JXDY2025-HW-G0024-2）第三次电子化公开招标公告
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>江西省鼎跃招标咨询有限公司关于井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目（采购编号：JXDY2025-HW-G0054）电子化公开招标公告
 项目概况
-景德镇陶瓷大学未来实验室建设（陶瓷六轴加工机器人）采购项目 招标项目的潜在投标人应在 江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn） 获取招标文件，并于
-2025年09月24日  14点30分 （北京时间）前递交投标文件。
+井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目 招标项目的潜在投标人应在 江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn） 获取招标文件，并于
+2025年09月26日  10点00分 （北京时间）前递交投标文件。
 一、项目基本情况：
-项目编号：JXDY2025-HW-G0024-2
-项目名称：景德镇陶瓷大学未来实验室建设（陶瓷六轴加工机器人）采购项目
+项目编号：JXDY2025-HW-G0054
+项目名称：井冈山大学机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）项目
 采购方式：公开招标
-预算金额：1220000.00 元
-最高限价：1220000.00 元
+预算金额：738000.00 元
+最高限价：  元
 采购需求：
 采购条目编号采购条目名称数量单位采购预算（人民币）技术需求或服务要求
-赣购2025F00002639220250507——未来实验室陶瓷六轴加工机器人1套1220000.00元详见公告附件
-合同履行期限：自合同签订之日起60个日历天内完成运输、安装、调试、培训，达到验收标准。
+赣购2025F000069126机械设计制造及其自动化专业实训分室建设项目2（小型智能辣椒采收机器人）1项738000.00元详见公告附件
+合同履行期限：1、中标人在合同签订后2天内（日历日）到采购人辣椒种植基地根据辣椒品种确定采摘机器人的设计方案。
+2、合同签订生效之日起75天内（日历日）交货并安装、调试完毕。
+3、中标人应保证在要求时间内完成全部标的物的供货、安装、调试和培训工作,符合国家标准、行业规范和合同等相关文件的要求。
+4、本项目为交钥匙工程，项目实施过程中产生的所有费用由中标人承担，项目实施过程的安全由中标人负责。
 本项目不接受联合体投标。
 二、申请人的资格要求
 1.满足《中华人民共和国政府采购法》第二十二条规定：
@@ -25178,13 +26155,13 @@
 本项目不专门面向中小企业采购。
 5.本项目的特定资格要求：无。
 三、获取招标文件：
-时间：2025年09月04日  00:00 至 2025年09月11日  23:30（提供期限自本公告发布之日起不得少于5个工作日）
+时间：2025年09月05日  00:00 至 2025年09月12日  23:30（提供期限自本公告发布之日起不得少于5个工作日）
 地点：江西省公共资源交易平台（网址：https://ggzy.jiangxi.gov.cn）
 方式：网上确认和下载招标文件。（详见其他补充事宜）
 售价：0.0元
 四、提交投标文件截止时间、开标时间和地点：
-2025年09月24日  14点30分 （北京时间）（自招标文件开始发出之日起至投标人提交投标文件截止之日止，不得少于20日）
-地点：江西省公共资源交易中心(江西省南昌市青山湖区高新区紫阳大道3088号泰豪科技广场）2楼11号开标厅
+2025年09月26日  10点00分 （北京时间）（自招标文件开始发出之日起至投标人提交投标文件截止之日止，不得少于20日）
+地点：江西省公共资源交易中心(江西省南昌市青山湖区高新区紫阳大道3088号泰豪科技广场）2楼11号开标室。
 五、公告期限：
 自本公告发布之日起5个工作日。
 六、其他补充事宜：
@@ -25194,119 +26171,49 @@
 4.本项目是否采用远程异地评标：否。
 七、对本次招标提出询问，请按以下方式联系：
 1.采购人信息
-名称：景德镇陶瓷大学
-地址：江西省景德镇市浮梁县湘湖镇景德镇陶瓷大学（湘湖校区）
-联系方式：0798-8499656
+名称：井冈山大学
+地址：江西省吉安市青原区学苑路28号
+联系方式：0796-8116802
 2.采购代理机构信息
 名称：江西省鼎跃招标咨询有限公司
 地址：江西省南昌市红谷滩区嘉言路668号用友产业园二期1号科研楼BC区4楼
-联系方式：0791-87915286
+联系方式：0791-87915292
 3.项目联系方式
-项目联系人：伍谢俊、刘霞、闫婧、胡悦
-电话：0791-87915286
+项目联系人：包泽宁、刘霞、伍谢俊、陈鸿
+电话：0791-87915292
 查看操作说明
 交易主体登录
 金融服务</t>
         </is>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>智慧城市综合管理服务中心项目(一期）招标公告</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>中国电信安徽公司2025年高通量卫星站采购项目招标公告</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
         <is>
           <t>无数据</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>http://ggzyjy.shandong.gov.cn:80/jsgczbgg/58BKoJLcVG05YDY^MgXgvg.jhtml</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>山东省公共资源交易网</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>智慧城市综合管理服务中心项目(一期）招标公告 
-本招标项目智慧城市综合管理服务中心项目(一期），项目已具备招标条件，现对智慧城市综合管理服务中心项目(一期）进行公开招标，有关事项公告如下： 
-一、项目概况与招标范围 
-1、项目编号：BZWDGC-2025-048 
-2、项目名称：智慧城市综合管理服务中心项目(一期） 
-3、建设地点：无棣县丰达建设工程集团有限公司办公楼一楼西大厅和无棣县住房和城乡建设局一楼西大厅 
-4、招标内容：智慧城市综合管理服务中心项目(一期），8项建设内容：①公共服务基础支撑建设；②基础设施升级；③公共服务运营中心建设；④城市运行一网统揽建设开发软件；⑤城市运行一网统揽建设成品软件；⑥公共服务智能公文建设；⑦公共服务视频共享建设开发软件；⑧公共服务视频共享建设成品软件。 
-5、计划投资：3661.7万元。 
-6、资金来源：债券资金 
-7、建设工期：12个月 
-8、标段划分：本项目一个标段。 
-9、所采购设备的名称、数量、技术规格、交货地点、交货期：详见招标文件 
-二、投标人资格要求 
-1、本次招标要求投标人须在国内登记注册，具有独立法人资格，财务状况良好，并在人员、设备、资金等方面具有相应的供货能力且能完成本项目的全部要求。 
-2、本次招标不接受联合体投标。 
-3、本项目实行资格后审。 
-三、招标文件的获取 
-拟投标企业请于2025年09月03日上午08：30时至2025年09月10日下午18：00时登陆滨州市公共资源交易平台免费下载招标文件（文件格式为.bzzf）、图纸等资料，逾期无法下载且无法参与投标，并在投标截止时间前及时关注滨州市公共资源交易中心平台答疑文件下载栏目。 
-电子投标文件制作工具及视频教程请参考滨州市公共资源交易系统登录界面“平台帮助”栏目和滨州市公共资源交易中心网站“办事指南”栏目。 
-未进入滨州市公共资源交易平台的企业登陆滨州市公共资源交易中心网站（http://jypt.bzggzyjy.cn/bzweb/）点击“公共资源交易服务大厅---企业入口”，填写企业相关信息并上传有关资料的原件扫描件，待网上注册后即可下载招标文件。 
-本工程 不 组织现场勘查和投标预备会。 
-四、投标文件的递交 
-1、投标文件递交的截止时间（投标截止时间，下同）为2025年09月25日09：00时。 
-2、投标文件递交方式：将电子投标文件传送到滨州市公共资源交易平台投标文件上传栏目。 
-3、逾期送达的投标文件，招标人不予受理。 
-五、发布媒体： 
-1、《中国滨州》（http://www.binzhou.gov.cn） 
-2、《滨州市公共资源交易中心》（http://jypt.bzggzyjy.cn/bzweb/） 
-3、《山东省公共资源交易网》（http://ggzyjy.shandong.gov.cn/） 
-4、《中国招标投标公共服务平台》（http://www.cebpubservice.com） 
-六、联系方式 
-招标人：无棣县丰达建设工程集团有限公司  
-地  址：滨州市无棣县棣丰街道棣新四路588号 
-联系人及电话：王主任  0543-6789001（同时为接受异议的联系人及联系电话） 
-招标代理机构：滨州齐辰项目管理有限公司 
-地   址：无棣县新区温州步行街D6号楼 
-联系人及电话： 冯工 13792283389  
-公告备案单位：无棣县大数据中心 
-2025 年 09月03日</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>中国电信安徽公司2025年高通量卫星站采购项目招标公告</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>无数据</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
+      <c r="D305" t="inlineStr">
         <is>
           <t>https://caigou.chinatelecom.com.cn/DeclareDetails?id=151284883874574&amp;type=1&amp;docTypeCode=TenderAnnouncement&amp;securityViewCode=330406161f9b631fbdf826d34cb39870</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>中国电信阳光采购网</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
+      <c r="F305" t="inlineStr">
         <is>
           <t>招标公告
 本招标项目为中国电信安徽公司2025年高通量卫星站采购项目，（招标编号：AHDX250436），招标人为中国电信股份有限公司安徽分公司，招标代理机构为安徽电信规划设计有限责任公司。项目资金由招标人自筹，资金已落实。项目已具备招标条件，现进行公开招标，特邀请有意向的且具有提供标的物能力的潜在投标人（以下简称投标人）参加投标。
@@ -25400,33 +26307,33 @@
         </is>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="306">
+      <c r="A306" t="inlineStr">
         <is>
           <t>理想智慧城市信息化项目招标公告</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>2025-08-11</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>无数据</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
+      <c r="D306" t="inlineStr">
         <is>
           <t>https://caigou.chinatelecom.com.cn/DeclareDetails?id=1185554174449&amp;type=1&amp;docTypeCode=TenderAnnouncement&amp;securityViewCode=17076653a46d01066ac83d7f3bb90465</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>中国电信阳光采购网</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
+      <c r="F306" t="inlineStr">
         <is>
           <t>理想智慧城市信息化项目招标公告
 本招标项目为理想智慧城市信息化项目，招标编号：（CTZB0090-2025-3449），招标人为上海理想信息产业（集团）有限公司，招标代理机构为上海信产管理咨询有限公司。项目资金由招标人自筹，资金已落实。项目已具备招标条件，现进行公开招标，特邀请有意向且具有提供服务能力的潜在投标人（以下简称投标人）可前来投标。
